--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="380">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,18 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['32', '60']</t>
+  </si>
+  <si>
+    <t>['25', '43', '45+1', '52', '67']</t>
+  </si>
+  <si>
+    <t>['45+2', '60', '76']</t>
+  </si>
+  <si>
+    <t>['18', '57']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -1133,6 +1145,15 @@
   </si>
   <si>
     <t>['29', '76']</t>
+  </si>
+  <si>
+    <t>['17', '28']</t>
+  </si>
+  <si>
+    <t>['22', '27']</t>
+  </si>
+  <si>
+    <t>['38', '44', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1831,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -2246,7 +2267,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2371,7 +2392,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -2655,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -2864,7 +2885,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3070,7 +3091,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ8">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3276,7 +3297,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3401,7 +3422,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3479,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ10">
         <v>2.19</v>
@@ -3607,7 +3628,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3813,7 +3834,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3894,7 +3915,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ12">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4225,7 +4246,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4303,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ14">
         <v>1.19</v>
@@ -4431,7 +4452,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4637,7 +4658,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -4715,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5049,7 +5070,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5255,7 +5276,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5336,7 +5357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -5667,7 +5688,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5748,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR21">
         <v>2.17</v>
@@ -5954,7 +5975,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.47</v>
@@ -6157,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ23">
         <v>0.8100000000000001</v>
@@ -6363,10 +6384,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6491,7 +6512,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6569,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ25">
         <v>1.06</v>
@@ -6775,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
         <v>1.19</v>
@@ -6903,7 +6924,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7396,7 +7417,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ29">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR29">
         <v>1.77</v>
@@ -7727,7 +7748,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -8014,7 +8035,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8217,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -8551,7 +8572,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8757,7 +8778,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8838,7 +8859,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>0.88</v>
@@ -9041,10 +9062,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ37">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR37">
         <v>1.63</v>
@@ -9169,7 +9190,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9247,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>1.31</v>
@@ -9456,7 +9477,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR39">
         <v>1.87</v>
@@ -9581,7 +9602,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -9659,10 +9680,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR40">
         <v>2.8</v>
@@ -9993,7 +10014,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10074,7 +10095,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR42">
         <v>1.47</v>
@@ -10611,7 +10632,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -11023,7 +11044,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11101,7 +11122,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ47">
         <v>2.06</v>
@@ -11229,7 +11250,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11435,7 +11456,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11641,7 +11662,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11722,7 +11743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -11847,7 +11868,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11928,7 +11949,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -12131,10 +12152,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.47</v>
@@ -12337,10 +12358,10 @@
         <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12465,7 +12486,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12543,7 +12564,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ54">
         <v>1.31</v>
@@ -12749,7 +12770,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12877,7 +12898,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12955,10 +12976,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ56">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR56">
         <v>2.67</v>
@@ -13161,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13573,10 +13594,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR59">
         <v>1.33</v>
@@ -13701,7 +13722,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -14113,7 +14134,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14194,7 +14215,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR62">
         <v>1.51</v>
@@ -14319,7 +14340,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14525,7 +14546,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14603,7 +14624,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ64">
         <v>1.19</v>
@@ -15224,7 +15245,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15349,7 +15370,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15555,7 +15576,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -16045,10 +16066,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16173,7 +16194,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16251,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ72">
         <v>1.31</v>
@@ -16457,10 +16478,10 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ73">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.5</v>
@@ -16585,7 +16606,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -16666,7 +16687,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR74">
         <v>1.13</v>
@@ -16869,10 +16890,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>2.74</v>
@@ -16997,7 +17018,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17075,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ76">
         <v>2.31</v>
@@ -17284,7 +17305,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17409,7 +17430,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17693,7 +17714,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ79">
         <v>1.19</v>
@@ -17821,7 +17842,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18027,7 +18048,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18105,7 +18126,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>2.06</v>
@@ -18233,7 +18254,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18314,7 +18335,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR82">
         <v>2.36</v>
@@ -18439,7 +18460,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18726,7 +18747,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18851,7 +18872,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19057,7 +19078,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19263,7 +19284,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19341,7 +19362,7 @@
         <v>2.67</v>
       </c>
       <c r="AP87">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ87">
         <v>2.06</v>
@@ -19469,7 +19490,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19756,7 +19777,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ89">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -19881,7 +19902,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19959,7 +19980,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ90">
         <v>2.31</v>
@@ -20087,7 +20108,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20165,7 +20186,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -20371,10 +20392,10 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ92">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR92">
         <v>1.54</v>
@@ -20499,7 +20520,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -20580,7 +20601,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.72</v>
@@ -20783,10 +20804,10 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ94">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR94">
         <v>2.64</v>
@@ -21323,7 +21344,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21404,7 +21425,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR97">
         <v>2.46</v>
@@ -21529,7 +21550,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21610,7 +21631,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21735,7 +21756,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -21941,7 +21962,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22147,7 +22168,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22225,7 +22246,7 @@
         <v>2.71</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ101">
         <v>2.06</v>
@@ -22353,7 +22374,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22431,7 +22452,7 @@
         <v>0.86</v>
       </c>
       <c r="AP102">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22559,7 +22580,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22846,7 +22867,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR104">
         <v>1.04</v>
@@ -23049,7 +23070,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ105">
         <v>0.9399999999999999</v>
@@ -23255,10 +23276,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ106">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR106">
         <v>1.57</v>
@@ -23383,7 +23404,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23589,7 +23610,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -23873,10 +23894,10 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.23</v>
@@ -24285,7 +24306,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ111">
         <v>1.19</v>
@@ -24413,7 +24434,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24494,7 +24515,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ112">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
         <v>2.06</v>
@@ -24825,7 +24846,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24903,7 +24924,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25031,7 +25052,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25112,7 +25133,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR115">
         <v>1.35</v>
@@ -25237,7 +25258,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25443,7 +25464,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25521,7 +25542,7 @@
         <v>2.14</v>
       </c>
       <c r="AP117">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ117">
         <v>2.19</v>
@@ -25649,7 +25670,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25727,7 +25748,7 @@
         <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ118">
         <v>0.9399999999999999</v>
@@ -25855,7 +25876,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25933,7 +25954,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ119">
         <v>1.19</v>
@@ -26348,7 +26369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26551,10 +26572,10 @@
         <v>0.63</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ122">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26757,10 +26778,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR123">
         <v>1.19</v>
@@ -26966,7 +26987,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -27169,10 +27190,10 @@
         <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR125">
         <v>2.21</v>
@@ -27709,7 +27730,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>8.5</v>
@@ -28199,7 +28220,7 @@
         <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ130">
         <v>2.19</v>
@@ -28327,7 +28348,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28408,7 +28429,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ131">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR131">
         <v>2.44</v>
@@ -28739,7 +28760,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28820,7 +28841,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR133">
         <v>1.32</v>
@@ -28945,7 +28966,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29229,7 +29250,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ135">
         <v>0.9399999999999999</v>
@@ -29357,7 +29378,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29435,7 +29456,7 @@
         <v>2.75</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ136">
         <v>2.06</v>
@@ -29847,10 +29868,10 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ138">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR138">
         <v>1.57</v>
@@ -29975,7 +29996,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30056,7 +30077,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR139">
         <v>1.52</v>
@@ -30259,10 +30280,10 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ140">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR140">
         <v>1.71</v>
@@ -30387,7 +30408,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30593,7 +30614,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30671,7 +30692,7 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142">
         <v>2.31</v>
@@ -30799,7 +30820,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -30877,7 +30898,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ143">
         <v>1.38</v>
@@ -31086,7 +31107,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR144">
         <v>1.98</v>
@@ -31211,7 +31232,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31495,10 +31516,10 @@
         <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ146">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -31701,7 +31722,7 @@
         <v>2.33</v>
       </c>
       <c r="AP147">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ147">
         <v>2.31</v>
@@ -31907,7 +31928,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ148">
         <v>1.06</v>
@@ -32113,10 +32134,10 @@
         <v>0.78</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR149">
         <v>1.63</v>
@@ -32241,7 +32262,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32322,7 +32343,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR150">
         <v>1.54</v>
@@ -32528,7 +32549,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR151">
         <v>1.48</v>
@@ -32653,7 +32674,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -33065,7 +33086,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33271,7 +33292,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33683,7 +33704,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -33764,7 +33785,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR157">
         <v>1.68</v>
@@ -33970,7 +33991,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ158">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR158">
         <v>2.51</v>
@@ -34095,7 +34116,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34173,7 +34194,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ159">
         <v>0.8100000000000001</v>
@@ -34301,7 +34322,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34379,7 +34400,7 @@
         <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ160">
         <v>2.19</v>
@@ -34507,7 +34528,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34713,7 +34734,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -34791,7 +34812,7 @@
         <v>2.1</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ162">
         <v>2.31</v>
@@ -34919,7 +34940,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -34997,7 +35018,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -35206,7 +35227,7 @@
         <v>2</v>
       </c>
       <c r="AQ164">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35331,7 +35352,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35409,10 +35430,10 @@
         <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ165">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR165">
         <v>1.38</v>
@@ -35615,10 +35636,10 @@
         <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -35824,7 +35845,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ167">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR167">
         <v>1.91</v>
@@ -36027,10 +36048,10 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ168">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR168">
         <v>1.67</v>
@@ -36155,7 +36176,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36361,7 +36382,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36439,7 +36460,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ170">
         <v>0.8100000000000001</v>
@@ -36567,7 +36588,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -36979,7 +37000,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37185,7 +37206,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37391,7 +37412,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37884,7 +37905,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ177">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR177">
         <v>1.2</v>
@@ -38087,7 +38108,7 @@
         <v>0.91</v>
       </c>
       <c r="AP178">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38215,7 +38236,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38421,7 +38442,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38502,7 +38523,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR180">
         <v>1.46</v>
@@ -38627,7 +38648,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38911,10 +38932,10 @@
         <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ182">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR182">
         <v>2.09</v>
@@ -39039,7 +39060,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39117,10 +39138,10 @@
         <v>0.36</v>
       </c>
       <c r="AP183">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ183">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR183">
         <v>1.6</v>
@@ -39323,10 +39344,10 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ184">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR184">
         <v>1.45</v>
@@ -39451,7 +39472,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -39735,10 +39756,10 @@
         <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ186">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR186">
         <v>1.38</v>
@@ -40069,7 +40090,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40147,7 +40168,7 @@
         <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ188">
         <v>0.9399999999999999</v>
@@ -40768,7 +40789,7 @@
         <v>2</v>
       </c>
       <c r="AQ191">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR191">
         <v>1.72</v>
@@ -40893,7 +40914,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -41099,7 +41120,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41386,7 +41407,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ194">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR194">
         <v>1.87</v>
@@ -41511,7 +41532,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41589,10 +41610,10 @@
         <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ195">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR195">
         <v>1.55</v>
@@ -41717,7 +41738,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -42004,7 +42025,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR197">
         <v>1.44</v>
@@ -42129,7 +42150,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42207,10 +42228,10 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ198">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42413,10 +42434,10 @@
         <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ199">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR199">
         <v>1.4</v>
@@ -42619,7 +42640,7 @@
         <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ200">
         <v>1.31</v>
@@ -42747,7 +42768,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -42825,7 +42846,7 @@
         <v>2.25</v>
       </c>
       <c r="AP201">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ201">
         <v>2.31</v>
@@ -43159,7 +43180,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43365,7 +43386,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -43443,7 +43464,7 @@
         <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ204">
         <v>2.19</v>
@@ -44270,7 +44291,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ208">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR208">
         <v>1.58</v>
@@ -44807,7 +44828,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -44888,7 +44909,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ211">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR211">
         <v>1.32</v>
@@ -45091,10 +45112,10 @@
         <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ212">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR212">
         <v>1.38</v>
@@ -45300,7 +45321,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ213">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR213">
         <v>1.85</v>
@@ -45503,7 +45524,7 @@
         <v>1.54</v>
       </c>
       <c r="AP214">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ214">
         <v>1.31</v>
@@ -45709,10 +45730,10 @@
         <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ215">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR215">
         <v>1.58</v>
@@ -45837,7 +45858,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -46121,7 +46142,7 @@
         <v>1.23</v>
       </c>
       <c r="AP217">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46249,7 +46270,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46327,7 +46348,7 @@
         <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ218">
         <v>2.19</v>
@@ -46661,7 +46682,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46742,7 +46763,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ220">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR220">
         <v>1.61</v>
@@ -47073,7 +47094,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47279,7 +47300,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47357,7 +47378,7 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ223">
         <v>0.8100000000000001</v>
@@ -47772,7 +47793,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ225">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
@@ -47897,7 +47918,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -47978,7 +47999,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ226">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR226">
         <v>1.6</v>
@@ -48309,7 +48330,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48387,7 +48408,7 @@
         <v>1.14</v>
       </c>
       <c r="AP228">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ228">
         <v>1.06</v>
@@ -48515,7 +48536,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -48799,10 +48820,10 @@
         <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ230">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR230">
         <v>1.55</v>
@@ -49005,7 +49026,7 @@
         <v>0.86</v>
       </c>
       <c r="AP231">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49133,7 +49154,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49211,7 +49232,7 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ232">
         <v>1.31</v>
@@ -49420,7 +49441,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ233">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR233">
         <v>1.38</v>
@@ -49545,7 +49566,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49751,7 +49772,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -49832,7 +49853,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ235">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR235">
         <v>1.29</v>
@@ -50038,7 +50059,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ236">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR236">
         <v>2.46</v>
@@ -50163,7 +50184,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50369,7 +50390,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50447,7 +50468,7 @@
         <v>0.79</v>
       </c>
       <c r="AP238">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ238">
         <v>0.8100000000000001</v>
@@ -50575,7 +50596,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50859,10 +50880,10 @@
         <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ240">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR240">
         <v>1.21</v>
@@ -50987,7 +51008,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51193,7 +51214,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51271,7 +51292,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ242">
         <v>1.19</v>
@@ -51399,7 +51420,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51480,7 +51501,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ243">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR243">
         <v>1.79</v>
@@ -51605,7 +51626,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -51889,10 +51910,10 @@
         <v>0.53</v>
       </c>
       <c r="AP245">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ245">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR245">
         <v>1.22</v>
@@ -52095,10 +52116,10 @@
         <v>0.47</v>
       </c>
       <c r="AP246">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ246">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR246">
         <v>1.55</v>
@@ -52301,10 +52322,10 @@
         <v>0.67</v>
       </c>
       <c r="AP247">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ247">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AR247">
         <v>1.56</v>
@@ -52507,10 +52528,10 @@
         <v>0.6</v>
       </c>
       <c r="AP248">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ248">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR248">
         <v>1.49</v>
@@ -53128,7 +53149,7 @@
         <v>2</v>
       </c>
       <c r="AQ251">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR251">
         <v>1.61</v>
@@ -53253,7 +53274,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53459,7 +53480,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54077,7 +54098,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54283,7 +54304,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54361,7 +54382,7 @@
         <v>2.13</v>
       </c>
       <c r="AP257">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ257">
         <v>2.19</v>
@@ -54440,6 +54461,1242 @@
       </c>
       <c r="BP257">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7415238</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45413.45833333334</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>78</v>
+      </c>
+      <c r="H258" t="s">
+        <v>72</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>255</v>
+      </c>
+      <c r="P258" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q258">
+        <v>2.46</v>
+      </c>
+      <c r="R258">
+        <v>2.17</v>
+      </c>
+      <c r="S258">
+        <v>4.66</v>
+      </c>
+      <c r="T258">
+        <v>1.38</v>
+      </c>
+      <c r="U258">
+        <v>2.86</v>
+      </c>
+      <c r="V258">
+        <v>2.8</v>
+      </c>
+      <c r="W258">
+        <v>1.39</v>
+      </c>
+      <c r="X258">
+        <v>6.89</v>
+      </c>
+      <c r="Y258">
+        <v>1.07</v>
+      </c>
+      <c r="Z258">
+        <v>1.91</v>
+      </c>
+      <c r="AA258">
+        <v>3.3</v>
+      </c>
+      <c r="AB258">
+        <v>3.75</v>
+      </c>
+      <c r="AC258">
+        <v>1.03</v>
+      </c>
+      <c r="AD258">
+        <v>10.5</v>
+      </c>
+      <c r="AE258">
+        <v>1.3</v>
+      </c>
+      <c r="AF258">
+        <v>3.2</v>
+      </c>
+      <c r="AG258">
+        <v>1.95</v>
+      </c>
+      <c r="AH258">
+        <v>1.75</v>
+      </c>
+      <c r="AI258">
+        <v>1.8</v>
+      </c>
+      <c r="AJ258">
+        <v>1.96</v>
+      </c>
+      <c r="AK258">
+        <v>1.01</v>
+      </c>
+      <c r="AL258">
+        <v>1.01</v>
+      </c>
+      <c r="AM258">
+        <v>1.09</v>
+      </c>
+      <c r="AN258">
+        <v>1.5</v>
+      </c>
+      <c r="AO258">
+        <v>0.63</v>
+      </c>
+      <c r="AP258">
+        <v>1.59</v>
+      </c>
+      <c r="AQ258">
+        <v>0.59</v>
+      </c>
+      <c r="AR258">
+        <v>1.59</v>
+      </c>
+      <c r="AS258">
+        <v>1.2</v>
+      </c>
+      <c r="AT258">
+        <v>2.79</v>
+      </c>
+      <c r="AU258">
+        <v>5</v>
+      </c>
+      <c r="AV258">
+        <v>4</v>
+      </c>
+      <c r="AW258">
+        <v>6</v>
+      </c>
+      <c r="AX258">
+        <v>4</v>
+      </c>
+      <c r="AY258">
+        <v>11</v>
+      </c>
+      <c r="AZ258">
+        <v>8</v>
+      </c>
+      <c r="BA258">
+        <v>4</v>
+      </c>
+      <c r="BB258">
+        <v>1</v>
+      </c>
+      <c r="BC258">
+        <v>5</v>
+      </c>
+      <c r="BD258">
+        <v>1.59</v>
+      </c>
+      <c r="BE258">
+        <v>8.65</v>
+      </c>
+      <c r="BF258">
+        <v>2.97</v>
+      </c>
+      <c r="BG258">
+        <v>1.25</v>
+      </c>
+      <c r="BH258">
+        <v>3.52</v>
+      </c>
+      <c r="BI258">
+        <v>1.48</v>
+      </c>
+      <c r="BJ258">
+        <v>2.47</v>
+      </c>
+      <c r="BK258">
+        <v>1.85</v>
+      </c>
+      <c r="BL258">
+        <v>1.85</v>
+      </c>
+      <c r="BM258">
+        <v>2.37</v>
+      </c>
+      <c r="BN258">
+        <v>1.51</v>
+      </c>
+      <c r="BO258">
+        <v>3.2</v>
+      </c>
+      <c r="BP258">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7415236</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45413.45833333334</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>83</v>
+      </c>
+      <c r="H259" t="s">
+        <v>84</v>
+      </c>
+      <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259">
+        <v>2</v>
+      </c>
+      <c r="K259">
+        <v>5</v>
+      </c>
+      <c r="L259">
+        <v>5</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259" t="s">
+        <v>256</v>
+      </c>
+      <c r="P259" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q259">
+        <v>2.15</v>
+      </c>
+      <c r="R259">
+        <v>2.15</v>
+      </c>
+      <c r="S259">
+        <v>5.25</v>
+      </c>
+      <c r="T259">
+        <v>1.4</v>
+      </c>
+      <c r="U259">
+        <v>2.75</v>
+      </c>
+      <c r="V259">
+        <v>2.8</v>
+      </c>
+      <c r="W259">
+        <v>1.38</v>
+      </c>
+      <c r="X259">
+        <v>6.89</v>
+      </c>
+      <c r="Y259">
+        <v>1.07</v>
+      </c>
+      <c r="Z259">
+        <v>1.57</v>
+      </c>
+      <c r="AA259">
+        <v>3.9</v>
+      </c>
+      <c r="AB259">
+        <v>5.5</v>
+      </c>
+      <c r="AC259">
+        <v>1.03</v>
+      </c>
+      <c r="AD259">
+        <v>11</v>
+      </c>
+      <c r="AE259">
+        <v>1.3</v>
+      </c>
+      <c r="AF259">
+        <v>3.25</v>
+      </c>
+      <c r="AG259">
+        <v>1.85</v>
+      </c>
+      <c r="AH259">
+        <v>1.85</v>
+      </c>
+      <c r="AI259">
+        <v>1.9</v>
+      </c>
+      <c r="AJ259">
+        <v>1.75</v>
+      </c>
+      <c r="AK259">
+        <v>1.01</v>
+      </c>
+      <c r="AL259">
+        <v>1.01</v>
+      </c>
+      <c r="AM259">
+        <v>1.01</v>
+      </c>
+      <c r="AN259">
+        <v>1.06</v>
+      </c>
+      <c r="AO259">
+        <v>0.63</v>
+      </c>
+      <c r="AP259">
+        <v>1.18</v>
+      </c>
+      <c r="AQ259">
+        <v>0.59</v>
+      </c>
+      <c r="AR259">
+        <v>1.5</v>
+      </c>
+      <c r="AS259">
+        <v>0.89</v>
+      </c>
+      <c r="AT259">
+        <v>2.39</v>
+      </c>
+      <c r="AU259">
+        <v>10</v>
+      </c>
+      <c r="AV259">
+        <v>4</v>
+      </c>
+      <c r="AW259">
+        <v>7</v>
+      </c>
+      <c r="AX259">
+        <v>6</v>
+      </c>
+      <c r="AY259">
+        <v>17</v>
+      </c>
+      <c r="AZ259">
+        <v>10</v>
+      </c>
+      <c r="BA259">
+        <v>7</v>
+      </c>
+      <c r="BB259">
+        <v>1</v>
+      </c>
+      <c r="BC259">
+        <v>8</v>
+      </c>
+      <c r="BD259">
+        <v>1.22</v>
+      </c>
+      <c r="BE259">
+        <v>10.1</v>
+      </c>
+      <c r="BF259">
+        <v>5.76</v>
+      </c>
+      <c r="BG259">
+        <v>1.38</v>
+      </c>
+      <c r="BH259">
+        <v>2.8</v>
+      </c>
+      <c r="BI259">
+        <v>1.73</v>
+      </c>
+      <c r="BJ259">
+        <v>1.99</v>
+      </c>
+      <c r="BK259">
+        <v>2.22</v>
+      </c>
+      <c r="BL259">
+        <v>1.59</v>
+      </c>
+      <c r="BM259">
+        <v>3</v>
+      </c>
+      <c r="BN259">
+        <v>1.34</v>
+      </c>
+      <c r="BO259">
+        <v>3.9</v>
+      </c>
+      <c r="BP259">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7415235</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>74</v>
+      </c>
+      <c r="H260" t="s">
+        <v>79</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>190</v>
+      </c>
+      <c r="P260" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q260">
+        <v>2.43</v>
+      </c>
+      <c r="R260">
+        <v>2.03</v>
+      </c>
+      <c r="S260">
+        <v>4.7</v>
+      </c>
+      <c r="T260">
+        <v>1.44</v>
+      </c>
+      <c r="U260">
+        <v>2.66</v>
+      </c>
+      <c r="V260">
+        <v>2.99</v>
+      </c>
+      <c r="W260">
+        <v>1.36</v>
+      </c>
+      <c r="X260">
+        <v>7.7</v>
+      </c>
+      <c r="Y260">
+        <v>1.06</v>
+      </c>
+      <c r="Z260">
+        <v>1.85</v>
+      </c>
+      <c r="AA260">
+        <v>3.4</v>
+      </c>
+      <c r="AB260">
+        <v>4.2</v>
+      </c>
+      <c r="AC260">
+        <v>1.04</v>
+      </c>
+      <c r="AD260">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE260">
+        <v>1.11</v>
+      </c>
+      <c r="AF260">
+        <v>2.18</v>
+      </c>
+      <c r="AG260">
+        <v>1.95</v>
+      </c>
+      <c r="AH260">
+        <v>1.75</v>
+      </c>
+      <c r="AI260">
+        <v>1.84</v>
+      </c>
+      <c r="AJ260">
+        <v>1.82</v>
+      </c>
+      <c r="AK260">
+        <v>1.22</v>
+      </c>
+      <c r="AL260">
+        <v>1.25</v>
+      </c>
+      <c r="AM260">
+        <v>1.85</v>
+      </c>
+      <c r="AN260">
+        <v>1.5</v>
+      </c>
+      <c r="AO260">
+        <v>0.5</v>
+      </c>
+      <c r="AP260">
+        <v>1.59</v>
+      </c>
+      <c r="AQ260">
+        <v>0.47</v>
+      </c>
+      <c r="AR260">
+        <v>1.57</v>
+      </c>
+      <c r="AS260">
+        <v>1.06</v>
+      </c>
+      <c r="AT260">
+        <v>2.63</v>
+      </c>
+      <c r="AU260">
+        <v>6</v>
+      </c>
+      <c r="AV260">
+        <v>3</v>
+      </c>
+      <c r="AW260">
+        <v>3</v>
+      </c>
+      <c r="AX260">
+        <v>1</v>
+      </c>
+      <c r="AY260">
+        <v>9</v>
+      </c>
+      <c r="AZ260">
+        <v>4</v>
+      </c>
+      <c r="BA260">
+        <v>6</v>
+      </c>
+      <c r="BB260">
+        <v>2</v>
+      </c>
+      <c r="BC260">
+        <v>8</v>
+      </c>
+      <c r="BD260">
+        <v>1.71</v>
+      </c>
+      <c r="BE260">
+        <v>8.1</v>
+      </c>
+      <c r="BF260">
+        <v>2.67</v>
+      </c>
+      <c r="BG260">
+        <v>1.38</v>
+      </c>
+      <c r="BH260">
+        <v>2.8</v>
+      </c>
+      <c r="BI260">
+        <v>1.73</v>
+      </c>
+      <c r="BJ260">
+        <v>1.99</v>
+      </c>
+      <c r="BK260">
+        <v>2.23</v>
+      </c>
+      <c r="BL260">
+        <v>1.58</v>
+      </c>
+      <c r="BM260">
+        <v>3.04</v>
+      </c>
+      <c r="BN260">
+        <v>1.33</v>
+      </c>
+      <c r="BO260">
+        <v>3.9</v>
+      </c>
+      <c r="BP260">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7415237</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45413.5625</v>
+      </c>
+      <c r="F261">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>70</v>
+      </c>
+      <c r="H261" t="s">
+        <v>80</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>127</v>
+      </c>
+      <c r="P261" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q261">
+        <v>3.2</v>
+      </c>
+      <c r="R261">
+        <v>2.05</v>
+      </c>
+      <c r="S261">
+        <v>3.2</v>
+      </c>
+      <c r="T261">
+        <v>1.4</v>
+      </c>
+      <c r="U261">
+        <v>2.75</v>
+      </c>
+      <c r="V261">
+        <v>2.75</v>
+      </c>
+      <c r="W261">
+        <v>1.4</v>
+      </c>
+      <c r="X261">
+        <v>7</v>
+      </c>
+      <c r="Y261">
+        <v>1.08</v>
+      </c>
+      <c r="Z261">
+        <v>2.63</v>
+      </c>
+      <c r="AA261">
+        <v>3.3</v>
+      </c>
+      <c r="AB261">
+        <v>2.63</v>
+      </c>
+      <c r="AC261">
+        <v>1.06</v>
+      </c>
+      <c r="AD261">
+        <v>8</v>
+      </c>
+      <c r="AE261">
+        <v>1.3</v>
+      </c>
+      <c r="AF261">
+        <v>3.35</v>
+      </c>
+      <c r="AG261">
+        <v>1.83</v>
+      </c>
+      <c r="AH261">
+        <v>1.85</v>
+      </c>
+      <c r="AI261">
+        <v>1.65</v>
+      </c>
+      <c r="AJ261">
+        <v>2.05</v>
+      </c>
+      <c r="AK261">
+        <v>1.45</v>
+      </c>
+      <c r="AL261">
+        <v>1.28</v>
+      </c>
+      <c r="AM261">
+        <v>1.45</v>
+      </c>
+      <c r="AN261">
+        <v>1.31</v>
+      </c>
+      <c r="AO261">
+        <v>0.63</v>
+      </c>
+      <c r="AP261">
+        <v>1.29</v>
+      </c>
+      <c r="AQ261">
+        <v>0.65</v>
+      </c>
+      <c r="AR261">
+        <v>1.2</v>
+      </c>
+      <c r="AS261">
+        <v>1.32</v>
+      </c>
+      <c r="AT261">
+        <v>2.52</v>
+      </c>
+      <c r="AU261">
+        <v>4</v>
+      </c>
+      <c r="AV261">
+        <v>3</v>
+      </c>
+      <c r="AW261">
+        <v>4</v>
+      </c>
+      <c r="AX261">
+        <v>6</v>
+      </c>
+      <c r="AY261">
+        <v>8</v>
+      </c>
+      <c r="AZ261">
+        <v>9</v>
+      </c>
+      <c r="BA261">
+        <v>4</v>
+      </c>
+      <c r="BB261">
+        <v>9</v>
+      </c>
+      <c r="BC261">
+        <v>13</v>
+      </c>
+      <c r="BD261">
+        <v>2.06</v>
+      </c>
+      <c r="BE261">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF261">
+        <v>2.11</v>
+      </c>
+      <c r="BG261">
+        <v>1.32</v>
+      </c>
+      <c r="BH261">
+        <v>3.11</v>
+      </c>
+      <c r="BI261">
+        <v>1.53</v>
+      </c>
+      <c r="BJ261">
+        <v>2.33</v>
+      </c>
+      <c r="BK261">
+        <v>1.9</v>
+      </c>
+      <c r="BL261">
+        <v>1.8</v>
+      </c>
+      <c r="BM261">
+        <v>2.5</v>
+      </c>
+      <c r="BN261">
+        <v>1.47</v>
+      </c>
+      <c r="BO261">
+        <v>3.18</v>
+      </c>
+      <c r="BP261">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7415232</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45414.45833333334</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>81</v>
+      </c>
+      <c r="H262" t="s">
+        <v>77</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>2</v>
+      </c>
+      <c r="K262">
+        <v>3</v>
+      </c>
+      <c r="L262">
+        <v>3</v>
+      </c>
+      <c r="M262">
+        <v>2</v>
+      </c>
+      <c r="N262">
+        <v>5</v>
+      </c>
+      <c r="O262" t="s">
+        <v>257</v>
+      </c>
+      <c r="P262" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>1.64</v>
+      </c>
+      <c r="AA262">
+        <v>3.91</v>
+      </c>
+      <c r="AB262">
+        <v>4.61</v>
+      </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
+      <c r="AE262">
+        <v>0</v>
+      </c>
+      <c r="AF262">
+        <v>0</v>
+      </c>
+      <c r="AG262">
+        <v>1.7</v>
+      </c>
+      <c r="AH262">
+        <v>2.08</v>
+      </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
+      <c r="AJ262">
+        <v>0</v>
+      </c>
+      <c r="AK262">
+        <v>0</v>
+      </c>
+      <c r="AL262">
+        <v>0</v>
+      </c>
+      <c r="AM262">
+        <v>0</v>
+      </c>
+      <c r="AN262">
+        <v>2.13</v>
+      </c>
+      <c r="AO262">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP262">
+        <v>2.18</v>
+      </c>
+      <c r="AQ262">
+        <v>0.88</v>
+      </c>
+      <c r="AR262">
+        <v>1.56</v>
+      </c>
+      <c r="AS262">
+        <v>0.93</v>
+      </c>
+      <c r="AT262">
+        <v>2.49</v>
+      </c>
+      <c r="AU262">
+        <v>8</v>
+      </c>
+      <c r="AV262">
+        <v>0</v>
+      </c>
+      <c r="AW262">
+        <v>6</v>
+      </c>
+      <c r="AX262">
+        <v>3</v>
+      </c>
+      <c r="AY262">
+        <v>14</v>
+      </c>
+      <c r="AZ262">
+        <v>3</v>
+      </c>
+      <c r="BA262">
+        <v>2</v>
+      </c>
+      <c r="BB262">
+        <v>1</v>
+      </c>
+      <c r="BC262">
+        <v>3</v>
+      </c>
+      <c r="BD262">
+        <v>0</v>
+      </c>
+      <c r="BE262">
+        <v>0</v>
+      </c>
+      <c r="BF262">
+        <v>0</v>
+      </c>
+      <c r="BG262">
+        <v>0</v>
+      </c>
+      <c r="BH262">
+        <v>0</v>
+      </c>
+      <c r="BI262">
+        <v>0</v>
+      </c>
+      <c r="BJ262">
+        <v>0</v>
+      </c>
+      <c r="BK262">
+        <v>0</v>
+      </c>
+      <c r="BL262">
+        <v>0</v>
+      </c>
+      <c r="BM262">
+        <v>0</v>
+      </c>
+      <c r="BN262">
+        <v>0</v>
+      </c>
+      <c r="BO262">
+        <v>0</v>
+      </c>
+      <c r="BP262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7415233</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45414.49652777778</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>85</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>2</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>3</v>
+      </c>
+      <c r="N263">
+        <v>5</v>
+      </c>
+      <c r="O263" t="s">
+        <v>258</v>
+      </c>
+      <c r="P263" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q263">
+        <v>2.2</v>
+      </c>
+      <c r="R263">
+        <v>2.3</v>
+      </c>
+      <c r="S263">
+        <v>4.5</v>
+      </c>
+      <c r="T263">
+        <v>1.29</v>
+      </c>
+      <c r="U263">
+        <v>3.25</v>
+      </c>
+      <c r="V263">
+        <v>2.5</v>
+      </c>
+      <c r="W263">
+        <v>1.5</v>
+      </c>
+      <c r="X263">
+        <v>6</v>
+      </c>
+      <c r="Y263">
+        <v>1.11</v>
+      </c>
+      <c r="Z263">
+        <v>1.95</v>
+      </c>
+      <c r="AA263">
+        <v>3.35</v>
+      </c>
+      <c r="AB263">
+        <v>3.1</v>
+      </c>
+      <c r="AC263">
+        <v>1.01</v>
+      </c>
+      <c r="AD263">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE263">
+        <v>1.14</v>
+      </c>
+      <c r="AF263">
+        <v>4.82</v>
+      </c>
+      <c r="AG263">
+        <v>1.58</v>
+      </c>
+      <c r="AH263">
+        <v>2.23</v>
+      </c>
+      <c r="AI263">
+        <v>1.57</v>
+      </c>
+      <c r="AJ263">
+        <v>2.34</v>
+      </c>
+      <c r="AK263">
+        <v>1.18</v>
+      </c>
+      <c r="AL263">
+        <v>1.22</v>
+      </c>
+      <c r="AM263">
+        <v>1.85</v>
+      </c>
+      <c r="AN263">
+        <v>2.31</v>
+      </c>
+      <c r="AO263">
+        <v>1.19</v>
+      </c>
+      <c r="AP263">
+        <v>2.18</v>
+      </c>
+      <c r="AQ263">
+        <v>1.29</v>
+      </c>
+      <c r="AR263">
+        <v>1.97</v>
+      </c>
+      <c r="AS263">
+        <v>1.54</v>
+      </c>
+      <c r="AT263">
+        <v>3.51</v>
+      </c>
+      <c r="AU263">
+        <v>2</v>
+      </c>
+      <c r="AV263">
+        <v>3</v>
+      </c>
+      <c r="AW263">
+        <v>4</v>
+      </c>
+      <c r="AX263">
+        <v>3</v>
+      </c>
+      <c r="AY263">
+        <v>6</v>
+      </c>
+      <c r="AZ263">
+        <v>6</v>
+      </c>
+      <c r="BA263">
+        <v>6</v>
+      </c>
+      <c r="BB263">
+        <v>5</v>
+      </c>
+      <c r="BC263">
+        <v>11</v>
+      </c>
+      <c r="BD263">
+        <v>1.64</v>
+      </c>
+      <c r="BE263">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF263">
+        <v>2.87</v>
+      </c>
+      <c r="BG263">
+        <v>1.3</v>
+      </c>
+      <c r="BH263">
+        <v>3.18</v>
+      </c>
+      <c r="BI263">
+        <v>1.54</v>
+      </c>
+      <c r="BJ263">
+        <v>2.25</v>
+      </c>
+      <c r="BK263">
+        <v>2</v>
+      </c>
+      <c r="BL263">
+        <v>1.8</v>
+      </c>
+      <c r="BM263">
+        <v>2.54</v>
+      </c>
+      <c r="BN263">
+        <v>1.43</v>
+      </c>
+      <c r="BO263">
+        <v>3.52</v>
+      </c>
+      <c r="BP263">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,12 @@
     <t>['18', '57']</t>
   </si>
   <si>
+    <t>['3', '57']</t>
+  </si>
+  <si>
+    <t>['55', '75']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -1515,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP263"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2058,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ3">
         <v>0.8100000000000001</v>
@@ -2392,7 +2398,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -3088,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ8">
         <v>1.29</v>
@@ -3422,7 +3428,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3503,7 +3509,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ10">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3628,7 +3634,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3834,7 +3840,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4118,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ13">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
@@ -4246,7 +4252,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4452,7 +4458,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4658,7 +4664,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -5070,7 +5076,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5276,7 +5282,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5688,7 +5694,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5766,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ21">
         <v>0.47</v>
@@ -6512,7 +6518,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6924,7 +6930,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7208,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ28">
         <v>1.06</v>
@@ -7748,7 +7754,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -7829,7 +7835,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR31">
         <v>1.18</v>
@@ -8572,7 +8578,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8778,7 +8784,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9190,7 +9196,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9271,7 +9277,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR38">
         <v>1.18</v>
@@ -9474,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>0.59</v>
@@ -9602,7 +9608,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -9889,7 +9895,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ41">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR41">
         <v>0.97</v>
@@ -10014,7 +10020,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10504,7 +10510,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -10632,7 +10638,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -11044,7 +11050,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11250,7 +11256,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11456,7 +11462,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11534,7 +11540,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49">
         <v>2.31</v>
@@ -11662,7 +11668,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11868,7 +11874,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12486,7 +12492,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12567,7 +12573,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ54">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR54">
         <v>1.58</v>
@@ -12898,7 +12904,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13722,7 +13728,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -14134,7 +14140,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14340,7 +14346,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14546,7 +14552,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14830,7 +14836,7 @@
         <v>0.2</v>
       </c>
       <c r="AP65">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ65">
         <v>0.8100000000000001</v>
@@ -15039,7 +15045,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR66">
         <v>0.99</v>
@@ -15370,7 +15376,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15576,7 +15582,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -16194,7 +16200,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16275,7 +16281,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ72">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR72">
         <v>1.74</v>
@@ -16606,7 +16612,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -17018,7 +17024,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17302,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ77">
         <v>0.59</v>
@@ -17430,7 +17436,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17842,7 +17848,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18048,7 +18054,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18254,7 +18260,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18332,7 +18338,7 @@
         <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ82">
         <v>0.47</v>
@@ -18460,7 +18466,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18541,7 +18547,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18872,7 +18878,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19078,7 +19084,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19284,7 +19290,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19490,7 +19496,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19571,7 +19577,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19902,7 +19908,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -20108,7 +20114,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20520,7 +20526,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -20598,7 +20604,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -21216,10 +21222,10 @@
         <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ96">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR96">
         <v>2.46</v>
@@ -21344,7 +21350,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21422,7 +21428,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ97">
         <v>0.59</v>
@@ -21550,7 +21556,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21756,7 +21762,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -21834,10 +21840,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ99">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR99">
         <v>1.68</v>
@@ -21962,7 +21968,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22168,7 +22174,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22374,7 +22380,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22580,7 +22586,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23404,7 +23410,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23485,7 +23491,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ107">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23610,7 +23616,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -24434,7 +24440,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24846,7 +24852,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -25052,7 +25058,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25258,7 +25264,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25464,7 +25470,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25545,7 +25551,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ117">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR117">
         <v>2.33</v>
@@ -25670,7 +25676,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25876,7 +25882,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -26163,7 +26169,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -27602,7 +27608,7 @@
         <v>1.13</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ127">
         <v>1.38</v>
@@ -27730,7 +27736,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>8.5</v>
@@ -28223,7 +28229,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ130">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -28348,7 +28354,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28426,7 +28432,7 @@
         <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ131">
         <v>0.88</v>
@@ -28760,7 +28766,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28966,7 +28972,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29378,7 +29384,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29665,7 +29671,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR137">
         <v>1.66</v>
@@ -29996,7 +30002,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30408,7 +30414,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30489,7 +30495,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ141">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30614,7 +30620,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30820,7 +30826,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -31232,7 +31238,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31310,7 +31316,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ145">
         <v>1.06</v>
@@ -32262,7 +32268,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32546,7 +32552,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ151">
         <v>0.88</v>
@@ -32674,7 +32680,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -32961,7 +32967,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR153">
         <v>1.92</v>
@@ -33086,7 +33092,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33292,7 +33298,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33704,7 +33710,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -33988,7 +33994,7 @@
         <v>0.67</v>
       </c>
       <c r="AP158">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ158">
         <v>0.59</v>
@@ -34116,7 +34122,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34322,7 +34328,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34403,7 +34409,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ160">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
@@ -34528,7 +34534,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34734,7 +34740,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -34940,7 +34946,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -35224,7 +35230,7 @@
         <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ164">
         <v>0.65</v>
@@ -35352,7 +35358,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -36176,7 +36182,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36257,7 +36263,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR169">
         <v>1.56</v>
@@ -36382,7 +36388,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36588,7 +36594,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -36872,7 +36878,7 @@
         <v>1.6</v>
       </c>
       <c r="AP172">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ172">
         <v>1.19</v>
@@ -37000,7 +37006,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37081,7 +37087,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ173">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR173">
         <v>1.51</v>
@@ -37206,7 +37212,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37412,7 +37418,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -38236,7 +38242,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38314,10 +38320,10 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ179">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR179">
         <v>1.62</v>
@@ -38442,7 +38448,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38648,7 +38654,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -39060,7 +39066,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39472,7 +39478,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -39965,7 +39971,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ187">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR187">
         <v>1.29</v>
@@ -40090,7 +40096,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40914,7 +40920,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -40992,7 +40998,7 @@
         <v>2.55</v>
       </c>
       <c r="AP192">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ192">
         <v>2.06</v>
@@ -41120,7 +41126,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41532,7 +41538,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41738,7 +41744,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -41816,7 +41822,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ196">
         <v>1.06</v>
@@ -42150,7 +42156,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42643,7 +42649,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ200">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR200">
         <v>2.09</v>
@@ -42768,7 +42774,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -43180,7 +43186,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43386,7 +43392,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -43467,7 +43473,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ204">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR204">
         <v>1.16</v>
@@ -44082,7 +44088,7 @@
         <v>1.33</v>
       </c>
       <c r="AP207">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ207">
         <v>1.38</v>
@@ -44700,7 +44706,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
@@ -44828,7 +44834,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45527,7 +45533,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ214">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -45858,7 +45864,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -46270,7 +46276,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46351,7 +46357,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ218">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR218">
         <v>1.57</v>
@@ -46682,7 +46688,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -47094,7 +47100,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47300,7 +47306,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47584,7 +47590,7 @@
         <v>1</v>
       </c>
       <c r="AP224">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ224">
         <v>1.06</v>
@@ -47918,7 +47924,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -48330,7 +48336,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48536,7 +48542,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -49154,7 +49160,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49235,7 +49241,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ232">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49566,7 +49572,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49647,7 +49653,7 @@
         <v>2</v>
       </c>
       <c r="AQ234">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR234">
         <v>1.83</v>
@@ -49772,7 +49778,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -50056,7 +50062,7 @@
         <v>0.64</v>
       </c>
       <c r="AP236">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ236">
         <v>0.65</v>
@@ -50184,7 +50190,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50262,7 +50268,7 @@
         <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ237">
         <v>2.06</v>
@@ -50390,7 +50396,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50596,7 +50602,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -51008,7 +51014,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51214,7 +51220,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51420,7 +51426,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51626,7 +51632,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -51704,7 +51710,7 @@
         <v>2.2</v>
       </c>
       <c r="AP244">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AQ244">
         <v>2.06</v>
@@ -52737,7 +52743,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ249">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR249">
         <v>1.18</v>
@@ -53146,7 +53152,7 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ251">
         <v>0.88</v>
@@ -53274,7 +53280,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53480,7 +53486,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54098,7 +54104,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54304,7 +54310,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54385,7 +54391,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ257">
-        <v>2.19</v>
+        <v>2.06</v>
       </c>
       <c r="AR257">
         <v>2.02</v>
@@ -54716,7 +54722,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q259">
         <v>2.15</v>
@@ -55015,19 +55021,19 @@
         <v>2.63</v>
       </c>
       <c r="AU260">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV260">
         <v>3</v>
       </c>
       <c r="AW260">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX260">
         <v>1</v>
       </c>
       <c r="AY260">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ260">
         <v>4</v>
@@ -55224,19 +55230,19 @@
         <v>4</v>
       </c>
       <c r="AV261">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX261">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY261">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ261">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA261">
         <v>4</v>
@@ -55334,7 +55340,7 @@
         <v>257</v>
       </c>
       <c r="P262" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55433,25 +55439,25 @@
         <v>0</v>
       </c>
       <c r="AW262">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX262">
         <v>3</v>
       </c>
       <c r="AY262">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ262">
         <v>3</v>
       </c>
       <c r="BA262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB262">
         <v>1</v>
       </c>
       <c r="BC262">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD262">
         <v>0</v>
@@ -55540,7 +55546,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -55633,31 +55639,31 @@
         <v>3.51</v>
       </c>
       <c r="AU263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV263">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW263">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX263">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY263">
+        <v>11</v>
+      </c>
+      <c r="AZ263">
+        <v>11</v>
+      </c>
+      <c r="BA263">
+        <v>8</v>
+      </c>
+      <c r="BB263">
         <v>6</v>
       </c>
-      <c r="AZ263">
-        <v>6</v>
-      </c>
-      <c r="BA263">
-        <v>6</v>
-      </c>
-      <c r="BB263">
-        <v>5</v>
-      </c>
       <c r="BC263">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD263">
         <v>1.64</v>
@@ -55697,6 +55703,418 @@
       </c>
       <c r="BP263">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7415234</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45414.5625</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264" t="s">
+        <v>71</v>
+      </c>
+      <c r="H264" t="s">
+        <v>75</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>259</v>
+      </c>
+      <c r="P264" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q264">
+        <v>1.8</v>
+      </c>
+      <c r="R264">
+        <v>2.5</v>
+      </c>
+      <c r="S264">
+        <v>6.5</v>
+      </c>
+      <c r="T264">
+        <v>1.29</v>
+      </c>
+      <c r="U264">
+        <v>3.25</v>
+      </c>
+      <c r="V264">
+        <v>2.38</v>
+      </c>
+      <c r="W264">
+        <v>1.53</v>
+      </c>
+      <c r="X264">
+        <v>5.5</v>
+      </c>
+      <c r="Y264">
+        <v>1.12</v>
+      </c>
+      <c r="Z264">
+        <v>1.24</v>
+      </c>
+      <c r="AA264">
+        <v>4.2</v>
+      </c>
+      <c r="AB264">
+        <v>9.5</v>
+      </c>
+      <c r="AC264">
+        <v>1.01</v>
+      </c>
+      <c r="AD264">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE264">
+        <v>1.14</v>
+      </c>
+      <c r="AF264">
+        <v>4.82</v>
+      </c>
+      <c r="AG264">
+        <v>1.67</v>
+      </c>
+      <c r="AH264">
+        <v>2.08</v>
+      </c>
+      <c r="AI264">
+        <v>1.85</v>
+      </c>
+      <c r="AJ264">
+        <v>1.91</v>
+      </c>
+      <c r="AK264">
+        <v>1.04</v>
+      </c>
+      <c r="AL264">
+        <v>1.11</v>
+      </c>
+      <c r="AM264">
+        <v>2.95</v>
+      </c>
+      <c r="AN264">
+        <v>2</v>
+      </c>
+      <c r="AO264">
+        <v>1.31</v>
+      </c>
+      <c r="AP264">
+        <v>2.06</v>
+      </c>
+      <c r="AQ264">
+        <v>1.24</v>
+      </c>
+      <c r="AR264">
+        <v>1.63</v>
+      </c>
+      <c r="AS264">
+        <v>1.28</v>
+      </c>
+      <c r="AT264">
+        <v>2.91</v>
+      </c>
+      <c r="AU264">
+        <v>7</v>
+      </c>
+      <c r="AV264">
+        <v>6</v>
+      </c>
+      <c r="AW264">
+        <v>5</v>
+      </c>
+      <c r="AX264">
+        <v>3</v>
+      </c>
+      <c r="AY264">
+        <v>12</v>
+      </c>
+      <c r="AZ264">
+        <v>9</v>
+      </c>
+      <c r="BA264">
+        <v>8</v>
+      </c>
+      <c r="BB264">
+        <v>2</v>
+      </c>
+      <c r="BC264">
+        <v>10</v>
+      </c>
+      <c r="BD264">
+        <v>1.14</v>
+      </c>
+      <c r="BE264">
+        <v>11.6</v>
+      </c>
+      <c r="BF264">
+        <v>7.49</v>
+      </c>
+      <c r="BG264">
+        <v>1.47</v>
+      </c>
+      <c r="BH264">
+        <v>2.5</v>
+      </c>
+      <c r="BI264">
+        <v>1.82</v>
+      </c>
+      <c r="BJ264">
+        <v>1.98</v>
+      </c>
+      <c r="BK264">
+        <v>2.3</v>
+      </c>
+      <c r="BL264">
+        <v>1.55</v>
+      </c>
+      <c r="BM264">
+        <v>3</v>
+      </c>
+      <c r="BN264">
+        <v>1.34</v>
+      </c>
+      <c r="BO264">
+        <v>4.19</v>
+      </c>
+      <c r="BP264">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7415231</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45414.58333333334</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+      <c r="G265" t="s">
+        <v>76</v>
+      </c>
+      <c r="H265" t="s">
+        <v>73</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>260</v>
+      </c>
+      <c r="P265" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q265">
+        <v>1.67</v>
+      </c>
+      <c r="R265">
+        <v>2.63</v>
+      </c>
+      <c r="S265">
+        <v>7</v>
+      </c>
+      <c r="T265">
+        <v>1.25</v>
+      </c>
+      <c r="U265">
+        <v>3.6</v>
+      </c>
+      <c r="V265">
+        <v>2.25</v>
+      </c>
+      <c r="W265">
+        <v>1.57</v>
+      </c>
+      <c r="X265">
+        <v>4.75</v>
+      </c>
+      <c r="Y265">
+        <v>1.15</v>
+      </c>
+      <c r="Z265">
+        <v>1.25</v>
+      </c>
+      <c r="AA265">
+        <v>4.7</v>
+      </c>
+      <c r="AB265">
+        <v>7.5</v>
+      </c>
+      <c r="AC265">
+        <v>1.01</v>
+      </c>
+      <c r="AD265">
+        <v>11</v>
+      </c>
+      <c r="AE265">
+        <v>1.15</v>
+      </c>
+      <c r="AF265">
+        <v>4.75</v>
+      </c>
+      <c r="AG265">
+        <v>1.55</v>
+      </c>
+      <c r="AH265">
+        <v>2.3</v>
+      </c>
+      <c r="AI265">
+        <v>1.91</v>
+      </c>
+      <c r="AJ265">
+        <v>1.8</v>
+      </c>
+      <c r="AK265">
+        <v>1.04</v>
+      </c>
+      <c r="AL265">
+        <v>1.12</v>
+      </c>
+      <c r="AM265">
+        <v>2.9</v>
+      </c>
+      <c r="AN265">
+        <v>2.75</v>
+      </c>
+      <c r="AO265">
+        <v>2.19</v>
+      </c>
+      <c r="AP265">
+        <v>2.76</v>
+      </c>
+      <c r="AQ265">
+        <v>2.06</v>
+      </c>
+      <c r="AR265">
+        <v>2.48</v>
+      </c>
+      <c r="AS265">
+        <v>1.44</v>
+      </c>
+      <c r="AT265">
+        <v>3.92</v>
+      </c>
+      <c r="AU265">
+        <v>10</v>
+      </c>
+      <c r="AV265">
+        <v>2</v>
+      </c>
+      <c r="AW265">
+        <v>10</v>
+      </c>
+      <c r="AX265">
+        <v>2</v>
+      </c>
+      <c r="AY265">
+        <v>20</v>
+      </c>
+      <c r="AZ265">
+        <v>4</v>
+      </c>
+      <c r="BA265">
+        <v>5</v>
+      </c>
+      <c r="BB265">
+        <v>2</v>
+      </c>
+      <c r="BC265">
+        <v>7</v>
+      </c>
+      <c r="BD265">
+        <v>1.3</v>
+      </c>
+      <c r="BE265">
+        <v>9.5</v>
+      </c>
+      <c r="BF265">
+        <v>4.59</v>
+      </c>
+      <c r="BG265">
+        <v>1.35</v>
+      </c>
+      <c r="BH265">
+        <v>3</v>
+      </c>
+      <c r="BI265">
+        <v>1.6</v>
+      </c>
+      <c r="BJ265">
+        <v>2.2</v>
+      </c>
+      <c r="BK265">
+        <v>2</v>
+      </c>
+      <c r="BL265">
+        <v>1.73</v>
+      </c>
+      <c r="BM265">
+        <v>2.55</v>
+      </c>
+      <c r="BN265">
+        <v>1.46</v>
+      </c>
+      <c r="BO265">
+        <v>3.4</v>
+      </c>
+      <c r="BP265">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -55845,22 +55845,22 @@
         <v>2.91</v>
       </c>
       <c r="AU264">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV264">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW264">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX264">
         <v>3</v>
       </c>
       <c r="AY264">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ264">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA264">
         <v>8</v>
@@ -56051,22 +56051,22 @@
         <v>3.92</v>
       </c>
       <c r="AU265">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW265">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY265">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AZ265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA265">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -55845,22 +55845,22 @@
         <v>2.91</v>
       </c>
       <c r="AU264">
+        <v>7</v>
+      </c>
+      <c r="AV264">
         <v>6</v>
       </c>
-      <c r="AV264">
+      <c r="AW264">
         <v>5</v>
       </c>
-      <c r="AW264">
-        <v>4</v>
-      </c>
       <c r="AX264">
         <v>3</v>
       </c>
       <c r="AY264">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ264">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA264">
         <v>8</v>
@@ -56051,22 +56051,22 @@
         <v>3.92</v>
       </c>
       <c r="AU265">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW265">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY265">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA265">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,21 @@
     <t>['55', '75']</t>
   </si>
   <si>
+    <t>['3', '27', '45+2']</t>
+  </si>
+  <si>
+    <t>['35', '77']</t>
+  </si>
+  <si>
+    <t>['6', '10', '15', '56']</t>
+  </si>
+  <si>
+    <t>['19', '26', '51']</t>
+  </si>
+  <si>
+    <t>['79', '90+5']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -1161,6 +1176,24 @@
   <si>
     <t>['38', '44', '90+4']</t>
   </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['13', '41', '45+2']</t>
+  </si>
+  <si>
+    <t>['60', '78', '90+1']</t>
+  </si>
+  <si>
+    <t>['6', '80', '89']</t>
+  </si>
+  <si>
+    <t>['11', '43', '59']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1521,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP265"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -2067,7 +2100,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ3">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2270,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ4">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2398,7 +2431,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -2476,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2685,7 +2718,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2888,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ7">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3300,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ9">
         <v>0.59</v>
@@ -3428,7 +3461,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3634,7 +3667,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3715,7 +3748,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3840,7 +3873,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4252,7 +4285,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4333,7 +4366,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ14">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4458,7 +4491,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4536,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4664,7 +4697,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -4742,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
         <v>0.59</v>
@@ -4948,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ17">
         <v>1.06</v>
@@ -5076,7 +5109,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5154,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ18">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR18">
         <v>0.6899999999999999</v>
@@ -5282,7 +5315,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5360,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ19">
         <v>0.59</v>
@@ -5566,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>1.58</v>
@@ -5694,7 +5727,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5775,7 +5808,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ21">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR21">
         <v>2.17</v>
@@ -5978,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -6187,7 +6220,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ23">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6390,10 +6423,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6518,7 +6551,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6802,10 +6835,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.46</v>
@@ -6930,7 +6963,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7008,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ27">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -7626,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ30">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR30">
         <v>1.05</v>
@@ -7754,7 +7787,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -8038,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -8247,7 +8280,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -8450,7 +8483,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.06</v>
@@ -8578,7 +8611,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8656,10 +8689,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ35">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8784,7 +8817,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8862,7 +8895,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -9071,7 +9104,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ37">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR37">
         <v>1.63</v>
@@ -9196,7 +9229,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9274,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ38">
         <v>1.24</v>
@@ -9608,7 +9641,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -9689,7 +9722,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ40">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR40">
         <v>2.8</v>
@@ -9892,7 +9925,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ41">
         <v>2.06</v>
@@ -10020,7 +10053,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10098,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ42">
         <v>0.59</v>
@@ -10307,7 +10340,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR43">
         <v>1.03</v>
@@ -10513,7 +10546,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ44">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR44">
         <v>2.19</v>
@@ -10638,7 +10671,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>2.1</v>
@@ -10716,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10922,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ46">
         <v>1.06</v>
@@ -11050,7 +11083,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11128,10 +11161,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.64</v>
@@ -11256,7 +11289,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11337,7 +11370,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11462,7 +11495,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11543,7 +11576,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR49">
         <v>1.89</v>
@@ -11668,7 +11701,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11746,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ50">
         <v>0.88</v>
@@ -11874,7 +11907,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11952,10 +11985,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -12158,7 +12191,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -12367,7 +12400,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12492,7 +12525,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12904,7 +12937,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13188,10 +13221,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13394,10 +13427,10 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR58">
         <v>1.12</v>
@@ -13600,7 +13633,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ59">
         <v>0.59</v>
@@ -13728,7 +13761,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -13809,7 +13842,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14012,10 +14045,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR61">
         <v>1.13</v>
@@ -14140,7 +14173,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14218,10 +14251,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR62">
         <v>1.51</v>
@@ -14346,7 +14379,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14424,7 +14457,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
         <v>1.06</v>
@@ -14552,7 +14585,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14630,10 +14663,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
+        <v>1.39</v>
+      </c>
+      <c r="AQ64">
         <v>1.29</v>
-      </c>
-      <c r="AQ64">
-        <v>1.19</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -14839,7 +14872,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ65">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR65">
         <v>2.26</v>
@@ -15042,7 +15075,7 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ66">
         <v>2.06</v>
@@ -15248,10 +15281,10 @@
         <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ67">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15376,7 +15409,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15454,10 +15487,10 @@
         <v>2.5</v>
       </c>
       <c r="AP68">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ68">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.41</v>
@@ -15582,7 +15615,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15663,7 +15696,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.48</v>
@@ -15866,10 +15899,10 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ70">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR70">
         <v>1.67</v>
@@ -16072,7 +16105,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ71">
         <v>0.59</v>
@@ -16200,7 +16233,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16612,7 +16645,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -16693,7 +16726,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR74">
         <v>1.13</v>
@@ -17024,7 +17057,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17105,7 +17138,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ76">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR76">
         <v>1.72</v>
@@ -17436,7 +17469,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17514,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1.06</v>
@@ -17723,7 +17756,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ79">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR79">
         <v>1.45</v>
@@ -17848,7 +17881,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17926,10 +17959,10 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -18054,7 +18087,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18132,10 +18165,10 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ81">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.19</v>
@@ -18260,7 +18293,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18341,7 +18374,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ82">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR82">
         <v>2.36</v>
@@ -18466,7 +18499,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18544,7 +18577,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ83">
         <v>2.06</v>
@@ -18750,7 +18783,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>0.59</v>
@@ -18878,7 +18911,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -18956,10 +18989,10 @@
         <v>0.17</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ85">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR85">
         <v>0.9399999999999999</v>
@@ -19084,7 +19117,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19290,7 +19323,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19371,7 +19404,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ87">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19496,7 +19529,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19780,10 +19813,10 @@
         <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ89">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -19908,7 +19941,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -19986,10 +20019,10 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR90">
         <v>1.36</v>
@@ -20114,7 +20147,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20526,7 +20559,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -21016,10 +21049,10 @@
         <v>0.2</v>
       </c>
       <c r="AP95">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR95">
         <v>2.05</v>
@@ -21350,7 +21383,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21556,7 +21589,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21634,10 +21667,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21762,7 +21795,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -21968,7 +22001,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22046,10 +22079,10 @@
         <v>0.57</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ100">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR100">
         <v>1.57</v>
@@ -22174,7 +22207,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22255,7 +22288,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ101">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR101">
         <v>1.47</v>
@@ -22380,7 +22413,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22458,10 +22491,10 @@
         <v>0.86</v>
       </c>
       <c r="AP102">
+        <v>1.39</v>
+      </c>
+      <c r="AQ102">
         <v>1.29</v>
-      </c>
-      <c r="AQ102">
-        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>1.16</v>
@@ -22586,7 +22619,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22664,7 +22697,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ103">
         <v>1.06</v>
@@ -22870,10 +22903,10 @@
         <v>0.71</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR104">
         <v>1.04</v>
@@ -23079,7 +23112,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ105">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR105">
         <v>1.89</v>
@@ -23410,7 +23443,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23488,7 +23521,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ107">
         <v>1.24</v>
@@ -23616,7 +23649,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -23697,7 +23730,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR108">
         <v>1.51</v>
@@ -23900,7 +23933,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -24315,7 +24348,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ111">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>2.46</v>
@@ -24440,7 +24473,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24518,7 +24551,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>1.29</v>
@@ -24724,10 +24757,10 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ113">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR113">
         <v>1.26</v>
@@ -24852,7 +24885,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24930,7 +24963,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25058,7 +25091,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25136,7 +25169,7 @@
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -25264,7 +25297,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25342,10 +25375,10 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ116">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR116">
         <v>1.73</v>
@@ -25470,7 +25503,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25676,7 +25709,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25757,7 +25790,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ118">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR118">
         <v>1.52</v>
@@ -25882,7 +25915,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25963,7 +25996,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ119">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>1.83</v>
@@ -26581,7 +26614,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ122">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26784,7 +26817,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ123">
         <v>0.59</v>
@@ -26990,10 +27023,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ124">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -27402,7 +27435,7 @@
         <v>0.86</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ126">
         <v>1.06</v>
@@ -27611,7 +27644,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27736,7 +27769,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>8.5</v>
@@ -27814,10 +27847,10 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ128">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR128">
         <v>1.27</v>
@@ -28020,10 +28053,10 @@
         <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR129">
         <v>2.02</v>
@@ -28354,7 +28387,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28766,7 +28799,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28844,7 +28877,7 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ133">
         <v>0.59</v>
@@ -28972,7 +29005,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29053,7 +29086,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR134">
         <v>1.38</v>
@@ -29256,10 +29289,10 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR135">
         <v>1.34</v>
@@ -29384,7 +29417,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29465,7 +29498,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ136">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29668,7 +29701,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ137">
         <v>1.24</v>
@@ -30002,7 +30035,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30080,10 +30113,10 @@
         <v>0.88</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ139">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR139">
         <v>1.52</v>
@@ -30414,7 +30447,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30492,7 +30525,7 @@
         <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ141">
         <v>1.24</v>
@@ -30620,7 +30653,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30698,10 +30731,10 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ142">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR142">
         <v>1.16</v>
@@ -30826,7 +30859,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -30907,7 +30940,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR143">
         <v>2.22</v>
@@ -31110,10 +31143,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP144">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR144">
         <v>1.98</v>
@@ -31238,7 +31271,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31731,7 +31764,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ147">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR147">
         <v>2.18</v>
@@ -32143,7 +32176,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ149">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR149">
         <v>1.63</v>
@@ -32268,7 +32301,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32346,7 +32379,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ150">
         <v>1.29</v>
@@ -32680,7 +32713,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -32964,7 +32997,7 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>1.24</v>
@@ -33092,7 +33125,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33170,10 +33203,10 @@
         <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ154">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR154">
         <v>1.31</v>
@@ -33298,7 +33331,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33379,7 +33412,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33585,7 +33618,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ156">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33710,7 +33743,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -33788,7 +33821,7 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ157">
         <v>0.88</v>
@@ -34122,7 +34155,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34203,7 +34236,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ159">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34328,7 +34361,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34406,7 +34439,7 @@
         <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ160">
         <v>2.06</v>
@@ -34534,7 +34567,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34612,7 +34645,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ161">
         <v>1.06</v>
@@ -34740,7 +34773,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -34821,7 +34854,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ162">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR162">
         <v>1.47</v>
@@ -34946,7 +34979,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -35233,7 +35266,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ164">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35358,7 +35391,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35642,7 +35675,7 @@
         <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ166">
         <v>0.88</v>
@@ -35848,7 +35881,7 @@
         <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ167">
         <v>0.59</v>
@@ -36057,7 +36090,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ168">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR168">
         <v>1.67</v>
@@ -36182,7 +36215,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36260,7 +36293,7 @@
         <v>1.4</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ169">
         <v>1.24</v>
@@ -36388,7 +36421,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36466,10 +36499,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR170">
         <v>1.33</v>
@@ -36594,7 +36627,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -36672,10 +36705,10 @@
         <v>2.5</v>
       </c>
       <c r="AP171">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ171">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR171">
         <v>1.32</v>
@@ -36881,7 +36914,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ172">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR172">
         <v>2.45</v>
@@ -37006,7 +37039,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37212,7 +37245,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37293,7 +37326,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37418,7 +37451,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37496,10 +37529,10 @@
         <v>0.9</v>
       </c>
       <c r="AP175">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR175">
         <v>1.25</v>
@@ -37702,7 +37735,7 @@
         <v>1.1</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ176">
         <v>1.06</v>
@@ -37908,7 +37941,7 @@
         <v>0.6</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
         <v>0.59</v>
@@ -38242,7 +38275,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38448,7 +38481,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38654,7 +38687,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38732,10 +38765,10 @@
         <v>2.18</v>
       </c>
       <c r="AP181">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR181">
         <v>1.92</v>
@@ -38941,7 +38974,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ182">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR182">
         <v>2.09</v>
@@ -39066,7 +39099,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39478,7 +39511,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -39556,7 +39589,7 @@
         <v>1.09</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ185">
         <v>1.06</v>
@@ -39762,10 +39795,10 @@
         <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR186">
         <v>1.38</v>
@@ -39968,7 +40001,7 @@
         <v>2.27</v>
       </c>
       <c r="AP187">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ187">
         <v>2.06</v>
@@ -40096,7 +40129,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40174,10 +40207,10 @@
         <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ188">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR188">
         <v>1.18</v>
@@ -40380,10 +40413,10 @@
         <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ189">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -40586,10 +40619,10 @@
         <v>1.45</v>
       </c>
       <c r="AP190">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ190">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR190">
         <v>1.2</v>
@@ -40792,7 +40825,7 @@
         <v>0.55</v>
       </c>
       <c r="AP191">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ191">
         <v>0.59</v>
@@ -40920,7 +40953,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -41001,7 +41034,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ192">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR192">
         <v>2.41</v>
@@ -41126,7 +41159,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41207,7 +41240,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ193">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR193">
         <v>1.55</v>
@@ -41410,7 +41443,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ194">
         <v>0.88</v>
@@ -41538,7 +41571,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41744,7 +41777,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -42156,7 +42189,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42234,7 +42267,7 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ198">
         <v>1.29</v>
@@ -42443,7 +42476,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ199">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR199">
         <v>1.4</v>
@@ -42774,7 +42807,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -42855,7 +42888,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ201">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR201">
         <v>1.63</v>
@@ -43058,7 +43091,7 @@
         <v>0.83</v>
       </c>
       <c r="AP202">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ202">
         <v>1.06</v>
@@ -43186,7 +43219,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43264,10 +43297,10 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ203">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR203">
         <v>1.55</v>
@@ -43392,7 +43425,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -43470,7 +43503,7 @@
         <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ204">
         <v>2.06</v>
@@ -43676,10 +43709,10 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ205">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR205">
         <v>1.8</v>
@@ -43882,10 +43915,10 @@
         <v>2.42</v>
       </c>
       <c r="AP206">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ206">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -44091,7 +44124,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ207">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR207">
         <v>2.45</v>
@@ -44297,7 +44330,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ208">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR208">
         <v>1.58</v>
@@ -44500,10 +44533,10 @@
         <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ209">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR209">
         <v>1.29</v>
@@ -44709,7 +44742,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ210">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR210">
         <v>1.62</v>
@@ -44834,7 +44867,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -44912,7 +44945,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ211">
         <v>1.29</v>
@@ -45118,10 +45151,10 @@
         <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ212">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR212">
         <v>1.38</v>
@@ -45324,7 +45357,7 @@
         <v>0.54</v>
       </c>
       <c r="AP213">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
         <v>0.59</v>
@@ -45864,7 +45897,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -45945,7 +45978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR216">
         <v>1.43</v>
@@ -46276,7 +46309,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46560,10 +46593,10 @@
         <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ219">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR219">
         <v>1.84</v>
@@ -46688,7 +46721,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46972,10 +47005,10 @@
         <v>1.23</v>
       </c>
       <c r="AP221">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ221">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR221">
         <v>1.15</v>
@@ -47100,7 +47133,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47178,10 +47211,10 @@
         <v>2.31</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47306,7 +47339,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47384,10 +47417,10 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ223">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR223">
         <v>1.18</v>
@@ -47796,10 +47829,10 @@
         <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ225">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
@@ -47924,7 +47957,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -48208,10 +48241,10 @@
         <v>1.29</v>
       </c>
       <c r="AP227">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ227">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR227">
         <v>1.81</v>
@@ -48336,7 +48369,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48542,7 +48575,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -48620,10 +48653,10 @@
         <v>2.36</v>
       </c>
       <c r="AP229">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ229">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR229">
         <v>1.29</v>
@@ -49035,7 +49068,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ231">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR231">
         <v>2.07</v>
@@ -49160,7 +49193,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49238,7 +49271,7 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ232">
         <v>1.24</v>
@@ -49572,7 +49605,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49650,7 +49683,7 @@
         <v>2.29</v>
       </c>
       <c r="AP234">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ234">
         <v>2.06</v>
@@ -49778,7 +49811,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -49856,7 +49889,7 @@
         <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ235">
         <v>0.59</v>
@@ -50065,7 +50098,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ236">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR236">
         <v>2.46</v>
@@ -50190,7 +50223,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50271,7 +50304,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ237">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR237">
         <v>1.62</v>
@@ -50396,7 +50429,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50477,7 +50510,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ238">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR238">
         <v>1.53</v>
@@ -50602,7 +50635,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50680,7 +50713,7 @@
         <v>0.93</v>
       </c>
       <c r="AP239">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ239">
         <v>1.06</v>
@@ -50886,10 +50919,10 @@
         <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ240">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR240">
         <v>1.21</v>
@@ -51014,7 +51047,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51092,10 +51125,10 @@
         <v>1.14</v>
       </c>
       <c r="AP241">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ241">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR241">
         <v>1.56</v>
@@ -51220,7 +51253,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51301,7 +51334,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ242">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR242">
         <v>1.55</v>
@@ -51426,7 +51459,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51504,7 +51537,7 @@
         <v>1.27</v>
       </c>
       <c r="AP243">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ243">
         <v>1.29</v>
@@ -51632,7 +51665,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -51713,7 +51746,7 @@
         <v>2.76</v>
       </c>
       <c r="AQ244">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR244">
         <v>2.46</v>
@@ -51916,10 +51949,10 @@
         <v>0.53</v>
       </c>
       <c r="AP245">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ245">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR245">
         <v>1.22</v>
@@ -52534,10 +52567,10 @@
         <v>0.6</v>
       </c>
       <c r="AP248">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ248">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR248">
         <v>1.49</v>
@@ -52740,7 +52773,7 @@
         <v>1.4</v>
       </c>
       <c r="AP249">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ249">
         <v>1.24</v>
@@ -52946,7 +52979,7 @@
         <v>1.07</v>
       </c>
       <c r="AP250">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AQ250">
         <v>1.06</v>
@@ -53280,7 +53313,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53358,10 +53391,10 @@
         <v>0.8</v>
       </c>
       <c r="AP252">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ252">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
         <v>1.27</v>
@@ -53486,7 +53519,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53773,7 +53806,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ254">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR254">
         <v>1.56</v>
@@ -53976,10 +54009,10 @@
         <v>2.4</v>
       </c>
       <c r="AP255">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ255">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AR255">
         <v>1.81</v>
@@ -54104,7 +54137,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54182,10 +54215,10 @@
         <v>1.27</v>
       </c>
       <c r="AP256">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ256">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR256">
         <v>1.32</v>
@@ -54310,7 +54343,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54722,7 +54755,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q259">
         <v>2.15</v>
@@ -54800,7 +54833,7 @@
         <v>0.63</v>
       </c>
       <c r="AP259">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ259">
         <v>0.59</v>
@@ -55009,7 +55042,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ260">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AR260">
         <v>1.57</v>
@@ -55212,10 +55245,10 @@
         <v>0.63</v>
       </c>
       <c r="AP261">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ261">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AR261">
         <v>1.2</v>
@@ -55340,7 +55373,7 @@
         <v>257</v>
       </c>
       <c r="P262" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55546,7 +55579,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -56115,6 +56148,1654 @@
       </c>
       <c r="BP265">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7415243</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45419.375</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>83</v>
+      </c>
+      <c r="H266" t="s">
+        <v>74</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
+        <v>88</v>
+      </c>
+      <c r="P266" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q266">
+        <v>3.1</v>
+      </c>
+      <c r="R266">
+        <v>2.1</v>
+      </c>
+      <c r="S266">
+        <v>3.2</v>
+      </c>
+      <c r="T266">
+        <v>1.4</v>
+      </c>
+      <c r="U266">
+        <v>2.75</v>
+      </c>
+      <c r="V266">
+        <v>3</v>
+      </c>
+      <c r="W266">
+        <v>1.36</v>
+      </c>
+      <c r="X266">
+        <v>7</v>
+      </c>
+      <c r="Y266">
+        <v>1.08</v>
+      </c>
+      <c r="Z266">
+        <v>2.4</v>
+      </c>
+      <c r="AA266">
+        <v>2.98</v>
+      </c>
+      <c r="AB266">
+        <v>2.5</v>
+      </c>
+      <c r="AC266">
+        <v>1.02</v>
+      </c>
+      <c r="AD266">
+        <v>8.75</v>
+      </c>
+      <c r="AE266">
+        <v>1.3</v>
+      </c>
+      <c r="AF266">
+        <v>3.18</v>
+      </c>
+      <c r="AG266">
+        <v>1.86</v>
+      </c>
+      <c r="AH266">
+        <v>1.68</v>
+      </c>
+      <c r="AI266">
+        <v>1.8</v>
+      </c>
+      <c r="AJ266">
+        <v>1.91</v>
+      </c>
+      <c r="AK266">
+        <v>1.43</v>
+      </c>
+      <c r="AL266">
+        <v>1.31</v>
+      </c>
+      <c r="AM266">
+        <v>1.43</v>
+      </c>
+      <c r="AN266">
+        <v>1.18</v>
+      </c>
+      <c r="AO266">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP266">
+        <v>1.11</v>
+      </c>
+      <c r="AQ266">
+        <v>1.06</v>
+      </c>
+      <c r="AR266">
+        <v>1.56</v>
+      </c>
+      <c r="AS266">
+        <v>1.27</v>
+      </c>
+      <c r="AT266">
+        <v>2.83</v>
+      </c>
+      <c r="AU266">
+        <v>0</v>
+      </c>
+      <c r="AV266">
+        <v>4</v>
+      </c>
+      <c r="AW266">
+        <v>5</v>
+      </c>
+      <c r="AX266">
+        <v>2</v>
+      </c>
+      <c r="AY266">
+        <v>5</v>
+      </c>
+      <c r="AZ266">
+        <v>6</v>
+      </c>
+      <c r="BA266">
+        <v>6</v>
+      </c>
+      <c r="BB266">
+        <v>1</v>
+      </c>
+      <c r="BC266">
+        <v>7</v>
+      </c>
+      <c r="BD266">
+        <v>1.41</v>
+      </c>
+      <c r="BE266">
+        <v>9.1</v>
+      </c>
+      <c r="BF266">
+        <v>3.34</v>
+      </c>
+      <c r="BG266">
+        <v>1.29</v>
+      </c>
+      <c r="BH266">
+        <v>3.29</v>
+      </c>
+      <c r="BI266">
+        <v>1.51</v>
+      </c>
+      <c r="BJ266">
+        <v>2.4</v>
+      </c>
+      <c r="BK266">
+        <v>1.88</v>
+      </c>
+      <c r="BL266">
+        <v>1.92</v>
+      </c>
+      <c r="BM266">
+        <v>2.33</v>
+      </c>
+      <c r="BN266">
+        <v>1.53</v>
+      </c>
+      <c r="BO266">
+        <v>3</v>
+      </c>
+      <c r="BP266">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7415244</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45419.54166666666</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+      <c r="G267" t="s">
+        <v>70</v>
+      </c>
+      <c r="H267" t="s">
+        <v>78</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>3</v>
+      </c>
+      <c r="L267">
+        <v>3</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>4</v>
+      </c>
+      <c r="O267" t="s">
+        <v>261</v>
+      </c>
+      <c r="P267" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q267">
+        <v>3.2</v>
+      </c>
+      <c r="R267">
+        <v>2</v>
+      </c>
+      <c r="S267">
+        <v>3.4</v>
+      </c>
+      <c r="T267">
+        <v>1.44</v>
+      </c>
+      <c r="U267">
+        <v>2.63</v>
+      </c>
+      <c r="V267">
+        <v>3.25</v>
+      </c>
+      <c r="W267">
+        <v>1.33</v>
+      </c>
+      <c r="X267">
+        <v>7.5</v>
+      </c>
+      <c r="Y267">
+        <v>1.07</v>
+      </c>
+      <c r="Z267">
+        <v>3.54</v>
+      </c>
+      <c r="AA267">
+        <v>1.56</v>
+      </c>
+      <c r="AB267">
+        <v>5.33</v>
+      </c>
+      <c r="AC267">
+        <v>1.06</v>
+      </c>
+      <c r="AD267">
+        <v>8</v>
+      </c>
+      <c r="AE267">
+        <v>1.51</v>
+      </c>
+      <c r="AF267">
+        <v>2.32</v>
+      </c>
+      <c r="AG267">
+        <v>2.06</v>
+      </c>
+      <c r="AH267">
+        <v>1.68</v>
+      </c>
+      <c r="AI267">
+        <v>1.83</v>
+      </c>
+      <c r="AJ267">
+        <v>1.83</v>
+      </c>
+      <c r="AK267">
+        <v>1.44</v>
+      </c>
+      <c r="AL267">
+        <v>1.28</v>
+      </c>
+      <c r="AM267">
+        <v>1.48</v>
+      </c>
+      <c r="AN267">
+        <v>1.29</v>
+      </c>
+      <c r="AO267">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP267">
+        <v>1.39</v>
+      </c>
+      <c r="AQ267">
+        <v>0.76</v>
+      </c>
+      <c r="AR267">
+        <v>1.2</v>
+      </c>
+      <c r="AS267">
+        <v>1.31</v>
+      </c>
+      <c r="AT267">
+        <v>2.51</v>
+      </c>
+      <c r="AU267">
+        <v>7</v>
+      </c>
+      <c r="AV267">
+        <v>8</v>
+      </c>
+      <c r="AW267">
+        <v>6</v>
+      </c>
+      <c r="AX267">
+        <v>8</v>
+      </c>
+      <c r="AY267">
+        <v>13</v>
+      </c>
+      <c r="AZ267">
+        <v>16</v>
+      </c>
+      <c r="BA267">
+        <v>1</v>
+      </c>
+      <c r="BB267">
+        <v>8</v>
+      </c>
+      <c r="BC267">
+        <v>9</v>
+      </c>
+      <c r="BD267">
+        <v>1.96</v>
+      </c>
+      <c r="BE267">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF267">
+        <v>2.03</v>
+      </c>
+      <c r="BG267">
+        <v>1.21</v>
+      </c>
+      <c r="BH267">
+        <v>3.9</v>
+      </c>
+      <c r="BI267">
+        <v>1.4</v>
+      </c>
+      <c r="BJ267">
+        <v>2.7</v>
+      </c>
+      <c r="BK267">
+        <v>1.67</v>
+      </c>
+      <c r="BL267">
+        <v>2.07</v>
+      </c>
+      <c r="BM267">
+        <v>2.07</v>
+      </c>
+      <c r="BN267">
+        <v>1.67</v>
+      </c>
+      <c r="BO267">
+        <v>2.6</v>
+      </c>
+      <c r="BP267">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7415246</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45419.54166666666</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268" t="s">
+        <v>84</v>
+      </c>
+      <c r="H268" t="s">
+        <v>79</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>88</v>
+      </c>
+      <c r="P268" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q268">
+        <v>3.4</v>
+      </c>
+      <c r="R268">
+        <v>1.95</v>
+      </c>
+      <c r="S268">
+        <v>3.4</v>
+      </c>
+      <c r="T268">
+        <v>1.53</v>
+      </c>
+      <c r="U268">
+        <v>2.38</v>
+      </c>
+      <c r="V268">
+        <v>3.75</v>
+      </c>
+      <c r="W268">
+        <v>1.25</v>
+      </c>
+      <c r="X268">
+        <v>8.5</v>
+      </c>
+      <c r="Y268">
+        <v>1.05</v>
+      </c>
+      <c r="Z268">
+        <v>4.07</v>
+      </c>
+      <c r="AA268">
+        <v>1.83</v>
+      </c>
+      <c r="AB268">
+        <v>3.16</v>
+      </c>
+      <c r="AC268">
+        <v>1.08</v>
+      </c>
+      <c r="AD268">
+        <v>7</v>
+      </c>
+      <c r="AE268">
+        <v>1.47</v>
+      </c>
+      <c r="AF268">
+        <v>2.55</v>
+      </c>
+      <c r="AG268">
+        <v>2.36</v>
+      </c>
+      <c r="AH268">
+        <v>1.52</v>
+      </c>
+      <c r="AI268">
+        <v>2.1</v>
+      </c>
+      <c r="AJ268">
+        <v>1.67</v>
+      </c>
+      <c r="AK268">
+        <v>1.47</v>
+      </c>
+      <c r="AL268">
+        <v>1.28</v>
+      </c>
+      <c r="AM268">
+        <v>1.47</v>
+      </c>
+      <c r="AN268">
+        <v>0.44</v>
+      </c>
+      <c r="AO268">
+        <v>0.47</v>
+      </c>
+      <c r="AP268">
+        <v>0.41</v>
+      </c>
+      <c r="AQ268">
+        <v>0.61</v>
+      </c>
+      <c r="AR268">
+        <v>1.29</v>
+      </c>
+      <c r="AS268">
+        <v>1.04</v>
+      </c>
+      <c r="AT268">
+        <v>2.33</v>
+      </c>
+      <c r="AU268">
+        <v>3</v>
+      </c>
+      <c r="AV268">
+        <v>8</v>
+      </c>
+      <c r="AW268">
+        <v>5</v>
+      </c>
+      <c r="AX268">
+        <v>4</v>
+      </c>
+      <c r="AY268">
+        <v>8</v>
+      </c>
+      <c r="AZ268">
+        <v>12</v>
+      </c>
+      <c r="BA268">
+        <v>6</v>
+      </c>
+      <c r="BB268">
+        <v>3</v>
+      </c>
+      <c r="BC268">
+        <v>9</v>
+      </c>
+      <c r="BD268">
+        <v>2.71</v>
+      </c>
+      <c r="BE268">
+        <v>8.1</v>
+      </c>
+      <c r="BF268">
+        <v>1.6</v>
+      </c>
+      <c r="BG268">
+        <v>1.49</v>
+      </c>
+      <c r="BH268">
+        <v>2.43</v>
+      </c>
+      <c r="BI268">
+        <v>1.9</v>
+      </c>
+      <c r="BJ268">
+        <v>1.9</v>
+      </c>
+      <c r="BK268">
+        <v>2.36</v>
+      </c>
+      <c r="BL268">
+        <v>1.52</v>
+      </c>
+      <c r="BM268">
+        <v>3.11</v>
+      </c>
+      <c r="BN268">
+        <v>1.32</v>
+      </c>
+      <c r="BO268">
+        <v>4.4</v>
+      </c>
+      <c r="BP268">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7415245</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45419.58333333334</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269" t="s">
+        <v>72</v>
+      </c>
+      <c r="H269" t="s">
+        <v>80</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>3</v>
+      </c>
+      <c r="K269">
+        <v>4</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>3</v>
+      </c>
+      <c r="N269">
+        <v>5</v>
+      </c>
+      <c r="O269" t="s">
+        <v>262</v>
+      </c>
+      <c r="P269" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q269">
+        <v>2.75</v>
+      </c>
+      <c r="R269">
+        <v>2.05</v>
+      </c>
+      <c r="S269">
+        <v>4</v>
+      </c>
+      <c r="T269">
+        <v>1.44</v>
+      </c>
+      <c r="U269">
+        <v>2.63</v>
+      </c>
+      <c r="V269">
+        <v>3.25</v>
+      </c>
+      <c r="W269">
+        <v>1.33</v>
+      </c>
+      <c r="X269">
+        <v>7.5</v>
+      </c>
+      <c r="Y269">
+        <v>1.07</v>
+      </c>
+      <c r="Z269">
+        <v>1.57</v>
+      </c>
+      <c r="AA269">
+        <v>5.2</v>
+      </c>
+      <c r="AB269">
+        <v>3.54</v>
+      </c>
+      <c r="AC269">
+        <v>1.06</v>
+      </c>
+      <c r="AD269">
+        <v>8</v>
+      </c>
+      <c r="AE269">
+        <v>1.36</v>
+      </c>
+      <c r="AF269">
+        <v>2.95</v>
+      </c>
+      <c r="AG269">
+        <v>1.81</v>
+      </c>
+      <c r="AH269">
+        <v>1.93</v>
+      </c>
+      <c r="AI269">
+        <v>1.91</v>
+      </c>
+      <c r="AJ269">
+        <v>1.8</v>
+      </c>
+      <c r="AK269">
+        <v>1.27</v>
+      </c>
+      <c r="AL269">
+        <v>1.28</v>
+      </c>
+      <c r="AM269">
+        <v>1.68</v>
+      </c>
+      <c r="AN269">
+        <v>1.5</v>
+      </c>
+      <c r="AO269">
+        <v>0.65</v>
+      </c>
+      <c r="AP269">
+        <v>1.41</v>
+      </c>
+      <c r="AQ269">
+        <v>0.78</v>
+      </c>
+      <c r="AR269">
+        <v>1.58</v>
+      </c>
+      <c r="AS269">
+        <v>1.35</v>
+      </c>
+      <c r="AT269">
+        <v>2.93</v>
+      </c>
+      <c r="AU269">
+        <v>6</v>
+      </c>
+      <c r="AV269">
+        <v>7</v>
+      </c>
+      <c r="AW269">
+        <v>6</v>
+      </c>
+      <c r="AX269">
+        <v>3</v>
+      </c>
+      <c r="AY269">
+        <v>12</v>
+      </c>
+      <c r="AZ269">
+        <v>10</v>
+      </c>
+      <c r="BA269">
+        <v>10</v>
+      </c>
+      <c r="BB269">
+        <v>4</v>
+      </c>
+      <c r="BC269">
+        <v>14</v>
+      </c>
+      <c r="BD269">
+        <v>2.01</v>
+      </c>
+      <c r="BE269">
+        <v>8.1</v>
+      </c>
+      <c r="BF269">
+        <v>2.01</v>
+      </c>
+      <c r="BG269">
+        <v>1.36</v>
+      </c>
+      <c r="BH269">
+        <v>2.9</v>
+      </c>
+      <c r="BI269">
+        <v>1.62</v>
+      </c>
+      <c r="BJ269">
+        <v>2.15</v>
+      </c>
+      <c r="BK269">
+        <v>1.98</v>
+      </c>
+      <c r="BL269">
+        <v>1.82</v>
+      </c>
+      <c r="BM269">
+        <v>2.6</v>
+      </c>
+      <c r="BN269">
+        <v>1.44</v>
+      </c>
+      <c r="BO269">
+        <v>3.49</v>
+      </c>
+      <c r="BP269">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7415240</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45420.45833333334</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270" t="s">
+        <v>73</v>
+      </c>
+      <c r="H270" t="s">
+        <v>81</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>3</v>
+      </c>
+      <c r="L270">
+        <v>4</v>
+      </c>
+      <c r="M270">
+        <v>3</v>
+      </c>
+      <c r="N270">
+        <v>7</v>
+      </c>
+      <c r="O270" t="s">
+        <v>263</v>
+      </c>
+      <c r="P270" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q270">
+        <v>1.06</v>
+      </c>
+      <c r="R270">
+        <v>1.2</v>
+      </c>
+      <c r="S270">
+        <v>1.06</v>
+      </c>
+      <c r="T270">
+        <v>1.35</v>
+      </c>
+      <c r="U270">
+        <v>2.95</v>
+      </c>
+      <c r="V270">
+        <v>2.62</v>
+      </c>
+      <c r="W270">
+        <v>1.42</v>
+      </c>
+      <c r="X270">
+        <v>5.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.12</v>
+      </c>
+      <c r="Z270">
+        <v>1.75</v>
+      </c>
+      <c r="AA270">
+        <v>3.6</v>
+      </c>
+      <c r="AB270">
+        <v>3.8</v>
+      </c>
+      <c r="AC270">
+        <v>1.02</v>
+      </c>
+      <c r="AD270">
+        <v>12.5</v>
+      </c>
+      <c r="AE270">
+        <v>1.25</v>
+      </c>
+      <c r="AF270">
+        <v>3.8</v>
+      </c>
+      <c r="AG270">
+        <v>1.7</v>
+      </c>
+      <c r="AH270">
+        <v>2.05</v>
+      </c>
+      <c r="AI270">
+        <v>1.7</v>
+      </c>
+      <c r="AJ270">
+        <v>1.95</v>
+      </c>
+      <c r="AK270">
+        <v>1.01</v>
+      </c>
+      <c r="AL270">
+        <v>1.01</v>
+      </c>
+      <c r="AM270">
+        <v>1.01</v>
+      </c>
+      <c r="AN270">
+        <v>1.94</v>
+      </c>
+      <c r="AO270">
+        <v>1.38</v>
+      </c>
+      <c r="AP270">
+        <v>2</v>
+      </c>
+      <c r="AQ270">
+        <v>1.29</v>
+      </c>
+      <c r="AR270">
+        <v>1.77</v>
+      </c>
+      <c r="AS270">
+        <v>1.54</v>
+      </c>
+      <c r="AT270">
+        <v>3.31</v>
+      </c>
+      <c r="AU270">
+        <v>8</v>
+      </c>
+      <c r="AV270">
+        <v>7</v>
+      </c>
+      <c r="AW270">
+        <v>2</v>
+      </c>
+      <c r="AX270">
+        <v>7</v>
+      </c>
+      <c r="AY270">
+        <v>10</v>
+      </c>
+      <c r="AZ270">
+        <v>14</v>
+      </c>
+      <c r="BA270">
+        <v>4</v>
+      </c>
+      <c r="BB270">
+        <v>5</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>1.62</v>
+      </c>
+      <c r="BE270">
+        <v>8.1</v>
+      </c>
+      <c r="BF270">
+        <v>2.65</v>
+      </c>
+      <c r="BG270">
+        <v>1.49</v>
+      </c>
+      <c r="BH270">
+        <v>2.43</v>
+      </c>
+      <c r="BI270">
+        <v>1.9</v>
+      </c>
+      <c r="BJ270">
+        <v>1.9</v>
+      </c>
+      <c r="BK270">
+        <v>2.36</v>
+      </c>
+      <c r="BL270">
+        <v>1.52</v>
+      </c>
+      <c r="BM270">
+        <v>3.11</v>
+      </c>
+      <c r="BN270">
+        <v>1.32</v>
+      </c>
+      <c r="BO270">
+        <v>4.4</v>
+      </c>
+      <c r="BP270">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7415241</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45420.45833333334</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271" t="s">
+        <v>75</v>
+      </c>
+      <c r="H271" t="s">
+        <v>85</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>3</v>
+      </c>
+      <c r="N271">
+        <v>6</v>
+      </c>
+      <c r="O271" t="s">
+        <v>264</v>
+      </c>
+      <c r="P271" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q271">
+        <v>1.06</v>
+      </c>
+      <c r="R271">
+        <v>1.2</v>
+      </c>
+      <c r="S271">
+        <v>1.06</v>
+      </c>
+      <c r="T271">
+        <v>1.27</v>
+      </c>
+      <c r="U271">
+        <v>3.42</v>
+      </c>
+      <c r="V271">
+        <v>2.31</v>
+      </c>
+      <c r="W271">
+        <v>1.57</v>
+      </c>
+      <c r="X271">
+        <v>5.19</v>
+      </c>
+      <c r="Y271">
+        <v>1.12</v>
+      </c>
+      <c r="Z271">
+        <v>5.75</v>
+      </c>
+      <c r="AA271">
+        <v>4.33</v>
+      </c>
+      <c r="AB271">
+        <v>1.4</v>
+      </c>
+      <c r="AC271">
+        <v>1.03</v>
+      </c>
+      <c r="AD271">
+        <v>10</v>
+      </c>
+      <c r="AE271">
+        <v>1.2</v>
+      </c>
+      <c r="AF271">
+        <v>4.33</v>
+      </c>
+      <c r="AG271">
+        <v>1.7</v>
+      </c>
+      <c r="AH271">
+        <v>2</v>
+      </c>
+      <c r="AI271">
+        <v>1.77</v>
+      </c>
+      <c r="AJ271">
+        <v>1.85</v>
+      </c>
+      <c r="AK271">
+        <v>1.13</v>
+      </c>
+      <c r="AL271">
+        <v>1.01</v>
+      </c>
+      <c r="AM271">
+        <v>1.01</v>
+      </c>
+      <c r="AN271">
+        <v>1.13</v>
+      </c>
+      <c r="AO271">
+        <v>2.06</v>
+      </c>
+      <c r="AP271">
+        <v>1.12</v>
+      </c>
+      <c r="AQ271">
+        <v>2</v>
+      </c>
+      <c r="AR271">
+        <v>1.29</v>
+      </c>
+      <c r="AS271">
+        <v>1.82</v>
+      </c>
+      <c r="AT271">
+        <v>3.11</v>
+      </c>
+      <c r="AU271">
+        <v>5</v>
+      </c>
+      <c r="AV271">
+        <v>16</v>
+      </c>
+      <c r="AW271">
+        <v>6</v>
+      </c>
+      <c r="AX271">
+        <v>10</v>
+      </c>
+      <c r="AY271">
+        <v>11</v>
+      </c>
+      <c r="AZ271">
+        <v>26</v>
+      </c>
+      <c r="BA271">
+        <v>3</v>
+      </c>
+      <c r="BB271">
+        <v>8</v>
+      </c>
+      <c r="BC271">
+        <v>11</v>
+      </c>
+      <c r="BD271">
+        <v>3.84</v>
+      </c>
+      <c r="BE271">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF271">
+        <v>1.33</v>
+      </c>
+      <c r="BG271">
+        <v>1.43</v>
+      </c>
+      <c r="BH271">
+        <v>2.65</v>
+      </c>
+      <c r="BI271">
+        <v>1.73</v>
+      </c>
+      <c r="BJ271">
+        <v>2</v>
+      </c>
+      <c r="BK271">
+        <v>2.2</v>
+      </c>
+      <c r="BL271">
+        <v>1.6</v>
+      </c>
+      <c r="BM271">
+        <v>2.8</v>
+      </c>
+      <c r="BN271">
+        <v>1.38</v>
+      </c>
+      <c r="BO271">
+        <v>3.9</v>
+      </c>
+      <c r="BP271">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7415242</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45420.54166666666</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+      <c r="G272" t="s">
+        <v>82</v>
+      </c>
+      <c r="H272" t="s">
+        <v>71</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>2</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>3</v>
+      </c>
+      <c r="N272">
+        <v>5</v>
+      </c>
+      <c r="O272" t="s">
+        <v>265</v>
+      </c>
+      <c r="P272" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q272">
+        <v>1.06</v>
+      </c>
+      <c r="R272">
+        <v>1.2</v>
+      </c>
+      <c r="S272">
+        <v>1.06</v>
+      </c>
+      <c r="T272">
+        <v>1.36</v>
+      </c>
+      <c r="U272">
+        <v>3</v>
+      </c>
+      <c r="V272">
+        <v>2.62</v>
+      </c>
+      <c r="W272">
+        <v>1.44</v>
+      </c>
+      <c r="X272">
+        <v>6</v>
+      </c>
+      <c r="Y272">
+        <v>1.11</v>
+      </c>
+      <c r="Z272">
+        <v>2.2</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>2.8</v>
+      </c>
+      <c r="AC272">
+        <v>1.05</v>
+      </c>
+      <c r="AD272">
+        <v>9</v>
+      </c>
+      <c r="AE272">
+        <v>1.26</v>
+      </c>
+      <c r="AF272">
+        <v>3.44</v>
+      </c>
+      <c r="AG272">
+        <v>1.8</v>
+      </c>
+      <c r="AH272">
+        <v>1.91</v>
+      </c>
+      <c r="AI272">
+        <v>1.67</v>
+      </c>
+      <c r="AJ272">
+        <v>2.1</v>
+      </c>
+      <c r="AK272">
+        <v>1.01</v>
+      </c>
+      <c r="AL272">
+        <v>1.01</v>
+      </c>
+      <c r="AM272">
+        <v>1.07</v>
+      </c>
+      <c r="AN272">
+        <v>2</v>
+      </c>
+      <c r="AO272">
+        <v>1.19</v>
+      </c>
+      <c r="AP272">
+        <v>1.88</v>
+      </c>
+      <c r="AQ272">
+        <v>1.29</v>
+      </c>
+      <c r="AR272">
+        <v>1.79</v>
+      </c>
+      <c r="AS272">
+        <v>1.43</v>
+      </c>
+      <c r="AT272">
+        <v>3.22</v>
+      </c>
+      <c r="AU272">
+        <v>5</v>
+      </c>
+      <c r="AV272">
+        <v>5</v>
+      </c>
+      <c r="AW272">
+        <v>6</v>
+      </c>
+      <c r="AX272">
+        <v>1</v>
+      </c>
+      <c r="AY272">
+        <v>11</v>
+      </c>
+      <c r="AZ272">
+        <v>6</v>
+      </c>
+      <c r="BA272">
+        <v>7</v>
+      </c>
+      <c r="BB272">
+        <v>1</v>
+      </c>
+      <c r="BC272">
+        <v>8</v>
+      </c>
+      <c r="BD272">
+        <v>1.78</v>
+      </c>
+      <c r="BE272">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF272">
+        <v>2.3</v>
+      </c>
+      <c r="BG272">
+        <v>1.35</v>
+      </c>
+      <c r="BH272">
+        <v>2.84</v>
+      </c>
+      <c r="BI272">
+        <v>1.63</v>
+      </c>
+      <c r="BJ272">
+        <v>2.09</v>
+      </c>
+      <c r="BK272">
+        <v>2.09</v>
+      </c>
+      <c r="BL272">
+        <v>1.63</v>
+      </c>
+      <c r="BM272">
+        <v>2.79</v>
+      </c>
+      <c r="BN272">
+        <v>1.36</v>
+      </c>
+      <c r="BO272">
+        <v>3.92</v>
+      </c>
+      <c r="BP272">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7415239</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45420.5625</v>
+      </c>
+      <c r="F273">
+        <v>4</v>
+      </c>
+      <c r="G273" t="s">
+        <v>77</v>
+      </c>
+      <c r="H273" t="s">
+        <v>76</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>88</v>
+      </c>
+      <c r="P273" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>0</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>0</v>
+      </c>
+      <c r="V273">
+        <v>0</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>9</v>
+      </c>
+      <c r="AA273">
+        <v>6.5</v>
+      </c>
+      <c r="AB273">
+        <v>1.18</v>
+      </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
+      <c r="AE273">
+        <v>0</v>
+      </c>
+      <c r="AF273">
+        <v>0</v>
+      </c>
+      <c r="AG273">
+        <v>1.47</v>
+      </c>
+      <c r="AH273">
+        <v>2.33</v>
+      </c>
+      <c r="AI273">
+        <v>0</v>
+      </c>
+      <c r="AJ273">
+        <v>0</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>1.75</v>
+      </c>
+      <c r="AO273">
+        <v>2.31</v>
+      </c>
+      <c r="AP273">
+        <v>1.65</v>
+      </c>
+      <c r="AQ273">
+        <v>2.35</v>
+      </c>
+      <c r="AR273">
+        <v>1.2</v>
+      </c>
+      <c r="AS273">
+        <v>1.93</v>
+      </c>
+      <c r="AT273">
+        <v>3.13</v>
+      </c>
+      <c r="AU273">
+        <v>4</v>
+      </c>
+      <c r="AV273">
+        <v>4</v>
+      </c>
+      <c r="AW273">
+        <v>3</v>
+      </c>
+      <c r="AX273">
+        <v>7</v>
+      </c>
+      <c r="AY273">
+        <v>7</v>
+      </c>
+      <c r="AZ273">
+        <v>11</v>
+      </c>
+      <c r="BA273">
+        <v>0</v>
+      </c>
+      <c r="BB273">
+        <v>13</v>
+      </c>
+      <c r="BC273">
+        <v>13</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -1186,7 +1186,7 @@
     <t>['60', '78', '90+1']</t>
   </si>
   <si>
-    <t>['6', '80', '89']</t>
+    <t>['7', '80', '89']</t>
   </si>
   <si>
     <t>['11', '43', '59']</t>
@@ -57526,22 +57526,22 @@
         <v>3.22</v>
       </c>
       <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>2</v>
+      </c>
+      <c r="AW272">
         <v>5</v>
       </c>
-      <c r="AV272">
-        <v>5</v>
-      </c>
-      <c r="AW272">
-        <v>6</v>
-      </c>
       <c r="AX272">
         <v>1</v>
       </c>
       <c r="AY272">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ272">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA272">
         <v>7</v>
@@ -57735,7 +57735,7 @@
         <v>4</v>
       </c>
       <c r="AV273">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW273">
         <v>3</v>
@@ -57747,16 +57747,16 @@
         <v>7</v>
       </c>
       <c r="AZ273">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA273">
         <v>0</v>
       </c>
       <c r="BB273">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC273">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD273">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -57526,22 +57526,22 @@
         <v>3.22</v>
       </c>
       <c r="AU272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV272">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX272">
         <v>1</v>
       </c>
       <c r="AY272">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ272">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA272">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['21', '44', '63', '64']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -1569,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2446,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -3351,7 +3354,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ9">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3476,7 +3479,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3682,7 +3685,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3888,7 +3891,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3966,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -4300,7 +4303,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4506,7 +4509,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4712,7 +4715,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -5124,7 +5127,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5330,7 +5333,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5411,7 +5414,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ19">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -5742,7 +5745,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -6566,7 +6569,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6978,7 +6981,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7468,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ29">
         <v>0.61</v>
@@ -7802,7 +7805,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -8626,7 +8629,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8832,7 +8835,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9244,7 +9247,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9531,7 +9534,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ39">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR39">
         <v>1.87</v>
@@ -9656,7 +9659,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -10068,7 +10071,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -11098,7 +11101,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11304,7 +11307,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11382,7 +11385,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11510,7 +11513,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11716,7 +11719,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11922,7 +11925,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12540,7 +12543,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12952,7 +12955,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13033,7 +13036,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ56">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR56">
         <v>2.67</v>
@@ -13776,7 +13779,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -13854,7 +13857,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -14188,7 +14191,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14394,7 +14397,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14600,7 +14603,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -15424,7 +15427,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15630,7 +15633,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15708,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ69">
         <v>1.22</v>
@@ -16123,7 +16126,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16248,7 +16251,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16660,7 +16663,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -17072,7 +17075,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17484,7 +17487,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17896,7 +17899,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18102,7 +18105,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18308,7 +18311,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18514,7 +18517,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18801,7 +18804,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ84">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18926,7 +18929,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19132,7 +19135,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19210,7 +19213,7 @@
         <v>0.6</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19338,7 +19341,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19544,7 +19547,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19956,7 +19959,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -20574,7 +20577,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -21398,7 +21401,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21479,7 +21482,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ97">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97">
         <v>2.46</v>
@@ -21604,7 +21607,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21810,7 +21813,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -22016,7 +22019,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22222,7 +22225,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22428,7 +22431,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22634,7 +22637,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23458,7 +23461,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23664,7 +23667,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -23742,7 +23745,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ108">
         <v>2.35</v>
@@ -24488,7 +24491,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24900,7 +24903,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -25106,7 +25109,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25312,7 +25315,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25518,7 +25521,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25724,7 +25727,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25930,7 +25933,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -26214,7 +26217,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ120">
         <v>1.17</v>
@@ -26835,7 +26838,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ123">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR123">
         <v>1.19</v>
@@ -28402,7 +28405,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28686,7 +28689,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ132">
         <v>1.18</v>
@@ -28814,7 +28817,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29020,7 +29023,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29432,7 +29435,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29925,7 +29928,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
         <v>1.57</v>
@@ -30050,7 +30053,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30462,7 +30465,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30668,7 +30671,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30874,7 +30877,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -31286,7 +31289,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31573,7 +31576,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ146">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -32316,7 +32319,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32728,7 +32731,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -33140,7 +33143,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33346,7 +33349,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33424,7 +33427,7 @@
         <v>0.89</v>
       </c>
       <c r="AP155">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155">
         <v>1.06</v>
@@ -33758,7 +33761,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -34170,7 +34173,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34376,7 +34379,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34582,7 +34585,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34788,7 +34791,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -34994,7 +34997,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -35406,7 +35409,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35899,7 +35902,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ167">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR167">
         <v>1.91</v>
@@ -36230,7 +36233,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36436,7 +36439,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36642,7 +36645,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -37054,7 +37057,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37132,7 +37135,7 @@
         <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ173">
         <v>2.06</v>
@@ -37260,7 +37263,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37466,7 +37469,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -38290,7 +38293,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38496,7 +38499,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38702,7 +38705,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -39114,7 +39117,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39195,7 +39198,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ183">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR183">
         <v>1.6</v>
@@ -39526,7 +39529,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -40144,7 +40147,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40968,7 +40971,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -41174,7 +41177,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41252,7 +41255,7 @@
         <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ193">
         <v>0.76</v>
@@ -41586,7 +41589,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41792,7 +41795,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -42079,7 +42082,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ197">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR197">
         <v>1.44</v>
@@ -42204,7 +42207,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42822,7 +42825,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -43234,7 +43237,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43440,7 +43443,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -44342,7 +44345,7 @@
         <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ208">
         <v>0.61</v>
@@ -44882,7 +44885,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45912,7 +45915,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -46324,7 +46327,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46736,7 +46739,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46814,10 +46817,10 @@
         <v>0.54</v>
       </c>
       <c r="AP220">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ220">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR220">
         <v>1.61</v>
@@ -47148,7 +47151,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47354,7 +47357,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47972,7 +47975,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -48050,7 +48053,7 @@
         <v>1.14</v>
       </c>
       <c r="AP226">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ226">
         <v>1.29</v>
@@ -48384,7 +48387,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48590,7 +48593,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -49208,7 +49211,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49620,7 +49623,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49826,7 +49829,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -49907,7 +49910,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ235">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR235">
         <v>1.29</v>
@@ -50238,7 +50241,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50444,7 +50447,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50650,7 +50653,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -51062,7 +51065,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51268,7 +51271,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51474,7 +51477,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51680,7 +51683,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -52379,7 +52382,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ247">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR247">
         <v>1.56</v>
@@ -53328,7 +53331,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53534,7 +53537,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53818,7 +53821,7 @@
         <v>0.8</v>
       </c>
       <c r="AP254">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ254">
         <v>0.76</v>
@@ -54152,7 +54155,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54358,7 +54361,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54770,7 +54773,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q259">
         <v>2.15</v>
@@ -54851,7 +54854,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ259">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR259">
         <v>1.5</v>
@@ -55388,7 +55391,7 @@
         <v>257</v>
       </c>
       <c r="P262" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55594,7 +55597,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -56624,7 +56627,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56830,7 +56833,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57036,7 +57039,7 @@
         <v>263</v>
       </c>
       <c r="P270" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q270">
         <v>1.06</v>
@@ -57242,7 +57245,7 @@
         <v>264</v>
       </c>
       <c r="P271" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q271">
         <v>1.06</v>
@@ -57448,7 +57451,7 @@
         <v>265</v>
       </c>
       <c r="P272" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q272">
         <v>1.06</v>
@@ -57654,7 +57657,7 @@
         <v>88</v>
       </c>
       <c r="P273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -58272,7 +58275,7 @@
         <v>268</v>
       </c>
       <c r="P276" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q276">
         <v>1.36</v>
@@ -58365,22 +58368,22 @@
         <v>4.03</v>
       </c>
       <c r="AU276">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV276">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW276">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY276">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ276">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA276">
         <v>4</v>
@@ -58571,13 +58574,13 @@
         <v>3.06</v>
       </c>
       <c r="AU277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV277">
         <v>4</v>
       </c>
       <c r="AW277">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX277">
         <v>2</v>
@@ -58777,31 +58780,31 @@
         <v>2.87</v>
       </c>
       <c r="AU278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW278">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY278">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ278">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB278">
         <v>0</v>
       </c>
       <c r="BC278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD278">
         <v>2.08</v>
@@ -58983,31 +58986,31 @@
         <v>2.56</v>
       </c>
       <c r="AU279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV279">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW279">
+        <v>9</v>
+      </c>
+      <c r="AX279">
         <v>4</v>
       </c>
-      <c r="AX279">
-        <v>2</v>
-      </c>
       <c r="AY279">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ279">
+        <v>9</v>
+      </c>
+      <c r="BA279">
+        <v>6</v>
+      </c>
+      <c r="BB279">
         <v>5</v>
       </c>
-      <c r="BA279">
-        <v>2</v>
-      </c>
-      <c r="BB279">
-        <v>4</v>
-      </c>
       <c r="BC279">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD279">
         <v>1.68</v>
@@ -59192,28 +59195,28 @@
         <v>5</v>
       </c>
       <c r="AV280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW280">
         <v>5</v>
       </c>
       <c r="AX280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY280">
         <v>10</v>
       </c>
       <c r="AZ280">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA280">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB280">
         <v>4</v>
       </c>
       <c r="BC280">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD280">
         <v>1.77</v>
@@ -59253,6 +59256,212 @@
       </c>
       <c r="BP280">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7415254</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45425.625</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="G281" t="s">
+        <v>80</v>
+      </c>
+      <c r="H281" t="s">
+        <v>84</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>4</v>
+      </c>
+      <c r="O281" t="s">
+        <v>271</v>
+      </c>
+      <c r="P281" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q281">
+        <v>2.09</v>
+      </c>
+      <c r="R281">
+        <v>2.21</v>
+      </c>
+      <c r="S281">
+        <v>6.71</v>
+      </c>
+      <c r="T281">
+        <v>1.42</v>
+      </c>
+      <c r="U281">
+        <v>2.73</v>
+      </c>
+      <c r="V281">
+        <v>2.97</v>
+      </c>
+      <c r="W281">
+        <v>1.36</v>
+      </c>
+      <c r="X281">
+        <v>7.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.06</v>
+      </c>
+      <c r="Z281">
+        <v>1.42</v>
+      </c>
+      <c r="AA281">
+        <v>3.6</v>
+      </c>
+      <c r="AB281">
+        <v>5.6</v>
+      </c>
+      <c r="AC281">
+        <v>1.02</v>
+      </c>
+      <c r="AD281">
+        <v>8.9</v>
+      </c>
+      <c r="AE281">
+        <v>1.32</v>
+      </c>
+      <c r="AF281">
+        <v>3.07</v>
+      </c>
+      <c r="AG281">
+        <v>2</v>
+      </c>
+      <c r="AH281">
+        <v>1.8</v>
+      </c>
+      <c r="AI281">
+        <v>2.1</v>
+      </c>
+      <c r="AJ281">
+        <v>1.7</v>
+      </c>
+      <c r="AK281">
+        <v>1.08</v>
+      </c>
+      <c r="AL281">
+        <v>1.2</v>
+      </c>
+      <c r="AM281">
+        <v>2.48</v>
+      </c>
+      <c r="AN281">
+        <v>1.13</v>
+      </c>
+      <c r="AO281">
+        <v>0.59</v>
+      </c>
+      <c r="AP281">
+        <v>1.24</v>
+      </c>
+      <c r="AQ281">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR281">
+        <v>1.59</v>
+      </c>
+      <c r="AS281">
+        <v>0.91</v>
+      </c>
+      <c r="AT281">
+        <v>2.5</v>
+      </c>
+      <c r="AU281">
+        <v>8</v>
+      </c>
+      <c r="AV281">
+        <v>2</v>
+      </c>
+      <c r="AW281">
+        <v>7</v>
+      </c>
+      <c r="AX281">
+        <v>6</v>
+      </c>
+      <c r="AY281">
+        <v>15</v>
+      </c>
+      <c r="AZ281">
+        <v>8</v>
+      </c>
+      <c r="BA281">
+        <v>5</v>
+      </c>
+      <c r="BB281">
+        <v>2</v>
+      </c>
+      <c r="BC281">
+        <v>7</v>
+      </c>
+      <c r="BD281">
+        <v>1.25</v>
+      </c>
+      <c r="BE281">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF281">
+        <v>6.13</v>
+      </c>
+      <c r="BG281">
+        <v>1.41</v>
+      </c>
+      <c r="BH281">
+        <v>2.7</v>
+      </c>
+      <c r="BI281">
+        <v>1.92</v>
+      </c>
+      <c r="BJ281">
+        <v>1.88</v>
+      </c>
+      <c r="BK281">
+        <v>2.15</v>
+      </c>
+      <c r="BL281">
+        <v>1.63</v>
+      </c>
+      <c r="BM281">
+        <v>2.75</v>
+      </c>
+      <c r="BN281">
+        <v>1.39</v>
+      </c>
+      <c r="BO281">
+        <v>3.8</v>
+      </c>
+      <c r="BP281">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1212,6 +1212,9 @@
   <si>
     <t>['24', '38']</t>
   </si>
+  <si>
+    <t>['8', '42', '45+1', '68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1572,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2939,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ7">
         <v>0.78</v>
@@ -3148,7 +3151,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4381,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
         <v>1.22</v>
@@ -5208,7 +5211,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ18">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR18">
         <v>0.6899999999999999</v>
@@ -6029,10 +6032,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR22">
         <v>1.47</v>
@@ -8089,7 +8092,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
         <v>0.83</v>
@@ -8710,7 +8713,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ35">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR35">
         <v>1.9</v>
@@ -8916,7 +8919,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR36">
         <v>0.88</v>
@@ -10149,7 +10152,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
         <v>0.61</v>
@@ -11594,7 +11597,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR49">
         <v>1.89</v>
@@ -12212,7 +12215,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR52">
         <v>1.47</v>
@@ -12415,7 +12418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
         <v>0.61</v>
@@ -15505,7 +15508,7 @@
         <v>2.5</v>
       </c>
       <c r="AP68">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -16538,7 +16541,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR73">
         <v>1.5</v>
@@ -17153,10 +17156,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR76">
         <v>1.72</v>
@@ -17977,7 +17980,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
         <v>1.22</v>
@@ -19419,7 +19422,7 @@
         <v>2.67</v>
       </c>
       <c r="AP87">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
         <v>2</v>
@@ -20040,7 +20043,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ90">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR90">
         <v>1.36</v>
@@ -20449,7 +20452,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20658,7 +20661,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR93">
         <v>1.72</v>
@@ -22715,7 +22718,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
         <v>1.06</v>
@@ -23333,7 +23336,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ106">
         <v>0.61</v>
@@ -23748,7 +23751,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR108">
         <v>1.51</v>
@@ -24572,7 +24575,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR112">
         <v>2.06</v>
@@ -24775,7 +24778,7 @@
         <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113">
         <v>1.22</v>
@@ -25396,7 +25399,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ116">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR116">
         <v>1.73</v>
@@ -25805,7 +25808,7 @@
         <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
         <v>1.06</v>
@@ -27250,7 +27253,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ125">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR125">
         <v>2.21</v>
@@ -27865,10 +27868,10 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR128">
         <v>1.27</v>
@@ -28277,7 +28280,7 @@
         <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
         <v>2.06</v>
@@ -30340,7 +30343,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR140">
         <v>1.71</v>
@@ -30752,7 +30755,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ142">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR142">
         <v>1.16</v>
@@ -31573,7 +31576,7 @@
         <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
         <v>0.5600000000000001</v>
@@ -31782,7 +31785,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ147">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR147">
         <v>2.18</v>
@@ -32400,7 +32403,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR150">
         <v>1.54</v>
@@ -34251,7 +34254,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
         <v>0.76</v>
@@ -34663,7 +34666,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
         <v>1.18</v>
@@ -34872,7 +34875,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ162">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR162">
         <v>1.47</v>
@@ -35487,10 +35490,10 @@
         <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR165">
         <v>1.38</v>
@@ -37547,7 +37550,7 @@
         <v>0.9</v>
       </c>
       <c r="AP175">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ175">
         <v>1.06</v>
@@ -38165,7 +38168,7 @@
         <v>0.91</v>
       </c>
       <c r="AP178">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38580,7 +38583,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR180">
         <v>1.46</v>
@@ -38786,7 +38789,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR181">
         <v>1.92</v>
@@ -40019,7 +40022,7 @@
         <v>2.27</v>
       </c>
       <c r="AP187">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
         <v>2.06</v>
@@ -42288,7 +42291,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ198">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42491,7 +42494,7 @@
         <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
         <v>0.78</v>
@@ -42906,7 +42909,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ201">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR201">
         <v>1.63</v>
@@ -44551,7 +44554,7 @@
         <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ209">
         <v>0.76</v>
@@ -44966,7 +44969,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ211">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR211">
         <v>1.32</v>
@@ -45581,7 +45584,7 @@
         <v>1.54</v>
       </c>
       <c r="AP214">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ214">
         <v>1.17</v>
@@ -45996,7 +45999,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ216">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR216">
         <v>1.43</v>
@@ -47847,7 +47850,7 @@
         <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
         <v>0.61</v>
@@ -48056,7 +48059,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ226">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
         <v>1.6</v>
@@ -48465,7 +48468,7 @@
         <v>1.14</v>
       </c>
       <c r="AP228">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
         <v>1.18</v>
@@ -48674,7 +48677,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ229">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR229">
         <v>1.29</v>
@@ -49907,7 +49910,7 @@
         <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ235">
         <v>0.5600000000000001</v>
@@ -51349,7 +51352,7 @@
         <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ242">
         <v>1.22</v>
@@ -51558,7 +51561,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ243">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR243">
         <v>1.79</v>
@@ -54030,7 +54033,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ255">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR255">
         <v>1.81</v>
@@ -54233,7 +54236,7 @@
         <v>1.27</v>
       </c>
       <c r="AP256">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ256">
         <v>1.22</v>
@@ -55469,7 +55472,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ262">
         <v>0.83</v>
@@ -55678,7 +55681,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ263">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR263">
         <v>1.97</v>
@@ -57323,7 +57326,7 @@
         <v>2.06</v>
       </c>
       <c r="AP271">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ271">
         <v>2</v>
@@ -57738,7 +57741,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ273">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AR273">
         <v>1.2</v>
@@ -59462,6 +59465,418 @@
       </c>
       <c r="BP281">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7415256</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45428.49652777778</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>81</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282" t="s">
+        <v>88</v>
+      </c>
+      <c r="P282" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>2.2</v>
+      </c>
+      <c r="S282">
+        <v>3.1</v>
+      </c>
+      <c r="T282">
+        <v>1.35</v>
+      </c>
+      <c r="U282">
+        <v>3.04</v>
+      </c>
+      <c r="V282">
+        <v>2.62</v>
+      </c>
+      <c r="W282">
+        <v>1.45</v>
+      </c>
+      <c r="X282">
+        <v>6.4</v>
+      </c>
+      <c r="Y282">
+        <v>1.09</v>
+      </c>
+      <c r="Z282">
+        <v>2.45</v>
+      </c>
+      <c r="AA282">
+        <v>3.47</v>
+      </c>
+      <c r="AB282">
+        <v>2.6</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>9.9</v>
+      </c>
+      <c r="AE282">
+        <v>1.23</v>
+      </c>
+      <c r="AF282">
+        <v>3.56</v>
+      </c>
+      <c r="AG282">
+        <v>1.75</v>
+      </c>
+      <c r="AH282">
+        <v>1.95</v>
+      </c>
+      <c r="AI282">
+        <v>1.61</v>
+      </c>
+      <c r="AJ282">
+        <v>2.12</v>
+      </c>
+      <c r="AK282">
+        <v>1.01</v>
+      </c>
+      <c r="AL282">
+        <v>1.01</v>
+      </c>
+      <c r="AM282">
+        <v>1.72</v>
+      </c>
+      <c r="AN282">
+        <v>2.18</v>
+      </c>
+      <c r="AO282">
+        <v>1.29</v>
+      </c>
+      <c r="AP282">
+        <v>2.11</v>
+      </c>
+      <c r="AQ282">
+        <v>1.28</v>
+      </c>
+      <c r="AR282">
+        <v>1.61</v>
+      </c>
+      <c r="AS282">
+        <v>1.53</v>
+      </c>
+      <c r="AT282">
+        <v>3.14</v>
+      </c>
+      <c r="AU282">
+        <v>5</v>
+      </c>
+      <c r="AV282">
+        <v>5</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>5</v>
+      </c>
+      <c r="AY282">
+        <v>10</v>
+      </c>
+      <c r="AZ282">
+        <v>10</v>
+      </c>
+      <c r="BA282">
+        <v>6</v>
+      </c>
+      <c r="BB282">
+        <v>10</v>
+      </c>
+      <c r="BC282">
+        <v>16</v>
+      </c>
+      <c r="BD282">
+        <v>2.21</v>
+      </c>
+      <c r="BE282">
+        <v>6.1</v>
+      </c>
+      <c r="BF282">
+        <v>2.15</v>
+      </c>
+      <c r="BG282">
+        <v>1.58</v>
+      </c>
+      <c r="BH282">
+        <v>2.23</v>
+      </c>
+      <c r="BI282">
+        <v>2</v>
+      </c>
+      <c r="BJ282">
+        <v>1.73</v>
+      </c>
+      <c r="BK282">
+        <v>2.55</v>
+      </c>
+      <c r="BL282">
+        <v>1.45</v>
+      </c>
+      <c r="BM282">
+        <v>3.49</v>
+      </c>
+      <c r="BN282">
+        <v>1.26</v>
+      </c>
+      <c r="BO282">
+        <v>4.98</v>
+      </c>
+      <c r="BP282">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7415255</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45428.58333333334</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>75</v>
+      </c>
+      <c r="H283" t="s">
+        <v>76</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>3</v>
+      </c>
+      <c r="K283">
+        <v>3</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>4</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>88</v>
+      </c>
+      <c r="P283" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q283">
+        <v>7</v>
+      </c>
+      <c r="R283">
+        <v>2.63</v>
+      </c>
+      <c r="S283">
+        <v>1.73</v>
+      </c>
+      <c r="T283">
+        <v>1.25</v>
+      </c>
+      <c r="U283">
+        <v>3.58</v>
+      </c>
+      <c r="V283">
+        <v>2.22</v>
+      </c>
+      <c r="W283">
+        <v>1.62</v>
+      </c>
+      <c r="X283">
+        <v>4.85</v>
+      </c>
+      <c r="Y283">
+        <v>1.14</v>
+      </c>
+      <c r="Z283">
+        <v>7.44</v>
+      </c>
+      <c r="AA283">
+        <v>4.99</v>
+      </c>
+      <c r="AB283">
+        <v>1.34</v>
+      </c>
+      <c r="AC283">
+        <v>1.02</v>
+      </c>
+      <c r="AD283">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AE283">
+        <v>1.13</v>
+      </c>
+      <c r="AF283">
+        <v>4.85</v>
+      </c>
+      <c r="AG283">
+        <v>1.55</v>
+      </c>
+      <c r="AH283">
+        <v>2.35</v>
+      </c>
+      <c r="AI283">
+        <v>1.86</v>
+      </c>
+      <c r="AJ283">
+        <v>1.8</v>
+      </c>
+      <c r="AK283">
+        <v>3.44</v>
+      </c>
+      <c r="AL283">
+        <v>1.11</v>
+      </c>
+      <c r="AM283">
+        <v>1.03</v>
+      </c>
+      <c r="AN283">
+        <v>1.12</v>
+      </c>
+      <c r="AO283">
+        <v>2.35</v>
+      </c>
+      <c r="AP283">
+        <v>1.06</v>
+      </c>
+      <c r="AQ283">
+        <v>2.39</v>
+      </c>
+      <c r="AR283">
+        <v>1.29</v>
+      </c>
+      <c r="AS283">
+        <v>1.93</v>
+      </c>
+      <c r="AT283">
+        <v>3.22</v>
+      </c>
+      <c r="AU283">
+        <v>2</v>
+      </c>
+      <c r="AV283">
+        <v>13</v>
+      </c>
+      <c r="AW283">
+        <v>4</v>
+      </c>
+      <c r="AX283">
+        <v>6</v>
+      </c>
+      <c r="AY283">
+        <v>6</v>
+      </c>
+      <c r="AZ283">
+        <v>19</v>
+      </c>
+      <c r="BA283">
+        <v>1</v>
+      </c>
+      <c r="BB283">
+        <v>8</v>
+      </c>
+      <c r="BC283">
+        <v>9</v>
+      </c>
+      <c r="BD283">
+        <v>5.22</v>
+      </c>
+      <c r="BE283">
+        <v>7.55</v>
+      </c>
+      <c r="BF283">
+        <v>1.32</v>
+      </c>
+      <c r="BG283">
+        <v>1.38</v>
+      </c>
+      <c r="BH283">
+        <v>2.8</v>
+      </c>
+      <c r="BI283">
+        <v>1.65</v>
+      </c>
+      <c r="BJ283">
+        <v>2.1</v>
+      </c>
+      <c r="BK283">
+        <v>2.07</v>
+      </c>
+      <c r="BL283">
+        <v>1.67</v>
+      </c>
+      <c r="BM283">
+        <v>2.65</v>
+      </c>
+      <c r="BN283">
+        <v>1.42</v>
+      </c>
+      <c r="BO283">
+        <v>3.61</v>
+      </c>
+      <c r="BP283">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['21', '44', '63', '64']</t>
   </si>
   <si>
+    <t>['14', '54']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -1575,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2118,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
         <v>0.76</v>
@@ -2452,7 +2455,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -2533,7 +2536,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3354,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
         <v>0.5600000000000001</v>
@@ -3482,7 +3485,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3563,7 +3566,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3688,7 +3691,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3894,7 +3897,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4306,7 +4309,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4512,7 +4515,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4593,7 +4596,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4718,7 +4721,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -5130,7 +5133,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5208,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18">
         <v>2.39</v>
@@ -5336,7 +5339,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5748,7 +5751,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5826,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
         <v>0.61</v>
@@ -6572,7 +6575,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6984,7 +6987,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7808,7 +7811,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -7889,7 +7892,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ31">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
         <v>1.18</v>
@@ -8632,7 +8635,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8838,7 +8841,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8916,7 +8919,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36">
         <v>1.28</v>
@@ -9250,7 +9253,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9534,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ39">
         <v>0.5600000000000001</v>
@@ -9662,7 +9665,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -9949,7 +9952,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ41">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR41">
         <v>0.97</v>
@@ -10074,7 +10077,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10976,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ46">
         <v>1.18</v>
@@ -11104,7 +11107,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11185,7 +11188,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR47">
         <v>1.64</v>
@@ -11310,7 +11313,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11516,7 +11519,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11594,7 +11597,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
         <v>2.39</v>
@@ -11722,7 +11725,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11928,7 +11931,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12546,7 +12549,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12958,7 +12961,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13782,7 +13785,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -13863,7 +13866,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
         <v>1.63</v>
@@ -14066,7 +14069,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
@@ -14194,7 +14197,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14400,7 +14403,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14606,7 +14609,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -15096,10 +15099,10 @@
         <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR66">
         <v>0.99</v>
@@ -15430,7 +15433,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15511,7 +15514,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR68">
         <v>1.41</v>
@@ -15636,7 +15639,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -16254,7 +16257,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16666,7 +16669,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -17078,7 +17081,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17362,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
         <v>0.61</v>
@@ -17490,7 +17493,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17902,7 +17905,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18108,7 +18111,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18189,7 +18192,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR81">
         <v>1.19</v>
@@ -18314,7 +18317,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18520,7 +18523,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18601,7 +18604,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ83">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18932,7 +18935,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19010,7 +19013,7 @@
         <v>0.17</v>
       </c>
       <c r="AP85">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85">
         <v>0.76</v>
@@ -19138,7 +19141,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19344,7 +19347,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19425,7 +19428,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR87">
         <v>1.6</v>
@@ -19550,7 +19553,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19962,7 +19965,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -20580,7 +20583,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -20658,7 +20661,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
         <v>1.28</v>
@@ -21279,7 +21282,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ96">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
         <v>2.46</v>
@@ -21404,7 +21407,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21610,7 +21613,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21816,7 +21819,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -21894,10 +21897,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ99">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR99">
         <v>1.68</v>
@@ -22022,7 +22025,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22228,7 +22231,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22309,7 +22312,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR101">
         <v>1.47</v>
@@ -22434,7 +22437,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22640,7 +22643,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22924,7 +22927,7 @@
         <v>0.71</v>
       </c>
       <c r="AP104">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
         <v>0.61</v>
@@ -23464,7 +23467,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23670,7 +23673,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -24494,7 +24497,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24906,7 +24909,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -25112,7 +25115,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25318,7 +25321,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25524,7 +25527,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25605,7 +25608,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ117">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
         <v>2.33</v>
@@ -25730,7 +25733,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25936,7 +25939,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -27044,7 +27047,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
         <v>0.78</v>
@@ -27662,7 +27665,7 @@
         <v>1.13</v>
       </c>
       <c r="AP127">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
         <v>1.22</v>
@@ -28283,7 +28286,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR130">
         <v>1.48</v>
@@ -28408,7 +28411,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28820,7 +28823,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29026,7 +29029,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29438,7 +29441,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29519,7 +29522,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -30056,7 +30059,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30468,7 +30471,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30546,7 +30549,7 @@
         <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
         <v>1.17</v>
@@ -30674,7 +30677,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30880,7 +30883,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -31292,7 +31295,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31370,7 +31373,7 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
         <v>1.06</v>
@@ -32322,7 +32325,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32606,7 +32609,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
         <v>0.83</v>
@@ -32734,7 +32737,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -33146,7 +33149,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33352,7 +33355,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33639,7 +33642,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ156">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33764,7 +33767,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -34176,7 +34179,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34382,7 +34385,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34463,7 +34466,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ160">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
@@ -34588,7 +34591,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34794,7 +34797,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -35000,7 +35003,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -35284,7 +35287,7 @@
         <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ164">
         <v>0.78</v>
@@ -35412,7 +35415,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -36236,7 +36239,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36442,7 +36445,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36648,7 +36651,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -36729,7 +36732,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ171">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR171">
         <v>1.32</v>
@@ -37060,7 +37063,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37141,7 +37144,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ173">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
         <v>1.51</v>
@@ -37266,7 +37269,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37472,7 +37475,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37962,7 +37965,7 @@
         <v>0.6</v>
       </c>
       <c r="AP177">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
         <v>0.61</v>
@@ -38296,7 +38299,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38374,7 +38377,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
         <v>1.17</v>
@@ -38502,7 +38505,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38708,7 +38711,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -39120,7 +39123,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39532,7 +39535,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -40025,7 +40028,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
         <v>1.29</v>
@@ -40150,7 +40153,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40640,7 +40643,7 @@
         <v>1.45</v>
       </c>
       <c r="AP190">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
         <v>1.22</v>
@@ -40974,7 +40977,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -41055,7 +41058,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ192">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR192">
         <v>2.41</v>
@@ -41180,7 +41183,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41592,7 +41595,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41798,7 +41801,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -41876,7 +41879,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ196">
         <v>1.18</v>
@@ -42210,7 +42213,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42828,7 +42831,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -43240,7 +43243,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43446,7 +43449,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -43527,7 +43530,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ204">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR204">
         <v>1.16</v>
@@ -43936,10 +43939,10 @@
         <v>2.42</v>
       </c>
       <c r="AP206">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
         <v>1.15</v>
@@ -44760,7 +44763,7 @@
         <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
         <v>1.06</v>
@@ -44888,7 +44891,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45918,7 +45921,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -46330,7 +46333,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46411,7 +46414,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ218">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
         <v>1.57</v>
@@ -46742,7 +46745,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -47026,7 +47029,7 @@
         <v>1.23</v>
       </c>
       <c r="AP221">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ221">
         <v>1.22</v>
@@ -47154,7 +47157,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47235,7 +47238,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ222">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
         <v>1.55</v>
@@ -47360,7 +47363,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47978,7 +47981,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -48390,7 +48393,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48596,7 +48599,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -49214,7 +49217,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49626,7 +49629,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49707,7 +49710,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ234">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR234">
         <v>1.83</v>
@@ -49832,7 +49835,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -50244,7 +50247,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50322,10 +50325,10 @@
         <v>2.36</v>
       </c>
       <c r="AP237">
+        <v>1.94</v>
+      </c>
+      <c r="AQ237">
         <v>2.06</v>
-      </c>
-      <c r="AQ237">
-        <v>2</v>
       </c>
       <c r="AR237">
         <v>1.62</v>
@@ -50450,7 +50453,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50656,7 +50659,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50734,7 +50737,7 @@
         <v>0.93</v>
       </c>
       <c r="AP239">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
         <v>1.06</v>
@@ -51068,7 +51071,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51274,7 +51277,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51480,7 +51483,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51686,7 +51689,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -51767,7 +51770,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ244">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR244">
         <v>2.46</v>
@@ -52794,7 +52797,7 @@
         <v>1.4</v>
       </c>
       <c r="AP249">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ249">
         <v>1.17</v>
@@ -53206,7 +53209,7 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
         <v>0.83</v>
@@ -53334,7 +53337,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53540,7 +53543,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -54158,7 +54161,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54364,7 +54367,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54445,7 +54448,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ257">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR257">
         <v>2.02</v>
@@ -54776,7 +54779,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q259">
         <v>2.15</v>
@@ -55394,7 +55397,7 @@
         <v>257</v>
       </c>
       <c r="P262" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55600,7 +55603,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -55884,7 +55887,7 @@
         <v>1.31</v>
       </c>
       <c r="AP264">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ264">
         <v>1.17</v>
@@ -56093,7 +56096,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ265">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR265">
         <v>2.48</v>
@@ -56630,7 +56633,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56836,7 +56839,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57042,7 +57045,7 @@
         <v>263</v>
       </c>
       <c r="P270" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q270">
         <v>1.06</v>
@@ -57248,7 +57251,7 @@
         <v>264</v>
       </c>
       <c r="P271" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q271">
         <v>1.06</v>
@@ -57329,7 +57332,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ271">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR271">
         <v>1.29</v>
@@ -57454,7 +57457,7 @@
         <v>265</v>
       </c>
       <c r="P272" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q272">
         <v>1.06</v>
@@ -57660,7 +57663,7 @@
         <v>88</v>
       </c>
       <c r="P273" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -57738,7 +57741,7 @@
         <v>2.31</v>
       </c>
       <c r="AP273">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ273">
         <v>2.39</v>
@@ -58278,7 +58281,7 @@
         <v>268</v>
       </c>
       <c r="P276" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q276">
         <v>1.36</v>
@@ -59720,7 +59723,7 @@
         <v>88</v>
       </c>
       <c r="P283" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q283">
         <v>7</v>
@@ -59877,6 +59880,418 @@
       </c>
       <c r="BP283">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7415257</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45429.5625</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>71</v>
+      </c>
+      <c r="H284" t="s">
+        <v>85</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
+        <v>88</v>
+      </c>
+      <c r="P284" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q284">
+        <v>3.25</v>
+      </c>
+      <c r="R284">
+        <v>2.1</v>
+      </c>
+      <c r="S284">
+        <v>3</v>
+      </c>
+      <c r="T284">
+        <v>1.36</v>
+      </c>
+      <c r="U284">
+        <v>2.99</v>
+      </c>
+      <c r="V284">
+        <v>2.66</v>
+      </c>
+      <c r="W284">
+        <v>1.44</v>
+      </c>
+      <c r="X284">
+        <v>6.48</v>
+      </c>
+      <c r="Y284">
+        <v>1.08</v>
+      </c>
+      <c r="Z284">
+        <v>2.62</v>
+      </c>
+      <c r="AA284">
+        <v>3.2</v>
+      </c>
+      <c r="AB284">
+        <v>2.3</v>
+      </c>
+      <c r="AC284">
+        <v>1.01</v>
+      </c>
+      <c r="AD284">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE284">
+        <v>1.24</v>
+      </c>
+      <c r="AF284">
+        <v>3.48</v>
+      </c>
+      <c r="AG284">
+        <v>1.8</v>
+      </c>
+      <c r="AH284">
+        <v>1.91</v>
+      </c>
+      <c r="AI284">
+        <v>1.63</v>
+      </c>
+      <c r="AJ284">
+        <v>2.09</v>
+      </c>
+      <c r="AK284">
+        <v>1.5</v>
+      </c>
+      <c r="AL284">
+        <v>1.27</v>
+      </c>
+      <c r="AM284">
+        <v>1.41</v>
+      </c>
+      <c r="AN284">
+        <v>2.06</v>
+      </c>
+      <c r="AO284">
+        <v>2</v>
+      </c>
+      <c r="AP284">
+        <v>1.94</v>
+      </c>
+      <c r="AQ284">
+        <v>2.06</v>
+      </c>
+      <c r="AR284">
+        <v>1.64</v>
+      </c>
+      <c r="AS284">
+        <v>1.92</v>
+      </c>
+      <c r="AT284">
+        <v>3.56</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>3</v>
+      </c>
+      <c r="AW284">
+        <v>4</v>
+      </c>
+      <c r="AX284">
+        <v>2</v>
+      </c>
+      <c r="AY284">
+        <v>10</v>
+      </c>
+      <c r="AZ284">
+        <v>5</v>
+      </c>
+      <c r="BA284">
+        <v>12</v>
+      </c>
+      <c r="BB284">
+        <v>4</v>
+      </c>
+      <c r="BC284">
+        <v>16</v>
+      </c>
+      <c r="BD284">
+        <v>2.07</v>
+      </c>
+      <c r="BE284">
+        <v>7.75</v>
+      </c>
+      <c r="BF284">
+        <v>2.13</v>
+      </c>
+      <c r="BG284">
+        <v>1.33</v>
+      </c>
+      <c r="BH284">
+        <v>3.04</v>
+      </c>
+      <c r="BI284">
+        <v>1.67</v>
+      </c>
+      <c r="BJ284">
+        <v>2.07</v>
+      </c>
+      <c r="BK284">
+        <v>2.13</v>
+      </c>
+      <c r="BL284">
+        <v>1.63</v>
+      </c>
+      <c r="BM284">
+        <v>2.9</v>
+      </c>
+      <c r="BN284">
+        <v>1.36</v>
+      </c>
+      <c r="BO284">
+        <v>3.68</v>
+      </c>
+      <c r="BP284">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7415258</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45429.5625</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>77</v>
+      </c>
+      <c r="H285" t="s">
+        <v>73</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>272</v>
+      </c>
+      <c r="P285" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>0</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>4.5</v>
+      </c>
+      <c r="AA285">
+        <v>3.8</v>
+      </c>
+      <c r="AB285">
+        <v>1.57</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>1.7</v>
+      </c>
+      <c r="AH285">
+        <v>2.05</v>
+      </c>
+      <c r="AI285">
+        <v>0</v>
+      </c>
+      <c r="AJ285">
+        <v>0</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
+      <c r="AN285">
+        <v>1.65</v>
+      </c>
+      <c r="AO285">
+        <v>2.06</v>
+      </c>
+      <c r="AP285">
+        <v>1.72</v>
+      </c>
+      <c r="AQ285">
+        <v>1.94</v>
+      </c>
+      <c r="AR285">
+        <v>1.18</v>
+      </c>
+      <c r="AS285">
+        <v>1.39</v>
+      </c>
+      <c r="AT285">
+        <v>2.57</v>
+      </c>
+      <c r="AU285">
+        <v>3</v>
+      </c>
+      <c r="AV285">
+        <v>4</v>
+      </c>
+      <c r="AW285">
+        <v>4</v>
+      </c>
+      <c r="AX285">
+        <v>10</v>
+      </c>
+      <c r="AY285">
+        <v>7</v>
+      </c>
+      <c r="AZ285">
+        <v>14</v>
+      </c>
+      <c r="BA285">
+        <v>1</v>
+      </c>
+      <c r="BB285">
+        <v>5</v>
+      </c>
+      <c r="BC285">
+        <v>6</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,15 @@
     <t>['14', '54']</t>
   </si>
   <si>
+    <t>['3', '82', '90+3']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['19', '51']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -1210,13 +1219,13 @@
     <t>['11', '43', '59']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['24', '38']</t>
   </si>
   <si>
     <t>['8', '42', '45+1', '68']</t>
+  </si>
+  <si>
+    <t>['72', '76']</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2330,7 +2339,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ4">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2455,7 +2464,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -3485,7 +3494,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3563,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
         <v>1.94</v>
@@ -3691,7 +3700,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3772,7 +3781,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ11">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3897,7 +3906,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3975,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -4309,7 +4318,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4515,7 +4524,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4721,7 +4730,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -4799,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5005,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ17">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5133,7 +5142,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5339,7 +5348,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5751,7 +5760,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5832,7 +5841,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR21">
         <v>2.17</v>
@@ -6575,7 +6584,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6859,7 +6868,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
         <v>1.22</v>
@@ -6987,7 +6996,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7274,7 +7283,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ28">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>2.12</v>
@@ -7477,10 +7486,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR29">
         <v>1.77</v>
@@ -7683,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.05</v>
@@ -7811,7 +7820,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -8301,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
         <v>1.22</v>
@@ -8635,7 +8644,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8841,7 +8850,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9253,7 +9262,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9665,7 +9674,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -9746,7 +9755,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ40">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR40">
         <v>2.8</v>
@@ -9949,7 +9958,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ41">
         <v>1.94</v>
@@ -10077,7 +10086,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10158,7 +10167,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
         <v>1.47</v>
@@ -10570,7 +10579,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>2.19</v>
@@ -10982,7 +10991,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ46">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11107,7 +11116,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11185,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
         <v>2.06</v>
@@ -11313,7 +11322,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11391,7 +11400,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11519,7 +11528,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11725,7 +11734,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11931,7 +11940,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12424,7 +12433,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -12549,7 +12558,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12833,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12961,7 +12970,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13245,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13451,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ58">
         <v>0.76</v>
@@ -13660,7 +13669,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ59">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR59">
         <v>1.33</v>
@@ -13785,7 +13794,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -13863,7 +13872,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>2.06</v>
@@ -14072,7 +14081,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.13</v>
@@ -14197,7 +14206,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14278,7 +14287,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ62">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR62">
         <v>1.51</v>
@@ -14403,7 +14412,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14609,7 +14618,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -15305,10 +15314,10 @@
         <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ67">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15433,7 +15442,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15639,7 +15648,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15717,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>1.22</v>
@@ -15926,7 +15935,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.67</v>
@@ -16129,7 +16138,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
         <v>0.5600000000000001</v>
@@ -16257,7 +16266,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16335,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16669,7 +16678,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -17081,7 +17090,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17368,7 +17377,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17493,7 +17502,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17574,7 +17583,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ78">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.85</v>
@@ -17905,7 +17914,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18111,7 +18120,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18317,7 +18326,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18398,7 +18407,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ82">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR82">
         <v>2.36</v>
@@ -18523,7 +18532,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18935,7 +18944,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19141,7 +19150,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19219,7 +19228,7 @@
         <v>0.6</v>
       </c>
       <c r="AP86">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
         <v>1.06</v>
@@ -19347,7 +19356,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19553,7 +19562,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19837,7 +19846,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19965,7 +19974,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -20043,7 +20052,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ90">
         <v>2.39</v>
@@ -20249,10 +20258,10 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20583,7 +20592,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -20870,7 +20879,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ94">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR94">
         <v>2.64</v>
@@ -21076,7 +21085,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ95">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>2.05</v>
@@ -21407,7 +21416,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21613,7 +21622,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21819,7 +21828,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -22025,7 +22034,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22231,7 +22240,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22437,7 +22446,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22643,7 +22652,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22930,7 +22939,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR104">
         <v>1.04</v>
@@ -23133,10 +23142,10 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.89</v>
@@ -23342,7 +23351,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR106">
         <v>1.57</v>
@@ -23467,7 +23476,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23545,7 +23554,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ107">
         <v>1.17</v>
@@ -23673,7 +23682,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -23751,7 +23760,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>2.39</v>
@@ -23957,7 +23966,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ109">
         <v>0.83</v>
@@ -24166,7 +24175,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ110">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR110">
         <v>1.21</v>
@@ -24497,7 +24506,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24909,7 +24918,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -24987,10 +24996,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ114">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
         <v>1.3</v>
@@ -25115,7 +25124,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25193,7 +25202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
         <v>0.83</v>
@@ -25321,7 +25330,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25527,7 +25536,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25733,7 +25742,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25814,7 +25823,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.52</v>
@@ -25939,7 +25948,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -26017,7 +26026,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>1.22</v>
@@ -26223,7 +26232,7 @@
         <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
         <v>1.17</v>
@@ -26432,7 +26441,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ121">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26638,7 +26647,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -28411,7 +28420,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28695,10 +28704,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
         <v>1.54</v>
@@ -28823,7 +28832,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28901,10 +28910,10 @@
         <v>0.63</v>
       </c>
       <c r="AP133">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR133">
         <v>1.32</v>
@@ -29029,7 +29038,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29313,10 +29322,10 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.34</v>
@@ -29441,7 +29450,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29519,7 +29528,7 @@
         <v>2.75</v>
       </c>
       <c r="AP136">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
         <v>2.06</v>
@@ -30059,7 +30068,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30343,7 +30352,7 @@
         <v>0.75</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140">
         <v>1.28</v>
@@ -30471,7 +30480,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30677,7 +30686,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30883,7 +30892,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -31170,7 +31179,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ144">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR144">
         <v>1.98</v>
@@ -31295,7 +31304,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31994,7 +32003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
         <v>1.51</v>
@@ -32197,7 +32206,7 @@
         <v>0.78</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>0.78</v>
@@ -32325,7 +32334,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32737,7 +32746,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -33149,7 +33158,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33227,7 +33236,7 @@
         <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ154">
         <v>1.22</v>
@@ -33355,7 +33364,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33433,10 +33442,10 @@
         <v>0.89</v>
       </c>
       <c r="AP155">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33767,7 +33776,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -34054,7 +34063,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ158">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
         <v>2.51</v>
@@ -34179,7 +34188,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34385,7 +34394,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34463,7 +34472,7 @@
         <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
         <v>1.94</v>
@@ -34591,7 +34600,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34672,7 +34681,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR161">
         <v>1.23</v>
@@ -34797,7 +34806,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -35003,7 +35012,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -35415,7 +35424,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -36111,10 +36120,10 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR168">
         <v>1.67</v>
@@ -36239,7 +36248,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36445,7 +36454,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36523,7 +36532,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170">
         <v>0.76</v>
@@ -36651,7 +36660,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -36729,7 +36738,7 @@
         <v>2.5</v>
       </c>
       <c r="AP171">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ171">
         <v>2.06</v>
@@ -37063,7 +37072,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37141,7 +37150,7 @@
         <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
         <v>1.94</v>
@@ -37269,7 +37278,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37475,7 +37484,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -37556,7 +37565,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ175">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.25</v>
@@ -37762,7 +37771,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ176">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -37968,7 +37977,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR177">
         <v>1.2</v>
@@ -38299,7 +38308,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38505,7 +38514,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38711,7 +38720,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -39123,7 +39132,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39201,7 +39210,7 @@
         <v>0.36</v>
       </c>
       <c r="AP183">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
         <v>0.5600000000000001</v>
@@ -39535,7 +39544,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -39616,7 +39625,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ185">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
         <v>1.55</v>
@@ -39819,10 +39828,10 @@
         <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR186">
         <v>1.38</v>
@@ -40153,7 +40162,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40234,7 +40243,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ188">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR188">
         <v>1.18</v>
@@ -40437,7 +40446,7 @@
         <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ189">
         <v>1.22</v>
@@ -40852,7 +40861,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ191">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR191">
         <v>1.72</v>
@@ -40977,7 +40986,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -41183,7 +41192,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41261,7 +41270,7 @@
         <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
         <v>0.76</v>
@@ -41595,7 +41604,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41676,7 +41685,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ195">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR195">
         <v>1.55</v>
@@ -41801,7 +41810,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -41882,7 +41891,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ196">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR196">
         <v>1.65</v>
@@ -42213,7 +42222,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42291,7 +42300,7 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ198">
         <v>1.28</v>
@@ -42831,7 +42840,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -42909,7 +42918,7 @@
         <v>2.25</v>
       </c>
       <c r="AP201">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
         <v>2.39</v>
@@ -43115,7 +43124,7 @@
         <v>0.83</v>
       </c>
       <c r="AP202">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ202">
         <v>1.06</v>
@@ -43243,7 +43252,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43449,7 +43458,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -43736,7 +43745,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ205">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.8</v>
@@ -44351,10 +44360,10 @@
         <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ208">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR208">
         <v>1.58</v>
@@ -44766,7 +44775,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.62</v>
@@ -44891,7 +44900,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -44969,7 +44978,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ211">
         <v>1.28</v>
@@ -45175,7 +45184,7 @@
         <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ212">
         <v>0.78</v>
@@ -45384,7 +45393,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ213">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR213">
         <v>1.85</v>
@@ -45793,7 +45802,7 @@
         <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215">
         <v>0.83</v>
@@ -45921,7 +45930,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -46208,7 +46217,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ217">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
         <v>2.12</v>
@@ -46333,7 +46342,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46745,7 +46754,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46823,7 +46832,7 @@
         <v>0.54</v>
       </c>
       <c r="AP220">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220">
         <v>0.5600000000000001</v>
@@ -47157,7 +47166,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47363,7 +47372,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47856,7 +47865,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
@@ -47981,7 +47990,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -48059,7 +48068,7 @@
         <v>1.14</v>
       </c>
       <c r="AP226">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ226">
         <v>1.28</v>
@@ -48393,7 +48402,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48474,7 +48483,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ228">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR228">
         <v>1.5</v>
@@ -48599,7 +48608,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -48677,7 +48686,7 @@
         <v>2.36</v>
       </c>
       <c r="AP229">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ229">
         <v>2.39</v>
@@ -48883,10 +48892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR230">
         <v>1.55</v>
@@ -49092,7 +49101,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ231">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR231">
         <v>2.07</v>
@@ -49217,7 +49226,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49295,7 +49304,7 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ232">
         <v>1.17</v>
@@ -49629,7 +49638,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49835,7 +49844,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -50247,7 +50256,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50453,7 +50462,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50659,7 +50668,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50946,7 +50955,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ240">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR240">
         <v>1.21</v>
@@ -51071,7 +51080,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51277,7 +51286,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51483,7 +51492,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51689,7 +51698,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -51976,7 +51985,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ245">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR245">
         <v>1.22</v>
@@ -52182,7 +52191,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ246">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR246">
         <v>1.55</v>
@@ -52385,7 +52394,7 @@
         <v>0.67</v>
       </c>
       <c r="AP247">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ247">
         <v>0.5600000000000001</v>
@@ -52591,7 +52600,7 @@
         <v>0.6</v>
       </c>
       <c r="AP248">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ248">
         <v>0.78</v>
@@ -53006,7 +53015,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ250">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
         <v>1.58</v>
@@ -53337,7 +53346,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53415,10 +53424,10 @@
         <v>0.8</v>
       </c>
       <c r="AP252">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ252">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR252">
         <v>1.27</v>
@@ -53543,7 +53552,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53827,7 +53836,7 @@
         <v>0.8</v>
       </c>
       <c r="AP254">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ254">
         <v>0.76</v>
@@ -54161,7 +54170,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54367,7 +54376,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54651,10 +54660,10 @@
         <v>0.63</v>
       </c>
       <c r="AP258">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ258">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR258">
         <v>1.59</v>
@@ -54779,7 +54788,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q259">
         <v>2.15</v>
@@ -54857,7 +54866,7 @@
         <v>0.63</v>
       </c>
       <c r="AP259">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ259">
         <v>0.5600000000000001</v>
@@ -55066,7 +55075,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ260">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR260">
         <v>1.57</v>
@@ -55397,7 +55406,7 @@
         <v>257</v>
       </c>
       <c r="P262" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55603,7 +55612,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -56299,10 +56308,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP266">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ266">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR266">
         <v>1.56</v>
@@ -56633,7 +56642,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56711,10 +56720,10 @@
         <v>0.47</v>
       </c>
       <c r="AP268">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AQ268">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR268">
         <v>1.29</v>
@@ -56839,7 +56848,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57045,7 +57054,7 @@
         <v>263</v>
       </c>
       <c r="P270" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q270">
         <v>1.06</v>
@@ -57251,7 +57260,7 @@
         <v>264</v>
       </c>
       <c r="P271" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q271">
         <v>1.06</v>
@@ -57457,7 +57466,7 @@
         <v>265</v>
       </c>
       <c r="P272" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q272">
         <v>1.06</v>
@@ -57663,7 +57672,7 @@
         <v>88</v>
       </c>
       <c r="P273" t="s">
-        <v>398</v>
+        <v>274</v>
       </c>
       <c r="Q273">
         <v>0</v>
@@ -58281,7 +58290,7 @@
         <v>268</v>
       </c>
       <c r="P276" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q276">
         <v>1.36</v>
@@ -58774,7 +58783,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ278">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR278">
         <v>1.57</v>
@@ -58980,7 +58989,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ279">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR279">
         <v>1.36</v>
@@ -59183,7 +59192,7 @@
         <v>1.06</v>
       </c>
       <c r="AP280">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ280">
         <v>1.06</v>
@@ -59389,7 +59398,7 @@
         <v>0.59</v>
       </c>
       <c r="AP281">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ281">
         <v>0.5600000000000001</v>
@@ -59723,7 +59732,7 @@
         <v>88</v>
       </c>
       <c r="P283" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q283">
         <v>7</v>
@@ -60022,22 +60031,22 @@
         <v>3.56</v>
       </c>
       <c r="AU284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV284">
         <v>3</v>
       </c>
       <c r="AW284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY284">
         <v>10</v>
       </c>
       <c r="AZ284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA284">
         <v>12</v>
@@ -60228,70 +60237,894 @@
         <v>2.57</v>
       </c>
       <c r="AU285">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW285">
         <v>4</v>
       </c>
       <c r="AX285">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY285">
+        <v>8</v>
+      </c>
+      <c r="AZ285">
+        <v>17</v>
+      </c>
+      <c r="BA285">
+        <v>1</v>
+      </c>
+      <c r="BB285">
         <v>7</v>
       </c>
-      <c r="AZ285">
-        <v>14</v>
-      </c>
-      <c r="BA285">
-        <v>1</v>
-      </c>
-      <c r="BB285">
+      <c r="BC285">
+        <v>8</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7415260</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45430.45833333334</v>
+      </c>
+      <c r="F286">
+        <v>6</v>
+      </c>
+      <c r="G286" t="s">
+        <v>80</v>
+      </c>
+      <c r="H286" t="s">
+        <v>74</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>273</v>
+      </c>
+      <c r="P286" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q286">
+        <v>2.3</v>
+      </c>
+      <c r="R286">
+        <v>2.3</v>
+      </c>
+      <c r="S286">
+        <v>4.33</v>
+      </c>
+      <c r="T286">
+        <v>1.31</v>
+      </c>
+      <c r="U286">
+        <v>3.16</v>
+      </c>
+      <c r="V286">
+        <v>2.51</v>
+      </c>
+      <c r="W286">
+        <v>1.49</v>
+      </c>
+      <c r="X286">
+        <v>5.88</v>
+      </c>
+      <c r="Y286">
+        <v>1.1</v>
+      </c>
+      <c r="Z286">
+        <v>1.51</v>
+      </c>
+      <c r="AA286">
+        <v>4.68</v>
+      </c>
+      <c r="AB286">
+        <v>4.23</v>
+      </c>
+      <c r="AC286">
+        <v>1.02</v>
+      </c>
+      <c r="AD286">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE286">
+        <v>1.19</v>
+      </c>
+      <c r="AF286">
+        <v>3.92</v>
+      </c>
+      <c r="AG286">
+        <v>1.67</v>
+      </c>
+      <c r="AH286">
+        <v>2.1</v>
+      </c>
+      <c r="AI286">
+        <v>1.63</v>
+      </c>
+      <c r="AJ286">
+        <v>2.09</v>
+      </c>
+      <c r="AK286">
+        <v>1.21</v>
+      </c>
+      <c r="AL286">
+        <v>1.23</v>
+      </c>
+      <c r="AM286">
+        <v>1.92</v>
+      </c>
+      <c r="AN286">
+        <v>1.24</v>
+      </c>
+      <c r="AO286">
+        <v>1.06</v>
+      </c>
+      <c r="AP286">
+        <v>1.33</v>
+      </c>
+      <c r="AQ286">
+        <v>1</v>
+      </c>
+      <c r="AR286">
+        <v>1.61</v>
+      </c>
+      <c r="AS286">
+        <v>1.26</v>
+      </c>
+      <c r="AT286">
+        <v>2.87</v>
+      </c>
+      <c r="AU286">
+        <v>8</v>
+      </c>
+      <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
         <v>5</v>
       </c>
-      <c r="BC285">
+      <c r="AX286">
+        <v>2</v>
+      </c>
+      <c r="AY286">
+        <v>13</v>
+      </c>
+      <c r="AZ286">
         <v>6</v>
       </c>
-      <c r="BD285">
-        <v>0</v>
-      </c>
-      <c r="BE285">
-        <v>0</v>
-      </c>
-      <c r="BF285">
-        <v>0</v>
-      </c>
-      <c r="BG285">
-        <v>0</v>
-      </c>
-      <c r="BH285">
-        <v>0</v>
-      </c>
-      <c r="BI285">
-        <v>0</v>
-      </c>
-      <c r="BJ285">
-        <v>0</v>
-      </c>
-      <c r="BK285">
-        <v>0</v>
-      </c>
-      <c r="BL285">
-        <v>0</v>
-      </c>
-      <c r="BM285">
-        <v>0</v>
-      </c>
-      <c r="BN285">
-        <v>0</v>
-      </c>
-      <c r="BO285">
-        <v>0</v>
-      </c>
-      <c r="BP285">
-        <v>0</v>
+      <c r="BA286">
+        <v>5</v>
+      </c>
+      <c r="BB286">
+        <v>1</v>
+      </c>
+      <c r="BC286">
+        <v>6</v>
+      </c>
+      <c r="BD286">
+        <v>1.53</v>
+      </c>
+      <c r="BE286">
+        <v>8.6</v>
+      </c>
+      <c r="BF286">
+        <v>3.2</v>
+      </c>
+      <c r="BG286">
+        <v>1.33</v>
+      </c>
+      <c r="BH286">
+        <v>2.93</v>
+      </c>
+      <c r="BI286">
+        <v>1.6</v>
+      </c>
+      <c r="BJ286">
+        <v>2.14</v>
+      </c>
+      <c r="BK286">
+        <v>2.03</v>
+      </c>
+      <c r="BL286">
+        <v>1.67</v>
+      </c>
+      <c r="BM286">
+        <v>2.71</v>
+      </c>
+      <c r="BN286">
+        <v>1.38</v>
+      </c>
+      <c r="BO286">
+        <v>3.78</v>
+      </c>
+      <c r="BP286">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7415261</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45430.45833333334</v>
+      </c>
+      <c r="F287">
+        <v>6</v>
+      </c>
+      <c r="G287" t="s">
+        <v>78</v>
+      </c>
+      <c r="H287" t="s">
+        <v>79</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>274</v>
+      </c>
+      <c r="P287" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q287">
+        <v>2.75</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>3.6</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>2.99</v>
+      </c>
+      <c r="V287">
+        <v>2.7</v>
+      </c>
+      <c r="W287">
+        <v>1.43</v>
+      </c>
+      <c r="X287">
+        <v>6.53</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>1.86</v>
+      </c>
+      <c r="AA287">
+        <v>3.31</v>
+      </c>
+      <c r="AB287">
+        <v>3.66</v>
+      </c>
+      <c r="AC287">
+        <v>1.01</v>
+      </c>
+      <c r="AD287">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE287">
+        <v>1.24</v>
+      </c>
+      <c r="AF287">
+        <v>3.48</v>
+      </c>
+      <c r="AG287">
+        <v>1.88</v>
+      </c>
+      <c r="AH287">
+        <v>1.84</v>
+      </c>
+      <c r="AI287">
+        <v>1.65</v>
+      </c>
+      <c r="AJ287">
+        <v>2.05</v>
+      </c>
+      <c r="AK287">
+        <v>1.32</v>
+      </c>
+      <c r="AL287">
+        <v>1.26</v>
+      </c>
+      <c r="AM287">
+        <v>1.63</v>
+      </c>
+      <c r="AN287">
+        <v>1.56</v>
+      </c>
+      <c r="AO287">
+        <v>0.61</v>
+      </c>
+      <c r="AP287">
+        <v>1.47</v>
+      </c>
+      <c r="AQ287">
+        <v>0.74</v>
+      </c>
+      <c r="AR287">
+        <v>1.59</v>
+      </c>
+      <c r="AS287">
+        <v>1.09</v>
+      </c>
+      <c r="AT287">
+        <v>2.68</v>
+      </c>
+      <c r="AU287">
+        <v>0</v>
+      </c>
+      <c r="AV287">
+        <v>0</v>
+      </c>
+      <c r="AW287">
+        <v>4</v>
+      </c>
+      <c r="AX287">
+        <v>5</v>
+      </c>
+      <c r="AY287">
+        <v>4</v>
+      </c>
+      <c r="AZ287">
+        <v>5</v>
+      </c>
+      <c r="BA287">
+        <v>3</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>6</v>
+      </c>
+      <c r="BD287">
+        <v>1.79</v>
+      </c>
+      <c r="BE287">
+        <v>8.15</v>
+      </c>
+      <c r="BF287">
+        <v>2.5</v>
+      </c>
+      <c r="BG287">
+        <v>1.36</v>
+      </c>
+      <c r="BH287">
+        <v>2.79</v>
+      </c>
+      <c r="BI287">
+        <v>1.65</v>
+      </c>
+      <c r="BJ287">
+        <v>2.05</v>
+      </c>
+      <c r="BK287">
+        <v>2.1</v>
+      </c>
+      <c r="BL287">
+        <v>1.62</v>
+      </c>
+      <c r="BM287">
+        <v>2.84</v>
+      </c>
+      <c r="BN287">
+        <v>1.35</v>
+      </c>
+      <c r="BO287">
+        <v>3.68</v>
+      </c>
+      <c r="BP287">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7415263</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45430.45833333334</v>
+      </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+      <c r="G288" t="s">
+        <v>83</v>
+      </c>
+      <c r="H288" t="s">
+        <v>72</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>275</v>
+      </c>
+      <c r="P288" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q288">
+        <v>2.75</v>
+      </c>
+      <c r="R288">
+        <v>2.2</v>
+      </c>
+      <c r="S288">
+        <v>3.5</v>
+      </c>
+      <c r="T288">
+        <v>1.32</v>
+      </c>
+      <c r="U288">
+        <v>3.09</v>
+      </c>
+      <c r="V288">
+        <v>2.57</v>
+      </c>
+      <c r="W288">
+        <v>1.47</v>
+      </c>
+      <c r="X288">
+        <v>6.13</v>
+      </c>
+      <c r="Y288">
+        <v>1.09</v>
+      </c>
+      <c r="Z288">
+        <v>1.83</v>
+      </c>
+      <c r="AA288">
+        <v>3.42</v>
+      </c>
+      <c r="AB288">
+        <v>3.68</v>
+      </c>
+      <c r="AC288">
+        <v>1.01</v>
+      </c>
+      <c r="AD288">
+        <v>10.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.21</v>
+      </c>
+      <c r="AF288">
+        <v>3.74</v>
+      </c>
+      <c r="AG288">
+        <v>1.76</v>
+      </c>
+      <c r="AH288">
+        <v>2</v>
+      </c>
+      <c r="AI288">
+        <v>1.6</v>
+      </c>
+      <c r="AJ288">
+        <v>2.14</v>
+      </c>
+      <c r="AK288">
+        <v>1.33</v>
+      </c>
+      <c r="AL288">
+        <v>1.26</v>
+      </c>
+      <c r="AM288">
+        <v>1.64</v>
+      </c>
+      <c r="AN288">
+        <v>1.11</v>
+      </c>
+      <c r="AO288">
+        <v>0.61</v>
+      </c>
+      <c r="AP288">
+        <v>1.21</v>
+      </c>
+      <c r="AQ288">
+        <v>0.58</v>
+      </c>
+      <c r="AR288">
+        <v>1.52</v>
+      </c>
+      <c r="AS288">
+        <v>1.21</v>
+      </c>
+      <c r="AT288">
+        <v>2.73</v>
+      </c>
+      <c r="AU288">
+        <v>8</v>
+      </c>
+      <c r="AV288">
+        <v>3</v>
+      </c>
+      <c r="AW288">
+        <v>3</v>
+      </c>
+      <c r="AX288">
+        <v>6</v>
+      </c>
+      <c r="AY288">
+        <v>11</v>
+      </c>
+      <c r="AZ288">
+        <v>9</v>
+      </c>
+      <c r="BA288">
+        <v>2</v>
+      </c>
+      <c r="BB288">
+        <v>7</v>
+      </c>
+      <c r="BC288">
+        <v>9</v>
+      </c>
+      <c r="BD288">
+        <v>1.62</v>
+      </c>
+      <c r="BE288">
+        <v>8.1</v>
+      </c>
+      <c r="BF288">
+        <v>2.94</v>
+      </c>
+      <c r="BG288">
+        <v>0</v>
+      </c>
+      <c r="BH288">
+        <v>0</v>
+      </c>
+      <c r="BI288">
+        <v>0</v>
+      </c>
+      <c r="BJ288">
+        <v>0</v>
+      </c>
+      <c r="BK288">
+        <v>0</v>
+      </c>
+      <c r="BL288">
+        <v>0</v>
+      </c>
+      <c r="BM288">
+        <v>0</v>
+      </c>
+      <c r="BN288">
+        <v>0</v>
+      </c>
+      <c r="BO288">
+        <v>0</v>
+      </c>
+      <c r="BP288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7415262</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+      <c r="G289" t="s">
+        <v>84</v>
+      </c>
+      <c r="H289" t="s">
+        <v>70</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289" t="s">
+        <v>88</v>
+      </c>
+      <c r="P289" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q289">
+        <v>3.6</v>
+      </c>
+      <c r="R289">
+        <v>2.1</v>
+      </c>
+      <c r="S289">
+        <v>2.75</v>
+      </c>
+      <c r="T289">
+        <v>1.36</v>
+      </c>
+      <c r="U289">
+        <v>2.99</v>
+      </c>
+      <c r="V289">
+        <v>2.7</v>
+      </c>
+      <c r="W289">
+        <v>1.43</v>
+      </c>
+      <c r="X289">
+        <v>6.53</v>
+      </c>
+      <c r="Y289">
+        <v>1.08</v>
+      </c>
+      <c r="Z289">
+        <v>3.15</v>
+      </c>
+      <c r="AA289">
+        <v>3.4</v>
+      </c>
+      <c r="AB289">
+        <v>1.97</v>
+      </c>
+      <c r="AC289">
+        <v>1.01</v>
+      </c>
+      <c r="AD289">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE289">
+        <v>1.25</v>
+      </c>
+      <c r="AF289">
+        <v>3.52</v>
+      </c>
+      <c r="AG289">
+        <v>1.87</v>
+      </c>
+      <c r="AH289">
+        <v>1.95</v>
+      </c>
+      <c r="AI289">
+        <v>1.65</v>
+      </c>
+      <c r="AJ289">
+        <v>2.05</v>
+      </c>
+      <c r="AK289">
+        <v>1.63</v>
+      </c>
+      <c r="AL289">
+        <v>1.27</v>
+      </c>
+      <c r="AM289">
+        <v>1.32</v>
+      </c>
+      <c r="AN289">
+        <v>0.41</v>
+      </c>
+      <c r="AO289">
+        <v>1.18</v>
+      </c>
+      <c r="AP289">
+        <v>0.44</v>
+      </c>
+      <c r="AQ289">
+        <v>1.17</v>
+      </c>
+      <c r="AR289">
+        <v>1.28</v>
+      </c>
+      <c r="AS289">
+        <v>1.28</v>
+      </c>
+      <c r="AT289">
+        <v>2.56</v>
+      </c>
+      <c r="AU289">
+        <v>0</v>
+      </c>
+      <c r="AV289">
+        <v>4</v>
+      </c>
+      <c r="AW289">
+        <v>5</v>
+      </c>
+      <c r="AX289">
+        <v>4</v>
+      </c>
+      <c r="AY289">
+        <v>5</v>
+      </c>
+      <c r="AZ289">
+        <v>8</v>
+      </c>
+      <c r="BA289">
+        <v>3</v>
+      </c>
+      <c r="BB289">
+        <v>3</v>
+      </c>
+      <c r="BC289">
+        <v>6</v>
+      </c>
+      <c r="BD289">
+        <v>2.35</v>
+      </c>
+      <c r="BE289">
+        <v>7.65</v>
+      </c>
+      <c r="BF289">
+        <v>1.9</v>
+      </c>
+      <c r="BG289">
+        <v>1.36</v>
+      </c>
+      <c r="BH289">
+        <v>2.79</v>
+      </c>
+      <c r="BI289">
+        <v>1.65</v>
+      </c>
+      <c r="BJ289">
+        <v>2.05</v>
+      </c>
+      <c r="BK289">
+        <v>2.11</v>
+      </c>
+      <c r="BL289">
+        <v>1.62</v>
+      </c>
+      <c r="BM289">
+        <v>2.84</v>
+      </c>
+      <c r="BN289">
+        <v>1.35</v>
+      </c>
+      <c r="BO289">
+        <v>3.68</v>
+      </c>
+      <c r="BP289">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -60031,22 +60031,22 @@
         <v>3.56</v>
       </c>
       <c r="AU284">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV284">
         <v>3</v>
       </c>
       <c r="AW284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY284">
         <v>10</v>
       </c>
       <c r="AZ284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA284">
         <v>12</v>
@@ -60443,22 +60443,22 @@
         <v>2.87</v>
       </c>
       <c r="AU286">
+        <v>9</v>
+      </c>
+      <c r="AV286">
+        <v>6</v>
+      </c>
+      <c r="AW286">
+        <v>9</v>
+      </c>
+      <c r="AX286">
+        <v>2</v>
+      </c>
+      <c r="AY286">
+        <v>18</v>
+      </c>
+      <c r="AZ286">
         <v>8</v>
-      </c>
-      <c r="AV286">
-        <v>4</v>
-      </c>
-      <c r="AW286">
-        <v>5</v>
-      </c>
-      <c r="AX286">
-        <v>2</v>
-      </c>
-      <c r="AY286">
-        <v>13</v>
-      </c>
-      <c r="AZ286">
-        <v>6</v>
       </c>
       <c r="BA286">
         <v>5</v>
@@ -60649,31 +60649,31 @@
         <v>2.68</v>
       </c>
       <c r="AU287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW287">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AX287">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY287">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AZ287">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA287">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BB287">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC287">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD287">
         <v>1.79</v>
@@ -60861,16 +60861,16 @@
         <v>3</v>
       </c>
       <c r="AW288">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX288">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY288">
+        <v>14</v>
+      </c>
+      <c r="AZ288">
         <v>11</v>
-      </c>
-      <c r="AZ288">
-        <v>9</v>
       </c>
       <c r="BA288">
         <v>2</v>
@@ -61061,19 +61061,19 @@
         <v>2.56</v>
       </c>
       <c r="AU289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW289">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX289">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY289">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ289">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -60443,22 +60443,22 @@
         <v>2.87</v>
       </c>
       <c r="AU286">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
+        <v>5</v>
+      </c>
+      <c r="AX286">
+        <v>2</v>
+      </c>
+      <c r="AY286">
+        <v>13</v>
+      </c>
+      <c r="AZ286">
         <v>6</v>
-      </c>
-      <c r="AW286">
-        <v>9</v>
-      </c>
-      <c r="AX286">
-        <v>2</v>
-      </c>
-      <c r="AY286">
-        <v>18</v>
-      </c>
-      <c r="AZ286">
-        <v>8</v>
       </c>
       <c r="BA286">
         <v>5</v>
@@ -60649,22 +60649,22 @@
         <v>2.68</v>
       </c>
       <c r="AU287">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV287">
+        <v>3</v>
+      </c>
+      <c r="AW287">
+        <v>8</v>
+      </c>
+      <c r="AX287">
         <v>5</v>
       </c>
-      <c r="AW287">
-        <v>21</v>
-      </c>
-      <c r="AX287">
+      <c r="AY287">
         <v>8</v>
       </c>
-      <c r="AY287">
-        <v>24</v>
-      </c>
       <c r="AZ287">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA287">
         <v>9</v>
@@ -60861,16 +60861,16 @@
         <v>3</v>
       </c>
       <c r="AW288">
+        <v>3</v>
+      </c>
+      <c r="AX288">
         <v>6</v>
       </c>
-      <c r="AX288">
-        <v>8</v>
-      </c>
       <c r="AY288">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ288">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA288">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -60443,22 +60443,22 @@
         <v>2.87</v>
       </c>
       <c r="AU286">
+        <v>9</v>
+      </c>
+      <c r="AV286">
+        <v>6</v>
+      </c>
+      <c r="AW286">
+        <v>9</v>
+      </c>
+      <c r="AX286">
+        <v>2</v>
+      </c>
+      <c r="AY286">
+        <v>18</v>
+      </c>
+      <c r="AZ286">
         <v>8</v>
-      </c>
-      <c r="AV286">
-        <v>4</v>
-      </c>
-      <c r="AW286">
-        <v>5</v>
-      </c>
-      <c r="AX286">
-        <v>2</v>
-      </c>
-      <c r="AY286">
-        <v>13</v>
-      </c>
-      <c r="AZ286">
-        <v>6</v>
       </c>
       <c r="BA286">
         <v>5</v>
@@ -60649,22 +60649,22 @@
         <v>2.68</v>
       </c>
       <c r="AU287">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV287">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW287">
+        <v>21</v>
+      </c>
+      <c r="AX287">
         <v>8</v>
       </c>
-      <c r="AX287">
-        <v>5</v>
-      </c>
       <c r="AY287">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AZ287">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA287">
         <v>9</v>
@@ -60861,16 +60861,16 @@
         <v>3</v>
       </c>
       <c r="AW288">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX288">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY288">
+        <v>14</v>
+      </c>
+      <c r="AZ288">
         <v>11</v>
-      </c>
-      <c r="AZ288">
-        <v>9</v>
       </c>
       <c r="BA288">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -844,6 +844,18 @@
     <t>['19', '51']</t>
   </si>
   <si>
+    <t>['6', '42', '52', '59', '78', '81']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['13', '61']</t>
+  </si>
+  <si>
+    <t>['59', '64', '81']</t>
+  </si>
+  <si>
     <t>['40', '43', '79']</t>
   </si>
   <si>
@@ -890,9 +902,6 @@
   </si>
   <si>
     <t>['19', '39', '89']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -1180,9 +1189,6 @@
     <t>['13', '15', '41']</t>
   </si>
   <si>
-    <t>['13', '61']</t>
-  </si>
-  <si>
     <t>['11', '56']</t>
   </si>
   <si>
@@ -1226,6 +1232,9 @@
   </si>
   <si>
     <t>['72', '76']</t>
+  </si>
+  <si>
+    <t>['14', '58']</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1924,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ2">
         <v>1.06</v>
@@ -2133,7 +2142,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2336,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.74</v>
@@ -2464,7 +2473,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q5">
         <v>3.4</v>
@@ -2542,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
         <v>2.06</v>
@@ -2748,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
         <v>1.22</v>
@@ -2957,7 +2966,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ7">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3369,7 +3378,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3494,7 +3503,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q10">
         <v>3.25</v>
@@ -3700,7 +3709,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3778,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3906,7 +3915,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4193,7 +4202,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
@@ -4318,7 +4327,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q14">
         <v>3.75</v>
@@ -4524,7 +4533,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q15">
         <v>3.68</v>
@@ -4730,7 +4739,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q16">
         <v>3.3</v>
@@ -5142,7 +5151,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5348,7 +5357,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5426,10 +5435,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -5632,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
         <v>1.22</v>
@@ -5760,7 +5769,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -6253,7 +6262,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ23">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6456,10 +6465,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6584,7 +6593,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q25">
         <v>2.4</v>
@@ -6662,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
         <v>1.06</v>
@@ -6996,7 +7005,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>2.11</v>
@@ -7077,7 +7086,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ27">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -7820,7 +7829,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q31">
         <v>5.71</v>
@@ -7898,7 +7907,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
         <v>1.94</v>
@@ -8516,7 +8525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
         <v>1.06</v>
@@ -8644,7 +8653,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -8722,7 +8731,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>2.39</v>
@@ -8850,7 +8859,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9134,10 +9143,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR37">
         <v>1.63</v>
@@ -9262,7 +9271,7 @@
         <v>112</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9340,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>1.18</v>
@@ -9549,7 +9558,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ39">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR39">
         <v>1.87</v>
@@ -9674,7 +9683,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>1.83</v>
@@ -10086,7 +10095,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10370,10 +10379,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR43">
         <v>1.03</v>
@@ -11116,7 +11125,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
@@ -11322,7 +11331,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q48">
         <v>4.75</v>
@@ -11528,7 +11537,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11734,7 +11743,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11812,7 +11821,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11940,7 +11949,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12018,10 +12027,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -12224,7 +12233,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ52">
         <v>1.28</v>
@@ -12558,7 +12567,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q54">
         <v>2.5</v>
@@ -12636,10 +12645,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.58</v>
@@ -12970,7 +12979,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -13051,7 +13060,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ56">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR56">
         <v>2.67</v>
@@ -13463,7 +13472,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ58">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR58">
         <v>1.12</v>
@@ -13666,7 +13675,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
         <v>0.58</v>
@@ -13794,7 +13803,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>6.25</v>
@@ -14206,7 +14215,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q62">
         <v>1.95</v>
@@ -14412,7 +14421,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q63">
         <v>2.05</v>
@@ -14618,7 +14627,7 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14696,7 +14705,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ64">
         <v>1.22</v>
@@ -14905,7 +14914,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ65">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
         <v>2.26</v>
@@ -15442,7 +15451,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15648,7 +15657,7 @@
         <v>88</v>
       </c>
       <c r="P69" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15932,7 +15941,7 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -16141,7 +16150,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16266,7 +16275,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16347,7 +16356,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.74</v>
@@ -16550,7 +16559,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
         <v>1.28</v>
@@ -16678,7 +16687,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>2.53</v>
@@ -16756,10 +16765,10 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
         <v>1.13</v>
@@ -17090,7 +17099,7 @@
         <v>142</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q76">
         <v>8.5</v>
@@ -17502,7 +17511,7 @@
         <v>88</v>
       </c>
       <c r="P78" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q78">
         <v>1.91</v>
@@ -17580,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -17786,7 +17795,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
         <v>1.22</v>
@@ -17914,7 +17923,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -18120,7 +18129,7 @@
         <v>88</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18198,7 +18207,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
         <v>2.06</v>
@@ -18326,7 +18335,7 @@
         <v>145</v>
       </c>
       <c r="P82" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -18532,7 +18541,7 @@
         <v>130</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q83">
         <v>3.4</v>
@@ -18610,7 +18619,7 @@
         <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.94</v>
@@ -18819,7 +18828,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ84">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR84">
         <v>1.61</v>
@@ -18944,7 +18953,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -19025,7 +19034,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ85">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR85">
         <v>0.9399999999999999</v>
@@ -19150,7 +19159,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19356,7 +19365,7 @@
         <v>88</v>
       </c>
       <c r="P87" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q87">
         <v>6.34</v>
@@ -19562,7 +19571,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19640,10 +19649,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19849,7 +19858,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ89">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR89">
         <v>1.11</v>
@@ -19974,7 +19983,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q90">
         <v>7</v>
@@ -20592,7 +20601,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q93">
         <v>2.63</v>
@@ -21082,7 +21091,7 @@
         <v>0.2</v>
       </c>
       <c r="AP95">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21416,7 +21425,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q97">
         <v>1.3</v>
@@ -21497,7 +21506,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ97">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
         <v>2.46</v>
@@ -21622,7 +21631,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q98">
         <v>1.91</v>
@@ -21703,7 +21712,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21828,7 +21837,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -22034,7 +22043,7 @@
         <v>131</v>
       </c>
       <c r="P100" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q100">
         <v>2.88</v>
@@ -22112,10 +22121,10 @@
         <v>0.57</v>
       </c>
       <c r="AP100">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR100">
         <v>1.57</v>
@@ -22240,7 +22249,7 @@
         <v>88</v>
       </c>
       <c r="P101" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22318,7 +22327,7 @@
         <v>2.71</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
         <v>2.06</v>
@@ -22446,7 +22455,7 @@
         <v>108</v>
       </c>
       <c r="P102" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22524,7 +22533,7 @@
         <v>0.86</v>
       </c>
       <c r="AP102">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ102">
         <v>1.22</v>
@@ -22652,7 +22661,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23476,7 +23485,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23557,7 +23566,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ107">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
         <v>1.26</v>
@@ -23682,7 +23691,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q108">
         <v>7.5</v>
@@ -24172,7 +24181,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -24506,7 +24515,7 @@
         <v>163</v>
       </c>
       <c r="P112" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q112">
         <v>2.75</v>
@@ -24584,7 +24593,7 @@
         <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112">
         <v>1.28</v>
@@ -24918,7 +24927,7 @@
         <v>88</v>
       </c>
       <c r="P114" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q114">
         <v>2.63</v>
@@ -25124,7 +25133,7 @@
         <v>165</v>
       </c>
       <c r="P115" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -25330,7 +25339,7 @@
         <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25536,7 +25545,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25742,7 +25751,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -25948,7 +25957,7 @@
         <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -26235,7 +26244,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -26438,7 +26447,7 @@
         <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
         <v>0.58</v>
@@ -26644,7 +26653,7 @@
         <v>0.63</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122">
         <v>0.74</v>
@@ -26850,10 +26859,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ123">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR123">
         <v>1.19</v>
@@ -27059,7 +27068,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -27468,7 +27477,7 @@
         <v>0.86</v>
       </c>
       <c r="AP126">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
         <v>1.06</v>
@@ -28086,10 +28095,10 @@
         <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR129">
         <v>2.02</v>
@@ -28420,7 +28429,7 @@
         <v>175</v>
       </c>
       <c r="P131" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28832,7 +28841,7 @@
         <v>144</v>
       </c>
       <c r="P133" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -29038,7 +29047,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29116,7 +29125,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134">
         <v>1.22</v>
@@ -29450,7 +29459,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q136">
         <v>4.8</v>
@@ -29737,7 +29746,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ137">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
         <v>1.66</v>
@@ -29940,10 +29949,10 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR138">
         <v>1.57</v>
@@ -30068,7 +30077,7 @@
         <v>181</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>2.75</v>
@@ -30146,10 +30155,10 @@
         <v>0.88</v>
       </c>
       <c r="AP139">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
         <v>1.52</v>
@@ -30480,7 +30489,7 @@
         <v>182</v>
       </c>
       <c r="P141" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -30561,7 +30570,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ141">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30686,7 +30695,7 @@
         <v>177</v>
       </c>
       <c r="P142" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q142">
         <v>8.5</v>
@@ -30764,7 +30773,7 @@
         <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ142">
         <v>2.39</v>
@@ -30892,7 +30901,7 @@
         <v>183</v>
       </c>
       <c r="P143" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q143">
         <v>1.67</v>
@@ -31176,7 +31185,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP144">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.74</v>
@@ -31304,7 +31313,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q145">
         <v>2.05</v>
@@ -31591,7 +31600,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR146">
         <v>1.39</v>
@@ -32000,7 +32009,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
         <v>1.17</v>
@@ -32209,7 +32218,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR149">
         <v>1.63</v>
@@ -32334,7 +32343,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q150">
         <v>3.7</v>
@@ -32412,7 +32421,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.28</v>
@@ -32746,7 +32755,7 @@
         <v>190</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -32824,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
         <v>1.06</v>
@@ -33030,10 +33039,10 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ153">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR153">
         <v>1.92</v>
@@ -33158,7 +33167,7 @@
         <v>88</v>
       </c>
       <c r="P154" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q154">
         <v>4.2</v>
@@ -33364,7 +33373,7 @@
         <v>192</v>
       </c>
       <c r="P155" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33648,7 +33657,7 @@
         <v>2.44</v>
       </c>
       <c r="AP156">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156">
         <v>2.06</v>
@@ -33776,7 +33785,7 @@
         <v>154</v>
       </c>
       <c r="P157" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -34188,7 +34197,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q159">
         <v>2.85</v>
@@ -34269,7 +34278,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34394,7 +34403,7 @@
         <v>88</v>
       </c>
       <c r="P160" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -34600,7 +34609,7 @@
         <v>195</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q161">
         <v>2.83</v>
@@ -34806,7 +34815,7 @@
         <v>88</v>
       </c>
       <c r="P162" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q162">
         <v>6.5</v>
@@ -34884,7 +34893,7 @@
         <v>2.1</v>
       </c>
       <c r="AP162">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
         <v>2.39</v>
@@ -35012,7 +35021,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q163">
         <v>1.57</v>
@@ -35299,7 +35308,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35424,7 +35433,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q165">
         <v>3.5</v>
@@ -35708,7 +35717,7 @@
         <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ166">
         <v>0.83</v>
@@ -35914,10 +35923,10 @@
         <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR167">
         <v>1.91</v>
@@ -36248,7 +36257,7 @@
         <v>200</v>
       </c>
       <c r="P169" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q169">
         <v>2.7</v>
@@ -36326,10 +36335,10 @@
         <v>1.4</v>
       </c>
       <c r="AP169">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
         <v>1.56</v>
@@ -36454,7 +36463,7 @@
         <v>88</v>
       </c>
       <c r="P170" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36535,7 +36544,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ170">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR170">
         <v>1.33</v>
@@ -36660,7 +36669,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -37072,7 +37081,7 @@
         <v>203</v>
       </c>
       <c r="P173" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -37278,7 +37287,7 @@
         <v>88</v>
       </c>
       <c r="P174" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37356,7 +37365,7 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174">
         <v>1.22</v>
@@ -37484,7 +37493,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -38308,7 +38317,7 @@
         <v>206</v>
       </c>
       <c r="P179" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q179">
         <v>2</v>
@@ -38389,7 +38398,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR179">
         <v>1.62</v>
@@ -38514,7 +38523,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38592,7 +38601,7 @@
         <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180">
         <v>1.28</v>
@@ -38720,7 +38729,7 @@
         <v>94</v>
       </c>
       <c r="P181" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -38798,7 +38807,7 @@
         <v>2.18</v>
       </c>
       <c r="AP181">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
         <v>2.39</v>
@@ -39007,7 +39016,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ182">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR182">
         <v>2.09</v>
@@ -39132,7 +39141,7 @@
         <v>88</v>
       </c>
       <c r="P183" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q183">
         <v>2.25</v>
@@ -39213,7 +39222,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR183">
         <v>1.6</v>
@@ -39416,7 +39425,7 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ184">
         <v>0.83</v>
@@ -39544,7 +39553,7 @@
         <v>88</v>
       </c>
       <c r="P185" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>2.7</v>
@@ -39622,7 +39631,7 @@
         <v>1.09</v>
       </c>
       <c r="AP185">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
         <v>1.17</v>
@@ -40162,7 +40171,7 @@
         <v>88</v>
       </c>
       <c r="P188" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40240,7 +40249,7 @@
         <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ188">
         <v>1</v>
@@ -40986,7 +40995,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q192">
         <v>2.23</v>
@@ -41192,7 +41201,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q193">
         <v>2.9</v>
@@ -41273,7 +41282,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR193">
         <v>1.55</v>
@@ -41476,7 +41485,7 @@
         <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ194">
         <v>0.83</v>
@@ -41604,7 +41613,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q195">
         <v>2.25</v>
@@ -41682,7 +41691,7 @@
         <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195">
         <v>0.58</v>
@@ -41810,7 +41819,7 @@
         <v>215</v>
       </c>
       <c r="P196" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -42094,10 +42103,10 @@
         <v>0.58</v>
       </c>
       <c r="AP197">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR197">
         <v>1.44</v>
@@ -42222,7 +42231,7 @@
         <v>154</v>
       </c>
       <c r="P198" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q198">
         <v>3.92</v>
@@ -42509,7 +42518,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ199">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
         <v>1.4</v>
@@ -42715,7 +42724,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ200">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
         <v>2.09</v>
@@ -42840,7 +42849,7 @@
         <v>88</v>
       </c>
       <c r="P201" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -43252,7 +43261,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43330,7 +43339,7 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
         <v>1.22</v>
@@ -43458,7 +43467,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -43536,7 +43545,7 @@
         <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ204">
         <v>1.94</v>
@@ -44569,7 +44578,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ209">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR209">
         <v>1.29</v>
@@ -44900,7 +44909,7 @@
         <v>88</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q211">
         <v>4.33</v>
@@ -45187,7 +45196,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ212">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR212">
         <v>1.38</v>
@@ -45390,7 +45399,7 @@
         <v>0.54</v>
       </c>
       <c r="AP213">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ213">
         <v>0.58</v>
@@ -45599,7 +45608,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ214">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
         <v>1.47</v>
@@ -45930,7 +45939,7 @@
         <v>88</v>
       </c>
       <c r="P216" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q216">
         <v>9</v>
@@ -46008,7 +46017,7 @@
         <v>2.31</v>
       </c>
       <c r="AP216">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216">
         <v>2.39</v>
@@ -46342,7 +46351,7 @@
         <v>229</v>
       </c>
       <c r="P218" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q218">
         <v>3.8</v>
@@ -46420,7 +46429,7 @@
         <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ218">
         <v>1.94</v>
@@ -46754,7 +46763,7 @@
         <v>231</v>
       </c>
       <c r="P220" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46835,7 +46844,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ220">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR220">
         <v>1.61</v>
@@ -47166,7 +47175,7 @@
         <v>233</v>
       </c>
       <c r="P222" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q222">
         <v>6</v>
@@ -47244,7 +47253,7 @@
         <v>2.31</v>
       </c>
       <c r="AP222">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
         <v>2.06</v>
@@ -47372,7 +47381,7 @@
         <v>150</v>
       </c>
       <c r="P223" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47450,10 +47459,10 @@
         <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ223">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR223">
         <v>1.18</v>
@@ -47990,7 +47999,7 @@
         <v>88</v>
       </c>
       <c r="P226" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q226">
         <v>3.45</v>
@@ -48274,7 +48283,7 @@
         <v>1.29</v>
       </c>
       <c r="AP227">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ227">
         <v>1.22</v>
@@ -48402,7 +48411,7 @@
         <v>236</v>
       </c>
       <c r="P228" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q228">
         <v>2.5</v>
@@ -48608,7 +48617,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q229">
         <v>11</v>
@@ -49226,7 +49235,7 @@
         <v>190</v>
       </c>
       <c r="P232" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -49307,7 +49316,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ232">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
         <v>1.44</v>
@@ -49510,7 +49519,7 @@
         <v>1.07</v>
       </c>
       <c r="AP233">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
         <v>0.83</v>
@@ -49638,7 +49647,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -49844,7 +49853,7 @@
         <v>88</v>
       </c>
       <c r="P235" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q235">
         <v>2.05</v>
@@ -49925,7 +49934,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR235">
         <v>1.29</v>
@@ -50131,7 +50140,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ236">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR236">
         <v>2.46</v>
@@ -50256,7 +50265,7 @@
         <v>241</v>
       </c>
       <c r="P237" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q237">
         <v>3.75</v>
@@ -50462,7 +50471,7 @@
         <v>242</v>
       </c>
       <c r="P238" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q238">
         <v>2.88</v>
@@ -50540,10 +50549,10 @@
         <v>0.79</v>
       </c>
       <c r="AP238">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ238">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR238">
         <v>1.53</v>
@@ -50668,7 +50677,7 @@
         <v>111</v>
       </c>
       <c r="P239" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -50952,7 +50961,7 @@
         <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ240">
         <v>0.74</v>
@@ -51080,7 +51089,7 @@
         <v>243</v>
       </c>
       <c r="P241" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q241">
         <v>3.1</v>
@@ -51158,7 +51167,7 @@
         <v>1.14</v>
       </c>
       <c r="AP241">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ241">
         <v>1.22</v>
@@ -51286,7 +51295,7 @@
         <v>244</v>
       </c>
       <c r="P242" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q242">
         <v>3.4</v>
@@ -51492,7 +51501,7 @@
         <v>245</v>
       </c>
       <c r="P243" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="Q243">
         <v>2.4</v>
@@ -51570,7 +51579,7 @@
         <v>1.27</v>
       </c>
       <c r="AP243">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ243">
         <v>1.28</v>
@@ -51698,7 +51707,7 @@
         <v>246</v>
       </c>
       <c r="P244" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q244">
         <v>1.84</v>
@@ -51982,7 +51991,7 @@
         <v>0.53</v>
       </c>
       <c r="AP245">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ245">
         <v>0.74</v>
@@ -52188,7 +52197,7 @@
         <v>0.47</v>
       </c>
       <c r="AP246">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ246">
         <v>0.58</v>
@@ -52397,7 +52406,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ247">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR247">
         <v>1.56</v>
@@ -52603,7 +52612,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ248">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR248">
         <v>1.49</v>
@@ -52809,7 +52818,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ249">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR249">
         <v>1.18</v>
@@ -53012,7 +53021,7 @@
         <v>1.07</v>
       </c>
       <c r="AP250">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ250">
         <v>1.17</v>
@@ -53346,7 +53355,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53552,7 +53561,7 @@
         <v>252</v>
       </c>
       <c r="P253" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53630,7 +53639,7 @@
         <v>1.07</v>
       </c>
       <c r="AP253">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ253">
         <v>1.06</v>
@@ -53839,7 +53848,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ254">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR254">
         <v>1.56</v>
@@ -54170,7 +54179,7 @@
         <v>254</v>
       </c>
       <c r="P256" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q256">
         <v>3.5</v>
@@ -54376,7 +54385,7 @@
         <v>147</v>
       </c>
       <c r="P257" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q257">
         <v>2.38</v>
@@ -54788,7 +54797,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q259">
         <v>2.15</v>
@@ -54869,7 +54878,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ259">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR259">
         <v>1.5</v>
@@ -55072,7 +55081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP260">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ260">
         <v>0.74</v>
@@ -55278,10 +55287,10 @@
         <v>0.63</v>
       </c>
       <c r="AP261">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ261">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR261">
         <v>1.2</v>
@@ -55406,7 +55415,7 @@
         <v>257</v>
       </c>
       <c r="P262" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -55612,7 +55621,7 @@
         <v>258</v>
       </c>
       <c r="P263" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q263">
         <v>2.2</v>
@@ -55899,7 +55908,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ264">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR264">
         <v>1.63</v>
@@ -56514,10 +56523,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP267">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ267">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR267">
         <v>1.2</v>
@@ -56642,7 +56651,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q268">
         <v>3.4</v>
@@ -56848,7 +56857,7 @@
         <v>262</v>
       </c>
       <c r="P269" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -56926,10 +56935,10 @@
         <v>0.65</v>
       </c>
       <c r="AP269">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ269">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR269">
         <v>1.58</v>
@@ -57054,7 +57063,7 @@
         <v>263</v>
       </c>
       <c r="P270" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q270">
         <v>1.06</v>
@@ -57132,7 +57141,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ270">
         <v>1.22</v>
@@ -57260,7 +57269,7 @@
         <v>264</v>
       </c>
       <c r="P271" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q271">
         <v>1.06</v>
@@ -57466,7 +57475,7 @@
         <v>265</v>
       </c>
       <c r="P272" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q272">
         <v>1.06</v>
@@ -57956,7 +57965,7 @@
         <v>1.29</v>
       </c>
       <c r="AP274">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ274">
         <v>1.22</v>
@@ -58290,7 +58299,7 @@
         <v>268</v>
       </c>
       <c r="P276" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q276">
         <v>1.36</v>
@@ -58577,7 +58586,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ277">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR277">
         <v>1.78</v>
@@ -58780,7 +58789,7 @@
         <v>1.06</v>
       </c>
       <c r="AP278">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ278">
         <v>1.17</v>
@@ -58986,7 +58995,7 @@
         <v>0.59</v>
       </c>
       <c r="AP279">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ279">
         <v>0.58</v>
@@ -59401,7 +59410,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ281">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR281">
         <v>1.59</v>
@@ -59732,7 +59741,7 @@
         <v>88</v>
       </c>
       <c r="P283" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q283">
         <v>7</v>
@@ -60350,7 +60359,7 @@
         <v>273</v>
       </c>
       <c r="P286" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q286">
         <v>2.3</v>
@@ -60556,7 +60565,7 @@
         <v>274</v>
       </c>
       <c r="P287" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q287">
         <v>2.75</v>
@@ -61125,6 +61134,1036 @@
       </c>
       <c r="BP289">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7415266</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45435.5625</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+      <c r="G290" t="s">
+        <v>73</v>
+      </c>
+      <c r="H290" t="s">
+        <v>75</v>
+      </c>
+      <c r="I290">
+        <v>2</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>6</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>6</v>
+      </c>
+      <c r="O290" t="s">
+        <v>276</v>
+      </c>
+      <c r="P290" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q290">
+        <v>1.62</v>
+      </c>
+      <c r="R290">
+        <v>2.88</v>
+      </c>
+      <c r="S290">
+        <v>7.5</v>
+      </c>
+      <c r="T290">
+        <v>1.17</v>
+      </c>
+      <c r="U290">
+        <v>4.5</v>
+      </c>
+      <c r="V290">
+        <v>1.91</v>
+      </c>
+      <c r="W290">
+        <v>1.8</v>
+      </c>
+      <c r="X290">
+        <v>4</v>
+      </c>
+      <c r="Y290">
+        <v>1.2</v>
+      </c>
+      <c r="Z290">
+        <v>1.83</v>
+      </c>
+      <c r="AA290">
+        <v>6.71</v>
+      </c>
+      <c r="AB290">
+        <v>2.41</v>
+      </c>
+      <c r="AC290">
+        <v>1.01</v>
+      </c>
+      <c r="AD290">
+        <v>15</v>
+      </c>
+      <c r="AE290">
+        <v>1.06</v>
+      </c>
+      <c r="AF290">
+        <v>7.5</v>
+      </c>
+      <c r="AG290">
+        <v>1.33</v>
+      </c>
+      <c r="AH290">
+        <v>3.04</v>
+      </c>
+      <c r="AI290">
+        <v>1.57</v>
+      </c>
+      <c r="AJ290">
+        <v>2.34</v>
+      </c>
+      <c r="AK290">
+        <v>1.04</v>
+      </c>
+      <c r="AL290">
+        <v>1.1</v>
+      </c>
+      <c r="AM290">
+        <v>3.6</v>
+      </c>
+      <c r="AN290">
+        <v>2.06</v>
+      </c>
+      <c r="AO290">
+        <v>1.17</v>
+      </c>
+      <c r="AP290">
+        <v>2.11</v>
+      </c>
+      <c r="AQ290">
+        <v>1.11</v>
+      </c>
+      <c r="AR290">
+        <v>1.72</v>
+      </c>
+      <c r="AS290">
+        <v>1.26</v>
+      </c>
+      <c r="AT290">
+        <v>2.98</v>
+      </c>
+      <c r="AU290">
+        <v>12</v>
+      </c>
+      <c r="AV290">
+        <v>0</v>
+      </c>
+      <c r="AW290">
+        <v>11</v>
+      </c>
+      <c r="AX290">
+        <v>8</v>
+      </c>
+      <c r="AY290">
+        <v>23</v>
+      </c>
+      <c r="AZ290">
+        <v>8</v>
+      </c>
+      <c r="BA290">
+        <v>8</v>
+      </c>
+      <c r="BB290">
+        <v>4</v>
+      </c>
+      <c r="BC290">
+        <v>12</v>
+      </c>
+      <c r="BD290">
+        <v>1.18</v>
+      </c>
+      <c r="BE290">
+        <v>11</v>
+      </c>
+      <c r="BF290">
+        <v>6.59</v>
+      </c>
+      <c r="BG290">
+        <v>1.38</v>
+      </c>
+      <c r="BH290">
+        <v>2.71</v>
+      </c>
+      <c r="BI290">
+        <v>1.69</v>
+      </c>
+      <c r="BJ290">
+        <v>2</v>
+      </c>
+      <c r="BK290">
+        <v>2.15</v>
+      </c>
+      <c r="BL290">
+        <v>1.59</v>
+      </c>
+      <c r="BM290">
+        <v>2.91</v>
+      </c>
+      <c r="BN290">
+        <v>1.33</v>
+      </c>
+      <c r="BO290">
+        <v>3.8</v>
+      </c>
+      <c r="BP290">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7415269</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45436.5625</v>
+      </c>
+      <c r="F291">
+        <v>7</v>
+      </c>
+      <c r="G291" t="s">
+        <v>79</v>
+      </c>
+      <c r="H291" t="s">
+        <v>80</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>277</v>
+      </c>
+      <c r="P291" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q291">
+        <v>3.1</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>3.5</v>
+      </c>
+      <c r="T291">
+        <v>1.36</v>
+      </c>
+      <c r="U291">
+        <v>2.88</v>
+      </c>
+      <c r="V291">
+        <v>3</v>
+      </c>
+      <c r="W291">
+        <v>1.33</v>
+      </c>
+      <c r="X291">
+        <v>7.5</v>
+      </c>
+      <c r="Y291">
+        <v>1.06</v>
+      </c>
+      <c r="Z291">
+        <v>3</v>
+      </c>
+      <c r="AA291">
+        <v>2.2</v>
+      </c>
+      <c r="AB291">
+        <v>3.3</v>
+      </c>
+      <c r="AC291">
+        <v>1.03</v>
+      </c>
+      <c r="AD291">
+        <v>9</v>
+      </c>
+      <c r="AE291">
+        <v>1.29</v>
+      </c>
+      <c r="AF291">
+        <v>3.3</v>
+      </c>
+      <c r="AG291">
+        <v>2.23</v>
+      </c>
+      <c r="AH291">
+        <v>1.57</v>
+      </c>
+      <c r="AI291">
+        <v>1.75</v>
+      </c>
+      <c r="AJ291">
+        <v>2.03</v>
+      </c>
+      <c r="AK291">
+        <v>1.3</v>
+      </c>
+      <c r="AL291">
+        <v>1.33</v>
+      </c>
+      <c r="AM291">
+        <v>1.5</v>
+      </c>
+      <c r="AN291">
+        <v>1.47</v>
+      </c>
+      <c r="AO291">
+        <v>0.78</v>
+      </c>
+      <c r="AP291">
+        <v>1.44</v>
+      </c>
+      <c r="AQ291">
+        <v>0.79</v>
+      </c>
+      <c r="AR291">
+        <v>1.37</v>
+      </c>
+      <c r="AS291">
+        <v>1.36</v>
+      </c>
+      <c r="AT291">
+        <v>2.73</v>
+      </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
+      <c r="AV291">
+        <v>9</v>
+      </c>
+      <c r="AW291">
+        <v>8</v>
+      </c>
+      <c r="AX291">
+        <v>11</v>
+      </c>
+      <c r="AY291">
+        <v>12</v>
+      </c>
+      <c r="AZ291">
+        <v>20</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>9</v>
+      </c>
+      <c r="BC291">
+        <v>13</v>
+      </c>
+      <c r="BD291">
+        <v>1.95</v>
+      </c>
+      <c r="BE291">
+        <v>7.5</v>
+      </c>
+      <c r="BF291">
+        <v>2.1</v>
+      </c>
+      <c r="BG291">
+        <v>1.22</v>
+      </c>
+      <c r="BH291">
+        <v>3.68</v>
+      </c>
+      <c r="BI291">
+        <v>1.47</v>
+      </c>
+      <c r="BJ291">
+        <v>2.63</v>
+      </c>
+      <c r="BK291">
+        <v>1.88</v>
+      </c>
+      <c r="BL291">
+        <v>1.92</v>
+      </c>
+      <c r="BM291">
+        <v>2.26</v>
+      </c>
+      <c r="BN291">
+        <v>1.57</v>
+      </c>
+      <c r="BO291">
+        <v>3.1</v>
+      </c>
+      <c r="BP291">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7415268</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45436.5625</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+      <c r="G292" t="s">
+        <v>74</v>
+      </c>
+      <c r="H292" t="s">
+        <v>78</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>278</v>
+      </c>
+      <c r="P292" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q292">
+        <v>4.75</v>
+      </c>
+      <c r="R292">
+        <v>1.83</v>
+      </c>
+      <c r="S292">
+        <v>2.75</v>
+      </c>
+      <c r="T292">
+        <v>1.5</v>
+      </c>
+      <c r="U292">
+        <v>2.5</v>
+      </c>
+      <c r="V292">
+        <v>3.25</v>
+      </c>
+      <c r="W292">
+        <v>1.29</v>
+      </c>
+      <c r="X292">
+        <v>9.5</v>
+      </c>
+      <c r="Y292">
+        <v>1.04</v>
+      </c>
+      <c r="Z292">
+        <v>2.8</v>
+      </c>
+      <c r="AA292">
+        <v>2.9</v>
+      </c>
+      <c r="AB292">
+        <v>2.24</v>
+      </c>
+      <c r="AC292">
+        <v>1.06</v>
+      </c>
+      <c r="AD292">
+        <v>7.5</v>
+      </c>
+      <c r="AE292">
+        <v>1.4</v>
+      </c>
+      <c r="AF292">
+        <v>2.75</v>
+      </c>
+      <c r="AG292">
+        <v>2.2</v>
+      </c>
+      <c r="AH292">
+        <v>1.6</v>
+      </c>
+      <c r="AI292">
+        <v>2.1</v>
+      </c>
+      <c r="AJ292">
+        <v>1.7</v>
+      </c>
+      <c r="AK292">
+        <v>1.6</v>
+      </c>
+      <c r="AL292">
+        <v>1.4</v>
+      </c>
+      <c r="AM292">
+        <v>1.17</v>
+      </c>
+      <c r="AN292">
+        <v>1.5</v>
+      </c>
+      <c r="AO292">
+        <v>0.76</v>
+      </c>
+      <c r="AP292">
+        <v>1.58</v>
+      </c>
+      <c r="AQ292">
+        <v>0.72</v>
+      </c>
+      <c r="AR292">
+        <v>1.59</v>
+      </c>
+      <c r="AS292">
+        <v>1.36</v>
+      </c>
+      <c r="AT292">
+        <v>2.95</v>
+      </c>
+      <c r="AU292">
+        <v>3</v>
+      </c>
+      <c r="AV292">
+        <v>9</v>
+      </c>
+      <c r="AW292">
+        <v>4</v>
+      </c>
+      <c r="AX292">
+        <v>10</v>
+      </c>
+      <c r="AY292">
+        <v>7</v>
+      </c>
+      <c r="AZ292">
+        <v>19</v>
+      </c>
+      <c r="BA292">
+        <v>3</v>
+      </c>
+      <c r="BB292">
+        <v>3</v>
+      </c>
+      <c r="BC292">
+        <v>6</v>
+      </c>
+      <c r="BD292">
+        <v>2.67</v>
+      </c>
+      <c r="BE292">
+        <v>8</v>
+      </c>
+      <c r="BF292">
+        <v>1.64</v>
+      </c>
+      <c r="BG292">
+        <v>1.22</v>
+      </c>
+      <c r="BH292">
+        <v>3.68</v>
+      </c>
+      <c r="BI292">
+        <v>1.7</v>
+      </c>
+      <c r="BJ292">
+        <v>2.05</v>
+      </c>
+      <c r="BK292">
+        <v>1.88</v>
+      </c>
+      <c r="BL292">
+        <v>1.92</v>
+      </c>
+      <c r="BM292">
+        <v>2.26</v>
+      </c>
+      <c r="BN292">
+        <v>1.57</v>
+      </c>
+      <c r="BO292">
+        <v>3.1</v>
+      </c>
+      <c r="BP292">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7415270</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45436.5625</v>
+      </c>
+      <c r="F293">
+        <v>7</v>
+      </c>
+      <c r="G293" t="s">
+        <v>70</v>
+      </c>
+      <c r="H293" t="s">
+        <v>83</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>99</v>
+      </c>
+      <c r="P293" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q293">
+        <v>5</v>
+      </c>
+      <c r="R293">
+        <v>1.91</v>
+      </c>
+      <c r="S293">
+        <v>2.6</v>
+      </c>
+      <c r="T293">
+        <v>1.5</v>
+      </c>
+      <c r="U293">
+        <v>2.5</v>
+      </c>
+      <c r="V293">
+        <v>3.25</v>
+      </c>
+      <c r="W293">
+        <v>1.29</v>
+      </c>
+      <c r="X293">
+        <v>9.5</v>
+      </c>
+      <c r="Y293">
+        <v>1.04</v>
+      </c>
+      <c r="Z293">
+        <v>3.3</v>
+      </c>
+      <c r="AA293">
+        <v>2.9</v>
+      </c>
+      <c r="AB293">
+        <v>2.04</v>
+      </c>
+      <c r="AC293">
+        <v>1.06</v>
+      </c>
+      <c r="AD293">
+        <v>7.5</v>
+      </c>
+      <c r="AE293">
+        <v>1.4</v>
+      </c>
+      <c r="AF293">
+        <v>2.75</v>
+      </c>
+      <c r="AG293">
+        <v>2.25</v>
+      </c>
+      <c r="AH293">
+        <v>1.57</v>
+      </c>
+      <c r="AI293">
+        <v>2.1</v>
+      </c>
+      <c r="AJ293">
+        <v>1.7</v>
+      </c>
+      <c r="AK293">
+        <v>1.73</v>
+      </c>
+      <c r="AL293">
+        <v>1.36</v>
+      </c>
+      <c r="AM293">
+        <v>1.14</v>
+      </c>
+      <c r="AN293">
+        <v>1.39</v>
+      </c>
+      <c r="AO293">
+        <v>1.06</v>
+      </c>
+      <c r="AP293">
+        <v>1.37</v>
+      </c>
+      <c r="AQ293">
+        <v>1.06</v>
+      </c>
+      <c r="AR293">
+        <v>1.23</v>
+      </c>
+      <c r="AS293">
+        <v>1.37</v>
+      </c>
+      <c r="AT293">
+        <v>2.6</v>
+      </c>
+      <c r="AU293">
+        <v>4</v>
+      </c>
+      <c r="AV293">
+        <v>4</v>
+      </c>
+      <c r="AW293">
+        <v>6</v>
+      </c>
+      <c r="AX293">
+        <v>7</v>
+      </c>
+      <c r="AY293">
+        <v>10</v>
+      </c>
+      <c r="AZ293">
+        <v>11</v>
+      </c>
+      <c r="BA293">
+        <v>6</v>
+      </c>
+      <c r="BB293">
+        <v>2</v>
+      </c>
+      <c r="BC293">
+        <v>8</v>
+      </c>
+      <c r="BD293">
+        <v>2.92</v>
+      </c>
+      <c r="BE293">
+        <v>8</v>
+      </c>
+      <c r="BF293">
+        <v>1.55</v>
+      </c>
+      <c r="BG293">
+        <v>1.22</v>
+      </c>
+      <c r="BH293">
+        <v>4.27</v>
+      </c>
+      <c r="BI293">
+        <v>1.41</v>
+      </c>
+      <c r="BJ293">
+        <v>2.91</v>
+      </c>
+      <c r="BK293">
+        <v>2</v>
+      </c>
+      <c r="BL293">
+        <v>1.8</v>
+      </c>
+      <c r="BM293">
+        <v>2.07</v>
+      </c>
+      <c r="BN293">
+        <v>1.75</v>
+      </c>
+      <c r="BO293">
+        <v>2.74</v>
+      </c>
+      <c r="BP293">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7415271</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45436.5625</v>
+      </c>
+      <c r="F294">
+        <v>7</v>
+      </c>
+      <c r="G294" t="s">
+        <v>72</v>
+      </c>
+      <c r="H294" t="s">
+        <v>84</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>2</v>
+      </c>
+      <c r="N294">
+        <v>5</v>
+      </c>
+      <c r="O294" t="s">
+        <v>279</v>
+      </c>
+      <c r="P294" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q294">
+        <v>1.57</v>
+      </c>
+      <c r="R294">
+        <v>2.75</v>
+      </c>
+      <c r="S294">
+        <v>8</v>
+      </c>
+      <c r="T294">
+        <v>1.2</v>
+      </c>
+      <c r="U294">
+        <v>4</v>
+      </c>
+      <c r="V294">
+        <v>2.1</v>
+      </c>
+      <c r="W294">
+        <v>1.67</v>
+      </c>
+      <c r="X294">
+        <v>5</v>
+      </c>
+      <c r="Y294">
+        <v>1.14</v>
+      </c>
+      <c r="Z294">
+        <v>1.24</v>
+      </c>
+      <c r="AA294">
+        <v>5</v>
+      </c>
+      <c r="AB294">
+        <v>7.1</v>
+      </c>
+      <c r="AC294">
+        <v>1.01</v>
+      </c>
+      <c r="AD294">
+        <v>17</v>
+      </c>
+      <c r="AE294">
+        <v>1.08</v>
+      </c>
+      <c r="AF294">
+        <v>6.5</v>
+      </c>
+      <c r="AG294">
+        <v>1.59</v>
+      </c>
+      <c r="AH294">
+        <v>2.18</v>
+      </c>
+      <c r="AI294">
+        <v>1.85</v>
+      </c>
+      <c r="AJ294">
+        <v>1.91</v>
+      </c>
+      <c r="AK294">
+        <v>1.05</v>
+      </c>
+      <c r="AL294">
+        <v>1.07</v>
+      </c>
+      <c r="AM294">
+        <v>3.75</v>
+      </c>
+      <c r="AN294">
+        <v>1.41</v>
+      </c>
+      <c r="AO294">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP294">
+        <v>1.5</v>
+      </c>
+      <c r="AQ294">
+        <v>0.53</v>
+      </c>
+      <c r="AR294">
+        <v>1.59</v>
+      </c>
+      <c r="AS294">
+        <v>0.92</v>
+      </c>
+      <c r="AT294">
+        <v>2.51</v>
+      </c>
+      <c r="AU294">
+        <v>11</v>
+      </c>
+      <c r="AV294">
+        <v>3</v>
+      </c>
+      <c r="AW294">
+        <v>13</v>
+      </c>
+      <c r="AX294">
+        <v>3</v>
+      </c>
+      <c r="AY294">
+        <v>24</v>
+      </c>
+      <c r="AZ294">
+        <v>6</v>
+      </c>
+      <c r="BA294">
+        <v>17</v>
+      </c>
+      <c r="BB294">
+        <v>0</v>
+      </c>
+      <c r="BC294">
+        <v>17</v>
+      </c>
+      <c r="BD294">
+        <v>1.26</v>
+      </c>
+      <c r="BE294">
+        <v>10</v>
+      </c>
+      <c r="BF294">
+        <v>4.86</v>
+      </c>
+      <c r="BG294">
+        <v>1.32</v>
+      </c>
+      <c r="BH294">
+        <v>3.42</v>
+      </c>
+      <c r="BI294">
+        <v>1.54</v>
+      </c>
+      <c r="BJ294">
+        <v>2.37</v>
+      </c>
+      <c r="BK294">
+        <v>2.05</v>
+      </c>
+      <c r="BL294">
+        <v>1.7</v>
+      </c>
+      <c r="BM294">
+        <v>2.5</v>
+      </c>
+      <c r="BN294">
+        <v>1.48</v>
+      </c>
+      <c r="BO294">
+        <v>3.34</v>
+      </c>
+      <c r="BP294">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -62339,10 +62339,10 @@
         <v>6</v>
       </c>
       <c r="BB295">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC295">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD295">
         <v>1.51</v>
@@ -62730,31 +62730,31 @@
         <v>2.75</v>
       </c>
       <c r="AU297">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV297">
         <v>3</v>
       </c>
       <c r="AW297">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX297">
         <v>4</v>
       </c>
       <c r="AY297">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ297">
         <v>7</v>
       </c>
       <c r="BA297">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB297">
         <v>0</v>
       </c>
       <c r="BC297">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD297">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ2">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ3">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ4">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
+        <v>2.03</v>
+      </c>
+      <c r="AQ5">
         <v>2.11</v>
-      </c>
-      <c r="AQ5">
-        <v>2.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ6">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ7">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ8">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3793,25 +3793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ12">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -4211,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ13">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AT13">
-        <v>2.39</v>
+        <v>3.86</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ14">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4623,19 +4623,19 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ15">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AS15">
         <v>1.97</v>
       </c>
       <c r="AT15">
-        <v>1.97</v>
+        <v>2.93</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -5029,25 +5029,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5235,25 +5235,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ18">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR18">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AT18">
-        <v>0.6899999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5444,22 +5444,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ19">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR19">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AS19">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AT19">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5647,25 +5647,25 @@
         <v>2.3</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ20">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR20">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AS20">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AT20">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5856,22 +5856,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ21">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR21">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="AS21">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT21">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6065,19 +6065,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR22">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AS22">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="AT22">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6265,25 +6265,25 @@
         <v>3.4</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AS23">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="AT23">
-        <v>1.81</v>
+        <v>3.27</v>
       </c>
       <c r="AU23">
         <v>11</v>
@@ -6471,25 +6471,25 @@
         <v>1.68</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ24">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR24">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="AS24">
-        <v>0.83</v>
+        <v>1.3</v>
       </c>
       <c r="AT24">
-        <v>1.61</v>
+        <v>2.48</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>1.94</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ25">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AT25">
-        <v>3.41</v>
+        <v>3.29</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6883,25 +6883,25 @@
         <v>1.31</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP26">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR26">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="AS26">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT26">
-        <v>3.24</v>
+        <v>3.56</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -7089,25 +7089,25 @@
         <v>2.31</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ27">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
       <c r="AS27">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT27">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="AU27">
         <v>9</v>
@@ -7298,22 +7298,22 @@
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR28">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AS28">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7501,25 +7501,25 @@
         <v>1.38</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ29">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR29">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AS29">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AT29">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2.1</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR30">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AS30">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AT30">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7913,25 +7913,25 @@
         <v>1.11</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP31">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ31">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR31">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AS31">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AT31">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -8119,25 +8119,25 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ32">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR32">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS32">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="AT32">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AU32">
         <v>9</v>
@@ -8331,19 +8331,19 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR33">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="AS33">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8531,25 +8531,25 @@
         <v>2.6</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP34">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ34">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AS34">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>3.69</v>
+        <v>3.57</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8737,25 +8737,25 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ35">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="AS35">
         <v>2.19</v>
       </c>
       <c r="AT35">
-        <v>4.09</v>
+        <v>3.86</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8943,22 +8943,22 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ36">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR36">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT36">
         <v>2.24</v>
@@ -9149,25 +9149,25 @@
         <v>2.06</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR37">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AS37">
-        <v>1.12</v>
+        <v>1.47</v>
       </c>
       <c r="AT37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.56</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP38">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR38">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS38">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT38">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.6</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ39">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR39">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AS39">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>3.22</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP40">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="AS40">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AT40">
-        <v>3.53</v>
+        <v>3.06</v>
       </c>
       <c r="AU40">
         <v>9</v>
@@ -9973,25 +9973,25 @@
         <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO41">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP41">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ41">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR41">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="AS41">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AT41">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP42">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR42">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AT42">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10385,22 +10385,22 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ43">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AS43">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AT43">
         <v>2.35</v>
@@ -10591,25 +10591,25 @@
         <v>8</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="AS44">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AT44">
-        <v>3.62</v>
+        <v>3.84</v>
       </c>
       <c r="AU44">
         <v>11</v>
@@ -10797,25 +10797,25 @@
         <v>2.3</v>
       </c>
       <c r="AN45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ45">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR45">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS45">
         <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -11003,25 +11003,25 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR46">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT46">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="AU46">
         <v>7</v>
@@ -11209,25 +11209,25 @@
         <v>1.12</v>
       </c>
       <c r="AN47">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP47">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR47">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AS47">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="AT47">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11415,25 +11415,25 @@
         <v>1.17</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO48">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ48">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR48">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="AS48">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AT48">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11621,25 +11621,25 @@
         <v>1.05</v>
       </c>
       <c r="AN49">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AP49">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ49">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR49">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="AS49">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="AT49">
-        <v>4.4</v>
+        <v>4.17</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11827,25 +11827,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ50">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR50">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AS50">
-        <v>0.8100000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AT50">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>4.65</v>
       </c>
       <c r="AN51">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP51">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ51">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="AT51">
-        <v>2.82</v>
+        <v>3.11</v>
       </c>
       <c r="AU51">
         <v>11</v>
@@ -12239,25 +12239,25 @@
         <v>1.25</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ52">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR52">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AS52">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT52">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12448,22 +12448,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ53">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AS53">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="AT53">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12651,25 +12651,25 @@
         <v>1.83</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR54">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT54">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12857,25 +12857,25 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
+        <v>0.5</v>
+      </c>
+      <c r="AO55">
+        <v>1.17</v>
+      </c>
+      <c r="AP55">
+        <v>1.11</v>
+      </c>
+      <c r="AQ55">
+        <v>1.14</v>
+      </c>
+      <c r="AR55">
+        <v>1.41</v>
+      </c>
+      <c r="AS55">
         <v>1.5</v>
       </c>
-      <c r="AO55">
-        <v>1</v>
-      </c>
-      <c r="AP55">
-        <v>1.47</v>
-      </c>
-      <c r="AQ55">
-        <v>1.06</v>
-      </c>
-      <c r="AR55">
-        <v>1.49</v>
-      </c>
-      <c r="AS55">
-        <v>1.57</v>
-      </c>
       <c r="AT55">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13063,25 +13063,25 @@
         <v>4.05</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP56">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR56">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AS56">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="AT56">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AU56">
         <v>13</v>
@@ -13269,25 +13269,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR57">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS57">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AT57">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13475,22 +13475,22 @@
         <v>1.5</v>
       </c>
       <c r="AN58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AP58">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ58">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
-        <v>1.12</v>
+        <v>0.96</v>
       </c>
       <c r="AS58">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AT58">
         <v>2.49</v>
@@ -13681,25 +13681,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO59">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AP59">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR59">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS59">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13887,25 +13887,25 @@
         <v>1.05</v>
       </c>
       <c r="AN60">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AO60">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ60">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR60">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="AS60">
-        <v>2.28</v>
+        <v>2.51</v>
       </c>
       <c r="AT60">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14093,25 +14093,25 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AO61">
-        <v>0.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP61">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR61">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AT61">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14299,25 +14299,25 @@
         <v>2.5</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO62">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ62">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR62">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AT62">
-        <v>2.41</v>
+        <v>2.54</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>2.38</v>
       </c>
       <c r="AN63">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO63">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ63">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR63">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AS63">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT63">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>1.29</v>
       </c>
       <c r="AN64">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO64">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AP64">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ64">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR64">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS64">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="AT64">
         <v>3.05</v>
@@ -14917,25 +14917,25 @@
         <v>6</v>
       </c>
       <c r="AN65">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AO65">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="AP65">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ65">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR65">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AS65">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AT65">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -15123,25 +15123,25 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AO66">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AP66">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR66">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AS66">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AT66">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15329,25 +15329,25 @@
         <v>1.53</v>
       </c>
       <c r="AN67">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO67">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ67">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR67">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AS67">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="AT67">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="AU67">
         <v>3</v>
@@ -15538,22 +15538,22 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AP68">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ68">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR68">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS68">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="AT68">
-        <v>3.54</v>
+        <v>3.79</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15741,25 +15741,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ69">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR69">
+        <v>1.37</v>
+      </c>
+      <c r="AS69">
         <v>1.48</v>
       </c>
-      <c r="AS69">
-        <v>1.38</v>
-      </c>
       <c r="AT69">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>2.84</v>
+        <v>2.77</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16153,25 +16153,25 @@
         <v>1.6</v>
       </c>
       <c r="AN71">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="AO71">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AP71">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR71">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AS71">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="AT71">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16359,25 +16359,25 @@
         <v>2.05</v>
       </c>
       <c r="AN72">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP72">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR72">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AS72">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>3.11</v>
+        <v>2.73</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16565,25 +16565,25 @@
         <v>1.38</v>
       </c>
       <c r="AN73">
-        <v>2.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="AP73">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ73">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR73">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AS73">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AT73">
-        <v>3.07</v>
+        <v>2.91</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.8</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="AO74">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR74">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AS74">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AT74">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AO75">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ75">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR75">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="AS75">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>3.63</v>
+        <v>3.37</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.07</v>
       </c>
       <c r="AN76">
+        <v>0.75</v>
+      </c>
+      <c r="AO76">
+        <v>2.25</v>
+      </c>
+      <c r="AP76">
+        <v>1.65</v>
+      </c>
+      <c r="AQ76">
+        <v>2.59</v>
+      </c>
+      <c r="AR76">
         <v>1.5</v>
       </c>
-      <c r="AO76">
-        <v>1</v>
-      </c>
-      <c r="AP76">
-        <v>2.11</v>
-      </c>
-      <c r="AQ76">
-        <v>2.39</v>
-      </c>
-      <c r="AR76">
-        <v>1.72</v>
-      </c>
       <c r="AS76">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="AT76">
-        <v>4.09</v>
+        <v>3.86</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17389,25 +17389,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP77">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ77">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR77">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AS77">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AT77">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17598,22 +17598,22 @@
         <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR78">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT78">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17801,25 +17801,25 @@
         <v>1.4</v>
       </c>
       <c r="AN79">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO79">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AP79">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR79">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AS79">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AT79">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -18007,25 +18007,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AO80">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ80">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR80">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AS80">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AT80">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="AU80">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.18</v>
       </c>
       <c r="AN81">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO81">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AP81">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR81">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS81">
-        <v>2.27</v>
+        <v>2.44</v>
       </c>
       <c r="AT81">
-        <v>3.46</v>
+        <v>3.64</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18419,25 +18419,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO82">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ82">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR82">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="AS82">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AT82">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18625,25 +18625,25 @@
         <v>1.33</v>
       </c>
       <c r="AN83">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO83">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ83">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR83">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AT83">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18831,25 +18831,25 @@
         <v>1.7</v>
       </c>
       <c r="AN84">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AO84">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ84">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR84">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AS84">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="AT84">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -19040,22 +19040,22 @@
         <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>0.17</v>
+        <v>0.8</v>
       </c>
       <c r="AP85">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ85">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AS85">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>1.5</v>
       </c>
       <c r="AN86">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AO86">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ86">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19449,25 +19449,25 @@
         <v>1.06</v>
       </c>
       <c r="AN87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO87">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AP87">
+        <v>1.65</v>
+      </c>
+      <c r="AQ87">
         <v>2.11</v>
       </c>
-      <c r="AQ87">
-        <v>2.06</v>
-      </c>
       <c r="AR87">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="AT87">
-        <v>3.83</v>
+        <v>3.93</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19655,25 +19655,25 @@
         <v>1.59</v>
       </c>
       <c r="AN88">
-        <v>2.25</v>
+        <v>1.27</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ88">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR88">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AS88">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19861,25 +19861,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO89">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AP89">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ89">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR89">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT89">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -20067,25 +20067,25 @@
         <v>1.06</v>
       </c>
       <c r="AN90">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO90">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
+        <v>2.59</v>
+      </c>
+      <c r="AR90">
+        <v>1.41</v>
+      </c>
+      <c r="AS90">
         <v>2.39</v>
       </c>
-      <c r="AR90">
-        <v>1.36</v>
-      </c>
-      <c r="AS90">
-        <v>2.28</v>
-      </c>
       <c r="AT90">
-        <v>3.64</v>
+        <v>3.8</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20273,25 +20273,25 @@
         <v>1.76</v>
       </c>
       <c r="AN91">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR91">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="AS91">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AT91">
-        <v>3.09</v>
+        <v>2.71</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20479,25 +20479,25 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AO92">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AP92">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ92">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR92">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS92">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="AT92">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20685,25 +20685,25 @@
         <v>1.71</v>
       </c>
       <c r="AN93">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AO93">
-        <v>0.4</v>
+        <v>1.55</v>
       </c>
       <c r="AP93">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ93">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR93">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AS93">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AT93">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20891,25 +20891,25 @@
         <v>2.9</v>
       </c>
       <c r="AN94">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AO94">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AP94">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ94">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR94">
-        <v>2.64</v>
+        <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AT94">
-        <v>3.83</v>
+        <v>3.72</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -21097,25 +21097,25 @@
         <v>2.32</v>
       </c>
       <c r="AN95">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO95">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
       <c r="AP95">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR95">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="AS95">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AT95">
-        <v>3.24</v>
+        <v>3.15</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -21303,25 +21303,25 @@
         <v>3.3</v>
       </c>
       <c r="AN96">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AO96">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP96">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ96">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR96">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AS96">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="AT96">
-        <v>4.02</v>
+        <v>4.24</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21509,25 +21509,25 @@
         <v>6.95</v>
       </c>
       <c r="AN97">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO97">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ97">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR97">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="AS97">
-        <v>0.77</v>
+        <v>1.02</v>
       </c>
       <c r="AT97">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="AU97">
         <v>9</v>
@@ -21715,25 +21715,25 @@
         <v>2.63</v>
       </c>
       <c r="AN98">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ98">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR98">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS98">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AT98">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21921,25 +21921,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AO99">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AP99">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ99">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR99">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AS99">
-        <v>1.46</v>
+        <v>1.76</v>
       </c>
       <c r="AT99">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22127,25 +22127,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AO100">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ100">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR100">
+        <v>1.36</v>
+      </c>
+      <c r="AS100">
         <v>1.57</v>
       </c>
-      <c r="AS100">
-        <v>1.33</v>
-      </c>
       <c r="AT100">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AU100">
         <v>8</v>
@@ -22333,25 +22333,25 @@
         <v>1.11</v>
       </c>
       <c r="AN101">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO101">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="AP101">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ101">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR101">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS101">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="AT101">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22539,25 +22539,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO102">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR102">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AT102">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22745,25 +22745,25 @@
         <v>1.59</v>
       </c>
       <c r="AN103">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AP103">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ103">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS103">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT103">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22951,22 +22951,22 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AO104">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ104">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR104">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AS104">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AT104">
         <v>2.05</v>
@@ -23157,25 +23157,25 @@
         <v>1.6</v>
       </c>
       <c r="AN105">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO105">
-        <v>0.33</v>
+        <v>1.31</v>
       </c>
       <c r="AP105">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR105">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="AS105">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT105">
-        <v>3.16</v>
+        <v>2.94</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23363,25 +23363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AO106">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AP106">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ106">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR106">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="AT106">
-        <v>2.72</v>
+        <v>2.99</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23569,25 +23569,25 @@
         <v>1.44</v>
       </c>
       <c r="AN107">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO107">
-        <v>1.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP107">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ107">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR107">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="AS107">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AT107">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23775,25 +23775,25 @@
         <v>1.06</v>
       </c>
       <c r="AN108">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AO108">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ108">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR108">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AS108">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT108">
-        <v>3.84</v>
+        <v>3.74</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23981,25 +23981,25 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO109">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ109">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR109">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AS109">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="AT109">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24187,25 +24187,25 @@
         <v>1.54</v>
       </c>
       <c r="AN110">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="AO110">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="AP110">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR110">
+        <v>1.14</v>
+      </c>
+      <c r="AS110">
         <v>1.21</v>
       </c>
-      <c r="AS110">
-        <v>1.23</v>
-      </c>
       <c r="AT110">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24393,25 +24393,25 @@
         <v>2.4</v>
       </c>
       <c r="AN111">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AO111">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AP111">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ111">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR111">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="AS111">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AT111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24599,25 +24599,25 @@
         <v>1.62</v>
       </c>
       <c r="AN112">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>0.5</v>
+        <v>1.46</v>
       </c>
       <c r="AP112">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ112">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR112">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
       <c r="AS112">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT112">
-        <v>3.62</v>
+        <v>3.36</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24805,25 +24805,25 @@
         <v>1.3</v>
       </c>
       <c r="AN113">
-        <v>0.57</v>
+        <v>1.08</v>
       </c>
       <c r="AO113">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP113">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ113">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR113">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AS113">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AT113">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25011,25 +25011,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>1.14</v>
       </c>
-      <c r="AO114">
-        <v>0.67</v>
-      </c>
       <c r="AP114">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ114">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AS114">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AT114">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25217,25 +25217,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="AO115">
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ115">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR115">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="AS115">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AT115">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25423,25 +25423,25 @@
         <v>1.06</v>
       </c>
       <c r="AN116">
-        <v>2.29</v>
+        <v>1.57</v>
       </c>
       <c r="AO116">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ116">
+        <v>2.59</v>
+      </c>
+      <c r="AR116">
+        <v>1.62</v>
+      </c>
+      <c r="AS116">
         <v>2.39</v>
       </c>
-      <c r="AR116">
-        <v>1.73</v>
-      </c>
-      <c r="AS116">
-        <v>2.32</v>
-      </c>
       <c r="AT116">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25629,25 +25629,25 @@
         <v>2.15</v>
       </c>
       <c r="AN117">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="AO117">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ117">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR117">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AS117">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="AT117">
-        <v>3.73</v>
+        <v>3.91</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25835,25 +25835,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO118">
-        <v>0.71</v>
+        <v>1.43</v>
       </c>
       <c r="AP118">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR118">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AS118">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT118">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="AU118">
         <v>2</v>
@@ -26041,25 +26041,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>1.33</v>
+        <v>0.93</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ119">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR119">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="AS119">
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26247,25 +26247,25 @@
         <v>1.55</v>
       </c>
       <c r="AN120">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AO120">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR120">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT120">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="AU120">
         <v>6</v>
@@ -26453,25 +26453,25 @@
         <v>1.55</v>
       </c>
       <c r="AN121">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="AO121">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP121">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ121">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS121">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AT121">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26659,22 +26659,22 @@
         <v>1.73</v>
       </c>
       <c r="AN122">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="AO122">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP122">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR122">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS122">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT122">
         <v>2.64</v>
@@ -26865,25 +26865,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO123">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ123">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR123">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS123">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AT123">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -27071,25 +27071,25 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AO124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP124">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ124">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR124">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS124">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AT124">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27277,25 +27277,25 @@
         <v>3.1</v>
       </c>
       <c r="AN125">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="AO125">
-        <v>0.86</v>
+        <v>1.47</v>
       </c>
       <c r="AP125">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ125">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR125">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AS125">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AT125">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="AU125">
         <v>11</v>
@@ -27483,25 +27483,25 @@
         <v>1.6</v>
       </c>
       <c r="AN126">
-        <v>1.86</v>
+        <v>1.2</v>
       </c>
       <c r="AO126">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR126">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT126">
-        <v>3.04</v>
+        <v>2.77</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27689,25 +27689,25 @@
         <v>2.45</v>
       </c>
       <c r="AN127">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO127">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AP127">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ127">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR127">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS127">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AT127">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27895,25 +27895,25 @@
         <v>1.02</v>
       </c>
       <c r="AN128">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>2.14</v>
+        <v>2.47</v>
       </c>
       <c r="AP128">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ128">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR128">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="AT128">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="AU128">
         <v>0</v>
@@ -28101,25 +28101,25 @@
         <v>2.5</v>
       </c>
       <c r="AN129">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AO129">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="AP129">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ129">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR129">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="AS129">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="AU129">
         <v>6</v>
@@ -28307,25 +28307,25 @@
         <v>1.25</v>
       </c>
       <c r="AN130">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AO130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ130">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR130">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AS130">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AT130">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="AU130">
         <v>0</v>
@@ -28513,25 +28513,25 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AO131">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AP131">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ131">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR131">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AS131">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="AT131">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="AU131">
         <v>11</v>
@@ -28722,22 +28722,22 @@
         <v>0.88</v>
       </c>
       <c r="AO132">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ132">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR132">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AS132">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28925,25 +28925,25 @@
         <v>1.5</v>
       </c>
       <c r="AN133">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AO133">
-        <v>0.63</v>
+        <v>1.31</v>
       </c>
       <c r="AP133">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ133">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR133">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AS133">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AT133">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29131,25 +29131,25 @@
         <v>1.25</v>
       </c>
       <c r="AN134">
-        <v>2.14</v>
+        <v>1.25</v>
       </c>
       <c r="AO134">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AP134">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ134">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR134">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AS134">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AT134">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29337,25 +29337,25 @@
         <v>1.44</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO135">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AP135">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS135">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT135">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29543,25 +29543,25 @@
         <v>1.11</v>
       </c>
       <c r="AN136">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO136">
-        <v>2.75</v>
+        <v>2.69</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ136">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR136">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="AS136">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AT136">
-        <v>3.83</v>
+        <v>3.65</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29749,25 +29749,25 @@
         <v>2.4</v>
       </c>
       <c r="AN137">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO137">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ137">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR137">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="AS137">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT137">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29955,25 +29955,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="AO138">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AP138">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ138">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR138">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AS138">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AT138">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="AU138">
         <v>4</v>
@@ -30161,25 +30161,25 @@
         <v>1.68</v>
       </c>
       <c r="AN139">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AO139">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ139">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR139">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AS139">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AT139">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30367,25 +30367,25 @@
         <v>1.42</v>
       </c>
       <c r="AN140">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO140">
-        <v>0.75</v>
+        <v>1.47</v>
       </c>
       <c r="AP140">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR140">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AT140">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30573,25 +30573,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AO141">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ141">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR141">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AS141">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT141">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30779,25 +30779,25 @@
         <v>1.03</v>
       </c>
       <c r="AN142">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO142">
-        <v>2.25</v>
+        <v>2.53</v>
       </c>
       <c r="AP142">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ142">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR142">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AS142">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="AT142">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30985,25 +30985,25 @@
         <v>3.75</v>
       </c>
       <c r="AN143">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP143">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR143">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AS143">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT143">
-        <v>3.81</v>
+        <v>3.63</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31191,25 +31191,25 @@
         <v>2.88</v>
       </c>
       <c r="AN144">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AO144">
-        <v>0.5600000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ144">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR144">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="AS144">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AT144">
-        <v>3.06</v>
+        <v>2.92</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31397,25 +31397,25 @@
         <v>2.3</v>
       </c>
       <c r="AN145">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AO145">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP145">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ145">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR145">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AS145">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT145">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU145">
         <v>2</v>
@@ -31603,25 +31603,25 @@
         <v>1.7</v>
       </c>
       <c r="AN146">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO146">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="AP146">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ146">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR146">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS146">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
       <c r="AT146">
-        <v>2.22</v>
+        <v>2.57</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31812,22 +31812,22 @@
         <v>2.44</v>
       </c>
       <c r="AO147">
-        <v>2.33</v>
+        <v>2.56</v>
       </c>
       <c r="AP147">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ147">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR147">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AS147">
-        <v>2.13</v>
+        <v>2.32</v>
       </c>
       <c r="AT147">
-        <v>4.31</v>
+        <v>4.44</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -32015,25 +32015,25 @@
         <v>1.7</v>
       </c>
       <c r="AN148">
-        <v>2.33</v>
+        <v>1.61</v>
       </c>
       <c r="AO148">
-        <v>0.88</v>
+        <v>1.22</v>
       </c>
       <c r="AP148">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ148">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR148">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AS148">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AT148">
-        <v>2.79</v>
+        <v>2.61</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32221,25 +32221,25 @@
         <v>2.05</v>
       </c>
       <c r="AN149">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AO149">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP149">
+        <v>1.11</v>
+      </c>
+      <c r="AQ149">
+        <v>1.05</v>
+      </c>
+      <c r="AR149">
         <v>1.47</v>
       </c>
-      <c r="AQ149">
-        <v>0.79</v>
-      </c>
-      <c r="AR149">
-        <v>1.63</v>
-      </c>
       <c r="AS149">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="AT149">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32427,25 +32427,25 @@
         <v>1.3</v>
       </c>
       <c r="AN150">
-        <v>2.11</v>
+        <v>1.39</v>
       </c>
       <c r="AO150">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ150">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR150">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AS150">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AT150">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32636,22 +32636,22 @@
         <v>1.44</v>
       </c>
       <c r="AO151">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ151">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS151">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="AT151">
-        <v>2.33</v>
+        <v>2.62</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32839,25 +32839,25 @@
         <v>1.51</v>
       </c>
       <c r="AN152">
-        <v>1.88</v>
+        <v>1.11</v>
       </c>
       <c r="AO152">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR152">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AS152">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AT152">
-        <v>2.76</v>
+        <v>2.55</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33045,25 +33045,25 @@
         <v>3.1</v>
       </c>
       <c r="AN153">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AO153">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="AP153">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ153">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR153">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="AS153">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AT153">
-        <v>3.26</v>
+        <v>2.97</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33251,25 +33251,25 @@
         <v>1.22</v>
       </c>
       <c r="AN154">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="AO154">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AP154">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ154">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR154">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="AS154">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AT154">
-        <v>2.99</v>
+        <v>2.67</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33457,25 +33457,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AO155">
-        <v>0.89</v>
+        <v>1.53</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR155">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT155">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33663,25 +33663,25 @@
         <v>1.08</v>
       </c>
       <c r="AN156">
-        <v>1.78</v>
+        <v>1.11</v>
       </c>
       <c r="AO156">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AP156">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ156">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR156">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="AS156">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AT156">
-        <v>3.54</v>
+        <v>3.33</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33869,25 +33869,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>2.11</v>
+        <v>1.47</v>
       </c>
       <c r="AO157">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ157">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR157">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="AS157">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="AT157">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="AU157">
         <v>3</v>
@@ -34075,25 +34075,25 @@
         <v>6</v>
       </c>
       <c r="AN158">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="AO158">
-        <v>0.67</v>
+        <v>1.47</v>
       </c>
       <c r="AP158">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ158">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR158">
-        <v>2.51</v>
+        <v>2.33</v>
       </c>
       <c r="AS158">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AT158">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34281,25 +34281,25 @@
         <v>1.53</v>
       </c>
       <c r="AN159">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AO159">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AP159">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ159">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR159">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AS159">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AT159">
-        <v>2.67</v>
+        <v>2.97</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34487,25 +34487,25 @@
         <v>1.22</v>
       </c>
       <c r="AN160">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AO160">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="AP160">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ160">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
       </c>
       <c r="AS160">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AT160">
-        <v>2.77</v>
+        <v>3.01</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34693,25 +34693,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="AO161">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="AP161">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ161">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR161">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS161">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT161">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34899,25 +34899,25 @@
         <v>1.03</v>
       </c>
       <c r="AN162">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO162">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AP162">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ162">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR162">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.17</v>
+        <v>2.31</v>
       </c>
       <c r="AT162">
-        <v>3.64</v>
+        <v>3.71</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -35108,22 +35108,22 @@
         <v>2.5</v>
       </c>
       <c r="AO163">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AP163">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ163">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR163">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS163">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT163">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35314,22 +35314,22 @@
         <v>1.6</v>
       </c>
       <c r="AO164">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AP164">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ164">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR164">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS164">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT164">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35517,25 +35517,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AO165">
-        <v>0.9</v>
+        <v>1.45</v>
       </c>
       <c r="AP165">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ165">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR165">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS165">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT165">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AO166">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AP166">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ166">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR166">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AS166">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="AT166">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35929,25 +35929,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO167">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="AP167">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ167">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR167">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="AS167">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="AT167">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36135,25 +36135,25 @@
         <v>1.85</v>
       </c>
       <c r="AN168">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
       <c r="AO168">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ168">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR168">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AT168">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="AU168">
         <v>2</v>
@@ -36341,25 +36341,25 @@
         <v>1.65</v>
       </c>
       <c r="AN169">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO169">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ169">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR169">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS169">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT169">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="AU169">
         <v>4</v>
@@ -36547,25 +36547,25 @@
         <v>1.5</v>
       </c>
       <c r="AN170">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AO170">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AP170">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ170">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR170">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS170">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AT170">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36753,25 +36753,25 @@
         <v>1.04</v>
       </c>
       <c r="AN171">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="AO171">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AP171">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ171">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR171">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AS171">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="AT171">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36959,25 +36959,25 @@
         <v>4.33</v>
       </c>
       <c r="AN172">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="AO172">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP172">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ172">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR172">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="AS172">
         <v>1.63</v>
       </c>
       <c r="AT172">
-        <v>4.08</v>
+        <v>3.9</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37165,25 +37165,25 @@
         <v>1.22</v>
       </c>
       <c r="AN173">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO173">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ173">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR173">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS173">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="AT173">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>9</v>
@@ -37371,25 +37371,25 @@
         <v>1.45</v>
       </c>
       <c r="AN174">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO174">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP174">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ174">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR174">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AS174">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AT174">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37577,25 +37577,25 @@
         <v>1.5</v>
       </c>
       <c r="AN175">
-        <v>0.8</v>
+        <v>1.19</v>
       </c>
       <c r="AO175">
-        <v>0.9</v>
+        <v>1.43</v>
       </c>
       <c r="AP175">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR175">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AS175">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AT175">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37783,25 +37783,25 @@
         <v>2.15</v>
       </c>
       <c r="AN176">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO176">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ176">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR176">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS176">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AT176">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37989,25 +37989,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO177">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="AP177">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ177">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR177">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AT177">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AU177">
         <v>4</v>
@@ -38195,25 +38195,25 @@
         <v>1.95</v>
       </c>
       <c r="AN178">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="AO178">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AP178">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR178">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS178">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT178">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38401,25 +38401,25 @@
         <v>2.55</v>
       </c>
       <c r="AN179">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AO179">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AP179">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ179">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR179">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AS179">
         <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38607,25 +38607,25 @@
         <v>1.3</v>
       </c>
       <c r="AN180">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="AO180">
-        <v>0.82</v>
+        <v>1.36</v>
       </c>
       <c r="AP180">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ180">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR180">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AT180">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38813,25 +38813,25 @@
         <v>1.04</v>
       </c>
       <c r="AN181">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AO181">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AP181">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ181">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR181">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="AS181">
-        <v>2.11</v>
+        <v>2.26</v>
       </c>
       <c r="AT181">
-        <v>4.03</v>
+        <v>3.95</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -39022,22 +39022,22 @@
         <v>2.55</v>
       </c>
       <c r="AO182">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP182">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ182">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR182">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="AS182">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="AT182">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="AU182">
         <v>8</v>
@@ -39225,25 +39225,25 @@
         <v>2.05</v>
       </c>
       <c r="AN183">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="AO183">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ183">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR183">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AS183">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="AT183">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39431,25 +39431,25 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="AO184">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AP184">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ184">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR184">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AS184">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="AT184">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="AU184">
         <v>11</v>
@@ -39637,25 +39637,25 @@
         <v>1.67</v>
       </c>
       <c r="AN185">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="AO185">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ185">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR185">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AS185">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT185">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39843,25 +39843,25 @@
         <v>1.52</v>
       </c>
       <c r="AN186">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO186">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="AP186">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ186">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR186">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS186">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="AT186">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -40049,25 +40049,25 @@
         <v>1.18</v>
       </c>
       <c r="AN187">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO187">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP187">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ187">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR187">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS187">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AT187">
-        <v>2.74</v>
+        <v>2.95</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40255,25 +40255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN188">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AO188">
-        <v>0.82</v>
+        <v>1.35</v>
       </c>
       <c r="AP188">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR188">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS188">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AT188">
-        <v>2.47</v>
+        <v>2.64</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40461,25 +40461,25 @@
         <v>1.4</v>
       </c>
       <c r="AN189">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="AO189">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="AP189">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ189">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR189">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="AS189">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AT189">
-        <v>2.92</v>
+        <v>2.54</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40667,25 +40667,25 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AO190">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AP190">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ190">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR190">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AS190">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AT190">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU190">
         <v>2</v>
@@ -40873,25 +40873,25 @@
         <v>2.25</v>
       </c>
       <c r="AN191">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="AO191">
-        <v>0.55</v>
+        <v>1.22</v>
       </c>
       <c r="AP191">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ191">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR191">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AS191">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AT191">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="AU191">
         <v>11</v>
@@ -41079,25 +41079,25 @@
         <v>2</v>
       </c>
       <c r="AN192">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="AO192">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AP192">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ192">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR192">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="AS192">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AT192">
-        <v>4.38</v>
+        <v>4.25</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -41285,25 +41285,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO193">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ193">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR193">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AS193">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AT193">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41491,25 +41491,25 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AO194">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP194">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ194">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR194">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="AS194">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT194">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU194">
         <v>7</v>
@@ -41697,25 +41697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN195">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="AO195">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ195">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR195">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AS195">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="AT195">
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41903,25 +41903,25 @@
         <v>2.5</v>
       </c>
       <c r="AN196">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AO196">
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ196">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR196">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AS196">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT196">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -42109,25 +42109,25 @@
         <v>1.7</v>
       </c>
       <c r="AN197">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="AO197">
         <v>0.58</v>
       </c>
       <c r="AP197">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ197">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR197">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AS197">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
       <c r="AT197">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="AU197">
         <v>4</v>
@@ -42315,25 +42315,25 @@
         <v>1.25</v>
       </c>
       <c r="AN198">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO198">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="AP198">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ198">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR198">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS198">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AT198">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42521,25 +42521,25 @@
         <v>1.85</v>
       </c>
       <c r="AN199">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AO199">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP199">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ199">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR199">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AS199">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AT199">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42727,25 +42727,25 @@
         <v>4</v>
       </c>
       <c r="AN200">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="AO200">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AP200">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ200">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR200">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="AS200">
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42933,25 +42933,25 @@
         <v>1.01</v>
       </c>
       <c r="AN201">
-        <v>1.25</v>
+        <v>0.96</v>
       </c>
       <c r="AO201">
+        <v>2.46</v>
+      </c>
+      <c r="AP201">
+        <v>1.11</v>
+      </c>
+      <c r="AQ201">
+        <v>2.59</v>
+      </c>
+      <c r="AR201">
+        <v>1.46</v>
+      </c>
+      <c r="AS201">
         <v>2.25</v>
       </c>
-      <c r="AP201">
-        <v>1.47</v>
-      </c>
-      <c r="AQ201">
-        <v>2.39</v>
-      </c>
-      <c r="AR201">
-        <v>1.63</v>
-      </c>
-      <c r="AS201">
-        <v>2.06</v>
-      </c>
       <c r="AT201">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -43139,25 +43139,25 @@
         <v>1.53</v>
       </c>
       <c r="AN202">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO202">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="AP202">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ202">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR202">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="AS202">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT202">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43345,25 +43345,25 @@
         <v>1.22</v>
       </c>
       <c r="AN203">
-        <v>1.83</v>
+        <v>1.16</v>
       </c>
       <c r="AO203">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ203">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR203">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AS203">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AT203">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43551,25 +43551,25 @@
         <v>1.29</v>
       </c>
       <c r="AN204">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AO204">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP204">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ204">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR204">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AS204">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT204">
-        <v>2.58</v>
+        <v>2.85</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43757,25 +43757,25 @@
         <v>1.83</v>
       </c>
       <c r="AN205">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AO205">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR205">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AS205">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT205">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43963,25 +43963,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AO206">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AP206">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ206">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR206">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AS206">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AT206">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44169,25 +44169,25 @@
         <v>4.5</v>
       </c>
       <c r="AN207">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="AO207">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AP207">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ207">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR207">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="AS207">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AT207">
-        <v>4.01</v>
+        <v>3.75</v>
       </c>
       <c r="AU207">
         <v>13</v>
@@ -44375,25 +44375,25 @@
         <v>1.67</v>
       </c>
       <c r="AN208">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AO208">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ208">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR208">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AS208">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AT208">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44581,25 +44581,25 @@
         <v>1.62</v>
       </c>
       <c r="AN209">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="AO209">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP209">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ209">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR209">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS209">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT209">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44787,25 +44787,25 @@
         <v>2.05</v>
       </c>
       <c r="AN210">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="AO210">
-        <v>0.92</v>
+        <v>1.35</v>
       </c>
       <c r="AP210">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ210">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR210">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS210">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT210">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44996,22 +44996,22 @@
         <v>0.54</v>
       </c>
       <c r="AO211">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AP211">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ211">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR211">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AS211">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT211">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU211">
         <v>2</v>
@@ -45199,25 +45199,25 @@
         <v>1.62</v>
       </c>
       <c r="AN212">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AO212">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="AP212">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ212">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR212">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS212">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AT212">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45405,25 +45405,25 @@
         <v>2.85</v>
       </c>
       <c r="AN213">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="AO213">
-        <v>0.54</v>
+        <v>1.15</v>
       </c>
       <c r="AP213">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ213">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR213">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AS213">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AT213">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45611,25 +45611,25 @@
         <v>1.73</v>
       </c>
       <c r="AN214">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="AO214">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AP214">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ214">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR214">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS214">
         <v>1.26</v>
       </c>
       <c r="AT214">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU214">
         <v>8</v>
@@ -45817,25 +45817,25 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>1.15</v>
+        <v>0.88</v>
       </c>
       <c r="AO215">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AP215">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ215">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR215">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AS215">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="AT215">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="AU215">
         <v>4</v>
@@ -46023,25 +46023,25 @@
         <v>1.03</v>
       </c>
       <c r="AN216">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="AO216">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AP216">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ216">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR216">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AS216">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AT216">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="AU216">
         <v>3</v>
@@ -46229,25 +46229,25 @@
         <v>3.75</v>
       </c>
       <c r="AN217">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AO217">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AP217">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ217">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR217">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AS217">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT217">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46435,25 +46435,25 @@
         <v>1.33</v>
       </c>
       <c r="AN218">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="AO218">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AP218">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ218">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR218">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS218">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AT218">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU218">
         <v>5</v>
@@ -46641,25 +46641,25 @@
         <v>1.62</v>
       </c>
       <c r="AN219">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="AO219">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AP219">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ219">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR219">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="AS219">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT219">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46847,25 +46847,25 @@
         <v>1.95</v>
       </c>
       <c r="AN220">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AO220">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="AP220">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ220">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="AR220">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS220">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="AT220">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -47053,25 +47053,25 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="AO221">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="AP221">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ221">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR221">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AS221">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>2.66</v>
+        <v>2.53</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47259,25 +47259,25 @@
         <v>1.17</v>
       </c>
       <c r="AN222">
-        <v>1.77</v>
+        <v>1.11</v>
       </c>
       <c r="AO222">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR222">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AS222">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AT222">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47468,22 +47468,22 @@
         <v>1.15</v>
       </c>
       <c r="AO223">
-        <v>0.62</v>
+        <v>0.96</v>
       </c>
       <c r="AP223">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ223">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR223">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AS223">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AT223">
-        <v>2.49</v>
+        <v>2.66</v>
       </c>
       <c r="AU223">
         <v>5</v>
@@ -47671,25 +47671,25 @@
         <v>6.6</v>
       </c>
       <c r="AN224">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="AO224">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AP224">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ224">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR224">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="AS224">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AT224">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="AU224">
         <v>7</v>
@@ -47877,25 +47877,25 @@
         <v>1.74</v>
       </c>
       <c r="AN225">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AO225">
-        <v>0.62</v>
+        <v>1.04</v>
       </c>
       <c r="AP225">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ225">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
       </c>
       <c r="AS225">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AT225">
-        <v>2.33</v>
+        <v>2.49</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -48083,25 +48083,25 @@
         <v>1.36</v>
       </c>
       <c r="AN226">
-        <v>1.21</v>
+        <v>0.93</v>
       </c>
       <c r="AO226">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP226">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AQ226">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR226">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AS226">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT226">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="AU226">
         <v>2</v>
@@ -48289,25 +48289,25 @@
         <v>1.77</v>
       </c>
       <c r="AN227">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="AO227">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AP227">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ227">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR227">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="AS227">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AT227">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48495,22 +48495,22 @@
         <v>1.83</v>
       </c>
       <c r="AN228">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO228">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AP228">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ228">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR228">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS228">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AT228">
         <v>2.76</v>
@@ -48704,22 +48704,22 @@
         <v>0.5</v>
       </c>
       <c r="AO229">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="AP229">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AQ229">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR229">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AS229">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="AT229">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48907,25 +48907,25 @@
         <v>1.9</v>
       </c>
       <c r="AN230">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="AO230">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AP230">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ230">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="AR230">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AS230">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT230">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU230">
         <v>9</v>
@@ -49113,25 +49113,25 @@
         <v>3.25</v>
       </c>
       <c r="AN231">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AO231">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="AP231">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR231">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="AS231">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT231">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49319,25 +49319,25 @@
         <v>1.55</v>
       </c>
       <c r="AN232">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO232">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AP232">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AQ232">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR232">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS232">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT232">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49525,25 +49525,25 @@
         <v>0</v>
       </c>
       <c r="AN233">
+        <v>1</v>
+      </c>
+      <c r="AO233">
         <v>1.43</v>
       </c>
-      <c r="AO233">
-        <v>1.07</v>
-      </c>
       <c r="AP233">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AQ233">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR233">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AS233">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT233">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49731,25 +49731,25 @@
         <v>1.52</v>
       </c>
       <c r="AN234">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AO234">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AP234">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ234">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR234">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AS234">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="AT234">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49937,25 +49937,25 @@
         <v>2.35</v>
       </c>
       <c r="AN235">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AO235">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AP235">
+        <v>1.08</v>
+      </c>
+      <c r="AQ235">
+        <v>0.49</v>
+      </c>
+      <c r="AR235">
+        <v>1.27</v>
+      </c>
+      <c r="AS235">
         <v>1.06</v>
       </c>
-      <c r="AQ235">
-        <v>0.53</v>
-      </c>
-      <c r="AR235">
-        <v>1.29</v>
-      </c>
-      <c r="AS235">
-        <v>0.84</v>
-      </c>
       <c r="AT235">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AU235">
         <v>4</v>
@@ -50143,25 +50143,25 @@
         <v>6.6</v>
       </c>
       <c r="AN236">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="AO236">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AP236">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ236">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AR236">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="AS236">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AT236">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="AU236">
         <v>9</v>
@@ -50349,25 +50349,25 @@
         <v>1.27</v>
       </c>
       <c r="AN237">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="AO237">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AP237">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ237">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR237">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="AS237">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AT237">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="AU237">
         <v>6</v>
@@ -50555,25 +50555,25 @@
         <v>1.65</v>
       </c>
       <c r="AN238">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="AO238">
-        <v>0.79</v>
+        <v>1.1</v>
       </c>
       <c r="AP238">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AQ238">
-        <v>0.72</v>
+        <v>1.11</v>
       </c>
       <c r="AR238">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AS238">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AT238">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50761,25 +50761,25 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="AO239">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP239">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ239">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR239">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AS239">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT239">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="AU239">
         <v>2</v>
@@ -50970,22 +50970,22 @@
         <v>1.07</v>
       </c>
       <c r="AO240">
-        <v>0.57</v>
+        <v>1.07</v>
       </c>
       <c r="AP240">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AQ240">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
       <c r="AR240">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS240">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AT240">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AU240">
         <v>5</v>
@@ -51173,25 +51173,25 @@
         <v>1.5</v>
       </c>
       <c r="AN241">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="AO241">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="AP241">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AQ241">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR241">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS241">
         <v>1.56</v>
       </c>
       <c r="AT241">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="AU241">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ7">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ8">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3793,25 +3793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -4211,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
       </c>
       <c r="AS13">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.86</v>
+        <v>2.39</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR14">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4623,19 +4623,19 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR15">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>1.97</v>
       </c>
       <c r="AT15">
-        <v>2.93</v>
+        <v>1.97</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR16">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -5029,25 +5029,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5235,25 +5235,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR18">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS18">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5444,22 +5444,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR19">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5647,25 +5647,25 @@
         <v>2.3</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AS20">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5856,22 +5856,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR21">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AS21">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT21">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6065,19 +6065,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AS22">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="AT22">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6265,25 +6265,25 @@
         <v>3.4</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR23">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="AT23">
-        <v>3.27</v>
+        <v>1.81</v>
       </c>
       <c r="AU23">
         <v>11</v>
@@ -6471,25 +6471,25 @@
         <v>1.68</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
-        <v>2.48</v>
+        <v>1.61</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>1.94</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AT25">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6883,25 +6883,25 @@
         <v>1.31</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR26">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AS26">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -7089,25 +7089,25 @@
         <v>2.31</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="AU27">
         <v>9</v>
@@ -7298,22 +7298,22 @@
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7501,25 +7501,25 @@
         <v>1.38</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR29">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AS29">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2.1</v>
       </c>
       <c r="AN30">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AS30">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7913,25 +7913,25 @@
         <v>1.11</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AS31">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -8119,25 +8119,25 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR32">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="AT32">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>9</v>
@@ -8331,19 +8331,19 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR33">
+        <v>0.97</v>
+      </c>
+      <c r="AS33">
         <v>1.23</v>
       </c>
-      <c r="AS33">
-        <v>1.34</v>
-      </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8531,25 +8531,25 @@
         <v>2.6</v>
       </c>
       <c r="AN34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8737,25 +8737,25 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR35">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>2.19</v>
       </c>
       <c r="AT35">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8943,22 +8943,22 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR36">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="AS36">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
         <v>2.24</v>
@@ -9149,25 +9149,25 @@
         <v>2.06</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR37">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS37">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="AT37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.56</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS38">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT38">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.6</v>
       </c>
       <c r="AN39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ39">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR39">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AT39">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>3.22</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR40">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AS40">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="AT40">
-        <v>3.06</v>
+        <v>3.53</v>
       </c>
       <c r="AU40">
         <v>9</v>
@@ -9973,25 +9973,25 @@
         <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ41">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR41">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="AS41">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT41">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AS42">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10385,22 +10385,22 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR43">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="AS43">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT43">
         <v>2.35</v>
@@ -10591,25 +10591,25 @@
         <v>8</v>
       </c>
       <c r="AN44">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AS44">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>3.84</v>
+        <v>3.62</v>
       </c>
       <c r="AU44">
         <v>11</v>
@@ -10797,25 +10797,25 @@
         <v>2.3</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
         <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -11003,25 +11003,25 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AU46">
         <v>7</v>
@@ -11209,25 +11209,25 @@
         <v>1.12</v>
       </c>
       <c r="AN47">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS47">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11415,25 +11415,25 @@
         <v>1.17</v>
       </c>
       <c r="AN48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR48">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11621,25 +11621,25 @@
         <v>1.05</v>
       </c>
       <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
         <v>1.5</v>
       </c>
-      <c r="AO49">
-        <v>2.5</v>
-      </c>
       <c r="AP49">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR49">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AS49">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="AT49">
-        <v>4.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11827,25 +11827,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
+        <v>1.67</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.83</v>
-      </c>
-      <c r="AP50">
-        <v>1.03</v>
-      </c>
       <c r="AQ50">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT50">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>4.65</v>
       </c>
       <c r="AN51">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="AT51">
-        <v>3.11</v>
+        <v>2.82</v>
       </c>
       <c r="AU51">
         <v>11</v>
@@ -12239,25 +12239,25 @@
         <v>1.25</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ52">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR52">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12448,22 +12448,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR53">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12651,25 +12651,25 @@
         <v>1.83</v>
       </c>
       <c r="AN54">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS54">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12857,25 +12857,25 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13063,25 +13063,25 @@
         <v>4.05</v>
       </c>
       <c r="AN56">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ56">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR56">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AS56">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AT56">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AU56">
         <v>13</v>
@@ -13269,25 +13269,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13475,22 +13475,22 @@
         <v>1.5</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR58">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
       <c r="AS58">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AT58">
         <v>2.49</v>
@@ -13681,25 +13681,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO59">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13887,25 +13887,25 @@
         <v>1.05</v>
       </c>
       <c r="AN60">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO60">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS60">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="AT60">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14093,25 +14093,25 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AS61">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14299,25 +14299,25 @@
         <v>2.5</v>
       </c>
       <c r="AN62">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.41</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>2.38</v>
       </c>
       <c r="AN63">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>1.29</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ64">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR64">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS64">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
         <v>3.05</v>
@@ -14917,25 +14917,25 @@
         <v>6</v>
       </c>
       <c r="AN65">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>0.88</v>
+        <v>0.2</v>
       </c>
       <c r="AP65">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AS65">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -15123,25 +15123,25 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO66">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR66">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AS66">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT66">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15329,25 +15329,25 @@
         <v>1.53</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ67">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR67">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AS67">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AT67">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="AU67">
         <v>3</v>
@@ -15538,22 +15538,22 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AP68">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR68">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS68">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>3.79</v>
+        <v>3.54</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15741,25 +15741,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO69">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS69">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT69">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>0.25</v>
+      </c>
+      <c r="AP70">
         <v>1.5</v>
       </c>
-      <c r="AO70">
-        <v>1.25</v>
-      </c>
-      <c r="AP70">
-        <v>1.03</v>
-      </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16153,25 +16153,25 @@
         <v>1.6</v>
       </c>
       <c r="AN71">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AO71">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR71">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS71">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="AT71">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16359,25 +16359,25 @@
         <v>2.05</v>
       </c>
       <c r="AN72">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="AO72">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP72">
+        <v>1.47</v>
+      </c>
+      <c r="AQ72">
         <v>1.11</v>
       </c>
-      <c r="AQ72">
-        <v>1.08</v>
-      </c>
       <c r="AR72">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16565,25 +16565,25 @@
         <v>1.38</v>
       </c>
       <c r="AN73">
-        <v>1.11</v>
+        <v>2.25</v>
       </c>
       <c r="AO73">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR73">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.8</v>
       </c>
       <c r="AN74">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AS74">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT74">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ75">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="AS75">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>3.37</v>
+        <v>3.63</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.07</v>
       </c>
       <c r="AN76">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO76">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR76">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AS76">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AT76">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17389,25 +17389,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR77">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AT77">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17598,22 +17598,22 @@
         <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AS78">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17801,25 +17801,25 @@
         <v>1.4</v>
       </c>
       <c r="AN79">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO79">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS79">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT79">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -18007,25 +18007,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS80">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AU80">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.18</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR81">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS81">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18419,25 +18419,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO82">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR82">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AT82">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18625,25 +18625,25 @@
         <v>1.33</v>
       </c>
       <c r="AN83">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO83">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR83">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18831,25 +18831,25 @@
         <v>1.7</v>
       </c>
       <c r="AN84">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AO84">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR84">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS84">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="AT84">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -19040,22 +19040,22 @@
         <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="AP85">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR85">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AT85">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>1.5</v>
       </c>
       <c r="AN86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO86">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AP86">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19449,25 +19449,25 @@
         <v>1.06</v>
       </c>
       <c r="AN87">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AP87">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS87">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AT87">
-        <v>3.93</v>
+        <v>3.83</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19655,25 +19655,25 @@
         <v>1.59</v>
       </c>
       <c r="AN88">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="AO88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR88">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT88">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19861,25 +19861,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ89">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR89">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AS89">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -20067,25 +20067,25 @@
         <v>1.06</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO90">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ90">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS90">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AT90">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20273,25 +20273,25 @@
         <v>1.76</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AT91">
-        <v>2.71</v>
+        <v>3.09</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20479,25 +20479,25 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AO92">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR92">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS92">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AT92">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20685,25 +20685,25 @@
         <v>1.71</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO93">
-        <v>1.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR93">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20891,25 +20891,25 @@
         <v>2.9</v>
       </c>
       <c r="AN94">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ94">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR94">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT94">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -21097,25 +21097,25 @@
         <v>2.32</v>
       </c>
       <c r="AN95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO95">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="AP95">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AS95">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AT95">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -21303,25 +21303,25 @@
         <v>3.3</v>
       </c>
       <c r="AN96">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ96">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AS96">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT96">
-        <v>4.24</v>
+        <v>4.02</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21509,25 +21509,25 @@
         <v>6.95</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ97">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AS97">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="AT97">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="AU97">
         <v>9</v>
@@ -21715,25 +21715,25 @@
         <v>2.63</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO98">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS98">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21921,25 +21921,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ99">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR99">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AS99">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="AT99">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22127,25 +22127,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP100">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR100">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AU100">
         <v>8</v>
@@ -22333,25 +22333,25 @@
         <v>1.11</v>
       </c>
       <c r="AN101">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="AP101">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR101">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS101">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT101">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22539,25 +22539,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ102">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR102">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AS102">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22745,25 +22745,25 @@
         <v>1.59</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22951,22 +22951,22 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO104">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="AP104">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR104">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AS104">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT104">
         <v>2.05</v>
@@ -23157,25 +23157,25 @@
         <v>1.6</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO105">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23363,25 +23363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.83</v>
+      </c>
+      <c r="AP106">
+        <v>2.11</v>
+      </c>
+      <c r="AQ106">
+        <v>0.58</v>
+      </c>
+      <c r="AR106">
+        <v>1.57</v>
+      </c>
+      <c r="AS106">
         <v>1.15</v>
       </c>
-      <c r="AO106">
-        <v>1.38</v>
-      </c>
-      <c r="AP106">
-        <v>1.65</v>
-      </c>
-      <c r="AQ106">
-        <v>1.03</v>
-      </c>
-      <c r="AR106">
-        <v>1.6</v>
-      </c>
-      <c r="AS106">
-        <v>1.39</v>
-      </c>
       <c r="AT106">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23569,25 +23569,25 @@
         <v>1.44</v>
       </c>
       <c r="AN107">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AO107">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ107">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AS107">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT107">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23775,25 +23775,25 @@
         <v>1.06</v>
       </c>
       <c r="AN108">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="AO108">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR108">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS108">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AT108">
-        <v>3.74</v>
+        <v>3.84</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23981,25 +23981,25 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ109">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AS109">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="AT109">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24187,25 +24187,25 @@
         <v>1.54</v>
       </c>
       <c r="AN110">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.44</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>1.21</v>
+      </c>
+      <c r="AS110">
         <v>1.23</v>
       </c>
-      <c r="AP110">
-        <v>1.08</v>
-      </c>
-      <c r="AQ110">
-        <v>1.27</v>
-      </c>
-      <c r="AR110">
-        <v>1.14</v>
-      </c>
-      <c r="AS110">
-        <v>1.21</v>
-      </c>
       <c r="AT110">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24393,25 +24393,25 @@
         <v>2.4</v>
       </c>
       <c r="AN111">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AO111">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ111">
+        <v>1.16</v>
+      </c>
+      <c r="AR111">
+        <v>2.46</v>
+      </c>
+      <c r="AS111">
         <v>1.54</v>
       </c>
-      <c r="AR111">
-        <v>2.24</v>
-      </c>
-      <c r="AS111">
-        <v>1.56</v>
-      </c>
       <c r="AT111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24599,25 +24599,25 @@
         <v>1.62</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR112">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="AS112">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT112">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24805,25 +24805,25 @@
         <v>1.3</v>
       </c>
       <c r="AN113">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AO113">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR113">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS113">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT113">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25011,25 +25011,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO114">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT114">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25217,25 +25217,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="AO115">
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT115">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25423,25 +25423,25 @@
         <v>1.06</v>
       </c>
       <c r="AN116">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AO116">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AS116">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT116">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25629,25 +25629,25 @@
         <v>2.15</v>
       </c>
       <c r="AN117">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AO117">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AP117">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ117">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>3.91</v>
+        <v>3.73</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25835,25 +25835,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR118">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS118">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT118">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AU118">
         <v>2</v>
@@ -26041,25 +26041,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AO119">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR119">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AS119">
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26247,25 +26247,25 @@
         <v>1.55</v>
       </c>
       <c r="AN120">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AU120">
         <v>6</v>
@@ -26453,25 +26453,25 @@
         <v>1.55</v>
       </c>
       <c r="AN121">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR121">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26659,22 +26659,22 @@
         <v>1.73</v>
       </c>
       <c r="AN122">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO122">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR122">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS122">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT122">
         <v>2.64</v>
@@ -26865,25 +26865,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO123">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ123">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR123">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS123">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AT123">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -27071,25 +27071,25 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27277,25 +27277,25 @@
         <v>3.1</v>
       </c>
       <c r="AN125">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AO125">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ125">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR125">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AS125">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AT125">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="AU125">
         <v>11</v>
@@ -27483,25 +27483,25 @@
         <v>1.6</v>
       </c>
       <c r="AN126">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP126">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>2.77</v>
+        <v>3.04</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27689,25 +27689,25 @@
         <v>2.45</v>
       </c>
       <c r="AN127">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AP127">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR127">
+        <v>1.56</v>
+      </c>
+      <c r="AS127">
         <v>1.62</v>
       </c>
-      <c r="AS127">
-        <v>1.55</v>
-      </c>
       <c r="AT127">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27895,25 +27895,25 @@
         <v>1.02</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO128">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR128">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS128">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="AU128">
         <v>0</v>
@@ -28101,25 +28101,25 @@
         <v>2.5</v>
       </c>
       <c r="AN129">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AO129">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR129">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU129">
         <v>6</v>
@@ -28307,25 +28307,25 @@
         <v>1.25</v>
       </c>
       <c r="AN130">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR130">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AT130">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU130">
         <v>0</v>
@@ -28513,25 +28513,25 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO131">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR131">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AS131">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT131">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="AU131">
         <v>11</v>
@@ -28722,22 +28722,22 @@
         <v>0.88</v>
       </c>
       <c r="AO132">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AT132">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28925,25 +28925,25 @@
         <v>1.5</v>
       </c>
       <c r="AN133">
+        <v>0.75</v>
+      </c>
+      <c r="AO133">
         <v>0.63</v>
       </c>
-      <c r="AO133">
-        <v>1.31</v>
-      </c>
       <c r="AP133">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR133">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT133">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29131,25 +29131,25 @@
         <v>1.25</v>
       </c>
       <c r="AN134">
+        <v>2.14</v>
+      </c>
+      <c r="AO134">
         <v>1.25</v>
       </c>
-      <c r="AO134">
+      <c r="AP134">
         <v>1.44</v>
       </c>
-      <c r="AP134">
-        <v>1.08</v>
-      </c>
       <c r="AQ134">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR134">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29337,25 +29337,25 @@
         <v>1.44</v>
       </c>
       <c r="AN135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29543,25 +29543,25 @@
         <v>1.11</v>
       </c>
       <c r="AN136">
-        <v>0.8100000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="AO136">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="AP136">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="AS136">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AT136">
-        <v>3.65</v>
+        <v>3.83</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29749,25 +29749,25 @@
         <v>2.4</v>
       </c>
       <c r="AN137">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO137">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AS137">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT137">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29955,25 +29955,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AO138">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR138">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AT138">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="AU138">
         <v>4</v>
@@ -30161,25 +30161,25 @@
         <v>1.68</v>
       </c>
       <c r="AN139">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP139">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AS139">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30367,25 +30367,25 @@
         <v>1.42</v>
       </c>
       <c r="AN140">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO140">
+        <v>0.75</v>
+      </c>
+      <c r="AP140">
         <v>1.47</v>
       </c>
-      <c r="AP140">
-        <v>1.11</v>
-      </c>
       <c r="AQ140">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR140">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS140">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT140">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30573,25 +30573,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT141">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30779,25 +30779,25 @@
         <v>1.03</v>
       </c>
       <c r="AN142">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO142">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ142">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR142">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS142">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AT142">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30985,25 +30985,25 @@
         <v>3.75</v>
       </c>
       <c r="AN143">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AO143">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ143">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR143">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT143">
-        <v>3.63</v>
+        <v>3.81</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31191,25 +31191,25 @@
         <v>2.88</v>
       </c>
       <c r="AN144">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AO144">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP144">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
+        <v>0.74</v>
+      </c>
+      <c r="AR144">
+        <v>1.98</v>
+      </c>
+      <c r="AS144">
         <v>1.08</v>
       </c>
-      <c r="AR144">
-        <v>1.7</v>
-      </c>
-      <c r="AS144">
-        <v>1.22</v>
-      </c>
       <c r="AT144">
-        <v>2.92</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31397,25 +31397,25 @@
         <v>2.3</v>
       </c>
       <c r="AN145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR145">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS145">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU145">
         <v>2</v>
@@ -31603,25 +31603,25 @@
         <v>1.7</v>
       </c>
       <c r="AN146">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO146">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR146">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS146">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT146">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31812,22 +31812,22 @@
         <v>2.44</v>
       </c>
       <c r="AO147">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ147">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR147">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AS147">
-        <v>2.32</v>
+        <v>2.13</v>
       </c>
       <c r="AT147">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -32015,25 +32015,25 @@
         <v>1.7</v>
       </c>
       <c r="AN148">
-        <v>1.61</v>
+        <v>2.33</v>
       </c>
       <c r="AO148">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS148">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AT148">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32221,25 +32221,25 @@
         <v>2.05</v>
       </c>
       <c r="AN149">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO149">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AP149">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR149">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AT149">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32427,25 +32427,25 @@
         <v>1.3</v>
       </c>
       <c r="AN150">
-        <v>1.39</v>
+        <v>2.11</v>
       </c>
       <c r="AO150">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR150">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS150">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT150">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32636,22 +32636,22 @@
         <v>1.44</v>
       </c>
       <c r="AO151">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR151">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="AT151">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32839,25 +32839,25 @@
         <v>1.51</v>
       </c>
       <c r="AN152">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="AO152">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AT152">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33045,25 +33045,25 @@
         <v>3.1</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO153">
+        <v>1.44</v>
+      </c>
+      <c r="AP153">
+        <v>2.11</v>
+      </c>
+      <c r="AQ153">
         <v>1.11</v>
       </c>
-      <c r="AP153">
-        <v>2.03</v>
-      </c>
-      <c r="AQ153">
-        <v>1.08</v>
-      </c>
       <c r="AR153">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AS153">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT153">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33251,25 +33251,25 @@
         <v>1.22</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="AO154">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ154">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR154">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AS154">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT154">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33457,25 +33457,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AO155">
-        <v>1.53</v>
+        <v>0.89</v>
       </c>
       <c r="AP155">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33663,25 +33663,25 @@
         <v>1.08</v>
       </c>
       <c r="AN156">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO156">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP156">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AT156">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33869,25 +33869,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR157">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="AT157">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU157">
         <v>3</v>
@@ -34075,25 +34075,25 @@
         <v>6</v>
       </c>
       <c r="AN158">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="AO158">
-        <v>1.47</v>
+        <v>0.67</v>
       </c>
       <c r="AP158">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ158">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34281,25 +34281,25 @@
         <v>1.53</v>
       </c>
       <c r="AN159">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AO159">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR159">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
-        <v>2.97</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34487,25 +34487,25 @@
         <v>1.22</v>
       </c>
       <c r="AN160">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AO160">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
       </c>
       <c r="AS160">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AT160">
-        <v>3.01</v>
+        <v>2.77</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34693,25 +34693,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
+        <v>0.78</v>
+      </c>
+      <c r="AO161">
         <v>1.11</v>
       </c>
-      <c r="AO161">
-        <v>1.32</v>
-      </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR161">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS161">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34899,25 +34899,25 @@
         <v>1.03</v>
       </c>
       <c r="AN162">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO162">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AP162">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS162">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="AT162">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -35108,22 +35108,22 @@
         <v>2.5</v>
       </c>
       <c r="AO163">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ163">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS163">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT163">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35314,22 +35314,22 @@
         <v>1.6</v>
       </c>
       <c r="AO164">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS164">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT164">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35517,25 +35517,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO165">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR165">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AO166">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR166">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS166">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT166">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35929,25 +35929,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO167">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR167">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AS167">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AT167">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36135,25 +36135,25 @@
         <v>1.85</v>
       </c>
       <c r="AN168">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="AO168">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR168">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT168">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="AU168">
         <v>2</v>
@@ -36341,25 +36341,25 @@
         <v>1.65</v>
       </c>
       <c r="AN169">
+        <v>2.2</v>
+      </c>
+      <c r="AO169">
         <v>1.4</v>
       </c>
-      <c r="AO169">
-        <v>1.1</v>
-      </c>
       <c r="AP169">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS169">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT169">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU169">
         <v>4</v>
@@ -36547,25 +36547,25 @@
         <v>1.5</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO170">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR170">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS170">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT170">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36753,25 +36753,25 @@
         <v>1.04</v>
       </c>
       <c r="AN171">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="AO171">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AP171">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ171">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR171">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AT171">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36959,25 +36959,25 @@
         <v>4.33</v>
       </c>
       <c r="AN172">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AO172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP172">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ172">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="AS172">
         <v>1.63</v>
       </c>
       <c r="AT172">
-        <v>3.9</v>
+        <v>4.08</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37165,25 +37165,25 @@
         <v>1.22</v>
       </c>
       <c r="AN173">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO173">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS173">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU173">
         <v>9</v>
@@ -37371,25 +37371,25 @@
         <v>1.45</v>
       </c>
       <c r="AN174">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO174">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AS174">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT174">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37577,25 +37577,25 @@
         <v>1.5</v>
       </c>
       <c r="AN175">
-        <v>1.19</v>
+        <v>0.8</v>
       </c>
       <c r="AO175">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
       <c r="AP175">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ175">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT175">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37783,25 +37783,25 @@
         <v>2.15</v>
       </c>
       <c r="AN176">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO176">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>1.17</v>
+      </c>
+      <c r="AR176">
         <v>1.65</v>
       </c>
-      <c r="AQ176">
-        <v>1.27</v>
-      </c>
-      <c r="AR176">
-        <v>1.57</v>
-      </c>
       <c r="AS176">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AT176">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37989,25 +37989,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO177">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AP177">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR177">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS177">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT177">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU177">
         <v>4</v>
@@ -38195,25 +38195,25 @@
         <v>1.95</v>
       </c>
       <c r="AN178">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AO178">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ178">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS178">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT178">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38401,25 +38401,25 @@
         <v>2.55</v>
       </c>
       <c r="AN179">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AO179">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR179">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS179">
         <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38607,25 +38607,25 @@
         <v>1.3</v>
       </c>
       <c r="AN180">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>1.36</v>
+        <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR180">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38813,25 +38813,25 @@
         <v>1.04</v>
       </c>
       <c r="AN181">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AO181">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP181">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR181">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS181">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="AT181">
-        <v>3.95</v>
+        <v>4.03</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -39022,22 +39022,22 @@
         <v>2.55</v>
       </c>
       <c r="AO182">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ182">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR182">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AT182">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="AU182">
         <v>8</v>
@@ -39225,25 +39225,25 @@
         <v>2.05</v>
       </c>
       <c r="AN183">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AO183">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="AP183">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR183">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AT183">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39431,25 +39431,25 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="AO184">
+        <v>1.27</v>
+      </c>
+      <c r="AP184">
+        <v>1.58</v>
+      </c>
+      <c r="AQ184">
+        <v>0.79</v>
+      </c>
+      <c r="AR184">
         <v>1.45</v>
       </c>
-      <c r="AP184">
-        <v>1.3</v>
-      </c>
-      <c r="AQ184">
-        <v>1.24</v>
-      </c>
-      <c r="AR184">
-        <v>1.37</v>
-      </c>
       <c r="AS184">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT184">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AU184">
         <v>11</v>
@@ -39637,25 +39637,25 @@
         <v>1.67</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AP185">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS185">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT185">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39843,25 +39843,25 @@
         <v>1.52</v>
       </c>
       <c r="AN186">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO186">
-        <v>0.96</v>
+        <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR186">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AT186">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -40049,25 +40049,25 @@
         <v>1.18</v>
       </c>
       <c r="AN187">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO187">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP187">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AT187">
-        <v>2.95</v>
+        <v>2.74</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40255,25 +40255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN188">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AO188">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ188">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR188">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40461,25 +40461,25 @@
         <v>1.4</v>
       </c>
       <c r="AN189">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AO189">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ189">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR189">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="AS189">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40667,25 +40667,25 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AO190">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AP190">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR190">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AS190">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU190">
         <v>2</v>
@@ -40873,25 +40873,25 @@
         <v>2.25</v>
       </c>
       <c r="AN191">
-        <v>1.35</v>
+        <v>1.91</v>
       </c>
       <c r="AO191">
+        <v>0.55</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+      <c r="AQ191">
+        <v>0.58</v>
+      </c>
+      <c r="AR191">
+        <v>1.72</v>
+      </c>
+      <c r="AS191">
         <v>1.22</v>
       </c>
-      <c r="AP191">
-        <v>1.65</v>
-      </c>
-      <c r="AQ191">
-        <v>1.03</v>
-      </c>
-      <c r="AR191">
-        <v>1.6</v>
-      </c>
-      <c r="AS191">
-        <v>1.39</v>
-      </c>
       <c r="AT191">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU191">
         <v>11</v>
@@ -41079,25 +41079,25 @@
         <v>2</v>
       </c>
       <c r="AN192">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AO192">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AP192">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ192">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR192">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AS192">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT192">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -41285,25 +41285,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR193">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AT193">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41491,25 +41491,25 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AO194">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AS194">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT194">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU194">
         <v>7</v>
@@ -41697,25 +41697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN195">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AO195">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR195">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS195">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT195">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41903,25 +41903,25 @@
         <v>2.5</v>
       </c>
       <c r="AN196">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO196">
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ196">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR196">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS196">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -42109,25 +42109,25 @@
         <v>1.7</v>
       </c>
       <c r="AN197">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO197">
         <v>0.58</v>
       </c>
       <c r="AP197">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR197">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS197">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="AT197">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AU197">
         <v>4</v>
@@ -42315,25 +42315,25 @@
         <v>1.25</v>
       </c>
       <c r="AN198">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>1.42</v>
+        <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ198">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT198">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42521,25 +42521,25 @@
         <v>1.85</v>
       </c>
       <c r="AN199">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO199">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42727,25 +42727,25 @@
         <v>4</v>
       </c>
       <c r="AN200">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AO200">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AS200">
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42933,25 +42933,25 @@
         <v>1.01</v>
       </c>
       <c r="AN201">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO201">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="AP201">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR201">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS201">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT201">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -43139,25 +43139,25 @@
         <v>1.53</v>
       </c>
       <c r="AN202">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AO202">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AP202">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AS202">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT202">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43345,25 +43345,25 @@
         <v>1.22</v>
       </c>
       <c r="AN203">
+        <v>1.83</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>1.5</v>
+      </c>
+      <c r="AQ203">
         <v>1.16</v>
       </c>
-      <c r="AO203">
-        <v>1.56</v>
-      </c>
-      <c r="AP203">
-        <v>1.03</v>
-      </c>
-      <c r="AQ203">
-        <v>1.54</v>
-      </c>
       <c r="AR203">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS203">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT203">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43551,25 +43551,25 @@
         <v>1.29</v>
       </c>
       <c r="AN204">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AO204">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ204">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR204">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AS204">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43757,25 +43757,25 @@
         <v>1.83</v>
       </c>
       <c r="AN205">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO205">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR205">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AS205">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43963,25 +43963,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AO206">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AP206">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS206">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT206">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44169,25 +44169,25 @@
         <v>4.5</v>
       </c>
       <c r="AN207">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AO207">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AP207">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ207">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR207">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="AS207">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT207">
-        <v>3.75</v>
+        <v>4.01</v>
       </c>
       <c r="AU207">
         <v>13</v>
@@ -44375,25 +44375,25 @@
         <v>1.67</v>
       </c>
       <c r="AN208">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AO208">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ208">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR208">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AS208">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AT208">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44581,25 +44581,25 @@
         <v>1.62</v>
       </c>
       <c r="AN209">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AO209">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR209">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS209">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT209">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44787,25 +44787,25 @@
         <v>2.05</v>
       </c>
       <c r="AN210">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AO210">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR210">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS210">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT210">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44996,22 +44996,22 @@
         <v>0.54</v>
       </c>
       <c r="AO211">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ211">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR211">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="AS211">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT211">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU211">
         <v>2</v>
@@ -45199,25 +45199,25 @@
         <v>1.62</v>
       </c>
       <c r="AN212">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AO212">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ212">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR212">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS212">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT212">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45405,25 +45405,25 @@
         <v>2.85</v>
       </c>
       <c r="AN213">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="AO213">
-        <v>1.15</v>
+        <v>0.54</v>
       </c>
       <c r="AP213">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ213">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR213">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45611,25 +45611,25 @@
         <v>1.73</v>
       </c>
       <c r="AN214">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AO214">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ214">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS214">
         <v>1.26</v>
       </c>
       <c r="AT214">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AU214">
         <v>8</v>
@@ -45817,25 +45817,25 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AO215">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR215">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="AT215">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="AU215">
         <v>4</v>
@@ -46023,25 +46023,25 @@
         <v>1.03</v>
       </c>
       <c r="AN216">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AO216">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AP216">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR216">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AS216">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AT216">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="AU216">
         <v>3</v>
@@ -46229,25 +46229,25 @@
         <v>3.75</v>
       </c>
       <c r="AN217">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AO217">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AP217">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AS217">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AT217">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46435,25 +46435,25 @@
         <v>1.33</v>
       </c>
       <c r="AN218">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AO218">
-        <v>2.07</v>
+        <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ218">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS218">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AT218">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU218">
         <v>5</v>
@@ -46641,25 +46641,25 @@
         <v>1.62</v>
       </c>
       <c r="AN219">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="AO219">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR219">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AS219">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT219">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46847,25 +46847,25 @@
         <v>1.95</v>
       </c>
       <c r="AN220">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AO220">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AP220">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR220">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS220">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="AT220">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -47053,25 +47053,25 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AO221">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="AP221">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ221">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR221">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT221">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47259,25 +47259,25 @@
         <v>1.17</v>
       </c>
       <c r="AN222">
-        <v>1.11</v>
+        <v>1.77</v>
       </c>
       <c r="AO222">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="AP222">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AS222">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AT222">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47468,22 +47468,22 @@
         <v>1.15</v>
       </c>
       <c r="AO223">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ223">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR223">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT223">
-        <v>2.66</v>
+        <v>2.49</v>
       </c>
       <c r="AU223">
         <v>5</v>
@@ -47671,25 +47671,25 @@
         <v>6.6</v>
       </c>
       <c r="AN224">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AO224">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AP224">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ224">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS224">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT224">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="AU224">
         <v>7</v>
@@ -47877,25 +47877,25 @@
         <v>1.74</v>
       </c>
       <c r="AN225">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AO225">
-        <v>1.04</v>
+        <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
       </c>
       <c r="AS225">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT225">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -48083,25 +48083,25 @@
         <v>1.36</v>
       </c>
       <c r="AN226">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="AO226">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP226">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ226">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS226">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT226">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="AU226">
         <v>2</v>
@@ -48289,25 +48289,25 @@
         <v>1.77</v>
       </c>
       <c r="AN227">
+        <v>1.93</v>
+      </c>
+      <c r="AO227">
+        <v>1.29</v>
+      </c>
+      <c r="AP227">
         <v>2.11</v>
       </c>
-      <c r="AO227">
-        <v>1.57</v>
-      </c>
-      <c r="AP227">
-        <v>2.03</v>
-      </c>
       <c r="AQ227">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR227">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AS227">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT227">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48495,22 +48495,22 @@
         <v>1.83</v>
       </c>
       <c r="AN228">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO228">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AP228">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR228">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS228">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT228">
         <v>2.76</v>
@@ -48704,22 +48704,22 @@
         <v>0.5</v>
       </c>
       <c r="AO229">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AP229">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ229">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR229">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AS229">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="AT229">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48907,25 +48907,25 @@
         <v>1.9</v>
       </c>
       <c r="AN230">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AO230">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR230">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU230">
         <v>9</v>
@@ -49113,25 +49113,25 @@
         <v>3.25</v>
       </c>
       <c r="AN231">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AO231">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AP231">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ231">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR231">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="AS231">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49319,25 +49319,25 @@
         <v>1.55</v>
       </c>
       <c r="AN232">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO232">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ232">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS232">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49525,25 +49525,25 @@
         <v>0</v>
       </c>
       <c r="AN233">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO233">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AP233">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR233">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS233">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="AT233">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49731,25 +49731,25 @@
         <v>1.52</v>
       </c>
       <c r="AN234">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO234">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP234">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ234">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR234">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS234">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT234">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49937,25 +49937,25 @@
         <v>2.35</v>
       </c>
       <c r="AN235">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AO235">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR235">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS235">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AT235">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AU235">
         <v>4</v>
@@ -50143,25 +50143,25 @@
         <v>6.6</v>
       </c>
       <c r="AN236">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="AO236">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AP236">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ236">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR236">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT236">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="AU236">
         <v>9</v>
@@ -50349,25 +50349,25 @@
         <v>1.27</v>
       </c>
       <c r="AN237">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AO237">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ237">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR237">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AT237">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="AU237">
         <v>6</v>
@@ -50555,25 +50555,25 @@
         <v>1.65</v>
       </c>
       <c r="AN238">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="AO238">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP238">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ238">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR238">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS238">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT238">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50761,25 +50761,25 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AO239">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP239">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS239">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT239">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="AU239">
         <v>2</v>
@@ -50970,22 +50970,22 @@
         <v>1.07</v>
       </c>
       <c r="AO240">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ240">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR240">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS240">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU240">
         <v>5</v>
@@ -51173,25 +51173,25 @@
         <v>1.5</v>
       </c>
       <c r="AN241">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="AO241">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="AP241">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR241">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS241">
         <v>1.56</v>
       </c>
       <c r="AT241">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="AU241">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -51379,25 +51379,25 @@
         <v>1.42</v>
       </c>
       <c r="AN242">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="AO242">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="AP242">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ242">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR242">
         <v>1.55</v>
       </c>
       <c r="AS242">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AT242">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU242">
         <v>8</v>
@@ -51585,25 +51585,25 @@
         <v>1.81</v>
       </c>
       <c r="AN243">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AO243">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="AP243">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ243">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR243">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AS243">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AT243">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -51791,25 +51791,25 @@
         <v>2.71</v>
       </c>
       <c r="AN244">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="AO244">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP244">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ244">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR244">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
       <c r="AS244">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AT244">
-        <v>4.32</v>
+        <v>4.15</v>
       </c>
       <c r="AU244">
         <v>10</v>
@@ -52821,25 +52821,25 @@
         <v>0</v>
       </c>
       <c r="AN249">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO249">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AP249">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ249">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR249">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="AS249">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT249">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="AU249">
         <v>6</v>
@@ -53233,25 +53233,25 @@
         <v>0</v>
       </c>
       <c r="AN251">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="AO251">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="AP251">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ251">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR251">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AS251">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AT251">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU251">
         <v>7</v>
@@ -54057,25 +54057,25 @@
         <v>1.05</v>
       </c>
       <c r="AN255">
-        <v>2.07</v>
+        <v>1.61</v>
       </c>
       <c r="AO255">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="AP255">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ255">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR255">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AS255">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="AT255">
-        <v>3.78</v>
+        <v>3.89</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54263,25 +54263,25 @@
         <v>1.32</v>
       </c>
       <c r="AN256">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AO256">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="AP256">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ256">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR256">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS256">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AT256">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU256">
         <v>2</v>
@@ -54469,25 +54469,25 @@
         <v>1.93</v>
       </c>
       <c r="AN257">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AO257">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="AP257">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ257">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR257">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AS257">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AT257">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="AU257">
         <v>5</v>
@@ -55499,25 +55499,25 @@
         <v>0</v>
       </c>
       <c r="AN262">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO262">
-        <v>0.9399999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="AP262">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ262">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR262">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AS262">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT262">
-        <v>2.49</v>
+        <v>2.62</v>
       </c>
       <c r="AU262">
         <v>8</v>
@@ -55705,25 +55705,25 @@
         <v>1.85</v>
       </c>
       <c r="AN263">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO263">
-        <v>1.19</v>
+        <v>1.59</v>
       </c>
       <c r="AP263">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ263">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR263">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="AS263">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="AT263">
-        <v>3.51</v>
+        <v>3.55</v>
       </c>
       <c r="AU263">
         <v>3</v>
@@ -55911,25 +55911,25 @@
         <v>2.95</v>
       </c>
       <c r="AN264">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AO264">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AP264">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ264">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR264">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AS264">
         <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.91</v>
+        <v>2.81</v>
       </c>
       <c r="AU264">
         <v>7</v>
@@ -56117,25 +56117,25 @@
         <v>2.9</v>
       </c>
       <c r="AN265">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="AO265">
+        <v>2.06</v>
+      </c>
+      <c r="AP265">
+        <v>2.59</v>
+      </c>
+      <c r="AQ265">
+        <v>2.03</v>
+      </c>
+      <c r="AR265">
         <v>2.19</v>
       </c>
-      <c r="AP265">
-        <v>2.79</v>
-      </c>
-      <c r="AQ265">
-        <v>1.94</v>
-      </c>
-      <c r="AR265">
-        <v>2.48</v>
-      </c>
       <c r="AS265">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT265">
-        <v>3.92</v>
+        <v>3.79</v>
       </c>
       <c r="AU265">
         <v>10</v>
@@ -57147,25 +57147,25 @@
         <v>1.01</v>
       </c>
       <c r="AN270">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AO270">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AP270">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ270">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR270">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AS270">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT270">
-        <v>3.31</v>
+        <v>3.14</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57353,25 +57353,25 @@
         <v>1.01</v>
       </c>
       <c r="AN271">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AO271">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AP271">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ271">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR271">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS271">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AT271">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="AU271">
         <v>5</v>
@@ -57559,25 +57559,25 @@
         <v>1.07</v>
       </c>
       <c r="AN272">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AO272">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
       <c r="AP272">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ272">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR272">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AS272">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="AT272">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="AU272">
         <v>5</v>
@@ -57765,25 +57765,25 @@
         <v>0</v>
       </c>
       <c r="AN273">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AO273">
-        <v>2.31</v>
+        <v>2.55</v>
       </c>
       <c r="AP273">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ273">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR273">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AS273">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="AT273">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
       <c r="AU273">
         <v>4</v>
@@ -57971,25 +57971,25 @@
         <v>1.91</v>
       </c>
       <c r="AN274">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AO274">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AP274">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ274">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR274">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AS274">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AT274">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58177,25 +58177,25 @@
         <v>0</v>
       </c>
       <c r="AN275">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="AO275">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AP275">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ275">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR275">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AS275">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="AT275">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="AU275">
         <v>6</v>
@@ -58383,25 +58383,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="AO276">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="AP276">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ276">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR276">
-        <v>2.48</v>
+        <v>2.19</v>
       </c>
       <c r="AS276">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AT276">
-        <v>4.03</v>
+        <v>3.77</v>
       </c>
       <c r="AU276">
         <v>10</v>
@@ -58589,25 +58589,25 @@
         <v>2.95</v>
       </c>
       <c r="AN277">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AO277">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AP277">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ277">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR277">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AS277">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT277">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU277">
         <v>9</v>
@@ -59619,25 +59619,25 @@
         <v>1.72</v>
       </c>
       <c r="AN282">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="AO282">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AP282">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AQ282">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="AR282">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS282">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AT282">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59825,25 +59825,25 @@
         <v>1.03</v>
       </c>
       <c r="AN283">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AO283">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="AP283">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AQ283">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AR283">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AS283">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="AT283">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="AU283">
         <v>2</v>
@@ -60031,25 +60031,25 @@
         <v>1.41</v>
       </c>
       <c r="AN284">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="AO284">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AP284">
-        <v>1.94</v>
+        <v>1.54</v>
       </c>
       <c r="AQ284">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AR284">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS284">
         <v>1.92</v>
       </c>
       <c r="AT284">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="AU284">
         <v>6</v>
@@ -60237,25 +60237,25 @@
         <v>0</v>
       </c>
       <c r="AN285">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AO285">
         <v>2.06</v>
       </c>
       <c r="AP285">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="AQ285">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="AR285">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AS285">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AT285">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="AU285">
         <v>4</v>
@@ -61267,25 +61267,25 @@
         <v>3.6</v>
       </c>
       <c r="AN290">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AO290">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AP290">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AQ290">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AR290">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AS290">
         <v>1.26</v>
       </c>
       <c r="AT290">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="AU290">
         <v>12</v>
@@ -62297,22 +62297,22 @@
         <v>2.45</v>
       </c>
       <c r="AN295">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="AO295">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AP295">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AQ295">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AR295">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AS295">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT295">
         <v>3.45</v>
@@ -62503,25 +62503,25 @@
         <v>3.1</v>
       </c>
       <c r="AN296">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="AO296">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="AP296">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="AQ296">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="AR296">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="AS296">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AT296">
-        <v>3.84</v>
+        <v>3.72</v>
       </c>
       <c r="AU296">
         <v>12</v>
@@ -62709,25 +62709,25 @@
         <v>0</v>
       </c>
       <c r="AN297">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="AO297">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
       <c r="AP297">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AQ297">
-        <v>0.79</v>
+        <v>1.24</v>
       </c>
       <c r="AR297">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AS297">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="AT297">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AU297">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -51379,25 +51379,25 @@
         <v>1.42</v>
       </c>
       <c r="AN242">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="AO242">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ242">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR242">
         <v>1.55</v>
       </c>
       <c r="AS242">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT242">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU242">
         <v>8</v>
@@ -51585,25 +51585,25 @@
         <v>1.81</v>
       </c>
       <c r="AN243">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AO243">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AP243">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ243">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR243">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AS243">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT243">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -51791,25 +51791,25 @@
         <v>2.71</v>
       </c>
       <c r="AN244">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="AO244">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP244">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ244">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR244">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS244">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AT244">
-        <v>4.15</v>
+        <v>4.32</v>
       </c>
       <c r="AU244">
         <v>10</v>
@@ -52821,25 +52821,25 @@
         <v>0</v>
       </c>
       <c r="AN249">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO249">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP249">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ249">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR249">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS249">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT249">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="AU249">
         <v>6</v>
@@ -53233,25 +53233,25 @@
         <v>0</v>
       </c>
       <c r="AN251">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AO251">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AP251">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR251">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AS251">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT251">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU251">
         <v>7</v>
@@ -54057,25 +54057,25 @@
         <v>1.05</v>
       </c>
       <c r="AN255">
-        <v>1.61</v>
+        <v>2.07</v>
       </c>
       <c r="AO255">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="AP255">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ255">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR255">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS255">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="AT255">
-        <v>3.89</v>
+        <v>3.78</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54263,25 +54263,25 @@
         <v>1.32</v>
       </c>
       <c r="AN256">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AO256">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="AP256">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR256">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS256">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AT256">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU256">
         <v>2</v>
@@ -54469,25 +54469,25 @@
         <v>1.93</v>
       </c>
       <c r="AN257">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AO257">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="AP257">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ257">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR257">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AS257">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AT257">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="AU257">
         <v>5</v>
@@ -55499,25 +55499,25 @@
         <v>0</v>
       </c>
       <c r="AN262">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AO262">
-        <v>1.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ262">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR262">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AT262">
-        <v>2.62</v>
+        <v>2.49</v>
       </c>
       <c r="AU262">
         <v>8</v>
@@ -55705,25 +55705,25 @@
         <v>1.85</v>
       </c>
       <c r="AN263">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO263">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="AP263">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ263">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR263">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="AS263">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AT263">
-        <v>3.55</v>
+        <v>3.51</v>
       </c>
       <c r="AU263">
         <v>3</v>
@@ -55911,25 +55911,25 @@
         <v>2.95</v>
       </c>
       <c r="AN264">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AO264">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AP264">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ264">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR264">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS264">
         <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.81</v>
+        <v>2.91</v>
       </c>
       <c r="AU264">
         <v>7</v>
@@ -56117,25 +56117,25 @@
         <v>2.9</v>
       </c>
       <c r="AN265">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AO265">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="AP265">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ265">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR265">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AS265">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AT265">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="AU265">
         <v>10</v>
@@ -57147,25 +57147,25 @@
         <v>1.01</v>
       </c>
       <c r="AN270">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AO270">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ270">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR270">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AS270">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT270">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57353,25 +57353,25 @@
         <v>1.01</v>
       </c>
       <c r="AN271">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO271">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AP271">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ271">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR271">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS271">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AT271">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU271">
         <v>5</v>
@@ -57559,25 +57559,25 @@
         <v>1.07</v>
       </c>
       <c r="AN272">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO272">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="AP272">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ272">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR272">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AS272">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT272">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AU272">
         <v>5</v>
@@ -57765,25 +57765,25 @@
         <v>0</v>
       </c>
       <c r="AN273">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AO273">
-        <v>2.55</v>
+        <v>2.31</v>
       </c>
       <c r="AP273">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ273">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR273">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AS273">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AT273">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>4</v>
@@ -57971,25 +57971,25 @@
         <v>1.91</v>
       </c>
       <c r="AN274">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AO274">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AP274">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ274">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR274">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AS274">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AT274">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58177,25 +58177,25 @@
         <v>0</v>
       </c>
       <c r="AN275">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="AO275">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AP275">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ275">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR275">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AS275">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AT275">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU275">
         <v>6</v>
@@ -58383,25 +58383,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AO276">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="AP276">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ276">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR276">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AS276">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT276">
-        <v>3.77</v>
+        <v>4.03</v>
       </c>
       <c r="AU276">
         <v>10</v>
@@ -58589,25 +58589,25 @@
         <v>2.95</v>
       </c>
       <c r="AN277">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AO277">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AP277">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ277">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR277">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AS277">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT277">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU277">
         <v>9</v>
@@ -59619,25 +59619,25 @@
         <v>1.72</v>
       </c>
       <c r="AN282">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="AO282">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AP282">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ282">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR282">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS282">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT282">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59825,25 +59825,25 @@
         <v>1.03</v>
       </c>
       <c r="AN283">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AO283">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="AP283">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ283">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR283">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS283">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AT283">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="AU283">
         <v>2</v>
@@ -60031,25 +60031,25 @@
         <v>1.41</v>
       </c>
       <c r="AN284">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="AO284">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP284">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ284">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR284">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS284">
         <v>1.92</v>
       </c>
       <c r="AT284">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="AU284">
         <v>6</v>
@@ -60237,25 +60237,25 @@
         <v>0</v>
       </c>
       <c r="AN285">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AO285">
         <v>2.06</v>
       </c>
       <c r="AP285">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ285">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR285">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AS285">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AT285">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU285">
         <v>4</v>
@@ -61267,25 +61267,25 @@
         <v>3.6</v>
       </c>
       <c r="AN290">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AO290">
+        <v>1.17</v>
+      </c>
+      <c r="AP290">
+        <v>2.11</v>
+      </c>
+      <c r="AQ290">
         <v>1.11</v>
       </c>
-      <c r="AP290">
-        <v>2.03</v>
-      </c>
-      <c r="AQ290">
-        <v>1.08</v>
-      </c>
       <c r="AR290">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AS290">
         <v>1.26</v>
       </c>
       <c r="AT290">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="AU290">
         <v>12</v>
@@ -62297,22 +62297,22 @@
         <v>2.45</v>
       </c>
       <c r="AN295">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="AO295">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP295">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ295">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR295">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AS295">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT295">
         <v>3.45</v>
@@ -62503,25 +62503,25 @@
         <v>3.1</v>
       </c>
       <c r="AN296">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AO296">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AP296">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ296">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR296">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AS296">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AT296">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
       <c r="AU296">
         <v>12</v>
@@ -62709,25 +62709,25 @@
         <v>0</v>
       </c>
       <c r="AN297">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="AO297">
-        <v>1.28</v>
+        <v>0.83</v>
       </c>
       <c r="AP297">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ297">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR297">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS297">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="AT297">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU297">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ7">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ8">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3793,25 +3793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -4211,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
       </c>
       <c r="AS13">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.86</v>
+        <v>2.39</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR14">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4623,19 +4623,19 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR15">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>1.97</v>
       </c>
       <c r="AT15">
-        <v>2.93</v>
+        <v>1.97</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR16">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -5029,25 +5029,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5235,25 +5235,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR18">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS18">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5444,22 +5444,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR19">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5647,25 +5647,25 @@
         <v>2.3</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AS20">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5856,22 +5856,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR21">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AS21">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT21">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6065,19 +6065,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AS22">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="AT22">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6265,25 +6265,25 @@
         <v>3.4</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR23">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="AT23">
-        <v>3.27</v>
+        <v>1.81</v>
       </c>
       <c r="AU23">
         <v>11</v>
@@ -6471,25 +6471,25 @@
         <v>1.68</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
-        <v>2.48</v>
+        <v>1.61</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>1.94</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AT25">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6883,25 +6883,25 @@
         <v>1.31</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR26">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AS26">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -7089,25 +7089,25 @@
         <v>2.31</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="AU27">
         <v>9</v>
@@ -7298,22 +7298,22 @@
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7501,25 +7501,25 @@
         <v>1.38</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR29">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AS29">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2.1</v>
       </c>
       <c r="AN30">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AS30">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7913,25 +7913,25 @@
         <v>1.11</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AS31">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -8119,25 +8119,25 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR32">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="AT32">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>9</v>
@@ -8331,19 +8331,19 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR33">
+        <v>0.97</v>
+      </c>
+      <c r="AS33">
         <v>1.23</v>
       </c>
-      <c r="AS33">
-        <v>1.34</v>
-      </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8531,25 +8531,25 @@
         <v>2.6</v>
       </c>
       <c r="AN34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8737,25 +8737,25 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR35">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>2.19</v>
       </c>
       <c r="AT35">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8943,22 +8943,22 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR36">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="AS36">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
         <v>2.24</v>
@@ -9149,25 +9149,25 @@
         <v>2.06</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR37">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS37">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="AT37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.56</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS38">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT38">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.6</v>
       </c>
       <c r="AN39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ39">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR39">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AT39">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>3.22</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR40">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AS40">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="AT40">
-        <v>3.06</v>
+        <v>3.53</v>
       </c>
       <c r="AU40">
         <v>9</v>
@@ -9973,25 +9973,25 @@
         <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ41">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR41">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="AS41">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT41">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AS42">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10385,22 +10385,22 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR43">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="AS43">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT43">
         <v>2.35</v>
@@ -10591,25 +10591,25 @@
         <v>8</v>
       </c>
       <c r="AN44">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AS44">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>3.84</v>
+        <v>3.62</v>
       </c>
       <c r="AU44">
         <v>11</v>
@@ -10797,25 +10797,25 @@
         <v>2.3</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
         <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -11003,25 +11003,25 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AU46">
         <v>7</v>
@@ -11209,25 +11209,25 @@
         <v>1.12</v>
       </c>
       <c r="AN47">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS47">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11415,25 +11415,25 @@
         <v>1.17</v>
       </c>
       <c r="AN48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR48">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11621,25 +11621,25 @@
         <v>1.05</v>
       </c>
       <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
         <v>1.5</v>
       </c>
-      <c r="AO49">
-        <v>2.5</v>
-      </c>
       <c r="AP49">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR49">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AS49">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="AT49">
-        <v>4.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11827,25 +11827,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
+        <v>1.67</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.83</v>
-      </c>
-      <c r="AP50">
-        <v>1.03</v>
-      </c>
       <c r="AQ50">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT50">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>4.65</v>
       </c>
       <c r="AN51">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="AT51">
-        <v>3.11</v>
+        <v>2.82</v>
       </c>
       <c r="AU51">
         <v>11</v>
@@ -12239,25 +12239,25 @@
         <v>1.25</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ52">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR52">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12448,22 +12448,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR53">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12651,25 +12651,25 @@
         <v>1.83</v>
       </c>
       <c r="AN54">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS54">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12857,25 +12857,25 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13063,25 +13063,25 @@
         <v>4.05</v>
       </c>
       <c r="AN56">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ56">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR56">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AS56">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AT56">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AU56">
         <v>13</v>
@@ -13269,25 +13269,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13475,22 +13475,22 @@
         <v>1.5</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR58">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
       <c r="AS58">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AT58">
         <v>2.49</v>
@@ -13681,25 +13681,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO59">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13887,25 +13887,25 @@
         <v>1.05</v>
       </c>
       <c r="AN60">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO60">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS60">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="AT60">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14093,25 +14093,25 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AS61">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14299,25 +14299,25 @@
         <v>2.5</v>
       </c>
       <c r="AN62">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.41</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>2.38</v>
       </c>
       <c r="AN63">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>1.29</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ64">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR64">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS64">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
         <v>3.05</v>
@@ -14917,25 +14917,25 @@
         <v>6</v>
       </c>
       <c r="AN65">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>0.88</v>
+        <v>0.2</v>
       </c>
       <c r="AP65">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AS65">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -15123,25 +15123,25 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO66">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR66">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AS66">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT66">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15329,25 +15329,25 @@
         <v>1.53</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ67">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR67">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AS67">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AT67">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="AU67">
         <v>3</v>
@@ -15538,22 +15538,22 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AP68">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR68">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS68">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>3.79</v>
+        <v>3.54</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15741,25 +15741,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO69">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS69">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT69">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>0.25</v>
+      </c>
+      <c r="AP70">
         <v>1.5</v>
       </c>
-      <c r="AO70">
-        <v>1.25</v>
-      </c>
-      <c r="AP70">
-        <v>1.03</v>
-      </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16153,25 +16153,25 @@
         <v>1.6</v>
       </c>
       <c r="AN71">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AO71">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR71">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS71">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="AT71">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16359,25 +16359,25 @@
         <v>2.05</v>
       </c>
       <c r="AN72">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="AO72">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP72">
+        <v>1.47</v>
+      </c>
+      <c r="AQ72">
         <v>1.11</v>
       </c>
-      <c r="AQ72">
-        <v>1.08</v>
-      </c>
       <c r="AR72">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16565,25 +16565,25 @@
         <v>1.38</v>
       </c>
       <c r="AN73">
-        <v>1.11</v>
+        <v>2.25</v>
       </c>
       <c r="AO73">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR73">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.8</v>
       </c>
       <c r="AN74">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AS74">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT74">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ75">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="AS75">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>3.37</v>
+        <v>3.63</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.07</v>
       </c>
       <c r="AN76">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO76">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR76">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AS76">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AT76">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17389,25 +17389,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR77">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AT77">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17598,22 +17598,22 @@
         <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AS78">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17801,25 +17801,25 @@
         <v>1.4</v>
       </c>
       <c r="AN79">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO79">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS79">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT79">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -18007,25 +18007,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS80">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AU80">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.18</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR81">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS81">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18419,25 +18419,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO82">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR82">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AT82">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18625,25 +18625,25 @@
         <v>1.33</v>
       </c>
       <c r="AN83">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO83">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR83">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18831,25 +18831,25 @@
         <v>1.7</v>
       </c>
       <c r="AN84">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AO84">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR84">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS84">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="AT84">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -19040,22 +19040,22 @@
         <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="AP85">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR85">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AT85">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>1.5</v>
       </c>
       <c r="AN86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO86">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AP86">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19449,25 +19449,25 @@
         <v>1.06</v>
       </c>
       <c r="AN87">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AP87">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS87">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AT87">
-        <v>3.93</v>
+        <v>3.83</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19655,25 +19655,25 @@
         <v>1.59</v>
       </c>
       <c r="AN88">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="AO88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR88">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT88">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19861,25 +19861,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ89">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR89">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AS89">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -20067,25 +20067,25 @@
         <v>1.06</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO90">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ90">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS90">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AT90">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20273,25 +20273,25 @@
         <v>1.76</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AT91">
-        <v>2.71</v>
+        <v>3.09</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20479,25 +20479,25 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AO92">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR92">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS92">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AT92">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20685,25 +20685,25 @@
         <v>1.71</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO93">
-        <v>1.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR93">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20891,25 +20891,25 @@
         <v>2.9</v>
       </c>
       <c r="AN94">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ94">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR94">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT94">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -21097,25 +21097,25 @@
         <v>2.32</v>
       </c>
       <c r="AN95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO95">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="AP95">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AS95">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AT95">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -21303,25 +21303,25 @@
         <v>3.3</v>
       </c>
       <c r="AN96">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ96">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AS96">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT96">
-        <v>4.24</v>
+        <v>4.02</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21509,25 +21509,25 @@
         <v>6.95</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ97">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AS97">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="AT97">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="AU97">
         <v>9</v>
@@ -21715,25 +21715,25 @@
         <v>2.63</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO98">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS98">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21921,25 +21921,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ99">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR99">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AS99">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="AT99">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22127,25 +22127,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP100">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR100">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AU100">
         <v>8</v>
@@ -22333,25 +22333,25 @@
         <v>1.11</v>
       </c>
       <c r="AN101">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="AP101">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR101">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS101">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT101">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22539,25 +22539,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ102">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR102">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AS102">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22745,25 +22745,25 @@
         <v>1.59</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22951,22 +22951,22 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO104">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="AP104">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR104">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AS104">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT104">
         <v>2.05</v>
@@ -23157,25 +23157,25 @@
         <v>1.6</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO105">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23363,25 +23363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.83</v>
+      </c>
+      <c r="AP106">
+        <v>2.11</v>
+      </c>
+      <c r="AQ106">
+        <v>0.58</v>
+      </c>
+      <c r="AR106">
+        <v>1.57</v>
+      </c>
+      <c r="AS106">
         <v>1.15</v>
       </c>
-      <c r="AO106">
-        <v>1.38</v>
-      </c>
-      <c r="AP106">
-        <v>1.65</v>
-      </c>
-      <c r="AQ106">
-        <v>1.03</v>
-      </c>
-      <c r="AR106">
-        <v>1.6</v>
-      </c>
-      <c r="AS106">
-        <v>1.39</v>
-      </c>
       <c r="AT106">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23569,25 +23569,25 @@
         <v>1.44</v>
       </c>
       <c r="AN107">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AO107">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ107">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AS107">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT107">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23775,25 +23775,25 @@
         <v>1.06</v>
       </c>
       <c r="AN108">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="AO108">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR108">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS108">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AT108">
-        <v>3.74</v>
+        <v>3.84</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23981,25 +23981,25 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ109">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AS109">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="AT109">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24187,25 +24187,25 @@
         <v>1.54</v>
       </c>
       <c r="AN110">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.44</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>1.21</v>
+      </c>
+      <c r="AS110">
         <v>1.23</v>
       </c>
-      <c r="AP110">
-        <v>1.08</v>
-      </c>
-      <c r="AQ110">
-        <v>1.27</v>
-      </c>
-      <c r="AR110">
-        <v>1.14</v>
-      </c>
-      <c r="AS110">
-        <v>1.21</v>
-      </c>
       <c r="AT110">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24393,25 +24393,25 @@
         <v>2.4</v>
       </c>
       <c r="AN111">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AO111">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ111">
+        <v>1.16</v>
+      </c>
+      <c r="AR111">
+        <v>2.46</v>
+      </c>
+      <c r="AS111">
         <v>1.54</v>
       </c>
-      <c r="AR111">
-        <v>2.24</v>
-      </c>
-      <c r="AS111">
-        <v>1.56</v>
-      </c>
       <c r="AT111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24599,25 +24599,25 @@
         <v>1.62</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR112">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="AS112">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT112">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24805,25 +24805,25 @@
         <v>1.3</v>
       </c>
       <c r="AN113">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AO113">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR113">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS113">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT113">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25011,25 +25011,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO114">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT114">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25217,25 +25217,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="AO115">
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT115">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25423,25 +25423,25 @@
         <v>1.06</v>
       </c>
       <c r="AN116">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AO116">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AS116">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT116">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25629,25 +25629,25 @@
         <v>2.15</v>
       </c>
       <c r="AN117">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AO117">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AP117">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ117">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>3.91</v>
+        <v>3.73</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25835,25 +25835,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR118">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS118">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT118">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AU118">
         <v>2</v>
@@ -26041,25 +26041,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AO119">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR119">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AS119">
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26247,25 +26247,25 @@
         <v>1.55</v>
       </c>
       <c r="AN120">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AU120">
         <v>6</v>
@@ -26453,25 +26453,25 @@
         <v>1.55</v>
       </c>
       <c r="AN121">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR121">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26659,22 +26659,22 @@
         <v>1.73</v>
       </c>
       <c r="AN122">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO122">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR122">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS122">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT122">
         <v>2.64</v>
@@ -26865,25 +26865,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO123">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ123">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR123">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS123">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AT123">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -27071,25 +27071,25 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27277,25 +27277,25 @@
         <v>3.1</v>
       </c>
       <c r="AN125">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AO125">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ125">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR125">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AS125">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AT125">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="AU125">
         <v>11</v>
@@ -27483,25 +27483,25 @@
         <v>1.6</v>
       </c>
       <c r="AN126">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP126">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>2.77</v>
+        <v>3.04</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27689,25 +27689,25 @@
         <v>2.45</v>
       </c>
       <c r="AN127">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AP127">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR127">
+        <v>1.56</v>
+      </c>
+      <c r="AS127">
         <v>1.62</v>
       </c>
-      <c r="AS127">
-        <v>1.55</v>
-      </c>
       <c r="AT127">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27895,25 +27895,25 @@
         <v>1.02</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO128">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR128">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS128">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="AU128">
         <v>0</v>
@@ -28101,25 +28101,25 @@
         <v>2.5</v>
       </c>
       <c r="AN129">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AO129">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR129">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU129">
         <v>6</v>
@@ -28307,25 +28307,25 @@
         <v>1.25</v>
       </c>
       <c r="AN130">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR130">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AT130">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU130">
         <v>0</v>
@@ -28513,25 +28513,25 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO131">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR131">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AS131">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT131">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="AU131">
         <v>11</v>
@@ -28722,22 +28722,22 @@
         <v>0.88</v>
       </c>
       <c r="AO132">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AT132">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28925,25 +28925,25 @@
         <v>1.5</v>
       </c>
       <c r="AN133">
+        <v>0.75</v>
+      </c>
+      <c r="AO133">
         <v>0.63</v>
       </c>
-      <c r="AO133">
-        <v>1.31</v>
-      </c>
       <c r="AP133">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR133">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT133">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29131,25 +29131,25 @@
         <v>1.25</v>
       </c>
       <c r="AN134">
+        <v>2.14</v>
+      </c>
+      <c r="AO134">
         <v>1.25</v>
       </c>
-      <c r="AO134">
+      <c r="AP134">
         <v>1.44</v>
       </c>
-      <c r="AP134">
-        <v>1.08</v>
-      </c>
       <c r="AQ134">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR134">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29337,25 +29337,25 @@
         <v>1.44</v>
       </c>
       <c r="AN135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29543,25 +29543,25 @@
         <v>1.11</v>
       </c>
       <c r="AN136">
-        <v>0.8100000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="AO136">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="AP136">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="AS136">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AT136">
-        <v>3.65</v>
+        <v>3.83</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29749,25 +29749,25 @@
         <v>2.4</v>
       </c>
       <c r="AN137">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO137">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AS137">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT137">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29955,25 +29955,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AO138">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR138">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AT138">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="AU138">
         <v>4</v>
@@ -30161,25 +30161,25 @@
         <v>1.68</v>
       </c>
       <c r="AN139">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP139">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AS139">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30367,25 +30367,25 @@
         <v>1.42</v>
       </c>
       <c r="AN140">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO140">
+        <v>0.75</v>
+      </c>
+      <c r="AP140">
         <v>1.47</v>
       </c>
-      <c r="AP140">
-        <v>1.11</v>
-      </c>
       <c r="AQ140">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR140">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS140">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT140">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30573,25 +30573,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT141">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30779,25 +30779,25 @@
         <v>1.03</v>
       </c>
       <c r="AN142">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO142">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ142">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR142">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS142">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AT142">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30985,25 +30985,25 @@
         <v>3.75</v>
       </c>
       <c r="AN143">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AO143">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ143">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR143">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT143">
-        <v>3.63</v>
+        <v>3.81</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31191,25 +31191,25 @@
         <v>2.88</v>
       </c>
       <c r="AN144">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AO144">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP144">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
+        <v>0.74</v>
+      </c>
+      <c r="AR144">
+        <v>1.98</v>
+      </c>
+      <c r="AS144">
         <v>1.08</v>
       </c>
-      <c r="AR144">
-        <v>1.7</v>
-      </c>
-      <c r="AS144">
-        <v>1.22</v>
-      </c>
       <c r="AT144">
-        <v>2.92</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31397,25 +31397,25 @@
         <v>2.3</v>
       </c>
       <c r="AN145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR145">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS145">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU145">
         <v>2</v>
@@ -31603,25 +31603,25 @@
         <v>1.7</v>
       </c>
       <c r="AN146">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO146">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR146">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS146">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT146">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31812,22 +31812,22 @@
         <v>2.44</v>
       </c>
       <c r="AO147">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ147">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR147">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AS147">
-        <v>2.32</v>
+        <v>2.13</v>
       </c>
       <c r="AT147">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -32015,25 +32015,25 @@
         <v>1.7</v>
       </c>
       <c r="AN148">
-        <v>1.61</v>
+        <v>2.33</v>
       </c>
       <c r="AO148">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS148">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AT148">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32221,25 +32221,25 @@
         <v>2.05</v>
       </c>
       <c r="AN149">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO149">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AP149">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR149">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AT149">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32427,25 +32427,25 @@
         <v>1.3</v>
       </c>
       <c r="AN150">
-        <v>1.39</v>
+        <v>2.11</v>
       </c>
       <c r="AO150">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR150">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS150">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT150">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32636,22 +32636,22 @@
         <v>1.44</v>
       </c>
       <c r="AO151">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR151">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="AT151">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32839,25 +32839,25 @@
         <v>1.51</v>
       </c>
       <c r="AN152">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="AO152">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AT152">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33045,25 +33045,25 @@
         <v>3.1</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO153">
+        <v>1.44</v>
+      </c>
+      <c r="AP153">
+        <v>2.11</v>
+      </c>
+      <c r="AQ153">
         <v>1.11</v>
       </c>
-      <c r="AP153">
-        <v>2.03</v>
-      </c>
-      <c r="AQ153">
-        <v>1.08</v>
-      </c>
       <c r="AR153">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AS153">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT153">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33251,25 +33251,25 @@
         <v>1.22</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="AO154">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ154">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR154">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AS154">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT154">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33457,25 +33457,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AO155">
-        <v>1.53</v>
+        <v>0.89</v>
       </c>
       <c r="AP155">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33663,25 +33663,25 @@
         <v>1.08</v>
       </c>
       <c r="AN156">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO156">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP156">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AT156">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33869,25 +33869,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR157">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="AT157">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU157">
         <v>3</v>
@@ -34075,25 +34075,25 @@
         <v>6</v>
       </c>
       <c r="AN158">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="AO158">
-        <v>1.47</v>
+        <v>0.67</v>
       </c>
       <c r="AP158">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ158">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34281,25 +34281,25 @@
         <v>1.53</v>
       </c>
       <c r="AN159">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AO159">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR159">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
-        <v>2.97</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34487,25 +34487,25 @@
         <v>1.22</v>
       </c>
       <c r="AN160">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AO160">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
       </c>
       <c r="AS160">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AT160">
-        <v>3.01</v>
+        <v>2.77</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34693,25 +34693,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
+        <v>0.78</v>
+      </c>
+      <c r="AO161">
         <v>1.11</v>
       </c>
-      <c r="AO161">
-        <v>1.32</v>
-      </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR161">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS161">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34899,25 +34899,25 @@
         <v>1.03</v>
       </c>
       <c r="AN162">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO162">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AP162">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS162">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="AT162">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -35108,22 +35108,22 @@
         <v>2.5</v>
       </c>
       <c r="AO163">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ163">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS163">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT163">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35314,22 +35314,22 @@
         <v>1.6</v>
       </c>
       <c r="AO164">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS164">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT164">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35517,25 +35517,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO165">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR165">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AO166">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR166">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS166">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT166">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35929,25 +35929,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO167">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR167">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AS167">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AT167">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36135,25 +36135,25 @@
         <v>1.85</v>
       </c>
       <c r="AN168">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="AO168">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR168">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT168">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="AU168">
         <v>2</v>
@@ -36341,25 +36341,25 @@
         <v>1.65</v>
       </c>
       <c r="AN169">
+        <v>2.2</v>
+      </c>
+      <c r="AO169">
         <v>1.4</v>
       </c>
-      <c r="AO169">
-        <v>1.1</v>
-      </c>
       <c r="AP169">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS169">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT169">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU169">
         <v>4</v>
@@ -36547,25 +36547,25 @@
         <v>1.5</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO170">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR170">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS170">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT170">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36753,25 +36753,25 @@
         <v>1.04</v>
       </c>
       <c r="AN171">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="AO171">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AP171">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ171">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR171">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AT171">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36959,25 +36959,25 @@
         <v>4.33</v>
       </c>
       <c r="AN172">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AO172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP172">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ172">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="AS172">
         <v>1.63</v>
       </c>
       <c r="AT172">
-        <v>3.9</v>
+        <v>4.08</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37165,25 +37165,25 @@
         <v>1.22</v>
       </c>
       <c r="AN173">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO173">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS173">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU173">
         <v>9</v>
@@ -37371,25 +37371,25 @@
         <v>1.45</v>
       </c>
       <c r="AN174">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO174">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AS174">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT174">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37577,25 +37577,25 @@
         <v>1.5</v>
       </c>
       <c r="AN175">
-        <v>1.19</v>
+        <v>0.8</v>
       </c>
       <c r="AO175">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
       <c r="AP175">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ175">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT175">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37783,25 +37783,25 @@
         <v>2.15</v>
       </c>
       <c r="AN176">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO176">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>1.17</v>
+      </c>
+      <c r="AR176">
         <v>1.65</v>
       </c>
-      <c r="AQ176">
-        <v>1.27</v>
-      </c>
-      <c r="AR176">
-        <v>1.57</v>
-      </c>
       <c r="AS176">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AT176">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37989,25 +37989,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO177">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AP177">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR177">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS177">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT177">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU177">
         <v>4</v>
@@ -38195,25 +38195,25 @@
         <v>1.95</v>
       </c>
       <c r="AN178">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AO178">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ178">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS178">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT178">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38401,25 +38401,25 @@
         <v>2.55</v>
       </c>
       <c r="AN179">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AO179">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR179">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS179">
         <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38607,25 +38607,25 @@
         <v>1.3</v>
       </c>
       <c r="AN180">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>1.36</v>
+        <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR180">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38813,25 +38813,25 @@
         <v>1.04</v>
       </c>
       <c r="AN181">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AO181">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP181">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR181">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS181">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="AT181">
-        <v>3.95</v>
+        <v>4.03</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -39022,22 +39022,22 @@
         <v>2.55</v>
       </c>
       <c r="AO182">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ182">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR182">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AT182">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="AU182">
         <v>8</v>
@@ -39225,25 +39225,25 @@
         <v>2.05</v>
       </c>
       <c r="AN183">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AO183">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="AP183">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR183">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AT183">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39431,25 +39431,25 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="AO184">
+        <v>1.27</v>
+      </c>
+      <c r="AP184">
+        <v>1.58</v>
+      </c>
+      <c r="AQ184">
+        <v>0.79</v>
+      </c>
+      <c r="AR184">
         <v>1.45</v>
       </c>
-      <c r="AP184">
-        <v>1.3</v>
-      </c>
-      <c r="AQ184">
-        <v>1.24</v>
-      </c>
-      <c r="AR184">
-        <v>1.37</v>
-      </c>
       <c r="AS184">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT184">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AU184">
         <v>11</v>
@@ -39637,25 +39637,25 @@
         <v>1.67</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AP185">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS185">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT185">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39843,25 +39843,25 @@
         <v>1.52</v>
       </c>
       <c r="AN186">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO186">
-        <v>0.96</v>
+        <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR186">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AT186">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -40049,25 +40049,25 @@
         <v>1.18</v>
       </c>
       <c r="AN187">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO187">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP187">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AT187">
-        <v>2.95</v>
+        <v>2.74</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40255,25 +40255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN188">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AO188">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ188">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR188">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40461,25 +40461,25 @@
         <v>1.4</v>
       </c>
       <c r="AN189">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AO189">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ189">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR189">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="AS189">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40667,25 +40667,25 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AO190">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AP190">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR190">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AS190">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU190">
         <v>2</v>
@@ -40873,25 +40873,25 @@
         <v>2.25</v>
       </c>
       <c r="AN191">
-        <v>1.35</v>
+        <v>1.91</v>
       </c>
       <c r="AO191">
+        <v>0.55</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+      <c r="AQ191">
+        <v>0.58</v>
+      </c>
+      <c r="AR191">
+        <v>1.72</v>
+      </c>
+      <c r="AS191">
         <v>1.22</v>
       </c>
-      <c r="AP191">
-        <v>1.65</v>
-      </c>
-      <c r="AQ191">
-        <v>1.03</v>
-      </c>
-      <c r="AR191">
-        <v>1.6</v>
-      </c>
-      <c r="AS191">
-        <v>1.39</v>
-      </c>
       <c r="AT191">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU191">
         <v>11</v>
@@ -41079,25 +41079,25 @@
         <v>2</v>
       </c>
       <c r="AN192">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AO192">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AP192">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ192">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR192">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AS192">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT192">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -41285,25 +41285,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR193">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AT193">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41491,25 +41491,25 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AO194">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AS194">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT194">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU194">
         <v>7</v>
@@ -41697,25 +41697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN195">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AO195">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR195">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS195">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT195">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41903,25 +41903,25 @@
         <v>2.5</v>
       </c>
       <c r="AN196">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO196">
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ196">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR196">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS196">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -42109,25 +42109,25 @@
         <v>1.7</v>
       </c>
       <c r="AN197">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO197">
         <v>0.58</v>
       </c>
       <c r="AP197">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR197">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS197">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="AT197">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AU197">
         <v>4</v>
@@ -42315,25 +42315,25 @@
         <v>1.25</v>
       </c>
       <c r="AN198">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>1.42</v>
+        <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ198">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT198">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42521,25 +42521,25 @@
         <v>1.85</v>
       </c>
       <c r="AN199">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO199">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42727,25 +42727,25 @@
         <v>4</v>
       </c>
       <c r="AN200">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AO200">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AS200">
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42933,25 +42933,25 @@
         <v>1.01</v>
       </c>
       <c r="AN201">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO201">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="AP201">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR201">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS201">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT201">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -43139,25 +43139,25 @@
         <v>1.53</v>
       </c>
       <c r="AN202">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AO202">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AP202">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AS202">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT202">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43345,25 +43345,25 @@
         <v>1.22</v>
       </c>
       <c r="AN203">
+        <v>1.83</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>1.5</v>
+      </c>
+      <c r="AQ203">
         <v>1.16</v>
       </c>
-      <c r="AO203">
-        <v>1.56</v>
-      </c>
-      <c r="AP203">
-        <v>1.03</v>
-      </c>
-      <c r="AQ203">
-        <v>1.54</v>
-      </c>
       <c r="AR203">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS203">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT203">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43551,25 +43551,25 @@
         <v>1.29</v>
       </c>
       <c r="AN204">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AO204">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ204">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR204">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AS204">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43757,25 +43757,25 @@
         <v>1.83</v>
       </c>
       <c r="AN205">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO205">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR205">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AS205">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43963,25 +43963,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AO206">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AP206">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS206">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT206">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44169,25 +44169,25 @@
         <v>4.5</v>
       </c>
       <c r="AN207">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AO207">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AP207">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ207">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR207">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="AS207">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT207">
-        <v>3.75</v>
+        <v>4.01</v>
       </c>
       <c r="AU207">
         <v>13</v>
@@ -44375,25 +44375,25 @@
         <v>1.67</v>
       </c>
       <c r="AN208">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AO208">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ208">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR208">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AS208">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AT208">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44581,25 +44581,25 @@
         <v>1.62</v>
       </c>
       <c r="AN209">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AO209">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR209">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS209">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT209">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44787,25 +44787,25 @@
         <v>2.05</v>
       </c>
       <c r="AN210">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AO210">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR210">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS210">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT210">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44996,22 +44996,22 @@
         <v>0.54</v>
       </c>
       <c r="AO211">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ211">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR211">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="AS211">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT211">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU211">
         <v>2</v>
@@ -45199,25 +45199,25 @@
         <v>1.62</v>
       </c>
       <c r="AN212">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AO212">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ212">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR212">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS212">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT212">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45405,25 +45405,25 @@
         <v>2.85</v>
       </c>
       <c r="AN213">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="AO213">
-        <v>1.15</v>
+        <v>0.54</v>
       </c>
       <c r="AP213">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ213">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR213">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45611,25 +45611,25 @@
         <v>1.73</v>
       </c>
       <c r="AN214">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AO214">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ214">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS214">
         <v>1.26</v>
       </c>
       <c r="AT214">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AU214">
         <v>8</v>
@@ -45817,25 +45817,25 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AO215">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR215">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="AT215">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="AU215">
         <v>4</v>
@@ -46023,25 +46023,25 @@
         <v>1.03</v>
       </c>
       <c r="AN216">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AO216">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AP216">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR216">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AS216">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AT216">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="AU216">
         <v>3</v>
@@ -46229,25 +46229,25 @@
         <v>3.75</v>
       </c>
       <c r="AN217">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AO217">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AP217">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AS217">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AT217">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46435,25 +46435,25 @@
         <v>1.33</v>
       </c>
       <c r="AN218">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AO218">
-        <v>2.07</v>
+        <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ218">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS218">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AT218">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU218">
         <v>5</v>
@@ -46641,25 +46641,25 @@
         <v>1.62</v>
       </c>
       <c r="AN219">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="AO219">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR219">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AS219">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT219">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46847,25 +46847,25 @@
         <v>1.95</v>
       </c>
       <c r="AN220">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AO220">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AP220">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR220">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS220">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="AT220">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -47053,25 +47053,25 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AO221">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="AP221">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ221">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR221">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT221">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47259,25 +47259,25 @@
         <v>1.17</v>
       </c>
       <c r="AN222">
-        <v>1.11</v>
+        <v>1.77</v>
       </c>
       <c r="AO222">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="AP222">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AS222">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AT222">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47468,22 +47468,22 @@
         <v>1.15</v>
       </c>
       <c r="AO223">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ223">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR223">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT223">
-        <v>2.66</v>
+        <v>2.49</v>
       </c>
       <c r="AU223">
         <v>5</v>
@@ -47671,25 +47671,25 @@
         <v>6.6</v>
       </c>
       <c r="AN224">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AO224">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AP224">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ224">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS224">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT224">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="AU224">
         <v>7</v>
@@ -47877,25 +47877,25 @@
         <v>1.74</v>
       </c>
       <c r="AN225">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AO225">
-        <v>1.04</v>
+        <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
       </c>
       <c r="AS225">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT225">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -48083,25 +48083,25 @@
         <v>1.36</v>
       </c>
       <c r="AN226">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="AO226">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP226">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ226">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS226">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT226">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="AU226">
         <v>2</v>
@@ -48289,25 +48289,25 @@
         <v>1.77</v>
       </c>
       <c r="AN227">
+        <v>1.93</v>
+      </c>
+      <c r="AO227">
+        <v>1.29</v>
+      </c>
+      <c r="AP227">
         <v>2.11</v>
       </c>
-      <c r="AO227">
-        <v>1.57</v>
-      </c>
-      <c r="AP227">
-        <v>2.03</v>
-      </c>
       <c r="AQ227">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR227">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AS227">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT227">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48495,22 +48495,22 @@
         <v>1.83</v>
       </c>
       <c r="AN228">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO228">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AP228">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR228">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS228">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT228">
         <v>2.76</v>
@@ -48704,22 +48704,22 @@
         <v>0.5</v>
       </c>
       <c r="AO229">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AP229">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ229">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR229">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AS229">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="AT229">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48907,25 +48907,25 @@
         <v>1.9</v>
       </c>
       <c r="AN230">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AO230">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR230">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU230">
         <v>9</v>
@@ -49113,25 +49113,25 @@
         <v>3.25</v>
       </c>
       <c r="AN231">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AO231">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AP231">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ231">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR231">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="AS231">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49319,25 +49319,25 @@
         <v>1.55</v>
       </c>
       <c r="AN232">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO232">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ232">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS232">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49525,25 +49525,25 @@
         <v>0</v>
       </c>
       <c r="AN233">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO233">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AP233">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR233">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS233">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="AT233">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49731,25 +49731,25 @@
         <v>1.52</v>
       </c>
       <c r="AN234">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO234">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP234">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ234">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR234">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS234">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT234">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49937,25 +49937,25 @@
         <v>2.35</v>
       </c>
       <c r="AN235">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AO235">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR235">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS235">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AT235">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AU235">
         <v>4</v>
@@ -50143,25 +50143,25 @@
         <v>6.6</v>
       </c>
       <c r="AN236">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="AO236">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AP236">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ236">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR236">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT236">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="AU236">
         <v>9</v>
@@ -50349,25 +50349,25 @@
         <v>1.27</v>
       </c>
       <c r="AN237">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AO237">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ237">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR237">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AT237">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="AU237">
         <v>6</v>
@@ -50555,25 +50555,25 @@
         <v>1.65</v>
       </c>
       <c r="AN238">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="AO238">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP238">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ238">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR238">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS238">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT238">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50761,25 +50761,25 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AO239">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP239">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS239">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT239">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="AU239">
         <v>2</v>
@@ -50970,22 +50970,22 @@
         <v>1.07</v>
       </c>
       <c r="AO240">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ240">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR240">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS240">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU240">
         <v>5</v>
@@ -51173,25 +51173,25 @@
         <v>1.5</v>
       </c>
       <c r="AN241">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="AO241">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="AP241">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR241">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS241">
         <v>1.56</v>
       </c>
       <c r="AT241">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51379,25 +51379,25 @@
         <v>1.42</v>
       </c>
       <c r="AN242">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="AO242">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ242">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR242">
         <v>1.55</v>
       </c>
       <c r="AS242">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT242">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU242">
         <v>8</v>
@@ -51585,25 +51585,25 @@
         <v>1.81</v>
       </c>
       <c r="AN243">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AO243">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AP243">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ243">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR243">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AS243">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT243">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -51791,25 +51791,25 @@
         <v>2.71</v>
       </c>
       <c r="AN244">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="AO244">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP244">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ244">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR244">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS244">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AT244">
-        <v>4.15</v>
+        <v>4.32</v>
       </c>
       <c r="AU244">
         <v>10</v>
@@ -52821,25 +52821,25 @@
         <v>0</v>
       </c>
       <c r="AN249">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO249">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP249">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ249">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR249">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS249">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT249">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="AU249">
         <v>6</v>
@@ -53233,25 +53233,25 @@
         <v>0</v>
       </c>
       <c r="AN251">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AO251">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AP251">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR251">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AS251">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT251">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU251">
         <v>7</v>
@@ -54057,25 +54057,25 @@
         <v>1.05</v>
       </c>
       <c r="AN255">
-        <v>1.61</v>
+        <v>2.07</v>
       </c>
       <c r="AO255">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="AP255">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ255">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR255">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS255">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="AT255">
-        <v>3.89</v>
+        <v>3.78</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54263,25 +54263,25 @@
         <v>1.32</v>
       </c>
       <c r="AN256">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AO256">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="AP256">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR256">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS256">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AT256">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU256">
         <v>2</v>
@@ -54469,25 +54469,25 @@
         <v>1.93</v>
       </c>
       <c r="AN257">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AO257">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="AP257">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ257">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR257">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AS257">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AT257">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="AU257">
         <v>5</v>
@@ -55499,25 +55499,25 @@
         <v>0</v>
       </c>
       <c r="AN262">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AO262">
-        <v>1.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ262">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR262">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AT262">
-        <v>2.62</v>
+        <v>2.49</v>
       </c>
       <c r="AU262">
         <v>8</v>
@@ -55705,25 +55705,25 @@
         <v>1.85</v>
       </c>
       <c r="AN263">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO263">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="AP263">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ263">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR263">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="AS263">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AT263">
-        <v>3.55</v>
+        <v>3.51</v>
       </c>
       <c r="AU263">
         <v>3</v>
@@ -55911,25 +55911,25 @@
         <v>2.95</v>
       </c>
       <c r="AN264">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AO264">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AP264">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ264">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR264">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS264">
         <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.81</v>
+        <v>2.91</v>
       </c>
       <c r="AU264">
         <v>7</v>
@@ -56117,25 +56117,25 @@
         <v>2.9</v>
       </c>
       <c r="AN265">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AO265">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="AP265">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ265">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR265">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AS265">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AT265">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="AU265">
         <v>10</v>
@@ -57147,25 +57147,25 @@
         <v>1.01</v>
       </c>
       <c r="AN270">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AO270">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ270">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR270">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AS270">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT270">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57353,25 +57353,25 @@
         <v>1.01</v>
       </c>
       <c r="AN271">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO271">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AP271">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ271">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR271">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS271">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AT271">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU271">
         <v>5</v>
@@ -57559,25 +57559,25 @@
         <v>1.07</v>
       </c>
       <c r="AN272">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO272">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="AP272">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ272">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR272">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AS272">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT272">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AU272">
         <v>5</v>
@@ -57765,25 +57765,25 @@
         <v>0</v>
       </c>
       <c r="AN273">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AO273">
-        <v>2.55</v>
+        <v>2.31</v>
       </c>
       <c r="AP273">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ273">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR273">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AS273">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AT273">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>4</v>
@@ -57971,25 +57971,25 @@
         <v>1.91</v>
       </c>
       <c r="AN274">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AO274">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AP274">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ274">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR274">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AS274">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AT274">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58177,25 +58177,25 @@
         <v>0</v>
       </c>
       <c r="AN275">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="AO275">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AP275">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ275">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR275">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AS275">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AT275">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU275">
         <v>6</v>
@@ -58383,25 +58383,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AO276">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="AP276">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ276">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR276">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AS276">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT276">
-        <v>3.77</v>
+        <v>4.03</v>
       </c>
       <c r="AU276">
         <v>10</v>
@@ -58589,25 +58589,25 @@
         <v>2.95</v>
       </c>
       <c r="AN277">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AO277">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AP277">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ277">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR277">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AS277">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT277">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU277">
         <v>9</v>
@@ -59619,25 +59619,25 @@
         <v>1.72</v>
       </c>
       <c r="AN282">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="AO282">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AP282">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ282">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR282">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS282">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT282">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59825,25 +59825,25 @@
         <v>1.03</v>
       </c>
       <c r="AN283">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AO283">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="AP283">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ283">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR283">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS283">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AT283">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="AU283">
         <v>2</v>
@@ -60031,25 +60031,25 @@
         <v>1.41</v>
       </c>
       <c r="AN284">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="AO284">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP284">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ284">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR284">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS284">
         <v>1.92</v>
       </c>
       <c r="AT284">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="AU284">
         <v>6</v>
@@ -60237,25 +60237,25 @@
         <v>0</v>
       </c>
       <c r="AN285">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AO285">
         <v>2.06</v>
       </c>
       <c r="AP285">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ285">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR285">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AS285">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AT285">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU285">
         <v>4</v>
@@ -61267,25 +61267,25 @@
         <v>3.6</v>
       </c>
       <c r="AN290">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AO290">
+        <v>1.17</v>
+      </c>
+      <c r="AP290">
+        <v>2.11</v>
+      </c>
+      <c r="AQ290">
         <v>1.11</v>
       </c>
-      <c r="AP290">
-        <v>2.03</v>
-      </c>
-      <c r="AQ290">
-        <v>1.08</v>
-      </c>
       <c r="AR290">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AS290">
         <v>1.26</v>
       </c>
       <c r="AT290">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="AU290">
         <v>12</v>
@@ -62297,22 +62297,22 @@
         <v>2.45</v>
       </c>
       <c r="AN295">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="AO295">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP295">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ295">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR295">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AS295">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT295">
         <v>3.45</v>
@@ -62503,25 +62503,25 @@
         <v>3.1</v>
       </c>
       <c r="AN296">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AO296">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AP296">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ296">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR296">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AS296">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AT296">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
       <c r="AU296">
         <v>12</v>
@@ -62709,25 +62709,25 @@
         <v>0</v>
       </c>
       <c r="AN297">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="AO297">
-        <v>1.28</v>
+        <v>0.83</v>
       </c>
       <c r="AP297">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ297">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR297">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS297">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="AT297">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU297">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ7">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ8">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3793,25 +3793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -4211,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
       </c>
       <c r="AS13">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.86</v>
+        <v>2.39</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR14">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4623,19 +4623,19 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR15">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>1.97</v>
       </c>
       <c r="AT15">
-        <v>2.93</v>
+        <v>1.97</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR16">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -5029,25 +5029,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5235,25 +5235,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR18">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS18">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5444,22 +5444,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR19">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5647,25 +5647,25 @@
         <v>2.3</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AS20">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5856,22 +5856,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR21">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AS21">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT21">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6065,19 +6065,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AS22">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="AT22">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6265,25 +6265,25 @@
         <v>3.4</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR23">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="AT23">
-        <v>3.27</v>
+        <v>1.81</v>
       </c>
       <c r="AU23">
         <v>11</v>
@@ -6471,25 +6471,25 @@
         <v>1.68</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
-        <v>2.48</v>
+        <v>1.61</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>1.94</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AT25">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6883,25 +6883,25 @@
         <v>1.31</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR26">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AS26">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -7089,25 +7089,25 @@
         <v>2.31</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="AU27">
         <v>9</v>
@@ -7298,22 +7298,22 @@
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7501,25 +7501,25 @@
         <v>1.38</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR29">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AS29">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2.1</v>
       </c>
       <c r="AN30">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AS30">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7913,25 +7913,25 @@
         <v>1.11</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AS31">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -8119,25 +8119,25 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR32">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="AT32">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>9</v>
@@ -8331,19 +8331,19 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR33">
+        <v>0.97</v>
+      </c>
+      <c r="AS33">
         <v>1.23</v>
       </c>
-      <c r="AS33">
-        <v>1.34</v>
-      </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8531,25 +8531,25 @@
         <v>2.6</v>
       </c>
       <c r="AN34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8737,25 +8737,25 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR35">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>2.19</v>
       </c>
       <c r="AT35">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8943,22 +8943,22 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR36">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="AS36">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
         <v>2.24</v>
@@ -9149,25 +9149,25 @@
         <v>2.06</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR37">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS37">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="AT37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.56</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS38">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT38">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.6</v>
       </c>
       <c r="AN39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ39">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR39">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AT39">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>3.22</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR40">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AS40">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="AT40">
-        <v>3.06</v>
+        <v>3.53</v>
       </c>
       <c r="AU40">
         <v>9</v>
@@ -9973,25 +9973,25 @@
         <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ41">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR41">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="AS41">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT41">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AS42">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10385,22 +10385,22 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR43">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="AS43">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT43">
         <v>2.35</v>
@@ -10591,25 +10591,25 @@
         <v>8</v>
       </c>
       <c r="AN44">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AS44">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>3.84</v>
+        <v>3.62</v>
       </c>
       <c r="AU44">
         <v>11</v>
@@ -10797,25 +10797,25 @@
         <v>2.3</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
         <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -11003,25 +11003,25 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AU46">
         <v>7</v>
@@ -11209,25 +11209,25 @@
         <v>1.12</v>
       </c>
       <c r="AN47">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS47">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11415,25 +11415,25 @@
         <v>1.17</v>
       </c>
       <c r="AN48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR48">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11621,25 +11621,25 @@
         <v>1.05</v>
       </c>
       <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
         <v>1.5</v>
       </c>
-      <c r="AO49">
-        <v>2.5</v>
-      </c>
       <c r="AP49">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR49">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AS49">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="AT49">
-        <v>4.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11827,25 +11827,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
+        <v>1.67</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.83</v>
-      </c>
-      <c r="AP50">
-        <v>1.03</v>
-      </c>
       <c r="AQ50">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT50">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>4.65</v>
       </c>
       <c r="AN51">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="AT51">
-        <v>3.11</v>
+        <v>2.82</v>
       </c>
       <c r="AU51">
         <v>11</v>
@@ -12239,25 +12239,25 @@
         <v>1.25</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ52">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR52">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12448,22 +12448,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR53">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12651,25 +12651,25 @@
         <v>1.83</v>
       </c>
       <c r="AN54">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS54">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12857,25 +12857,25 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13063,25 +13063,25 @@
         <v>4.05</v>
       </c>
       <c r="AN56">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ56">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR56">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AS56">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AT56">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AU56">
         <v>13</v>
@@ -13269,25 +13269,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13475,22 +13475,22 @@
         <v>1.5</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR58">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
       <c r="AS58">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AT58">
         <v>2.49</v>
@@ -13681,25 +13681,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO59">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13887,25 +13887,25 @@
         <v>1.05</v>
       </c>
       <c r="AN60">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO60">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS60">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="AT60">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14093,25 +14093,25 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AS61">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14299,25 +14299,25 @@
         <v>2.5</v>
       </c>
       <c r="AN62">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.41</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>2.38</v>
       </c>
       <c r="AN63">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>1.29</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ64">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR64">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS64">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
         <v>3.05</v>
@@ -14917,25 +14917,25 @@
         <v>6</v>
       </c>
       <c r="AN65">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>0.88</v>
+        <v>0.2</v>
       </c>
       <c r="AP65">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AS65">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -15123,25 +15123,25 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO66">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR66">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AS66">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT66">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15329,25 +15329,25 @@
         <v>1.53</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ67">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR67">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AS67">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AT67">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="AU67">
         <v>3</v>
@@ -15538,22 +15538,22 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AP68">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR68">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS68">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>3.79</v>
+        <v>3.54</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15741,25 +15741,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO69">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS69">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT69">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>0.25</v>
+      </c>
+      <c r="AP70">
         <v>1.5</v>
       </c>
-      <c r="AO70">
-        <v>1.25</v>
-      </c>
-      <c r="AP70">
-        <v>1.03</v>
-      </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16153,25 +16153,25 @@
         <v>1.6</v>
       </c>
       <c r="AN71">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AO71">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR71">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS71">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="AT71">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16359,25 +16359,25 @@
         <v>2.05</v>
       </c>
       <c r="AN72">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="AO72">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP72">
+        <v>1.47</v>
+      </c>
+      <c r="AQ72">
         <v>1.11</v>
       </c>
-      <c r="AQ72">
-        <v>1.08</v>
-      </c>
       <c r="AR72">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16565,25 +16565,25 @@
         <v>1.38</v>
       </c>
       <c r="AN73">
-        <v>1.11</v>
+        <v>2.25</v>
       </c>
       <c r="AO73">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR73">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.8</v>
       </c>
       <c r="AN74">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AS74">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT74">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ75">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="AS75">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>3.37</v>
+        <v>3.63</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.07</v>
       </c>
       <c r="AN76">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO76">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR76">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AS76">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AT76">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17389,25 +17389,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR77">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AT77">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17598,22 +17598,22 @@
         <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AS78">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17801,25 +17801,25 @@
         <v>1.4</v>
       </c>
       <c r="AN79">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO79">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS79">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT79">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -18007,25 +18007,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS80">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AU80">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.18</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR81">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS81">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18419,25 +18419,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO82">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR82">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AT82">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18625,25 +18625,25 @@
         <v>1.33</v>
       </c>
       <c r="AN83">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO83">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR83">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18831,25 +18831,25 @@
         <v>1.7</v>
       </c>
       <c r="AN84">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AO84">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR84">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS84">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="AT84">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -19040,22 +19040,22 @@
         <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="AP85">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR85">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AT85">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>1.5</v>
       </c>
       <c r="AN86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO86">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AP86">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19449,25 +19449,25 @@
         <v>1.06</v>
       </c>
       <c r="AN87">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AP87">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS87">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AT87">
-        <v>3.93</v>
+        <v>3.83</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19655,25 +19655,25 @@
         <v>1.59</v>
       </c>
       <c r="AN88">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="AO88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR88">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT88">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19861,25 +19861,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ89">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR89">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AS89">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -20067,25 +20067,25 @@
         <v>1.06</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO90">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ90">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS90">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AT90">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20273,25 +20273,25 @@
         <v>1.76</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AT91">
-        <v>2.71</v>
+        <v>3.09</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20479,25 +20479,25 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AO92">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR92">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS92">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AT92">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20685,25 +20685,25 @@
         <v>1.71</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO93">
-        <v>1.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR93">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20891,25 +20891,25 @@
         <v>2.9</v>
       </c>
       <c r="AN94">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ94">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR94">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT94">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -21097,25 +21097,25 @@
         <v>2.32</v>
       </c>
       <c r="AN95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO95">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="AP95">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AS95">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AT95">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -21303,25 +21303,25 @@
         <v>3.3</v>
       </c>
       <c r="AN96">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ96">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AS96">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT96">
-        <v>4.24</v>
+        <v>4.02</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21509,25 +21509,25 @@
         <v>6.95</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ97">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AS97">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="AT97">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="AU97">
         <v>9</v>
@@ -21715,25 +21715,25 @@
         <v>2.63</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO98">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS98">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21921,25 +21921,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ99">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR99">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AS99">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="AT99">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22127,25 +22127,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP100">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR100">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AU100">
         <v>8</v>
@@ -22333,25 +22333,25 @@
         <v>1.11</v>
       </c>
       <c r="AN101">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="AP101">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR101">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS101">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT101">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22539,25 +22539,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ102">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR102">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AS102">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22745,25 +22745,25 @@
         <v>1.59</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22951,22 +22951,22 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO104">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="AP104">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR104">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AS104">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT104">
         <v>2.05</v>
@@ -23157,25 +23157,25 @@
         <v>1.6</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO105">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23363,25 +23363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.83</v>
+      </c>
+      <c r="AP106">
+        <v>2.11</v>
+      </c>
+      <c r="AQ106">
+        <v>0.58</v>
+      </c>
+      <c r="AR106">
+        <v>1.57</v>
+      </c>
+      <c r="AS106">
         <v>1.15</v>
       </c>
-      <c r="AO106">
-        <v>1.38</v>
-      </c>
-      <c r="AP106">
-        <v>1.65</v>
-      </c>
-      <c r="AQ106">
-        <v>1.03</v>
-      </c>
-      <c r="AR106">
-        <v>1.6</v>
-      </c>
-      <c r="AS106">
-        <v>1.39</v>
-      </c>
       <c r="AT106">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23569,25 +23569,25 @@
         <v>1.44</v>
       </c>
       <c r="AN107">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AO107">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ107">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AS107">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT107">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23775,25 +23775,25 @@
         <v>1.06</v>
       </c>
       <c r="AN108">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="AO108">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR108">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS108">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AT108">
-        <v>3.74</v>
+        <v>3.84</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23981,25 +23981,25 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ109">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AS109">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="AT109">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24187,25 +24187,25 @@
         <v>1.54</v>
       </c>
       <c r="AN110">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.44</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>1.21</v>
+      </c>
+      <c r="AS110">
         <v>1.23</v>
       </c>
-      <c r="AP110">
-        <v>1.08</v>
-      </c>
-      <c r="AQ110">
-        <v>1.27</v>
-      </c>
-      <c r="AR110">
-        <v>1.14</v>
-      </c>
-      <c r="AS110">
-        <v>1.21</v>
-      </c>
       <c r="AT110">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24393,25 +24393,25 @@
         <v>2.4</v>
       </c>
       <c r="AN111">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AO111">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ111">
+        <v>1.16</v>
+      </c>
+      <c r="AR111">
+        <v>2.46</v>
+      </c>
+      <c r="AS111">
         <v>1.54</v>
       </c>
-      <c r="AR111">
-        <v>2.24</v>
-      </c>
-      <c r="AS111">
-        <v>1.56</v>
-      </c>
       <c r="AT111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24599,25 +24599,25 @@
         <v>1.62</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR112">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="AS112">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT112">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24805,25 +24805,25 @@
         <v>1.3</v>
       </c>
       <c r="AN113">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AO113">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR113">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS113">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT113">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25011,25 +25011,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO114">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT114">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25217,25 +25217,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="AO115">
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT115">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25423,25 +25423,25 @@
         <v>1.06</v>
       </c>
       <c r="AN116">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AO116">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AS116">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT116">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25629,25 +25629,25 @@
         <v>2.15</v>
       </c>
       <c r="AN117">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AO117">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AP117">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ117">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>3.91</v>
+        <v>3.73</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25835,25 +25835,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR118">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS118">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT118">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AU118">
         <v>2</v>
@@ -26041,25 +26041,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AO119">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR119">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AS119">
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26247,25 +26247,25 @@
         <v>1.55</v>
       </c>
       <c r="AN120">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AU120">
         <v>6</v>
@@ -26453,25 +26453,25 @@
         <v>1.55</v>
       </c>
       <c r="AN121">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR121">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26659,22 +26659,22 @@
         <v>1.73</v>
       </c>
       <c r="AN122">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO122">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR122">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS122">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT122">
         <v>2.64</v>
@@ -26865,25 +26865,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO123">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ123">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR123">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS123">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AT123">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -27071,25 +27071,25 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27277,25 +27277,25 @@
         <v>3.1</v>
       </c>
       <c r="AN125">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AO125">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ125">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR125">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AS125">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AT125">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="AU125">
         <v>11</v>
@@ -27483,25 +27483,25 @@
         <v>1.6</v>
       </c>
       <c r="AN126">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP126">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>2.77</v>
+        <v>3.04</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27689,25 +27689,25 @@
         <v>2.45</v>
       </c>
       <c r="AN127">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AP127">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR127">
+        <v>1.56</v>
+      </c>
+      <c r="AS127">
         <v>1.62</v>
       </c>
-      <c r="AS127">
-        <v>1.55</v>
-      </c>
       <c r="AT127">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27895,25 +27895,25 @@
         <v>1.02</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO128">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR128">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS128">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="AU128">
         <v>0</v>
@@ -28101,25 +28101,25 @@
         <v>2.5</v>
       </c>
       <c r="AN129">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AO129">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR129">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU129">
         <v>6</v>
@@ -28307,25 +28307,25 @@
         <v>1.25</v>
       </c>
       <c r="AN130">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR130">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AT130">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU130">
         <v>0</v>
@@ -28513,25 +28513,25 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO131">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR131">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AS131">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT131">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="AU131">
         <v>11</v>
@@ -28722,22 +28722,22 @@
         <v>0.88</v>
       </c>
       <c r="AO132">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AT132">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28925,25 +28925,25 @@
         <v>1.5</v>
       </c>
       <c r="AN133">
+        <v>0.75</v>
+      </c>
+      <c r="AO133">
         <v>0.63</v>
       </c>
-      <c r="AO133">
-        <v>1.31</v>
-      </c>
       <c r="AP133">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR133">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT133">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29131,25 +29131,25 @@
         <v>1.25</v>
       </c>
       <c r="AN134">
+        <v>2.14</v>
+      </c>
+      <c r="AO134">
         <v>1.25</v>
       </c>
-      <c r="AO134">
+      <c r="AP134">
         <v>1.44</v>
       </c>
-      <c r="AP134">
-        <v>1.08</v>
-      </c>
       <c r="AQ134">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR134">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29337,25 +29337,25 @@
         <v>1.44</v>
       </c>
       <c r="AN135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29543,25 +29543,25 @@
         <v>1.11</v>
       </c>
       <c r="AN136">
-        <v>0.8100000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="AO136">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="AP136">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="AS136">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AT136">
-        <v>3.65</v>
+        <v>3.83</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29749,25 +29749,25 @@
         <v>2.4</v>
       </c>
       <c r="AN137">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO137">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AS137">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT137">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29955,25 +29955,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AO138">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR138">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AT138">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="AU138">
         <v>4</v>
@@ -30161,25 +30161,25 @@
         <v>1.68</v>
       </c>
       <c r="AN139">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP139">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AS139">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30367,25 +30367,25 @@
         <v>1.42</v>
       </c>
       <c r="AN140">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO140">
+        <v>0.75</v>
+      </c>
+      <c r="AP140">
         <v>1.47</v>
       </c>
-      <c r="AP140">
-        <v>1.11</v>
-      </c>
       <c r="AQ140">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR140">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS140">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT140">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30573,25 +30573,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT141">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30779,25 +30779,25 @@
         <v>1.03</v>
       </c>
       <c r="AN142">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO142">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ142">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR142">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS142">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AT142">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30985,25 +30985,25 @@
         <v>3.75</v>
       </c>
       <c r="AN143">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AO143">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ143">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR143">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT143">
-        <v>3.63</v>
+        <v>3.81</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31191,25 +31191,25 @@
         <v>2.88</v>
       </c>
       <c r="AN144">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AO144">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP144">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
+        <v>0.74</v>
+      </c>
+      <c r="AR144">
+        <v>1.98</v>
+      </c>
+      <c r="AS144">
         <v>1.08</v>
       </c>
-      <c r="AR144">
-        <v>1.7</v>
-      </c>
-      <c r="AS144">
-        <v>1.22</v>
-      </c>
       <c r="AT144">
-        <v>2.92</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31397,25 +31397,25 @@
         <v>2.3</v>
       </c>
       <c r="AN145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR145">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS145">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU145">
         <v>2</v>
@@ -31603,25 +31603,25 @@
         <v>1.7</v>
       </c>
       <c r="AN146">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO146">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR146">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS146">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT146">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31812,22 +31812,22 @@
         <v>2.44</v>
       </c>
       <c r="AO147">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ147">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR147">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AS147">
-        <v>2.32</v>
+        <v>2.13</v>
       </c>
       <c r="AT147">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -32015,25 +32015,25 @@
         <v>1.7</v>
       </c>
       <c r="AN148">
-        <v>1.61</v>
+        <v>2.33</v>
       </c>
       <c r="AO148">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS148">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AT148">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32221,25 +32221,25 @@
         <v>2.05</v>
       </c>
       <c r="AN149">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO149">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AP149">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR149">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AT149">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32427,25 +32427,25 @@
         <v>1.3</v>
       </c>
       <c r="AN150">
-        <v>1.39</v>
+        <v>2.11</v>
       </c>
       <c r="AO150">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR150">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS150">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT150">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32636,22 +32636,22 @@
         <v>1.44</v>
       </c>
       <c r="AO151">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR151">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="AT151">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32839,25 +32839,25 @@
         <v>1.51</v>
       </c>
       <c r="AN152">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="AO152">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AT152">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33045,25 +33045,25 @@
         <v>3.1</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO153">
+        <v>1.44</v>
+      </c>
+      <c r="AP153">
+        <v>2.11</v>
+      </c>
+      <c r="AQ153">
         <v>1.11</v>
       </c>
-      <c r="AP153">
-        <v>2.03</v>
-      </c>
-      <c r="AQ153">
-        <v>1.08</v>
-      </c>
       <c r="AR153">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AS153">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT153">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33251,25 +33251,25 @@
         <v>1.22</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="AO154">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ154">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR154">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AS154">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT154">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33457,25 +33457,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AO155">
-        <v>1.53</v>
+        <v>0.89</v>
       </c>
       <c r="AP155">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33663,25 +33663,25 @@
         <v>1.08</v>
       </c>
       <c r="AN156">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO156">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP156">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AT156">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33869,25 +33869,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR157">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="AT157">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU157">
         <v>3</v>
@@ -34075,25 +34075,25 @@
         <v>6</v>
       </c>
       <c r="AN158">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="AO158">
-        <v>1.47</v>
+        <v>0.67</v>
       </c>
       <c r="AP158">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ158">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34281,25 +34281,25 @@
         <v>1.53</v>
       </c>
       <c r="AN159">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AO159">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR159">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
-        <v>2.97</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34487,25 +34487,25 @@
         <v>1.22</v>
       </c>
       <c r="AN160">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AO160">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
       </c>
       <c r="AS160">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AT160">
-        <v>3.01</v>
+        <v>2.77</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34693,25 +34693,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
+        <v>0.78</v>
+      </c>
+      <c r="AO161">
         <v>1.11</v>
       </c>
-      <c r="AO161">
-        <v>1.32</v>
-      </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR161">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS161">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34899,25 +34899,25 @@
         <v>1.03</v>
       </c>
       <c r="AN162">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO162">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AP162">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS162">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="AT162">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -35108,22 +35108,22 @@
         <v>2.5</v>
       </c>
       <c r="AO163">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ163">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS163">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT163">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35314,22 +35314,22 @@
         <v>1.6</v>
       </c>
       <c r="AO164">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS164">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT164">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35517,25 +35517,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO165">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR165">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AO166">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR166">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS166">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT166">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35929,25 +35929,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO167">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR167">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AS167">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AT167">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36135,25 +36135,25 @@
         <v>1.85</v>
       </c>
       <c r="AN168">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="AO168">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR168">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT168">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="AU168">
         <v>2</v>
@@ -36341,25 +36341,25 @@
         <v>1.65</v>
       </c>
       <c r="AN169">
+        <v>2.2</v>
+      </c>
+      <c r="AO169">
         <v>1.4</v>
       </c>
-      <c r="AO169">
-        <v>1.1</v>
-      </c>
       <c r="AP169">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS169">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT169">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU169">
         <v>4</v>
@@ -36547,25 +36547,25 @@
         <v>1.5</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO170">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR170">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS170">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT170">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36753,25 +36753,25 @@
         <v>1.04</v>
       </c>
       <c r="AN171">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="AO171">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AP171">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ171">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR171">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AT171">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36959,25 +36959,25 @@
         <v>4.33</v>
       </c>
       <c r="AN172">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AO172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP172">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ172">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="AS172">
         <v>1.63</v>
       </c>
       <c r="AT172">
-        <v>3.9</v>
+        <v>4.08</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37165,25 +37165,25 @@
         <v>1.22</v>
       </c>
       <c r="AN173">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO173">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS173">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU173">
         <v>9</v>
@@ -37371,25 +37371,25 @@
         <v>1.45</v>
       </c>
       <c r="AN174">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO174">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AS174">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT174">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37577,25 +37577,25 @@
         <v>1.5</v>
       </c>
       <c r="AN175">
-        <v>1.19</v>
+        <v>0.8</v>
       </c>
       <c r="AO175">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
       <c r="AP175">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ175">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT175">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37783,25 +37783,25 @@
         <v>2.15</v>
       </c>
       <c r="AN176">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO176">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>1.17</v>
+      </c>
+      <c r="AR176">
         <v>1.65</v>
       </c>
-      <c r="AQ176">
-        <v>1.27</v>
-      </c>
-      <c r="AR176">
-        <v>1.57</v>
-      </c>
       <c r="AS176">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AT176">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37989,25 +37989,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO177">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AP177">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR177">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS177">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT177">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU177">
         <v>4</v>
@@ -38195,25 +38195,25 @@
         <v>1.95</v>
       </c>
       <c r="AN178">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AO178">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ178">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS178">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT178">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38401,25 +38401,25 @@
         <v>2.55</v>
       </c>
       <c r="AN179">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AO179">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR179">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS179">
         <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38607,25 +38607,25 @@
         <v>1.3</v>
       </c>
       <c r="AN180">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>1.36</v>
+        <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR180">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38813,25 +38813,25 @@
         <v>1.04</v>
       </c>
       <c r="AN181">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AO181">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP181">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR181">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS181">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="AT181">
-        <v>3.95</v>
+        <v>4.03</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -39022,22 +39022,22 @@
         <v>2.55</v>
       </c>
       <c r="AO182">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ182">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR182">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AT182">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="AU182">
         <v>8</v>
@@ -39225,25 +39225,25 @@
         <v>2.05</v>
       </c>
       <c r="AN183">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AO183">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="AP183">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR183">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AT183">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39431,25 +39431,25 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="AO184">
+        <v>1.27</v>
+      </c>
+      <c r="AP184">
+        <v>1.58</v>
+      </c>
+      <c r="AQ184">
+        <v>0.79</v>
+      </c>
+      <c r="AR184">
         <v>1.45</v>
       </c>
-      <c r="AP184">
-        <v>1.3</v>
-      </c>
-      <c r="AQ184">
-        <v>1.24</v>
-      </c>
-      <c r="AR184">
-        <v>1.37</v>
-      </c>
       <c r="AS184">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT184">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AU184">
         <v>11</v>
@@ -39637,25 +39637,25 @@
         <v>1.67</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AP185">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS185">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT185">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39843,25 +39843,25 @@
         <v>1.52</v>
       </c>
       <c r="AN186">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO186">
-        <v>0.96</v>
+        <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR186">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AT186">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -40049,25 +40049,25 @@
         <v>1.18</v>
       </c>
       <c r="AN187">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO187">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP187">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AT187">
-        <v>2.95</v>
+        <v>2.74</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40255,25 +40255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN188">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AO188">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ188">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR188">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40461,25 +40461,25 @@
         <v>1.4</v>
       </c>
       <c r="AN189">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AO189">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ189">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR189">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="AS189">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40667,25 +40667,25 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AO190">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AP190">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR190">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AS190">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU190">
         <v>2</v>
@@ -40873,25 +40873,25 @@
         <v>2.25</v>
       </c>
       <c r="AN191">
-        <v>1.35</v>
+        <v>1.91</v>
       </c>
       <c r="AO191">
+        <v>0.55</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+      <c r="AQ191">
+        <v>0.58</v>
+      </c>
+      <c r="AR191">
+        <v>1.72</v>
+      </c>
+      <c r="AS191">
         <v>1.22</v>
       </c>
-      <c r="AP191">
-        <v>1.65</v>
-      </c>
-      <c r="AQ191">
-        <v>1.03</v>
-      </c>
-      <c r="AR191">
-        <v>1.6</v>
-      </c>
-      <c r="AS191">
-        <v>1.39</v>
-      </c>
       <c r="AT191">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU191">
         <v>11</v>
@@ -41079,25 +41079,25 @@
         <v>2</v>
       </c>
       <c r="AN192">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AO192">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AP192">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ192">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR192">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AS192">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT192">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -41285,25 +41285,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR193">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AT193">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41491,25 +41491,25 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AO194">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AS194">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT194">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU194">
         <v>7</v>
@@ -41697,25 +41697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN195">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AO195">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR195">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS195">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT195">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41903,25 +41903,25 @@
         <v>2.5</v>
       </c>
       <c r="AN196">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO196">
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ196">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR196">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS196">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -42109,25 +42109,25 @@
         <v>1.7</v>
       </c>
       <c r="AN197">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO197">
         <v>0.58</v>
       </c>
       <c r="AP197">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR197">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS197">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="AT197">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AU197">
         <v>4</v>
@@ -42315,25 +42315,25 @@
         <v>1.25</v>
       </c>
       <c r="AN198">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>1.42</v>
+        <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ198">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT198">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42521,25 +42521,25 @@
         <v>1.85</v>
       </c>
       <c r="AN199">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO199">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42727,25 +42727,25 @@
         <v>4</v>
       </c>
       <c r="AN200">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AO200">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AS200">
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42933,25 +42933,25 @@
         <v>1.01</v>
       </c>
       <c r="AN201">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO201">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="AP201">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR201">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS201">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT201">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -43139,25 +43139,25 @@
         <v>1.53</v>
       </c>
       <c r="AN202">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AO202">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AP202">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AS202">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT202">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43345,25 +43345,25 @@
         <v>1.22</v>
       </c>
       <c r="AN203">
+        <v>1.83</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>1.5</v>
+      </c>
+      <c r="AQ203">
         <v>1.16</v>
       </c>
-      <c r="AO203">
-        <v>1.56</v>
-      </c>
-      <c r="AP203">
-        <v>1.03</v>
-      </c>
-      <c r="AQ203">
-        <v>1.54</v>
-      </c>
       <c r="AR203">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS203">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT203">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43551,25 +43551,25 @@
         <v>1.29</v>
       </c>
       <c r="AN204">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AO204">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ204">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR204">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AS204">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43757,25 +43757,25 @@
         <v>1.83</v>
       </c>
       <c r="AN205">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO205">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR205">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AS205">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43963,25 +43963,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AO206">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AP206">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS206">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT206">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44169,25 +44169,25 @@
         <v>4.5</v>
       </c>
       <c r="AN207">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AO207">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AP207">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ207">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR207">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="AS207">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT207">
-        <v>3.75</v>
+        <v>4.01</v>
       </c>
       <c r="AU207">
         <v>13</v>
@@ -44375,25 +44375,25 @@
         <v>1.67</v>
       </c>
       <c r="AN208">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AO208">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ208">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR208">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AS208">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AT208">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44581,25 +44581,25 @@
         <v>1.62</v>
       </c>
       <c r="AN209">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AO209">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR209">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS209">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT209">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44787,25 +44787,25 @@
         <v>2.05</v>
       </c>
       <c r="AN210">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AO210">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR210">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS210">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT210">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44996,22 +44996,22 @@
         <v>0.54</v>
       </c>
       <c r="AO211">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ211">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR211">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="AS211">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT211">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU211">
         <v>2</v>
@@ -45199,25 +45199,25 @@
         <v>1.62</v>
       </c>
       <c r="AN212">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AO212">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ212">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR212">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS212">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT212">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45405,25 +45405,25 @@
         <v>2.85</v>
       </c>
       <c r="AN213">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="AO213">
-        <v>1.15</v>
+        <v>0.54</v>
       </c>
       <c r="AP213">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ213">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR213">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45611,25 +45611,25 @@
         <v>1.73</v>
       </c>
       <c r="AN214">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AO214">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ214">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS214">
         <v>1.26</v>
       </c>
       <c r="AT214">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AU214">
         <v>8</v>
@@ -45817,25 +45817,25 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AO215">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR215">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="AT215">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="AU215">
         <v>4</v>
@@ -46023,25 +46023,25 @@
         <v>1.03</v>
       </c>
       <c r="AN216">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AO216">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AP216">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR216">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AS216">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AT216">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="AU216">
         <v>3</v>
@@ -46229,25 +46229,25 @@
         <v>3.75</v>
       </c>
       <c r="AN217">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AO217">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AP217">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AS217">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AT217">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46435,25 +46435,25 @@
         <v>1.33</v>
       </c>
       <c r="AN218">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AO218">
-        <v>2.07</v>
+        <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ218">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS218">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AT218">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU218">
         <v>5</v>
@@ -46641,25 +46641,25 @@
         <v>1.62</v>
       </c>
       <c r="AN219">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="AO219">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR219">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AS219">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT219">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46847,25 +46847,25 @@
         <v>1.95</v>
       </c>
       <c r="AN220">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AO220">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AP220">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR220">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS220">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="AT220">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -47053,25 +47053,25 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AO221">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="AP221">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ221">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR221">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT221">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47259,25 +47259,25 @@
         <v>1.17</v>
       </c>
       <c r="AN222">
-        <v>1.11</v>
+        <v>1.77</v>
       </c>
       <c r="AO222">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="AP222">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AS222">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AT222">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47468,22 +47468,22 @@
         <v>1.15</v>
       </c>
       <c r="AO223">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ223">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR223">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT223">
-        <v>2.66</v>
+        <v>2.49</v>
       </c>
       <c r="AU223">
         <v>5</v>
@@ -47671,25 +47671,25 @@
         <v>6.6</v>
       </c>
       <c r="AN224">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AO224">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AP224">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ224">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS224">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT224">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="AU224">
         <v>7</v>
@@ -47877,25 +47877,25 @@
         <v>1.74</v>
       </c>
       <c r="AN225">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AO225">
-        <v>1.04</v>
+        <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
       </c>
       <c r="AS225">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT225">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -48083,25 +48083,25 @@
         <v>1.36</v>
       </c>
       <c r="AN226">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="AO226">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP226">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ226">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS226">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT226">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="AU226">
         <v>2</v>
@@ -48289,25 +48289,25 @@
         <v>1.77</v>
       </c>
       <c r="AN227">
+        <v>1.93</v>
+      </c>
+      <c r="AO227">
+        <v>1.29</v>
+      </c>
+      <c r="AP227">
         <v>2.11</v>
       </c>
-      <c r="AO227">
-        <v>1.57</v>
-      </c>
-      <c r="AP227">
-        <v>2.03</v>
-      </c>
       <c r="AQ227">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR227">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AS227">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT227">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48495,22 +48495,22 @@
         <v>1.83</v>
       </c>
       <c r="AN228">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO228">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AP228">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR228">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS228">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT228">
         <v>2.76</v>
@@ -48704,22 +48704,22 @@
         <v>0.5</v>
       </c>
       <c r="AO229">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AP229">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ229">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR229">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AS229">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="AT229">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48907,25 +48907,25 @@
         <v>1.9</v>
       </c>
       <c r="AN230">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AO230">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR230">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU230">
         <v>9</v>
@@ -49113,25 +49113,25 @@
         <v>3.25</v>
       </c>
       <c r="AN231">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AO231">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AP231">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ231">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR231">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="AS231">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49319,25 +49319,25 @@
         <v>1.55</v>
       </c>
       <c r="AN232">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO232">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ232">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS232">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49525,25 +49525,25 @@
         <v>0</v>
       </c>
       <c r="AN233">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO233">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AP233">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR233">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS233">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="AT233">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49731,25 +49731,25 @@
         <v>1.52</v>
       </c>
       <c r="AN234">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO234">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP234">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ234">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR234">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS234">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT234">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49937,25 +49937,25 @@
         <v>2.35</v>
       </c>
       <c r="AN235">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AO235">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR235">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS235">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AT235">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AU235">
         <v>4</v>
@@ -50143,25 +50143,25 @@
         <v>6.6</v>
       </c>
       <c r="AN236">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="AO236">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AP236">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ236">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR236">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT236">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="AU236">
         <v>9</v>
@@ -50349,25 +50349,25 @@
         <v>1.27</v>
       </c>
       <c r="AN237">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AO237">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ237">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR237">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AT237">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="AU237">
         <v>6</v>
@@ -50555,25 +50555,25 @@
         <v>1.65</v>
       </c>
       <c r="AN238">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="AO238">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP238">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ238">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR238">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS238">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT238">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50761,25 +50761,25 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AO239">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP239">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS239">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT239">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="AU239">
         <v>2</v>
@@ -50970,22 +50970,22 @@
         <v>1.07</v>
       </c>
       <c r="AO240">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ240">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR240">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS240">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU240">
         <v>5</v>
@@ -51173,25 +51173,25 @@
         <v>1.5</v>
       </c>
       <c r="AN241">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="AO241">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="AP241">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR241">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS241">
         <v>1.56</v>
       </c>
       <c r="AT241">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51379,25 +51379,25 @@
         <v>1.42</v>
       </c>
       <c r="AN242">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="AO242">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="AP242">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ242">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR242">
         <v>1.55</v>
       </c>
       <c r="AS242">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT242">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU242">
         <v>8</v>
@@ -51585,25 +51585,25 @@
         <v>1.81</v>
       </c>
       <c r="AN243">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AO243">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AP243">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ243">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR243">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="AS243">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT243">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -51791,25 +51791,25 @@
         <v>2.71</v>
       </c>
       <c r="AN244">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="AO244">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP244">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ244">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR244">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS244">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AT244">
-        <v>4.15</v>
+        <v>4.32</v>
       </c>
       <c r="AU244">
         <v>10</v>
@@ -51997,25 +51997,25 @@
         <v>1.55</v>
       </c>
       <c r="AN245">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO245">
-        <v>1.03</v>
+        <v>0.53</v>
       </c>
       <c r="AP245">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ245">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR245">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AS245">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="AT245">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="AU245">
         <v>2</v>
@@ -52203,25 +52203,25 @@
         <v>1.9</v>
       </c>
       <c r="AN246">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO246">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="AP246">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ246">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR246">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS246">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="AT246">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="AU246">
         <v>8</v>
@@ -52409,25 +52409,25 @@
         <v>1.91</v>
       </c>
       <c r="AN247">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO247">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AP247">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ247">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR247">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS247">
-        <v>1.08</v>
+        <v>0.89</v>
       </c>
       <c r="AT247">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="AU247">
         <v>6</v>
@@ -52618,22 +52618,22 @@
         <v>1.07</v>
       </c>
       <c r="AO248">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="AP248">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ248">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR248">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS248">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT248">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AU248">
         <v>6</v>
@@ -52821,25 +52821,25 @@
         <v>0</v>
       </c>
       <c r="AN249">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO249">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP249">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ249">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR249">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS249">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AT249">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="AU249">
         <v>6</v>
@@ -53027,25 +53027,25 @@
         <v>1.5</v>
       </c>
       <c r="AN250">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AO250">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AP250">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ250">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AS250">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT250">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53233,25 +53233,25 @@
         <v>0</v>
       </c>
       <c r="AN251">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AO251">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AP251">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR251">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AS251">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT251">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU251">
         <v>7</v>
@@ -53439,25 +53439,25 @@
         <v>1.29</v>
       </c>
       <c r="AN252">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="AO252">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="AP252">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ252">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR252">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="AS252">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT252">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -53645,25 +53645,25 @@
         <v>1.55</v>
       </c>
       <c r="AN253">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AO253">
+        <v>1.07</v>
+      </c>
+      <c r="AP253">
+        <v>1.44</v>
+      </c>
+      <c r="AQ253">
         <v>1.06</v>
       </c>
-      <c r="AP253">
-        <v>1.08</v>
-      </c>
-      <c r="AQ253">
-        <v>1.14</v>
-      </c>
       <c r="AR253">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS253">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT253">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU253">
         <v>5</v>
@@ -53851,25 +53851,25 @@
         <v>1.73</v>
       </c>
       <c r="AN254">
-        <v>0.87</v>
+        <v>1.13</v>
       </c>
       <c r="AO254">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="AP254">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ254">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR254">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS254">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT254">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU254">
         <v>6</v>
@@ -54057,25 +54057,25 @@
         <v>1.05</v>
       </c>
       <c r="AN255">
-        <v>1.61</v>
+        <v>2.07</v>
       </c>
       <c r="AO255">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="AP255">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ255">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR255">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AS255">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="AT255">
-        <v>3.89</v>
+        <v>3.78</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54263,25 +54263,25 @@
         <v>1.32</v>
       </c>
       <c r="AN256">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AO256">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="AP256">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR256">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS256">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AT256">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU256">
         <v>2</v>
@@ -54469,25 +54469,25 @@
         <v>1.93</v>
       </c>
       <c r="AN257">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AO257">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="AP257">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ257">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR257">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AS257">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AT257">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="AU257">
         <v>5</v>
@@ -54675,25 +54675,25 @@
         <v>1.09</v>
       </c>
       <c r="AN258">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AO258">
-        <v>1.06</v>
+        <v>0.63</v>
       </c>
       <c r="AP258">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ258">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR258">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS258">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AT258">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AU258">
         <v>5</v>
@@ -54884,22 +54884,22 @@
         <v>1.06</v>
       </c>
       <c r="AO259">
+        <v>0.63</v>
+      </c>
+      <c r="AP259">
+        <v>1.21</v>
+      </c>
+      <c r="AQ259">
         <v>0.53</v>
       </c>
-      <c r="AP259">
-        <v>1.14</v>
-      </c>
-      <c r="AQ259">
-        <v>0.49</v>
-      </c>
       <c r="AR259">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS259">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="AT259">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="AU259">
         <v>10</v>
@@ -55087,22 +55087,22 @@
         <v>1.85</v>
       </c>
       <c r="AN260">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AO260">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP260">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ260">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR260">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS260">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="AT260">
         <v>2.63</v>
@@ -55293,25 +55293,25 @@
         <v>1.45</v>
       </c>
       <c r="AN261">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AO261">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AP261">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ261">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR261">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS261">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT261">
-        <v>2.71</v>
+        <v>2.52</v>
       </c>
       <c r="AU261">
         <v>4</v>
@@ -55499,25 +55499,25 @@
         <v>0</v>
       </c>
       <c r="AN262">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AO262">
-        <v>1.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP262">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ262">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR262">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AT262">
-        <v>2.62</v>
+        <v>2.49</v>
       </c>
       <c r="AU262">
         <v>8</v>
@@ -55705,25 +55705,25 @@
         <v>1.85</v>
       </c>
       <c r="AN263">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO263">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="AP263">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ263">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR263">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="AS263">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AT263">
-        <v>3.55</v>
+        <v>3.51</v>
       </c>
       <c r="AU263">
         <v>3</v>
@@ -55911,25 +55911,25 @@
         <v>2.95</v>
       </c>
       <c r="AN264">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AO264">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AP264">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ264">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR264">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS264">
         <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.81</v>
+        <v>2.91</v>
       </c>
       <c r="AU264">
         <v>7</v>
@@ -56117,25 +56117,25 @@
         <v>2.9</v>
       </c>
       <c r="AN265">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AO265">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="AP265">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ265">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR265">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AS265">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AT265">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="AU265">
         <v>10</v>
@@ -56323,25 +56323,25 @@
         <v>1.43</v>
       </c>
       <c r="AN266">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AO266">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP266">
+        <v>1.21</v>
+      </c>
+      <c r="AQ266">
+        <v>1</v>
+      </c>
+      <c r="AR266">
+        <v>1.56</v>
+      </c>
+      <c r="AS266">
         <v>1.27</v>
       </c>
-      <c r="AP266">
-        <v>1.14</v>
-      </c>
-      <c r="AQ266">
-        <v>1.3</v>
-      </c>
-      <c r="AR266">
-        <v>1.48</v>
-      </c>
-      <c r="AS266">
-        <v>1.43</v>
-      </c>
       <c r="AT266">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="AU266">
         <v>0</v>
@@ -56529,25 +56529,25 @@
         <v>1.48</v>
       </c>
       <c r="AN267">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AO267">
-        <v>1.21</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP267">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ267">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR267">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS267">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT267">
-        <v>2.7</v>
+        <v>2.51</v>
       </c>
       <c r="AU267">
         <v>7</v>
@@ -56735,25 +56735,25 @@
         <v>1.47</v>
       </c>
       <c r="AN268">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="AO268">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
       <c r="AP268">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ268">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR268">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AS268">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT268">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AU268">
         <v>3</v>
@@ -56941,25 +56941,25 @@
         <v>1.68</v>
       </c>
       <c r="AN269">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AO269">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="AP269">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ269">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR269">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AS269">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AT269">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
       <c r="AU269">
         <v>6</v>
@@ -57147,25 +57147,25 @@
         <v>1.01</v>
       </c>
       <c r="AN270">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AO270">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ270">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR270">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AS270">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT270">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="AU270">
         <v>8</v>
@@ -57353,25 +57353,25 @@
         <v>1.01</v>
       </c>
       <c r="AN271">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AO271">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AP271">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ271">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR271">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS271">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AT271">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU271">
         <v>5</v>
@@ -57559,25 +57559,25 @@
         <v>1.07</v>
       </c>
       <c r="AN272">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO272">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="AP272">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ272">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR272">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AS272">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT272">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AU272">
         <v>5</v>
@@ -57765,25 +57765,25 @@
         <v>0</v>
       </c>
       <c r="AN273">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AO273">
-        <v>2.55</v>
+        <v>2.31</v>
       </c>
       <c r="AP273">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ273">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR273">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AS273">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AT273">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>4</v>
@@ -57971,25 +57971,25 @@
         <v>1.91</v>
       </c>
       <c r="AN274">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AO274">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AP274">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ274">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR274">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AS274">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AT274">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58177,25 +58177,25 @@
         <v>0</v>
       </c>
       <c r="AN275">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="AO275">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AP275">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ275">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR275">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AS275">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AT275">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU275">
         <v>6</v>
@@ -58383,25 +58383,25 @@
         <v>5</v>
       </c>
       <c r="AN276">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AO276">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="AP276">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ276">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR276">
-        <v>2.19</v>
+        <v>2.48</v>
       </c>
       <c r="AS276">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT276">
-        <v>3.77</v>
+        <v>4.03</v>
       </c>
       <c r="AU276">
         <v>10</v>
@@ -58589,25 +58589,25 @@
         <v>2.95</v>
       </c>
       <c r="AN277">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AO277">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AP277">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ277">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR277">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AS277">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT277">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU277">
         <v>9</v>
@@ -58795,25 +58795,25 @@
         <v>1.61</v>
       </c>
       <c r="AN278">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AO278">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AP278">
+        <v>1.58</v>
+      </c>
+      <c r="AQ278">
+        <v>1.17</v>
+      </c>
+      <c r="AR278">
+        <v>1.57</v>
+      </c>
+      <c r="AS278">
         <v>1.3</v>
       </c>
-      <c r="AQ278">
-        <v>1.27</v>
-      </c>
-      <c r="AR278">
-        <v>1.42</v>
-      </c>
-      <c r="AS278">
-        <v>1.26</v>
-      </c>
       <c r="AT278">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="AU278">
         <v>5</v>
@@ -59001,25 +59001,25 @@
         <v>1.6</v>
       </c>
       <c r="AN279">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AO279">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="AP279">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ279">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR279">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AS279">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AT279">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="AU279">
         <v>3</v>
@@ -59207,25 +59207,25 @@
         <v>1.65</v>
       </c>
       <c r="AN280">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="AO280">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP280">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ280">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR280">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AS280">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT280">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AU280">
         <v>5</v>
@@ -59413,25 +59413,25 @@
         <v>2.48</v>
       </c>
       <c r="AN281">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO281">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="AP281">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ281">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR281">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AS281">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AT281">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU281">
         <v>8</v>
@@ -59619,25 +59619,25 @@
         <v>1.72</v>
       </c>
       <c r="AN282">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="AO282">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AP282">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ282">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR282">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS282">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AT282">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59825,25 +59825,25 @@
         <v>1.03</v>
       </c>
       <c r="AN283">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AO283">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="AP283">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ283">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR283">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS283">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AT283">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="AU283">
         <v>2</v>
@@ -60031,25 +60031,25 @@
         <v>1.41</v>
       </c>
       <c r="AN284">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="AO284">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AP284">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ284">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR284">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS284">
         <v>1.92</v>
       </c>
       <c r="AT284">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="AU284">
         <v>6</v>
@@ -60237,25 +60237,25 @@
         <v>0</v>
       </c>
       <c r="AN285">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AO285">
         <v>2.06</v>
       </c>
       <c r="AP285">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ285">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR285">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AS285">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AT285">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU285">
         <v>4</v>
@@ -60443,25 +60443,25 @@
         <v>1.92</v>
       </c>
       <c r="AN286">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AO286">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AP286">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ286">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR286">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AS286">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AT286">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="AU286">
         <v>9</v>
@@ -60649,25 +60649,25 @@
         <v>1.63</v>
       </c>
       <c r="AN287">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AO287">
-        <v>1.03</v>
+        <v>0.61</v>
       </c>
       <c r="AP287">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ287">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR287">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AS287">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AT287">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="AU287">
         <v>3</v>
@@ -60855,25 +60855,25 @@
         <v>1.64</v>
       </c>
       <c r="AN288">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AO288">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="AP288">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ288">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR288">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS288">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="AT288">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="AU288">
         <v>8</v>
@@ -61061,25 +61061,25 @@
         <v>1.32</v>
       </c>
       <c r="AN289">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="AO289">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AP289">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ289">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR289">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AS289">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT289">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="AU289">
         <v>2</v>
@@ -61267,25 +61267,25 @@
         <v>3.6</v>
       </c>
       <c r="AN290">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AO290">
+        <v>1.17</v>
+      </c>
+      <c r="AP290">
+        <v>2.11</v>
+      </c>
+      <c r="AQ290">
         <v>1.11</v>
       </c>
-      <c r="AP290">
-        <v>2.03</v>
-      </c>
-      <c r="AQ290">
-        <v>1.08</v>
-      </c>
       <c r="AR290">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AS290">
         <v>1.26</v>
       </c>
       <c r="AT290">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="AU290">
         <v>12</v>
@@ -61473,25 +61473,25 @@
         <v>1.5</v>
       </c>
       <c r="AN291">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="AO291">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AP291">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ291">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR291">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS291">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AT291">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="AU291">
         <v>4</v>
@@ -61679,25 +61679,25 @@
         <v>1.17</v>
       </c>
       <c r="AN292">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO292">
-        <v>1.14</v>
+        <v>0.76</v>
       </c>
       <c r="AP292">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ292">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR292">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS292">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT292">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU292">
         <v>3</v>
@@ -61885,25 +61885,25 @@
         <v>1.14</v>
       </c>
       <c r="AN293">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AO293">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AP293">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ293">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR293">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS293">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT293">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AU293">
         <v>4</v>
@@ -62091,25 +62091,25 @@
         <v>3.75</v>
       </c>
       <c r="AN294">
-        <v>0.97</v>
+        <v>1.41</v>
       </c>
       <c r="AO294">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP294">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ294">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR294">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="AS294">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="AT294">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="AU294">
         <v>11</v>
@@ -62297,22 +62297,22 @@
         <v>2.45</v>
       </c>
       <c r="AN295">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="AO295">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP295">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ295">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR295">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AS295">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT295">
         <v>3.45</v>
@@ -62503,25 +62503,25 @@
         <v>3.1</v>
       </c>
       <c r="AN296">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="AO296">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AP296">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ296">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR296">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AS296">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AT296">
-        <v>3.72</v>
+        <v>3.84</v>
       </c>
       <c r="AU296">
         <v>12</v>
@@ -62709,25 +62709,25 @@
         <v>0</v>
       </c>
       <c r="AN297">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="AO297">
-        <v>1.28</v>
+        <v>0.83</v>
       </c>
       <c r="AP297">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ297">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR297">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS297">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="AT297">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU297">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20232024.xlsx
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ7">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3181,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ8">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -3793,25 +3793,25 @@
         <v>1.5</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -4211,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR13">
         <v>2.39</v>
       </c>
       <c r="AS13">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.86</v>
+        <v>2.39</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4414,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR14">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4623,19 +4623,19 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR15">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>1.97</v>
       </c>
       <c r="AT15">
-        <v>2.93</v>
+        <v>1.97</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4826,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR16">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -5029,25 +5029,25 @@
         <v>1.44</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -5235,25 +5235,25 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR18">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS18">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5444,22 +5444,22 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR19">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AU19">
         <v>8</v>
@@ -5647,25 +5647,25 @@
         <v>2.3</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR20">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AS20">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <v>8</v>
@@ -5856,22 +5856,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR21">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AS21">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT21">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -6065,19 +6065,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR22">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AS22">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="AT22">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6265,25 +6265,25 @@
         <v>3.4</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ23">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR23">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="AT23">
-        <v>3.27</v>
+        <v>1.81</v>
       </c>
       <c r="AU23">
         <v>11</v>
@@ -6471,25 +6471,25 @@
         <v>1.68</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="AS24">
-        <v>1.3</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
-        <v>2.48</v>
+        <v>1.61</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6677,25 +6677,25 @@
         <v>1.94</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AT25">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6883,25 +6883,25 @@
         <v>1.31</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR26">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AS26">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -7089,25 +7089,25 @@
         <v>2.31</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="AU27">
         <v>9</v>
@@ -7298,22 +7298,22 @@
         <v>3</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7501,25 +7501,25 @@
         <v>1.38</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR29">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AS29">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>2.1</v>
       </c>
       <c r="AN30">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ30">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AS30">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7913,25 +7913,25 @@
         <v>1.11</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="AS31">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -8119,25 +8119,25 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR32">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="AT32">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AU32">
         <v>9</v>
@@ -8331,19 +8331,19 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ33">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR33">
+        <v>0.97</v>
+      </c>
+      <c r="AS33">
         <v>1.23</v>
       </c>
-      <c r="AS33">
-        <v>1.34</v>
-      </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8531,25 +8531,25 @@
         <v>2.6</v>
       </c>
       <c r="AN34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8737,25 +8737,25 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR35">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
         <v>2.19</v>
       </c>
       <c r="AT35">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8943,22 +8943,22 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ36">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR36">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="AS36">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
         <v>2.24</v>
@@ -9149,25 +9149,25 @@
         <v>2.06</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR37">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AS37">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="AT37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9355,25 +9355,25 @@
         <v>1.56</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS38">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT38">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="AU38">
         <v>7</v>
@@ -9561,25 +9561,25 @@
         <v>2.6</v>
       </c>
       <c r="AN39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ39">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR39">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AT39">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>3.22</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR40">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AS40">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="AT40">
-        <v>3.06</v>
+        <v>3.53</v>
       </c>
       <c r="AU40">
         <v>9</v>
@@ -9973,25 +9973,25 @@
         <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ41">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR41">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="AS41">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT41">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.5</v>
       </c>
       <c r="AN42">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AO42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AS42">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10385,22 +10385,22 @@
         <v>1.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR43">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="AS43">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT43">
         <v>2.35</v>
@@ -10591,25 +10591,25 @@
         <v>8</v>
       </c>
       <c r="AN44">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AS44">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>3.84</v>
+        <v>3.62</v>
       </c>
       <c r="AU44">
         <v>11</v>
@@ -10797,25 +10797,25 @@
         <v>2.3</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR45">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS45">
         <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -11003,25 +11003,25 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="AU46">
         <v>7</v>
@@ -11209,25 +11209,25 @@
         <v>1.12</v>
       </c>
       <c r="AN47">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR47">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS47">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11415,25 +11415,25 @@
         <v>1.17</v>
       </c>
       <c r="AN48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR48">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11621,25 +11621,25 @@
         <v>1.05</v>
       </c>
       <c r="AN49">
+        <v>1.67</v>
+      </c>
+      <c r="AO49">
         <v>1.5</v>
       </c>
-      <c r="AO49">
-        <v>2.5</v>
-      </c>
       <c r="AP49">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR49">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AS49">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="AT49">
-        <v>4.17</v>
+        <v>4.4</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11827,25 +11827,25 @@
         <v>0</v>
       </c>
       <c r="AN50">
+        <v>1.67</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
         <v>1.5</v>
       </c>
-      <c r="AO50">
-        <v>1.83</v>
-      </c>
-      <c r="AP50">
-        <v>1.03</v>
-      </c>
       <c r="AQ50">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR50">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT50">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -12033,25 +12033,25 @@
         <v>4.65</v>
       </c>
       <c r="AN51">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
       </c>
       <c r="AS51">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="AT51">
-        <v>3.11</v>
+        <v>2.82</v>
       </c>
       <c r="AU51">
         <v>11</v>
@@ -12239,25 +12239,25 @@
         <v>1.25</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ52">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR52">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12448,22 +12448,22 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR53">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="AT53">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12651,25 +12651,25 @@
         <v>1.83</v>
       </c>
       <c r="AN54">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS54">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.81</v>
+        <v>3.02</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12857,25 +12857,25 @@
         <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="AU55">
         <v>10</v>
@@ -13063,25 +13063,25 @@
         <v>4.05</v>
       </c>
       <c r="AN56">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ56">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR56">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AS56">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="AT56">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AU56">
         <v>13</v>
@@ -13269,25 +13269,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13475,22 +13475,22 @@
         <v>1.5</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO58">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR58">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
       <c r="AS58">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AT58">
         <v>2.49</v>
@@ -13681,25 +13681,25 @@
         <v>1.55</v>
       </c>
       <c r="AN59">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO59">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR59">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT59">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13887,25 +13887,25 @@
         <v>1.05</v>
       </c>
       <c r="AN60">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AO60">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR60">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AS60">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="AT60">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU60">
         <v>3</v>
@@ -14093,25 +14093,25 @@
         <v>0</v>
       </c>
       <c r="AN61">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AO61">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AS61">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14299,25 +14299,25 @@
         <v>2.5</v>
       </c>
       <c r="AN62">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR62">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.41</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>2.38</v>
       </c>
       <c r="AN63">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="AO63">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>1.29</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO64">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ64">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR64">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS64">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
         <v>3.05</v>
@@ -14917,25 +14917,25 @@
         <v>6</v>
       </c>
       <c r="AN65">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>0.88</v>
+        <v>0.2</v>
       </c>
       <c r="AP65">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AS65">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="AU65">
         <v>10</v>
@@ -15123,25 +15123,25 @@
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO66">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR66">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AS66">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT66">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15329,25 +15329,25 @@
         <v>1.53</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ67">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR67">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AS67">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="AT67">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="AU67">
         <v>3</v>
@@ -15538,22 +15538,22 @@
         <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AP68">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR68">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS68">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>3.79</v>
+        <v>3.54</v>
       </c>
       <c r="AU68">
         <v>2</v>
@@ -15741,25 +15741,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO69">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS69">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT69">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15947,25 +15947,25 @@
         <v>1.62</v>
       </c>
       <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>0.25</v>
+      </c>
+      <c r="AP70">
         <v>1.5</v>
       </c>
-      <c r="AO70">
-        <v>1.25</v>
-      </c>
-      <c r="AP70">
-        <v>1.03</v>
-      </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16153,25 +16153,25 @@
         <v>1.6</v>
       </c>
       <c r="AN71">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AO71">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ71">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR71">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS71">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="AT71">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -16359,25 +16359,25 @@
         <v>2.05</v>
       </c>
       <c r="AN72">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="AO72">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP72">
+        <v>1.47</v>
+      </c>
+      <c r="AQ72">
         <v>1.11</v>
       </c>
-      <c r="AQ72">
-        <v>1.08</v>
-      </c>
       <c r="AR72">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT72">
-        <v>2.73</v>
+        <v>3.11</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16565,25 +16565,25 @@
         <v>1.38</v>
       </c>
       <c r="AN73">
-        <v>1.11</v>
+        <v>2.25</v>
       </c>
       <c r="AO73">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR73">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16771,25 +16771,25 @@
         <v>1.8</v>
       </c>
       <c r="AN74">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AS74">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AT74">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AU74">
         <v>5</v>
@@ -16977,25 +16977,25 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ75">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="AS75">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>3.37</v>
+        <v>3.63</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.07</v>
       </c>
       <c r="AN76">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO76">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR76">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AS76">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="AT76">
-        <v>3.86</v>
+        <v>4.09</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17389,25 +17389,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR77">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AS77">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AT77">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -17598,22 +17598,22 @@
         <v>2.5</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP78">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AS78">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="AU78">
         <v>10</v>
@@ -17801,25 +17801,25 @@
         <v>1.4</v>
       </c>
       <c r="AN79">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO79">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS79">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AT79">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -18007,25 +18007,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR80">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AS80">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AU80">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.18</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR81">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS81">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="AU81">
         <v>3</v>
@@ -18419,25 +18419,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO82">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AP82">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR82">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AT82">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18625,25 +18625,25 @@
         <v>1.33</v>
       </c>
       <c r="AN83">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO83">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="AP83">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR83">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18831,25 +18831,25 @@
         <v>1.7</v>
       </c>
       <c r="AN84">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AO84">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR84">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS84">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="AT84">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -19040,22 +19040,22 @@
         <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="AP85">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR85">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AT85">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>1.5</v>
       </c>
       <c r="AN86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO86">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AP86">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19449,25 +19449,25 @@
         <v>1.06</v>
       </c>
       <c r="AN87">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AP87">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ87">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS87">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AT87">
-        <v>3.93</v>
+        <v>3.83</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19655,25 +19655,25 @@
         <v>1.59</v>
       </c>
       <c r="AN88">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="AO88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR88">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT88">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU88">
         <v>3</v>
@@ -19861,25 +19861,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ89">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR89">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AS89">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -20067,25 +20067,25 @@
         <v>1.06</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO90">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ90">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR90">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS90">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AT90">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="AU90">
         <v>2</v>
@@ -20273,25 +20273,25 @@
         <v>1.76</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AT91">
-        <v>2.71</v>
+        <v>3.09</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20479,25 +20479,25 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AO92">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR92">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS92">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="AT92">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20685,25 +20685,25 @@
         <v>1.71</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO93">
-        <v>1.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR93">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20891,25 +20891,25 @@
         <v>2.9</v>
       </c>
       <c r="AN94">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ94">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR94">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="AS94">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT94">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -21097,25 +21097,25 @@
         <v>2.32</v>
       </c>
       <c r="AN95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO95">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="AP95">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AS95">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AT95">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="AU95">
         <v>7</v>
@@ -21303,25 +21303,25 @@
         <v>3.3</v>
       </c>
       <c r="AN96">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP96">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ96">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="AS96">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT96">
-        <v>4.24</v>
+        <v>4.02</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21509,25 +21509,25 @@
         <v>6.95</v>
       </c>
       <c r="AN97">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP97">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ97">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR97">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="AS97">
-        <v>1.02</v>
+        <v>0.77</v>
       </c>
       <c r="AT97">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="AU97">
         <v>9</v>
@@ -21715,25 +21715,25 @@
         <v>2.63</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO98">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS98">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21921,25 +21921,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ99">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR99">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AS99">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="AT99">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22127,25 +22127,25 @@
         <v>1.62</v>
       </c>
       <c r="AN100">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP100">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR100">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="AU100">
         <v>8</v>
@@ -22333,25 +22333,25 @@
         <v>1.11</v>
       </c>
       <c r="AN101">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO101">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="AP101">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR101">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS101">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="AT101">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22539,25 +22539,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ102">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR102">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AS102">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22745,25 +22745,25 @@
         <v>1.59</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
-        <v>2.68</v>
+        <v>2.77</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22951,22 +22951,22 @@
         <v>0</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO104">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="AP104">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ104">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR104">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AS104">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT104">
         <v>2.05</v>
@@ -23157,25 +23157,25 @@
         <v>1.6</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO105">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="AS105">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23363,25 +23363,25 @@
         <v>1.55</v>
       </c>
       <c r="AN106">
+        <v>1.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.83</v>
+      </c>
+      <c r="AP106">
+        <v>2.11</v>
+      </c>
+      <c r="AQ106">
+        <v>0.58</v>
+      </c>
+      <c r="AR106">
+        <v>1.57</v>
+      </c>
+      <c r="AS106">
         <v>1.15</v>
       </c>
-      <c r="AO106">
-        <v>1.38</v>
-      </c>
-      <c r="AP106">
-        <v>1.65</v>
-      </c>
-      <c r="AQ106">
-        <v>1.03</v>
-      </c>
-      <c r="AR106">
-        <v>1.6</v>
-      </c>
-      <c r="AS106">
-        <v>1.39</v>
-      </c>
       <c r="AT106">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -23569,25 +23569,25 @@
         <v>1.44</v>
       </c>
       <c r="AN107">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AO107">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ107">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AS107">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT107">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AU107">
         <v>6</v>
@@ -23775,25 +23775,25 @@
         <v>1.06</v>
       </c>
       <c r="AN108">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="AO108">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AP108">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR108">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AS108">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AT108">
-        <v>3.74</v>
+        <v>3.84</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23981,25 +23981,25 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO109">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ109">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR109">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AS109">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="AT109">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24187,25 +24187,25 @@
         <v>1.54</v>
       </c>
       <c r="AN110">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.44</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>1.21</v>
+      </c>
+      <c r="AS110">
         <v>1.23</v>
       </c>
-      <c r="AP110">
-        <v>1.08</v>
-      </c>
-      <c r="AQ110">
-        <v>1.27</v>
-      </c>
-      <c r="AR110">
-        <v>1.14</v>
-      </c>
-      <c r="AS110">
-        <v>1.21</v>
-      </c>
       <c r="AT110">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24393,25 +24393,25 @@
         <v>2.4</v>
       </c>
       <c r="AN111">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AO111">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ111">
+        <v>1.16</v>
+      </c>
+      <c r="AR111">
+        <v>2.46</v>
+      </c>
+      <c r="AS111">
         <v>1.54</v>
       </c>
-      <c r="AR111">
-        <v>2.24</v>
-      </c>
-      <c r="AS111">
-        <v>1.56</v>
-      </c>
       <c r="AT111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AU111">
         <v>5</v>
@@ -24599,25 +24599,25 @@
         <v>1.62</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
       <c r="AP112">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR112">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="AS112">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT112">
-        <v>3.36</v>
+        <v>3.62</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24805,25 +24805,25 @@
         <v>1.3</v>
       </c>
       <c r="AN113">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="AO113">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP113">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ113">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR113">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AS113">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AT113">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -25011,25 +25011,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO114">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT114">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25217,25 +25217,25 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="AO115">
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AS115">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT115">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25423,25 +25423,25 @@
         <v>1.06</v>
       </c>
       <c r="AN116">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AO116">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR116">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AS116">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT116">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="AU116">
         <v>4</v>
@@ -25629,25 +25629,25 @@
         <v>2.15</v>
       </c>
       <c r="AN117">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="AO117">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AP117">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ117">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>3.91</v>
+        <v>3.73</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25835,25 +25835,25 @@
         <v>1.55</v>
       </c>
       <c r="AN118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ118">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR118">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS118">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT118">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AU118">
         <v>2</v>
@@ -26041,25 +26041,25 @@
         <v>1.3</v>
       </c>
       <c r="AN119">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AO119">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR119">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AS119">
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26247,25 +26247,25 @@
         <v>1.55</v>
       </c>
       <c r="AN120">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AP120">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AU120">
         <v>6</v>
@@ -26453,25 +26453,25 @@
         <v>1.55</v>
       </c>
       <c r="AN121">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ121">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR121">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS121">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26659,22 +26659,22 @@
         <v>1.73</v>
       </c>
       <c r="AN122">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO122">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR122">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AS122">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AT122">
         <v>2.64</v>
@@ -26865,25 +26865,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO123">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ123">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR123">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS123">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AT123">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -27071,25 +27071,25 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="AU124">
         <v>8</v>
@@ -27277,25 +27277,25 @@
         <v>3.1</v>
       </c>
       <c r="AN125">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AO125">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="AP125">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ125">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR125">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AS125">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AT125">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="AU125">
         <v>11</v>
@@ -27483,25 +27483,25 @@
         <v>1.6</v>
       </c>
       <c r="AN126">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP126">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>2.77</v>
+        <v>3.04</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27689,25 +27689,25 @@
         <v>2.45</v>
       </c>
       <c r="AN127">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AP127">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ127">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR127">
+        <v>1.56</v>
+      </c>
+      <c r="AS127">
         <v>1.62</v>
       </c>
-      <c r="AS127">
-        <v>1.55</v>
-      </c>
       <c r="AT127">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27895,25 +27895,25 @@
         <v>1.02</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO128">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ128">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR128">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS128">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>3.61</v>
+        <v>3.45</v>
       </c>
       <c r="AU128">
         <v>0</v>
@@ -28101,25 +28101,25 @@
         <v>2.5</v>
       </c>
       <c r="AN129">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AO129">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR129">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU129">
         <v>6</v>
@@ -28307,25 +28307,25 @@
         <v>1.25</v>
       </c>
       <c r="AN130">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR130">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS130">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AT130">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AU130">
         <v>0</v>
@@ -28513,25 +28513,25 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AO131">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AP131">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR131">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AS131">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
       <c r="AT131">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="AU131">
         <v>11</v>
@@ -28722,22 +28722,22 @@
         <v>0.88</v>
       </c>
       <c r="AO132">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AS132">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AT132">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28925,25 +28925,25 @@
         <v>1.5</v>
       </c>
       <c r="AN133">
+        <v>0.75</v>
+      </c>
+      <c r="AO133">
         <v>0.63</v>
       </c>
-      <c r="AO133">
-        <v>1.31</v>
-      </c>
       <c r="AP133">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ133">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR133">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AT133">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -29131,25 +29131,25 @@
         <v>1.25</v>
       </c>
       <c r="AN134">
+        <v>2.14</v>
+      </c>
+      <c r="AO134">
         <v>1.25</v>
       </c>
-      <c r="AO134">
+      <c r="AP134">
         <v>1.44</v>
       </c>
-      <c r="AP134">
-        <v>1.08</v>
-      </c>
       <c r="AQ134">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR134">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29337,25 +29337,25 @@
         <v>1.44</v>
       </c>
       <c r="AN135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29543,25 +29543,25 @@
         <v>1.11</v>
       </c>
       <c r="AN136">
-        <v>0.8100000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="AO136">
-        <v>2.69</v>
+        <v>2.75</v>
       </c>
       <c r="AP136">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="AS136">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AT136">
-        <v>3.65</v>
+        <v>3.83</v>
       </c>
       <c r="AU136">
         <v>6</v>
@@ -29749,25 +29749,25 @@
         <v>2.4</v>
       </c>
       <c r="AN137">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO137">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AS137">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT137">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="AU137">
         <v>7</v>
@@ -29955,25 +29955,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AO138">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR138">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="AS138">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AT138">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="AU138">
         <v>4</v>
@@ -30161,25 +30161,25 @@
         <v>1.68</v>
       </c>
       <c r="AN139">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AO139">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP139">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR139">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AS139">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AT139">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30367,25 +30367,25 @@
         <v>1.42</v>
       </c>
       <c r="AN140">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO140">
+        <v>0.75</v>
+      </c>
+      <c r="AP140">
         <v>1.47</v>
       </c>
-      <c r="AP140">
-        <v>1.11</v>
-      </c>
       <c r="AQ140">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR140">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS140">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT140">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30573,25 +30573,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AS141">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT141">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30779,25 +30779,25 @@
         <v>1.03</v>
       </c>
       <c r="AN142">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO142">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ142">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR142">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AS142">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AT142">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30985,25 +30985,25 @@
         <v>3.75</v>
       </c>
       <c r="AN143">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AO143">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ143">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR143">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT143">
-        <v>3.63</v>
+        <v>3.81</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -31191,25 +31191,25 @@
         <v>2.88</v>
       </c>
       <c r="AN144">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AO144">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP144">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
+        <v>0.74</v>
+      </c>
+      <c r="AR144">
+        <v>1.98</v>
+      </c>
+      <c r="AS144">
         <v>1.08</v>
       </c>
-      <c r="AR144">
-        <v>1.7</v>
-      </c>
-      <c r="AS144">
-        <v>1.22</v>
-      </c>
       <c r="AT144">
-        <v>2.92</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31397,25 +31397,25 @@
         <v>2.3</v>
       </c>
       <c r="AN145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR145">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS145">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU145">
         <v>2</v>
@@ -31603,25 +31603,25 @@
         <v>1.7</v>
       </c>
       <c r="AN146">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO146">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP146">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR146">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS146">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT146">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="AU146">
         <v>2</v>
@@ -31812,22 +31812,22 @@
         <v>2.44</v>
       </c>
       <c r="AO147">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ147">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR147">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AS147">
-        <v>2.32</v>
+        <v>2.13</v>
       </c>
       <c r="AT147">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="AU147">
         <v>5</v>
@@ -32015,25 +32015,25 @@
         <v>1.7</v>
       </c>
       <c r="AN148">
-        <v>1.61</v>
+        <v>2.33</v>
       </c>
       <c r="AO148">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AS148">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AT148">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32221,25 +32221,25 @@
         <v>2.05</v>
       </c>
       <c r="AN149">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO149">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AP149">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR149">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AT149">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32427,25 +32427,25 @@
         <v>1.3</v>
       </c>
       <c r="AN150">
-        <v>1.39</v>
+        <v>2.11</v>
       </c>
       <c r="AO150">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR150">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS150">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT150">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32636,22 +32636,22 @@
         <v>1.44</v>
       </c>
       <c r="AO151">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR151">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS151">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
       <c r="AT151">
-        <v>2.62</v>
+        <v>2.33</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32839,25 +32839,25 @@
         <v>1.51</v>
       </c>
       <c r="AN152">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="AO152">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AT152">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33045,25 +33045,25 @@
         <v>3.1</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO153">
+        <v>1.44</v>
+      </c>
+      <c r="AP153">
+        <v>2.11</v>
+      </c>
+      <c r="AQ153">
         <v>1.11</v>
       </c>
-      <c r="AP153">
-        <v>2.03</v>
-      </c>
-      <c r="AQ153">
-        <v>1.08</v>
-      </c>
       <c r="AR153">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AS153">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT153">
-        <v>2.97</v>
+        <v>3.26</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -33251,25 +33251,25 @@
         <v>1.22</v>
       </c>
       <c r="AN154">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="AO154">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AP154">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ154">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR154">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AS154">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT154">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="AU154">
         <v>5</v>
@@ -33457,25 +33457,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AO155">
-        <v>1.53</v>
+        <v>0.89</v>
       </c>
       <c r="AP155">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33663,25 +33663,25 @@
         <v>1.08</v>
       </c>
       <c r="AN156">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO156">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP156">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ156">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR156">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AT156">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33869,25 +33869,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="AO157">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR157">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="AT157">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU157">
         <v>3</v>
@@ -34075,25 +34075,25 @@
         <v>6</v>
       </c>
       <c r="AN158">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="AO158">
-        <v>1.47</v>
+        <v>0.67</v>
       </c>
       <c r="AP158">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ158">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
       <c r="AS158">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="AU158">
         <v>6</v>
@@ -34281,25 +34281,25 @@
         <v>1.53</v>
       </c>
       <c r="AN159">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AO159">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP159">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR159">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AT159">
-        <v>2.97</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>5</v>
@@ -34487,25 +34487,25 @@
         <v>1.22</v>
       </c>
       <c r="AN160">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AO160">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="AP160">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ160">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR160">
         <v>1.32</v>
       </c>
       <c r="AS160">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AT160">
-        <v>3.01</v>
+        <v>2.77</v>
       </c>
       <c r="AU160">
         <v>6</v>
@@ -34693,25 +34693,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
+        <v>0.78</v>
+      </c>
+      <c r="AO161">
         <v>1.11</v>
       </c>
-      <c r="AO161">
-        <v>1.32</v>
-      </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR161">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS161">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="AU161">
         <v>4</v>
@@ -34899,25 +34899,25 @@
         <v>1.03</v>
       </c>
       <c r="AN162">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AO162">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AP162">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR162">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS162">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="AT162">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -35108,22 +35108,22 @@
         <v>2.5</v>
       </c>
       <c r="AO163">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ163">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AS163">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT163">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35314,22 +35314,22 @@
         <v>1.6</v>
       </c>
       <c r="AO164">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP164">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ164">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR164">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS164">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AT164">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU164">
         <v>9</v>
@@ -35517,25 +35517,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO165">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR165">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT165">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AO166">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AP166">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR166">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AS166">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT166">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="AU166">
         <v>4</v>
@@ -35929,25 +35929,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO167">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="AP167">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR167">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AS167">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AT167">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36135,25 +36135,25 @@
         <v>1.85</v>
       </c>
       <c r="AN168">
-        <v>0.85</v>
+        <v>1.2</v>
       </c>
       <c r="AO168">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR168">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT168">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="AU168">
         <v>2</v>
@@ -36341,25 +36341,25 @@
         <v>1.65</v>
       </c>
       <c r="AN169">
+        <v>2.2</v>
+      </c>
+      <c r="AO169">
         <v>1.4</v>
       </c>
-      <c r="AO169">
-        <v>1.1</v>
-      </c>
       <c r="AP169">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR169">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS169">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT169">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="AU169">
         <v>4</v>
@@ -36547,25 +36547,25 @@
         <v>1.5</v>
       </c>
       <c r="AN170">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO170">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR170">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS170">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AT170">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36753,25 +36753,25 @@
         <v>1.04</v>
       </c>
       <c r="AN171">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="AO171">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AP171">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ171">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR171">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AS171">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AT171">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36959,25 +36959,25 @@
         <v>4.33</v>
       </c>
       <c r="AN172">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AO172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP172">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ172">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR172">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="AS172">
         <v>1.63</v>
       </c>
       <c r="AT172">
-        <v>3.9</v>
+        <v>4.08</v>
       </c>
       <c r="AU172">
         <v>8</v>
@@ -37165,25 +37165,25 @@
         <v>1.22</v>
       </c>
       <c r="AN173">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO173">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AP173">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR173">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS173">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU173">
         <v>9</v>
@@ -37371,25 +37371,25 @@
         <v>1.45</v>
       </c>
       <c r="AN174">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO174">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ174">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR174">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AS174">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AT174">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37577,25 +37577,25 @@
         <v>1.5</v>
       </c>
       <c r="AN175">
-        <v>1.19</v>
+        <v>0.8</v>
       </c>
       <c r="AO175">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
       <c r="AP175">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ175">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR175">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT175">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37783,25 +37783,25 @@
         <v>2.15</v>
       </c>
       <c r="AN176">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO176">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>1.17</v>
+      </c>
+      <c r="AR176">
         <v>1.65</v>
       </c>
-      <c r="AQ176">
-        <v>1.27</v>
-      </c>
-      <c r="AR176">
-        <v>1.57</v>
-      </c>
       <c r="AS176">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AT176">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU176">
         <v>9</v>
@@ -37989,25 +37989,25 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO177">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AP177">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR177">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AS177">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AT177">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AU177">
         <v>4</v>
@@ -38195,25 +38195,25 @@
         <v>1.95</v>
       </c>
       <c r="AN178">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AO178">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ178">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS178">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT178">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="AU178">
         <v>5</v>
@@ -38401,25 +38401,25 @@
         <v>2.55</v>
       </c>
       <c r="AN179">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AO179">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR179">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS179">
         <v>1.28</v>
       </c>
       <c r="AT179">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU179">
         <v>6</v>
@@ -38607,25 +38607,25 @@
         <v>1.3</v>
       </c>
       <c r="AN180">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>1.36</v>
+        <v>0.82</v>
       </c>
       <c r="AP180">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ180">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR180">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS180">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU180">
         <v>4</v>
@@ -38813,25 +38813,25 @@
         <v>1.04</v>
       </c>
       <c r="AN181">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AO181">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AP181">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR181">
-        <v>1.69</v>
+        <v>1.92</v>
       </c>
       <c r="AS181">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="AT181">
-        <v>3.95</v>
+        <v>4.03</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -39022,22 +39022,22 @@
         <v>2.55</v>
       </c>
       <c r="AO182">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ182">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR182">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="AS182">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AT182">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="AU182">
         <v>8</v>
@@ -39225,25 +39225,25 @@
         <v>2.05</v>
       </c>
       <c r="AN183">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AO183">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="AP183">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ183">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR183">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AS183">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AT183">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39431,25 +39431,25 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="AO184">
+        <v>1.27</v>
+      </c>
+      <c r="AP184">
+        <v>1.58</v>
+      </c>
+      <c r="AQ184">
+        <v>0.79</v>
+      </c>
+      <c r="AR184">
         <v>1.45</v>
       </c>
-      <c r="AP184">
-        <v>1.3</v>
-      </c>
-      <c r="AQ184">
-        <v>1.24</v>
-      </c>
-      <c r="AR184">
-        <v>1.37</v>
-      </c>
       <c r="AS184">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="AT184">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="AU184">
         <v>11</v>
@@ -39637,25 +39637,25 @@
         <v>1.67</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="AO185">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AP185">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR185">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS185">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AT185">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39843,25 +39843,25 @@
         <v>1.52</v>
       </c>
       <c r="AN186">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO186">
-        <v>0.96</v>
+        <v>0.45</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ186">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR186">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS186">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AT186">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -40049,25 +40049,25 @@
         <v>1.18</v>
       </c>
       <c r="AN187">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO187">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP187">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ187">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AT187">
-        <v>2.95</v>
+        <v>2.74</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40255,25 +40255,25 @@
         <v>1.5</v>
       </c>
       <c r="AN188">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AO188">
-        <v>1.35</v>
+        <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ188">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR188">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS188">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT188">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AU188">
         <v>4</v>
@@ -40461,25 +40461,25 @@
         <v>1.4</v>
       </c>
       <c r="AN189">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AO189">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="AP189">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ189">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR189">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="AS189">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AT189">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40667,25 +40667,25 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AO190">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AP190">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR190">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AS190">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AT190">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU190">
         <v>2</v>
@@ -40873,25 +40873,25 @@
         <v>2.25</v>
       </c>
       <c r="AN191">
-        <v>1.35</v>
+        <v>1.91</v>
       </c>
       <c r="AO191">
+        <v>0.55</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+      <c r="AQ191">
+        <v>0.58</v>
+      </c>
+      <c r="AR191">
+        <v>1.72</v>
+      </c>
+      <c r="AS191">
         <v>1.22</v>
       </c>
-      <c r="AP191">
-        <v>1.65</v>
-      </c>
-      <c r="AQ191">
-        <v>1.03</v>
-      </c>
-      <c r="AR191">
-        <v>1.6</v>
-      </c>
-      <c r="AS191">
-        <v>1.39</v>
-      </c>
       <c r="AT191">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU191">
         <v>11</v>
@@ -41079,25 +41079,25 @@
         <v>2</v>
       </c>
       <c r="AN192">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AO192">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AP192">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ192">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR192">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AS192">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AT192">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
       <c r="AU192">
         <v>13</v>
@@ -41285,25 +41285,25 @@
         <v>1.5</v>
       </c>
       <c r="AN193">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO193">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR193">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS193">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AT193">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41491,25 +41491,25 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AO194">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP194">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AS194">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT194">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU194">
         <v>7</v>
@@ -41697,25 +41697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN195">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AO195">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR195">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS195">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="AT195">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41903,25 +41903,25 @@
         <v>2.5</v>
       </c>
       <c r="AN196">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO196">
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ196">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR196">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AS196">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -42109,25 +42109,25 @@
         <v>1.7</v>
       </c>
       <c r="AN197">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO197">
         <v>0.58</v>
       </c>
       <c r="AP197">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR197">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AS197">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="AT197">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AU197">
         <v>4</v>
@@ -42315,25 +42315,25 @@
         <v>1.25</v>
       </c>
       <c r="AN198">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>1.42</v>
+        <v>0.83</v>
       </c>
       <c r="AP198">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ198">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR198">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AT198">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42521,25 +42521,25 @@
         <v>1.85</v>
       </c>
       <c r="AN199">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO199">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ199">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR199">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT199">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42727,25 +42727,25 @@
         <v>4</v>
       </c>
       <c r="AN200">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AO200">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AS200">
         <v>1.28</v>
       </c>
       <c r="AT200">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="AU200">
         <v>8</v>
@@ -42933,25 +42933,25 @@
         <v>1.01</v>
       </c>
       <c r="AN201">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO201">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="AP201">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR201">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS201">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AT201">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -43139,25 +43139,25 @@
         <v>1.53</v>
       </c>
       <c r="AN202">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AO202">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="AP202">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ202">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR202">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AS202">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT202">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43345,25 +43345,25 @@
         <v>1.22</v>
       </c>
       <c r="AN203">
+        <v>1.83</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>1.5</v>
+      </c>
+      <c r="AQ203">
         <v>1.16</v>
       </c>
-      <c r="AO203">
-        <v>1.56</v>
-      </c>
-      <c r="AP203">
-        <v>1.03</v>
-      </c>
-      <c r="AQ203">
-        <v>1.54</v>
-      </c>
       <c r="AR203">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AS203">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AT203">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43551,25 +43551,25 @@
         <v>1.29</v>
       </c>
       <c r="AN204">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AO204">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP204">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ204">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR204">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AS204">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AT204">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43757,25 +43757,25 @@
         <v>1.83</v>
       </c>
       <c r="AN205">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO205">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR205">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AS205">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT205">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43963,25 +43963,25 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AO206">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AP206">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR206">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS206">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT206">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="AU206">
         <v>3</v>
@@ -44169,25 +44169,25 @@
         <v>4.5</v>
       </c>
       <c r="AN207">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AO207">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AP207">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ207">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR207">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="AS207">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT207">
-        <v>3.75</v>
+        <v>4.01</v>
       </c>
       <c r="AU207">
         <v>13</v>
@@ -44375,25 +44375,25 @@
         <v>1.67</v>
       </c>
       <c r="AN208">
-        <v>0.88</v>
+        <v>1.17</v>
       </c>
       <c r="AO208">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ208">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR208">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AS208">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AT208">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44581,25 +44581,25 @@
         <v>1.62</v>
       </c>
       <c r="AN209">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AO209">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ209">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR209">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AS209">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT209">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="AU209">
         <v>3</v>
@@ -44787,25 +44787,25 @@
         <v>2.05</v>
       </c>
       <c r="AN210">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AO210">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="AP210">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR210">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS210">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT210">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -44996,22 +44996,22 @@
         <v>0.54</v>
       </c>
       <c r="AO211">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ211">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR211">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="AS211">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT211">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU211">
         <v>2</v>
@@ -45199,25 +45199,25 @@
         <v>1.62</v>
       </c>
       <c r="AN212">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AO212">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="AP212">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ212">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR212">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS212">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT212">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45405,25 +45405,25 @@
         <v>2.85</v>
       </c>
       <c r="AN213">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="AO213">
-        <v>1.15</v>
+        <v>0.54</v>
       </c>
       <c r="AP213">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="AQ213">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR213">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AT213">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45611,25 +45611,25 @@
         <v>1.73</v>
       </c>
       <c r="AN214">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AO214">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ214">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR214">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AS214">
         <v>1.26</v>
       </c>
       <c r="AT214">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AU214">
         <v>8</v>
@@ -45817,25 +45817,25 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="AO215">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AP215">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR215">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="AT215">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="AU215">
         <v>4</v>
@@ -46023,25 +46023,25 @@
         <v>1.03</v>
       </c>
       <c r="AN216">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AO216">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AP216">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ216">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR216">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AS216">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AT216">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="AU216">
         <v>3</v>
@@ -46229,25 +46229,25 @@
         <v>3.75</v>
       </c>
       <c r="AN217">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AO217">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AP217">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR217">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AS217">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AT217">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46435,25 +46435,25 @@
         <v>1.33</v>
       </c>
       <c r="AN218">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AO218">
-        <v>2.07</v>
+        <v>2.23</v>
       </c>
       <c r="AP218">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ218">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS218">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AT218">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="AU218">
         <v>5</v>
@@ -46641,25 +46641,25 @@
         <v>1.62</v>
       </c>
       <c r="AN219">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="AO219">
-        <v>1.59</v>
+        <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR219">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AS219">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT219">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46847,25 +46847,25 @@
         <v>1.95</v>
       </c>
       <c r="AN220">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AO220">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AP220">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR220">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS220">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="AT220">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="AU220">
         <v>6</v>
@@ -47053,25 +47053,25 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AO221">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="AP221">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ221">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR221">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AT221">
-        <v>2.53</v>
+        <v>2.66</v>
       </c>
       <c r="AU221">
         <v>7</v>
@@ -47259,25 +47259,25 @@
         <v>1.17</v>
       </c>
       <c r="AN222">
-        <v>1.11</v>
+        <v>1.77</v>
       </c>
       <c r="AO222">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="AP222">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ222">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AS222">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AT222">
-        <v>3.37</v>
+        <v>3.43</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47468,22 +47468,22 @@
         <v>1.15</v>
       </c>
       <c r="AO223">
-        <v>0.96</v>
+        <v>0.62</v>
       </c>
       <c r="AP223">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ223">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR223">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AT223">
-        <v>2.66</v>
+        <v>2.49</v>
       </c>
       <c r="AU223">
         <v>5</v>
@@ -47671,25 +47671,25 @@
         <v>6.6</v>
       </c>
       <c r="AN224">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AO224">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AP224">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ224">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS224">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AT224">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="AU224">
         <v>7</v>
@@ -47877,25 +47877,25 @@
         <v>1.74</v>
       </c>
       <c r="AN225">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AO225">
-        <v>1.04</v>
+        <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR225">
         <v>1.26</v>
       </c>
       <c r="AS225">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT225">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -48083,25 +48083,25 @@
         <v>1.36</v>
       </c>
       <c r="AN226">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="AO226">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP226">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ226">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AR226">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS226">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT226">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="AU226">
         <v>2</v>
@@ -48289,25 +48289,25 @@
         <v>1.77</v>
       </c>
       <c r="AN227">
+        <v>1.93</v>
+      </c>
+      <c r="AO227">
+        <v>1.29</v>
+      </c>
+      <c r="AP227">
         <v>2.11</v>
       </c>
-      <c r="AO227">
-        <v>1.57</v>
-      </c>
-      <c r="AP227">
-        <v>2.03</v>
-      </c>
       <c r="AQ227">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="AR227">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="AS227">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT227">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48495,22 +48495,22 @@
         <v>1.83</v>
       </c>
       <c r="AN228">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO228">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AP228">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR228">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS228">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT228">
         <v>2.76</v>
@@ -48704,22 +48704,22 @@
         <v>0.5</v>
       </c>
       <c r="AO229">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AP229">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ229">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AR229">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AS229">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="AT229">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48907,25 +48907,25 @@
         <v>1.9</v>
       </c>
       <c r="AN230">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AO230">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="AP230">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR230">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS230">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU230">
         <v>9</v>
@@ -49113,25 +49113,25 @@
         <v>3.25</v>
       </c>
       <c r="AN231">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AO231">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AP231">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ231">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR231">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="AS231">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="AU231">
         <v>5</v>
@@ -49319,25 +49319,25 @@
         <v>1.55</v>
       </c>
       <c r="AN232">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO232">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ232">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AR232">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS232">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AU232">
         <v>7</v>
@@ -49525,25 +49525,25 @@
         <v>0</v>
       </c>
       <c r="AN233">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO233">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AP233">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>1.24</v>
+        <v>0.79</v>
       </c>
       <c r="AR233">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS233">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="AT233">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AU233">
         <v>4</v>
@@ -49731,25 +49731,25 @@
         <v>1.52</v>
       </c>
       <c r="AN234">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO234">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="AP234">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AQ234">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="AR234">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS234">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT234">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="AU234">
         <v>8</v>
@@ -49937,25 +49937,25 @@
         <v>2.35</v>
       </c>
       <c r="AN235">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AO235">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AP235">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AQ235">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR235">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS235">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AT235">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AU235">
         <v>4</v>
@@ -50143,25 +50143,25 @@
         <v>6.6</v>
       </c>
       <c r="AN236">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="AO236">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AP236">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="AQ236">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR236">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT236">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="AU236">
         <v>9</v>
@@ -50349,25 +50349,25 @@
         <v>1.27</v>
       </c>
       <c r="AN237">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AO237">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AQ237">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="AR237">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AT237">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="AU237">
         <v>6</v>
@@ -50555,25 +50555,25 @@
         <v>1.65</v>
       </c>
       <c r="AN238">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="AO238">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="AP238">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ238">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR238">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AS238">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT238">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50761,25 +50761,25 @@
         <v>0</v>
       </c>
       <c r="AN239">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AO239">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP239">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR239">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS239">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT239">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="AU239">
         <v>2</v>
@@ -50970,22 +50970,22 @@
         <v>1.07</v>
       </c>
       <c r="AO240">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ240">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR240">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS240">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AU240">
         <v>5</v>
@@ -51173,25 +51173,25 @@
         <v>1.5</v>
       </c>
       <c r="AN241">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="AO241">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="AP241">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="AR241">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS241">
         <v>1.56</v>
       </c>
       <c r="AT241">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="AU241">
         <v>7</v>
@@ -51997,25 +51997,25 @@
         <v>1.55</v>
       </c>
       <c r="AN245">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO245">
-        <v>1.03</v>
+        <v>0.53</v>
       </c>
       <c r="AP245">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ245">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR245">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AS245">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="AT245">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="AU245">
         <v>2</v>
@@ -52203,25 +52203,25 @@
         <v>1.9</v>
       </c>
       <c r="AN246">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO246">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="AP246">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ246">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR246">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS246">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="AT246">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="AU246">
         <v>8</v>
@@ -52409,25 +52409,25 @@
         <v>1.91</v>
       </c>
       <c r="AN247">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO247">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AP247">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ247">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR247">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS247">
-        <v>1.08</v>
+        <v>0.89</v>
       </c>
       <c r="AT247">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="AU247">
         <v>6</v>
@@ -52618,22 +52618,22 @@
         <v>1.07</v>
       </c>
       <c r="AO248">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="AP248">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ248">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR248">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AS248">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AT248">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AU248">
         <v>6</v>
@@ -53027,25 +53027,25 @@
         <v>1.5</v>
       </c>
       <c r="AN250">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="AO250">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AP250">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ250">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AS250">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT250">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AU250">
         <v>4</v>
@@ -53439,25 +53439,25 @@
         <v>1.29</v>
       </c>
       <c r="AN252">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="AO252">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="AP252">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ252">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR252">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="AS252">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT252">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -53645,25 +53645,25 @@
         <v>1.55</v>
       </c>
       <c r="AN253">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AO253">
+        <v>1.07</v>
+      </c>
+      <c r="AP253">
+        <v>1.44</v>
+      </c>
+      <c r="AQ253">
         <v>1.06</v>
       </c>
-      <c r="AP253">
-        <v>1.08</v>
-      </c>
-      <c r="AQ253">
-        <v>1.14</v>
-      </c>
       <c r="AR253">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AS253">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT253">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU253">
         <v>5</v>
@@ -53851,25 +53851,25 @@
         <v>1.73</v>
       </c>
       <c r="AN254">
-        <v>0.87</v>
+        <v>1.13</v>
       </c>
       <c r="AO254">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="AP254">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ254">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR254">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AS254">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT254">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU254">
         <v>6</v>
@@ -54675,25 +54675,25 @@
         <v>1.09</v>
       </c>
       <c r="AN258">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AO258">
-        <v>1.06</v>
+        <v>0.63</v>
       </c>
       <c r="AP258">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ258">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR258">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AS258">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AT258">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AU258">
         <v>5</v>
@@ -54884,22 +54884,22 @@
         <v>1.06</v>
       </c>
       <c r="AO259">
+        <v>0.63</v>
+      </c>
+      <c r="AP259">
+        <v>1.21</v>
+      </c>
+      <c r="AQ259">
         <v>0.53</v>
       </c>
-      <c r="AP259">
-        <v>1.14</v>
-      </c>
-      <c r="AQ259">
-        <v>0.49</v>
-      </c>
       <c r="AR259">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS259">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="AT259">
-        <v>2.54</v>
+        <v>2.39</v>
       </c>
       <c r="AU259">
         <v>10</v>
@@ -55087,22 +55087,22 @@
         <v>1.85</v>
       </c>
       <c r="AN260">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AO260">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP260">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ260">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR260">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS260">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="AT260">
         <v>2.63</v>
@@ -55293,25 +55293,25 @@
         <v>1.45</v>
       </c>
       <c r="AN261">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AO261">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AP261">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ261">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR261">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS261">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT261">
-        <v>2.71</v>
+        <v>2.52</v>
       </c>
       <c r="AU261">
         <v>4</v>
@@ -56323,25 +56323,25 @@
         <v>1.43</v>
       </c>
       <c r="AN266">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AO266">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP266">
+        <v>1.21</v>
+      </c>
+      <c r="AQ266">
+        <v>1</v>
+      </c>
+      <c r="AR266">
+        <v>1.56</v>
+      </c>
+      <c r="AS266">
         <v>1.27</v>
       </c>
-      <c r="AP266">
-        <v>1.14</v>
-      </c>
-      <c r="AQ266">
-        <v>1.3</v>
-      </c>
-      <c r="AR266">
-        <v>1.48</v>
-      </c>
-      <c r="AS266">
-        <v>1.43</v>
-      </c>
       <c r="AT266">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="AU266">
         <v>0</v>
@@ -56529,25 +56529,25 @@
         <v>1.48</v>
       </c>
       <c r="AN267">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AO267">
-        <v>1.21</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP267">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ267">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR267">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS267">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AT267">
-        <v>2.7</v>
+        <v>2.51</v>
       </c>
       <c r="AU267">
         <v>7</v>
@@ -56735,25 +56735,25 @@
         <v>1.47</v>
       </c>
       <c r="AN268">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="AO268">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
       <c r="AP268">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ268">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR268">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="AS268">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AT268">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AU268">
         <v>3</v>
@@ -56941,25 +56941,25 @@
         <v>1.68</v>
       </c>
       <c r="AN269">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AO269">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="AP269">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ269">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR269">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AS269">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AT269">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
       <c r="AU269">
         <v>6</v>
@@ -58795,25 +58795,25 @@
         <v>1.61</v>
       </c>
       <c r="AN278">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AO278">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AP278">
+        <v>1.58</v>
+      </c>
+      <c r="AQ278">
+        <v>1.17</v>
+      </c>
+      <c r="AR278">
+        <v>1.57</v>
+      </c>
+      <c r="AS278">
         <v>1.3</v>
       </c>
-      <c r="AQ278">
-        <v>1.27</v>
-      </c>
-      <c r="AR278">
-        <v>1.42</v>
-      </c>
-      <c r="AS278">
-        <v>1.26</v>
-      </c>
       <c r="AT278">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="AU278">
         <v>5</v>
@@ -59001,25 +59001,25 @@
         <v>1.6</v>
       </c>
       <c r="AN279">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AO279">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="AP279">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ279">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR279">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AS279">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="AT279">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="AU279">
         <v>3</v>
@@ -59207,25 +59207,25 @@
         <v>1.65</v>
       </c>
       <c r="AN280">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="AO280">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP280">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ280">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR280">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AS280">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AT280">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AU280">
         <v>5</v>
@@ -59413,25 +59413,25 @@
         <v>2.48</v>
       </c>
       <c r="AN281">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO281">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="AP281">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ281">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR281">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AS281">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AT281">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU281">
         <v>8</v>
@@ -60443,25 +60443,25 @@
         <v>1.92</v>
       </c>
       <c r="AN286">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AO286">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AP286">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AQ286">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AR286">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AS286">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AT286">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="AU286">
         <v>9</v>
@@ -60649,25 +60649,25 @@
         <v>1.63</v>
       </c>
       <c r="AN287">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AO287">
-        <v>1.03</v>
+        <v>0.61</v>
       </c>
       <c r="AP287">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AQ287">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="AR287">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AS287">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="AT287">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="AU287">
         <v>3</v>
@@ -60855,25 +60855,25 @@
         <v>1.64</v>
       </c>
       <c r="AN288">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AO288">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="AP288">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AQ288">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="AR288">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS288">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="AT288">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="AU288">
         <v>8</v>
@@ -61061,25 +61061,25 @@
         <v>1.32</v>
       </c>
       <c r="AN289">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="AO289">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AP289">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AQ289">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR289">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AS289">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AT289">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="AU289">
         <v>2</v>
@@ -61473,25 +61473,25 @@
         <v>1.5</v>
       </c>
       <c r="AN291">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="AO291">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AP291">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AQ291">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AR291">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS291">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AT291">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="AU291">
         <v>4</v>
@@ -61679,25 +61679,25 @@
         <v>1.17</v>
       </c>
       <c r="AN292">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO292">
-        <v>1.14</v>
+        <v>0.76</v>
       </c>
       <c r="AP292">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AQ292">
-        <v>1.11</v>
+        <v>0.72</v>
       </c>
       <c r="AR292">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AS292">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT292">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU292">
         <v>3</v>
@@ -61885,25 +61885,25 @@
         <v>1.14</v>
       </c>
       <c r="AN293">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AO293">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AP293">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AQ293">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AR293">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS293">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT293">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AU293">
         <v>4</v>
@@ -62091,25 +62091,25 @@
         <v>3.75</v>
       </c>
       <c r="AN294">
-        <v>0.97</v>
+        <v>1.41</v>
       </c>
       <c r="AO294">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP294">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AQ294">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AR294">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="AS294">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="AT294">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="AU294">
         <v>11</v>
